--- a/stock_list_github.xlsx
+++ b/stock_list_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadashiv\Desktop\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B418C5-C32F-4F44-B15C-AB63F1D8D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD52B32-E493-4F8A-A8AA-7314A0110A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="USA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDIA!$A$1:$D$862</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDIA!$A$1:$D$885</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UK!$A$1:$D$251</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">USA!$A$1:$D$1</definedName>
     <definedName name="FTSE_250_Index" localSheetId="1">UK!$A$1:$D$251</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5713" uniqueCount="3503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="3503">
   <si>
     <t>Symbol</t>
   </si>
@@ -11079,7 +11079,34 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -11396,7 +11423,7 @@
   <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C59"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11445,9 +11472,6 @@
       <c r="B3" t="s">
         <v>1407</v>
       </c>
-      <c r="C3" t="s">
-        <v>2238</v>
-      </c>
       <c r="D3" t="s">
         <v>2238</v>
       </c>
@@ -11529,9 +11553,6 @@
       <c r="B9" t="s">
         <v>1414</v>
       </c>
-      <c r="C9" t="s">
-        <v>2243</v>
-      </c>
       <c r="D9" t="s">
         <v>2243</v>
       </c>
@@ -11697,9 +11718,6 @@
       <c r="B21" t="s">
         <v>1424</v>
       </c>
-      <c r="C21" t="s">
-        <v>2251</v>
-      </c>
       <c r="D21" t="s">
         <v>2251</v>
       </c>
@@ -11711,9 +11729,6 @@
       <c r="B22" t="s">
         <v>1427</v>
       </c>
-      <c r="C22" t="s">
-        <v>2252</v>
-      </c>
       <c r="D22" t="s">
         <v>2252</v>
       </c>
@@ -11781,9 +11796,6 @@
       <c r="B27" t="s">
         <v>1432</v>
       </c>
-      <c r="C27" t="s">
-        <v>2253</v>
-      </c>
       <c r="D27" t="s">
         <v>2253</v>
       </c>
@@ -11823,9 +11835,6 @@
       <c r="B30" t="s">
         <v>1434</v>
       </c>
-      <c r="C30" t="s">
-        <v>2255</v>
-      </c>
       <c r="D30" t="s">
         <v>2255</v>
       </c>
@@ -11865,9 +11874,6 @@
       <c r="B33" t="s">
         <v>1437</v>
       </c>
-      <c r="C33" t="s">
-        <v>2257</v>
-      </c>
       <c r="D33" t="s">
         <v>2257</v>
       </c>
@@ -11963,9 +11969,6 @@
       <c r="B40" t="s">
         <v>1445</v>
       </c>
-      <c r="C40" t="s">
-        <v>2259</v>
-      </c>
       <c r="D40" t="s">
         <v>2259</v>
       </c>
@@ -12047,9 +12050,6 @@
       <c r="B46" t="s">
         <v>1451</v>
       </c>
-      <c r="C46" t="s">
-        <v>2260</v>
-      </c>
       <c r="D46" t="s">
         <v>2260</v>
       </c>
@@ -12061,9 +12061,6 @@
       <c r="B47" t="s">
         <v>1452</v>
       </c>
-      <c r="C47" t="s">
-        <v>2261</v>
-      </c>
       <c r="D47" t="s">
         <v>2261</v>
       </c>
@@ -12145,9 +12142,6 @@
       <c r="B53" t="s">
         <v>1457</v>
       </c>
-      <c r="C53" t="s">
-        <v>2262</v>
-      </c>
       <c r="D53" t="s">
         <v>2262</v>
       </c>
@@ -12173,9 +12167,6 @@
       <c r="B55" t="s">
         <v>1458</v>
       </c>
-      <c r="C55" t="s">
-        <v>2263</v>
-      </c>
       <c r="D55" t="s">
         <v>2263</v>
       </c>
@@ -12187,9 +12178,6 @@
       <c r="B56" t="s">
         <v>1459</v>
       </c>
-      <c r="C56" t="s">
-        <v>2264</v>
-      </c>
       <c r="D56" t="s">
         <v>2264</v>
       </c>
@@ -12201,9 +12189,6 @@
       <c r="B57" t="s">
         <v>1460</v>
       </c>
-      <c r="C57" t="s">
-        <v>2265</v>
-      </c>
       <c r="D57" t="s">
         <v>2265</v>
       </c>
@@ -12215,9 +12200,6 @@
       <c r="B58" t="s">
         <v>1461</v>
       </c>
-      <c r="C58" t="s">
-        <v>2266</v>
-      </c>
       <c r="D58" t="s">
         <v>2266</v>
       </c>
@@ -21254,11 +21236,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D862" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D885">
-      <sortCondition ref="A1:A862"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D885" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/stock_list_github.xlsx
+++ b/stock_list_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadashiv\Desktop\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD52B32-E493-4F8A-A8AA-7314A0110A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C89F94-88DE-4312-A600-AB4B1BFB2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="3503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6516" uniqueCount="3544">
   <si>
     <t>Symbol</t>
   </si>
@@ -10549,6 +10549,129 @@
   </si>
   <si>
     <t>Sector is same as industry as of now</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Diversified</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Electrodes</t>
+  </si>
+  <si>
+    <t>Castings</t>
+  </si>
+  <si>
+    <t>Paints</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Pesticides</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Dyes</t>
+  </si>
+  <si>
+    <t>Solvent</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Abrasives</t>
+  </si>
+  <si>
+    <t>Ceramics</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Compressors</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>Detergents</t>
+  </si>
+  <si>
+    <t>Breweries</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Chlor</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Transmisson</t>
+  </si>
+  <si>
+    <t>Textile</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Refractories</t>
+  </si>
+  <si>
+    <t>Moulded</t>
   </si>
 </sst>
 </file>
@@ -11079,23 +11202,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11423,14 +11530,14 @@
   <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11459,7 +11566,7 @@
         <v>1406</v>
       </c>
       <c r="C2" t="s">
-        <v>2237</v>
+        <v>3503</v>
       </c>
       <c r="D2" t="s">
         <v>2237</v>
@@ -11472,6 +11579,9 @@
       <c r="B3" t="s">
         <v>1407</v>
       </c>
+      <c r="C3" t="s">
+        <v>3509</v>
+      </c>
       <c r="D3" t="s">
         <v>2238</v>
       </c>
@@ -11484,7 +11594,7 @@
         <v>1409</v>
       </c>
       <c r="C4" t="s">
-        <v>2240</v>
+        <v>603</v>
       </c>
       <c r="D4" t="s">
         <v>2240</v>
@@ -11512,7 +11622,7 @@
         <v>1411</v>
       </c>
       <c r="C6" t="s">
-        <v>2241</v>
+        <v>603</v>
       </c>
       <c r="D6" t="s">
         <v>2241</v>
@@ -11526,7 +11636,7 @@
         <v>1412</v>
       </c>
       <c r="C7" t="s">
-        <v>2242</v>
+        <v>3503</v>
       </c>
       <c r="D7" t="s">
         <v>2242</v>
@@ -11540,7 +11650,7 @@
         <v>1408</v>
       </c>
       <c r="C8" t="s">
-        <v>2239</v>
+        <v>3504</v>
       </c>
       <c r="D8" t="s">
         <v>2239</v>
@@ -11553,6 +11663,9 @@
       <c r="B9" t="s">
         <v>1414</v>
       </c>
+      <c r="C9" t="s">
+        <v>603</v>
+      </c>
       <c r="D9" t="s">
         <v>2243</v>
       </c>
@@ -11565,7 +11678,7 @@
         <v>1426</v>
       </c>
       <c r="C10" t="s">
-        <v>2237</v>
+        <v>3503</v>
       </c>
       <c r="D10" t="s">
         <v>2237</v>
@@ -11579,7 +11692,7 @@
         <v>1425</v>
       </c>
       <c r="C11" t="s">
-        <v>2237</v>
+        <v>3503</v>
       </c>
       <c r="D11" t="s">
         <v>2237</v>
@@ -11593,7 +11706,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>2244</v>
+        <v>3505</v>
       </c>
       <c r="D12" t="s">
         <v>2244</v>
@@ -11607,7 +11720,7 @@
         <v>1415</v>
       </c>
       <c r="C13" t="s">
-        <v>2245</v>
+        <v>3506</v>
       </c>
       <c r="D13" t="s">
         <v>2245</v>
@@ -11663,7 +11776,7 @@
         <v>1418</v>
       </c>
       <c r="C17" t="s">
-        <v>2248</v>
+        <v>3507</v>
       </c>
       <c r="D17" t="s">
         <v>2248</v>
@@ -11691,7 +11804,7 @@
         <v>1420</v>
       </c>
       <c r="C19" t="s">
-        <v>2248</v>
+        <v>3507</v>
       </c>
       <c r="D19" t="s">
         <v>2248</v>
@@ -11705,7 +11818,7 @@
         <v>1422</v>
       </c>
       <c r="C20" t="s">
-        <v>2248</v>
+        <v>3507</v>
       </c>
       <c r="D20" t="s">
         <v>2248</v>
@@ -11718,6 +11831,9 @@
       <c r="B21" t="s">
         <v>1424</v>
       </c>
+      <c r="C21" t="s">
+        <v>3510</v>
+      </c>
       <c r="D21" t="s">
         <v>2251</v>
       </c>
@@ -11729,6 +11845,9 @@
       <c r="B22" t="s">
         <v>1427</v>
       </c>
+      <c r="C22" t="s">
+        <v>3511</v>
+      </c>
       <c r="D22" t="s">
         <v>2252</v>
       </c>
@@ -11783,7 +11902,7 @@
         <v>1431</v>
       </c>
       <c r="C26" t="s">
-        <v>2245</v>
+        <v>3506</v>
       </c>
       <c r="D26" t="s">
         <v>2245</v>
@@ -11796,6 +11915,9 @@
       <c r="B27" t="s">
         <v>1432</v>
       </c>
+      <c r="C27" t="s">
+        <v>2253</v>
+      </c>
       <c r="D27" t="s">
         <v>2253</v>
       </c>
@@ -11808,7 +11930,7 @@
         <v>1413</v>
       </c>
       <c r="C28" t="s">
-        <v>2237</v>
+        <v>3503</v>
       </c>
       <c r="D28" t="s">
         <v>2237</v>
@@ -11835,6 +11957,9 @@
       <c r="B30" t="s">
         <v>1434</v>
       </c>
+      <c r="C30" t="s">
+        <v>3512</v>
+      </c>
       <c r="D30" t="s">
         <v>2255</v>
       </c>
@@ -11847,7 +11972,7 @@
         <v>1435</v>
       </c>
       <c r="C31" t="s">
-        <v>2256</v>
+        <v>603</v>
       </c>
       <c r="D31" t="s">
         <v>2256</v>
@@ -11874,6 +11999,9 @@
       <c r="B33" t="s">
         <v>1437</v>
       </c>
+      <c r="C33" t="s">
+        <v>3513</v>
+      </c>
       <c r="D33" t="s">
         <v>2257</v>
       </c>
@@ -11900,7 +12028,7 @@
         <v>1440</v>
       </c>
       <c r="C35" t="s">
-        <v>2258</v>
+        <v>3508</v>
       </c>
       <c r="D35" t="s">
         <v>2258</v>
@@ -11914,7 +12042,7 @@
         <v>1441</v>
       </c>
       <c r="C36" t="s">
-        <v>2241</v>
+        <v>603</v>
       </c>
       <c r="D36" t="s">
         <v>2241</v>
@@ -11956,7 +12084,7 @@
         <v>1444</v>
       </c>
       <c r="C39" t="s">
-        <v>2258</v>
+        <v>3508</v>
       </c>
       <c r="D39" t="s">
         <v>2258</v>
@@ -11969,6 +12097,9 @@
       <c r="B40" t="s">
         <v>1445</v>
       </c>
+      <c r="C40" t="s">
+        <v>3514</v>
+      </c>
       <c r="D40" t="s">
         <v>2259</v>
       </c>
@@ -11981,7 +12112,7 @@
         <v>1446</v>
       </c>
       <c r="C41" t="s">
-        <v>2244</v>
+        <v>3505</v>
       </c>
       <c r="D41" t="s">
         <v>2244</v>
@@ -11995,7 +12126,7 @@
         <v>1447</v>
       </c>
       <c r="C42" t="s">
-        <v>2240</v>
+        <v>603</v>
       </c>
       <c r="D42" t="s">
         <v>2240</v>
@@ -12009,7 +12140,7 @@
         <v>1448</v>
       </c>
       <c r="C43" t="s">
-        <v>2256</v>
+        <v>603</v>
       </c>
       <c r="D43" t="s">
         <v>2256</v>
@@ -12023,7 +12154,7 @@
         <v>1449</v>
       </c>
       <c r="C44" t="s">
-        <v>2237</v>
+        <v>3503</v>
       </c>
       <c r="D44" t="s">
         <v>2237</v>
@@ -12050,6 +12181,9 @@
       <c r="B46" t="s">
         <v>1451</v>
       </c>
+      <c r="C46" t="s">
+        <v>2260</v>
+      </c>
       <c r="D46" t="s">
         <v>2260</v>
       </c>
@@ -12061,6 +12195,9 @@
       <c r="B47" t="s">
         <v>1452</v>
       </c>
+      <c r="C47" t="s">
+        <v>3509</v>
+      </c>
       <c r="D47" t="s">
         <v>2261</v>
       </c>
@@ -12073,7 +12210,7 @@
         <v>1453</v>
       </c>
       <c r="C48" t="s">
-        <v>2237</v>
+        <v>3503</v>
       </c>
       <c r="D48" t="s">
         <v>2237</v>
@@ -12115,7 +12252,7 @@
         <v>1455</v>
       </c>
       <c r="C51" t="s">
-        <v>2239</v>
+        <v>3504</v>
       </c>
       <c r="D51" t="s">
         <v>2239</v>
@@ -12142,6 +12279,9 @@
       <c r="B53" t="s">
         <v>1457</v>
       </c>
+      <c r="C53" t="s">
+        <v>3188</v>
+      </c>
       <c r="D53" t="s">
         <v>2262</v>
       </c>
@@ -12154,7 +12294,7 @@
         <v>1439</v>
       </c>
       <c r="C54" t="s">
-        <v>2241</v>
+        <v>603</v>
       </c>
       <c r="D54" t="s">
         <v>2241</v>
@@ -12167,6 +12307,9 @@
       <c r="B55" t="s">
         <v>1458</v>
       </c>
+      <c r="C55" t="s">
+        <v>2263</v>
+      </c>
       <c r="D55" t="s">
         <v>2263</v>
       </c>
@@ -12178,6 +12321,9 @@
       <c r="B56" t="s">
         <v>1459</v>
       </c>
+      <c r="C56" t="s">
+        <v>3515</v>
+      </c>
       <c r="D56" t="s">
         <v>2264</v>
       </c>
@@ -12189,6 +12335,9 @@
       <c r="B57" t="s">
         <v>1460</v>
       </c>
+      <c r="C57" t="s">
+        <v>2265</v>
+      </c>
       <c r="D57" t="s">
         <v>2265</v>
       </c>
@@ -12200,6 +12349,9 @@
       <c r="B58" t="s">
         <v>1461</v>
       </c>
+      <c r="C58" t="s">
+        <v>3506</v>
+      </c>
       <c r="D58" t="s">
         <v>2266</v>
       </c>
@@ -12212,7 +12364,7 @@
         <v>1462</v>
       </c>
       <c r="C59" t="s">
-        <v>2242</v>
+        <v>3503</v>
       </c>
       <c r="D59" t="s">
         <v>2242</v>
@@ -12233,6 +12385,9 @@
       <c r="B61" t="s">
         <v>1464</v>
       </c>
+      <c r="C61" t="s">
+        <v>2263</v>
+      </c>
       <c r="D61" t="s">
         <v>2263</v>
       </c>
@@ -12244,6 +12399,9 @@
       <c r="B62" t="s">
         <v>1465</v>
       </c>
+      <c r="C62" t="s">
+        <v>3516</v>
+      </c>
       <c r="D62" t="s">
         <v>2267</v>
       </c>
@@ -12255,6 +12413,9 @@
       <c r="B63" t="s">
         <v>1466</v>
       </c>
+      <c r="C63" t="s">
+        <v>2254</v>
+      </c>
       <c r="D63" t="s">
         <v>2254</v>
       </c>
@@ -12266,6 +12427,9 @@
       <c r="B64" t="s">
         <v>1467</v>
       </c>
+      <c r="C64" t="s">
+        <v>3517</v>
+      </c>
       <c r="D64" t="s">
         <v>2268</v>
       </c>
@@ -12277,6 +12441,9 @@
       <c r="B65" t="s">
         <v>1468</v>
       </c>
+      <c r="C65" t="s">
+        <v>570</v>
+      </c>
       <c r="D65" t="s">
         <v>2269</v>
       </c>
@@ -12288,6 +12455,9 @@
       <c r="B66" t="s">
         <v>1470</v>
       </c>
+      <c r="C66" t="s">
+        <v>2246</v>
+      </c>
       <c r="D66" t="s">
         <v>2271</v>
       </c>
@@ -12299,6 +12469,9 @@
       <c r="B67" t="s">
         <v>1469</v>
       </c>
+      <c r="C67" t="s">
+        <v>3518</v>
+      </c>
       <c r="D67" t="s">
         <v>2270</v>
       </c>
@@ -12310,6 +12483,9 @@
       <c r="B68" t="s">
         <v>1471</v>
       </c>
+      <c r="C68" t="s">
+        <v>3513</v>
+      </c>
       <c r="D68" t="s">
         <v>2257</v>
       </c>
@@ -12321,6 +12497,9 @@
       <c r="B69" t="s">
         <v>1472</v>
       </c>
+      <c r="C69" t="s">
+        <v>3519</v>
+      </c>
       <c r="D69" t="s">
         <v>2272</v>
       </c>
@@ -12332,6 +12511,9 @@
       <c r="B70" t="s">
         <v>1473</v>
       </c>
+      <c r="C70" t="s">
+        <v>2263</v>
+      </c>
       <c r="D70" t="s">
         <v>2263</v>
       </c>
@@ -12343,6 +12525,9 @@
       <c r="B71" t="s">
         <v>1475</v>
       </c>
+      <c r="C71" t="s">
+        <v>3515</v>
+      </c>
       <c r="D71" t="s">
         <v>2264</v>
       </c>
@@ -12354,6 +12539,9 @@
       <c r="B72" t="s">
         <v>1474</v>
       </c>
+      <c r="C72" t="s">
+        <v>3520</v>
+      </c>
       <c r="D72" t="s">
         <v>2273</v>
       </c>
@@ -12365,6 +12553,9 @@
       <c r="B73" t="s">
         <v>1476</v>
       </c>
+      <c r="C73" t="s">
+        <v>603</v>
+      </c>
       <c r="D73" t="s">
         <v>2243</v>
       </c>
@@ -12376,6 +12567,9 @@
       <c r="B74" t="s">
         <v>1421</v>
       </c>
+      <c r="C74" t="s">
+        <v>2249</v>
+      </c>
       <c r="D74" t="s">
         <v>2249</v>
       </c>
@@ -12387,6 +12581,9 @@
       <c r="B75" t="s">
         <v>1477</v>
       </c>
+      <c r="C75" t="s">
+        <v>3521</v>
+      </c>
       <c r="D75" t="s">
         <v>2274</v>
       </c>
@@ -12398,6 +12595,9 @@
       <c r="B76" t="s">
         <v>1478</v>
       </c>
+      <c r="C76" t="s">
+        <v>580</v>
+      </c>
       <c r="D76" t="s">
         <v>2275</v>
       </c>
@@ -12409,6 +12609,9 @@
       <c r="B77" t="s">
         <v>1479</v>
       </c>
+      <c r="C77" t="s">
+        <v>3506</v>
+      </c>
       <c r="D77" t="s">
         <v>2245</v>
       </c>
@@ -12420,6 +12623,9 @@
       <c r="B78" t="s">
         <v>1480</v>
       </c>
+      <c r="C78" t="s">
+        <v>603</v>
+      </c>
       <c r="D78" t="s">
         <v>2241</v>
       </c>
@@ -12431,6 +12637,9 @@
       <c r="B79" t="s">
         <v>1481</v>
       </c>
+      <c r="C79" t="s">
+        <v>3508</v>
+      </c>
       <c r="D79" t="s">
         <v>2258</v>
       </c>
@@ -12442,6 +12651,9 @@
       <c r="B80" t="s">
         <v>1482</v>
       </c>
+      <c r="C80" t="s">
+        <v>2276</v>
+      </c>
       <c r="D80" t="s">
         <v>2276</v>
       </c>
@@ -12453,6 +12665,9 @@
       <c r="B81" t="s">
         <v>1483</v>
       </c>
+      <c r="C81" t="s">
+        <v>3514</v>
+      </c>
       <c r="D81" t="s">
         <v>2259</v>
       </c>
@@ -12464,6 +12679,9 @@
       <c r="B82" t="s">
         <v>1484</v>
       </c>
+      <c r="C82" t="s">
+        <v>3510</v>
+      </c>
       <c r="D82" t="s">
         <v>2251</v>
       </c>
@@ -12475,6 +12693,9 @@
       <c r="B83" t="s">
         <v>1486</v>
       </c>
+      <c r="C83" t="s">
+        <v>3522</v>
+      </c>
       <c r="D83" t="s">
         <v>2250</v>
       </c>
@@ -12486,6 +12707,9 @@
       <c r="B84" t="s">
         <v>1423</v>
       </c>
+      <c r="C84" t="s">
+        <v>3522</v>
+      </c>
       <c r="D84" t="s">
         <v>2250</v>
       </c>
@@ -12497,6 +12721,9 @@
       <c r="B85" t="s">
         <v>1487</v>
       </c>
+      <c r="C85" t="s">
+        <v>580</v>
+      </c>
       <c r="D85" t="s">
         <v>2275</v>
       </c>
@@ -12508,6 +12735,9 @@
       <c r="B86" t="s">
         <v>1488</v>
       </c>
+      <c r="C86" t="s">
+        <v>3506</v>
+      </c>
       <c r="D86" t="s">
         <v>2245</v>
       </c>
@@ -12519,6 +12749,9 @@
       <c r="B87" t="s">
         <v>1490</v>
       </c>
+      <c r="C87" t="s">
+        <v>3518</v>
+      </c>
       <c r="D87" t="s">
         <v>2277</v>
       </c>
@@ -12530,6 +12763,9 @@
       <c r="B88" t="s">
         <v>1491</v>
       </c>
+      <c r="C88" t="s">
+        <v>3523</v>
+      </c>
       <c r="D88" t="s">
         <v>2278</v>
       </c>
@@ -12541,6 +12777,9 @@
       <c r="B89" t="s">
         <v>1492</v>
       </c>
+      <c r="C89" t="s">
+        <v>3524</v>
+      </c>
       <c r="D89" t="s">
         <v>2279</v>
       </c>
@@ -12552,6 +12791,9 @@
       <c r="B90" t="s">
         <v>1494</v>
       </c>
+      <c r="C90" t="s">
+        <v>3503</v>
+      </c>
       <c r="D90" t="s">
         <v>2237</v>
       </c>
@@ -12563,6 +12805,9 @@
       <c r="B91" t="s">
         <v>1495</v>
       </c>
+      <c r="C91" t="s">
+        <v>3503</v>
+      </c>
       <c r="D91" t="s">
         <v>2237</v>
       </c>
@@ -12574,6 +12819,9 @@
       <c r="B92" t="s">
         <v>1493</v>
       </c>
+      <c r="C92" t="s">
+        <v>3503</v>
+      </c>
       <c r="D92" t="s">
         <v>2237</v>
       </c>
@@ -12585,6 +12833,9 @@
       <c r="B93" t="s">
         <v>1496</v>
       </c>
+      <c r="C93" t="s">
+        <v>636</v>
+      </c>
       <c r="D93" t="s">
         <v>636</v>
       </c>
@@ -12596,6 +12847,9 @@
       <c r="B94" t="s">
         <v>1497</v>
       </c>
+      <c r="C94" t="s">
+        <v>2265</v>
+      </c>
       <c r="D94" t="s">
         <v>2265</v>
       </c>
@@ -12607,6 +12861,9 @@
       <c r="B95" t="s">
         <v>1498</v>
       </c>
+      <c r="C95" t="s">
+        <v>3509</v>
+      </c>
       <c r="D95" t="s">
         <v>2238</v>
       </c>
@@ -12618,6 +12875,9 @@
       <c r="B96" t="s">
         <v>1499</v>
       </c>
+      <c r="C96" t="s">
+        <v>2276</v>
+      </c>
       <c r="D96" t="s">
         <v>2276</v>
       </c>
@@ -12629,6 +12889,9 @@
       <c r="B97" t="s">
         <v>1500</v>
       </c>
+      <c r="C97" t="s">
+        <v>3508</v>
+      </c>
       <c r="D97" t="s">
         <v>2258</v>
       </c>
@@ -12640,6 +12903,9 @@
       <c r="B98" t="s">
         <v>1501</v>
       </c>
+      <c r="C98" t="s">
+        <v>580</v>
+      </c>
       <c r="D98" t="s">
         <v>2275</v>
       </c>
@@ -12651,6 +12917,9 @@
       <c r="B99" t="s">
         <v>1502</v>
       </c>
+      <c r="C99" t="s">
+        <v>580</v>
+      </c>
       <c r="D99" t="s">
         <v>2280</v>
       </c>
@@ -12662,6 +12931,9 @@
       <c r="B100" t="s">
         <v>1503</v>
       </c>
+      <c r="C100" t="s">
+        <v>580</v>
+      </c>
       <c r="D100" t="s">
         <v>2280</v>
       </c>
@@ -12673,6 +12945,9 @@
       <c r="B101" t="s">
         <v>1505</v>
       </c>
+      <c r="C101" t="s">
+        <v>636</v>
+      </c>
       <c r="D101" t="s">
         <v>636</v>
       </c>
@@ -12684,6 +12959,9 @@
       <c r="B102" t="s">
         <v>1506</v>
       </c>
+      <c r="C102" t="s">
+        <v>3525</v>
+      </c>
       <c r="D102" t="s">
         <v>2281</v>
       </c>
@@ -12695,6 +12973,9 @@
       <c r="B103" t="s">
         <v>1507</v>
       </c>
+      <c r="C103" t="s">
+        <v>3519</v>
+      </c>
       <c r="D103" t="s">
         <v>2282</v>
       </c>
@@ -12706,6 +12987,9 @@
       <c r="B104" t="s">
         <v>1516</v>
       </c>
+      <c r="C104" t="s">
+        <v>3504</v>
+      </c>
       <c r="D104" t="s">
         <v>2239</v>
       </c>
@@ -12717,6 +13001,9 @@
       <c r="B105" t="s">
         <v>1527</v>
       </c>
+      <c r="C105" t="s">
+        <v>3506</v>
+      </c>
       <c r="D105" t="s">
         <v>2245</v>
       </c>
@@ -12728,6 +13015,9 @@
       <c r="B106" t="s">
         <v>1531</v>
       </c>
+      <c r="C106" t="s">
+        <v>3509</v>
+      </c>
       <c r="D106" t="s">
         <v>2238</v>
       </c>
@@ -12739,6 +13029,9 @@
       <c r="B107" t="s">
         <v>1535</v>
       </c>
+      <c r="C107" t="s">
+        <v>3506</v>
+      </c>
       <c r="D107" t="s">
         <v>2245</v>
       </c>
@@ -12750,6 +13043,9 @@
       <c r="B108" t="s">
         <v>1508</v>
       </c>
+      <c r="C108" t="s">
+        <v>3522</v>
+      </c>
       <c r="D108" t="s">
         <v>2250</v>
       </c>
@@ -12761,6 +13057,9 @@
       <c r="B109" t="s">
         <v>1517</v>
       </c>
+      <c r="C109" t="s">
+        <v>2246</v>
+      </c>
       <c r="D109" t="s">
         <v>2246</v>
       </c>
@@ -12772,6 +13071,9 @@
       <c r="B110" t="s">
         <v>1933</v>
       </c>
+      <c r="C110" t="s">
+        <v>3510</v>
+      </c>
       <c r="D110" t="s">
         <v>2251</v>
       </c>
@@ -12783,6 +13085,9 @@
       <c r="B111" t="s">
         <v>1518</v>
       </c>
+      <c r="C111" t="s">
+        <v>3514</v>
+      </c>
       <c r="D111" t="s">
         <v>2259</v>
       </c>
@@ -12794,6 +13099,9 @@
       <c r="B112" t="s">
         <v>1509</v>
       </c>
+      <c r="C112" t="s">
+        <v>2246</v>
+      </c>
       <c r="D112" t="s">
         <v>2246</v>
       </c>
@@ -12805,6 +13113,9 @@
       <c r="B113" t="s">
         <v>1515</v>
       </c>
+      <c r="C113" t="s">
+        <v>2283</v>
+      </c>
       <c r="D113" t="s">
         <v>2283</v>
       </c>
@@ -12816,6 +13127,9 @@
       <c r="B114" t="s">
         <v>1510</v>
       </c>
+      <c r="C114" t="s">
+        <v>3513</v>
+      </c>
       <c r="D114" t="s">
         <v>2257</v>
       </c>
@@ -12827,6 +13141,9 @@
       <c r="B115" t="s">
         <v>1511</v>
       </c>
+      <c r="C115" t="s">
+        <v>3519</v>
+      </c>
       <c r="D115" t="s">
         <v>2272</v>
       </c>
@@ -12838,6 +13155,9 @@
       <c r="B116" t="s">
         <v>1512</v>
       </c>
+      <c r="C116" t="s">
+        <v>3503</v>
+      </c>
       <c r="D116" t="s">
         <v>2237</v>
       </c>
@@ -12849,6 +13169,9 @@
       <c r="B117" t="s">
         <v>1513</v>
       </c>
+      <c r="C117" t="s">
+        <v>3507</v>
+      </c>
       <c r="D117" t="s">
         <v>2248</v>
       </c>
@@ -12860,6 +13183,9 @@
       <c r="B118" t="s">
         <v>1514</v>
       </c>
+      <c r="C118" t="s">
+        <v>3519</v>
+      </c>
       <c r="D118" t="s">
         <v>2272</v>
       </c>
@@ -12871,6 +13197,9 @@
       <c r="B119" t="s">
         <v>1519</v>
       </c>
+      <c r="C119" t="s">
+        <v>3512</v>
+      </c>
       <c r="D119" t="s">
         <v>2255</v>
       </c>
@@ -12882,6 +13211,9 @@
       <c r="B120" t="s">
         <v>1520</v>
       </c>
+      <c r="C120" t="s">
+        <v>3519</v>
+      </c>
       <c r="D120" t="s">
         <v>2272</v>
       </c>
@@ -12893,6 +13225,9 @@
       <c r="B121" t="s">
         <v>1521</v>
       </c>
+      <c r="C121" t="s">
+        <v>3188</v>
+      </c>
       <c r="D121" t="s">
         <v>2284</v>
       </c>
@@ -12904,6 +13239,9 @@
       <c r="B122" t="s">
         <v>1522</v>
       </c>
+      <c r="C122" t="s">
+        <v>3520</v>
+      </c>
       <c r="D122" t="s">
         <v>2285</v>
       </c>
@@ -12915,6 +13253,9 @@
       <c r="B123" t="s">
         <v>1489</v>
       </c>
+      <c r="C123" t="s">
+        <v>3504</v>
+      </c>
       <c r="D123" t="s">
         <v>2239</v>
       </c>
@@ -12926,6 +13267,9 @@
       <c r="B124" t="s">
         <v>1523</v>
       </c>
+      <c r="C124" t="s">
+        <v>3510</v>
+      </c>
       <c r="D124" t="s">
         <v>2251</v>
       </c>
@@ -12937,6 +13281,9 @@
       <c r="B125" t="s">
         <v>1524</v>
       </c>
+      <c r="C125" t="s">
+        <v>603</v>
+      </c>
       <c r="D125" t="s">
         <v>2241</v>
       </c>
@@ -12948,6 +13295,9 @@
       <c r="B126" t="s">
         <v>1537</v>
       </c>
+      <c r="C126" t="s">
+        <v>2254</v>
+      </c>
       <c r="D126" t="s">
         <v>2254</v>
       </c>
@@ -12959,6 +13309,9 @@
       <c r="B127" t="s">
         <v>1525</v>
       </c>
+      <c r="C127" t="s">
+        <v>3505</v>
+      </c>
       <c r="D127" t="s">
         <v>2244</v>
       </c>
@@ -12970,6 +13323,9 @@
       <c r="B128" t="s">
         <v>1528</v>
       </c>
+      <c r="C128" t="s">
+        <v>3506</v>
+      </c>
       <c r="D128" t="s">
         <v>2245</v>
       </c>
@@ -12981,6 +13337,9 @@
       <c r="B129" t="s">
         <v>1529</v>
       </c>
+      <c r="C129" t="s">
+        <v>2286</v>
+      </c>
       <c r="D129" t="s">
         <v>2286</v>
       </c>
@@ -12992,6 +13351,9 @@
       <c r="B130" t="s">
         <v>1530</v>
       </c>
+      <c r="C130" t="s">
+        <v>2287</v>
+      </c>
       <c r="D130" t="s">
         <v>2287</v>
       </c>
@@ -13003,6 +13365,9 @@
       <c r="B131" t="s">
         <v>1532</v>
       </c>
+      <c r="C131" t="s">
+        <v>3517</v>
+      </c>
       <c r="D131" t="s">
         <v>2268</v>
       </c>
@@ -13014,6 +13379,9 @@
       <c r="B132" t="s">
         <v>1533</v>
       </c>
+      <c r="C132" t="s">
+        <v>3517</v>
+      </c>
       <c r="D132" t="s">
         <v>2268</v>
       </c>
@@ -13025,6 +13393,9 @@
       <c r="B133" t="s">
         <v>1534</v>
       </c>
+      <c r="C133" t="s">
+        <v>3508</v>
+      </c>
       <c r="D133" t="s">
         <v>2258</v>
       </c>
@@ -13052,6 +13423,9 @@
       <c r="B136" t="s">
         <v>1536</v>
       </c>
+      <c r="C136" t="s">
+        <v>3510</v>
+      </c>
       <c r="D136" t="s">
         <v>2288</v>
       </c>
@@ -13063,6 +13437,9 @@
       <c r="B137" t="s">
         <v>50</v>
       </c>
+      <c r="C137" t="s">
+        <v>2249</v>
+      </c>
       <c r="D137" t="s">
         <v>2249</v>
       </c>
@@ -13074,6 +13451,9 @@
       <c r="B138" t="s">
         <v>1526</v>
       </c>
+      <c r="C138" t="s">
+        <v>3506</v>
+      </c>
       <c r="D138" t="s">
         <v>2245</v>
       </c>
@@ -13085,6 +13465,9 @@
       <c r="B139" t="s">
         <v>1541</v>
       </c>
+      <c r="C139" t="s">
+        <v>636</v>
+      </c>
       <c r="D139" t="s">
         <v>636</v>
       </c>
@@ -13096,6 +13479,9 @@
       <c r="B140" t="s">
         <v>1542</v>
       </c>
+      <c r="C140" t="s">
+        <v>3525</v>
+      </c>
       <c r="D140" t="s">
         <v>2281</v>
       </c>
@@ -13107,6 +13493,9 @@
       <c r="B141" t="s">
         <v>1543</v>
       </c>
+      <c r="C141" t="s">
+        <v>2249</v>
+      </c>
       <c r="D141" t="s">
         <v>2249</v>
       </c>
@@ -13118,6 +13507,9 @@
       <c r="B142" t="s">
         <v>1545</v>
       </c>
+      <c r="C142" t="s">
+        <v>580</v>
+      </c>
       <c r="D142" t="s">
         <v>2280</v>
       </c>
@@ -13129,6 +13521,9 @@
       <c r="B143" t="s">
         <v>1544</v>
       </c>
+      <c r="C143" t="s">
+        <v>3503</v>
+      </c>
       <c r="D143" t="s">
         <v>2242</v>
       </c>
@@ -13140,6 +13535,9 @@
       <c r="B144" t="s">
         <v>1546</v>
       </c>
+      <c r="C144" t="s">
+        <v>3516</v>
+      </c>
       <c r="D144" t="s">
         <v>2290</v>
       </c>
@@ -13151,6 +13549,9 @@
       <c r="B145" t="s">
         <v>1547</v>
       </c>
+      <c r="C145" t="s">
+        <v>2254</v>
+      </c>
       <c r="D145" t="s">
         <v>2254</v>
       </c>
@@ -13162,6 +13563,9 @@
       <c r="B146" t="s">
         <v>1548</v>
       </c>
+      <c r="C146" t="s">
+        <v>603</v>
+      </c>
       <c r="D146" t="s">
         <v>2256</v>
       </c>
@@ -13173,6 +13577,9 @@
       <c r="B147" t="s">
         <v>1550</v>
       </c>
+      <c r="C147" t="s">
+        <v>3526</v>
+      </c>
       <c r="D147" t="s">
         <v>2291</v>
       </c>
@@ -13184,6 +13591,9 @@
       <c r="B148" t="s">
         <v>1551</v>
       </c>
+      <c r="C148" t="s">
+        <v>2249</v>
+      </c>
       <c r="D148" t="s">
         <v>2249</v>
       </c>
@@ -13195,6 +13605,9 @@
       <c r="B149" t="s">
         <v>1552</v>
       </c>
+      <c r="C149" t="s">
+        <v>2247</v>
+      </c>
       <c r="D149" t="s">
         <v>2247</v>
       </c>
@@ -13206,6 +13619,9 @@
       <c r="B150" t="s">
         <v>1553</v>
       </c>
+      <c r="C150" t="s">
+        <v>3527</v>
+      </c>
       <c r="D150" t="s">
         <v>2292</v>
       </c>
@@ -13217,6 +13633,9 @@
       <c r="B151" t="s">
         <v>1554</v>
       </c>
+      <c r="C151" t="s">
+        <v>636</v>
+      </c>
       <c r="D151" t="s">
         <v>636</v>
       </c>
@@ -13228,6 +13647,9 @@
       <c r="B152" t="s">
         <v>1555</v>
       </c>
+      <c r="C152" t="s">
+        <v>2293</v>
+      </c>
       <c r="D152" t="s">
         <v>2293</v>
       </c>
@@ -13239,6 +13661,9 @@
       <c r="B153" t="s">
         <v>1538</v>
       </c>
+      <c r="C153" t="s">
+        <v>2249</v>
+      </c>
       <c r="D153" t="s">
         <v>2249</v>
       </c>
@@ -13250,6 +13675,9 @@
       <c r="B154" t="s">
         <v>1556</v>
       </c>
+      <c r="C154" t="s">
+        <v>2265</v>
+      </c>
       <c r="D154" t="s">
         <v>2265</v>
       </c>
@@ -13261,6 +13689,9 @@
       <c r="B155" t="s">
         <v>1557</v>
       </c>
+      <c r="C155" t="s">
+        <v>580</v>
+      </c>
       <c r="D155" t="s">
         <v>2280</v>
       </c>
@@ -13280,6 +13711,9 @@
       <c r="B157" t="s">
         <v>1558</v>
       </c>
+      <c r="C157" t="s">
+        <v>2249</v>
+      </c>
       <c r="D157" t="s">
         <v>2249</v>
       </c>
@@ -13291,6 +13725,9 @@
       <c r="B158" t="s">
         <v>1559</v>
       </c>
+      <c r="C158" t="s">
+        <v>2260</v>
+      </c>
       <c r="D158" t="s">
         <v>2260</v>
       </c>
@@ -13302,6 +13739,9 @@
       <c r="B159" t="s">
         <v>1560</v>
       </c>
+      <c r="C159" t="s">
+        <v>3527</v>
+      </c>
       <c r="D159" t="s">
         <v>2292</v>
       </c>
@@ -13313,6 +13753,9 @@
       <c r="B160" t="s">
         <v>84</v>
       </c>
+      <c r="C160" t="s">
+        <v>3507</v>
+      </c>
       <c r="D160" t="s">
         <v>2248</v>
       </c>
@@ -13324,6 +13767,9 @@
       <c r="B161" t="s">
         <v>1549</v>
       </c>
+      <c r="C161" t="s">
+        <v>3503</v>
+      </c>
       <c r="D161" t="s">
         <v>2237</v>
       </c>
@@ -13335,6 +13781,9 @@
       <c r="B162" t="s">
         <v>1561</v>
       </c>
+      <c r="C162" t="s">
+        <v>3504</v>
+      </c>
       <c r="D162" t="s">
         <v>2239</v>
       </c>
@@ -13346,6 +13795,9 @@
       <c r="B163" t="s">
         <v>1562</v>
       </c>
+      <c r="C163" t="s">
+        <v>2294</v>
+      </c>
       <c r="D163" t="s">
         <v>2294</v>
       </c>
@@ -13357,6 +13809,9 @@
       <c r="B164" t="s">
         <v>1563</v>
       </c>
+      <c r="C164" t="s">
+        <v>2295</v>
+      </c>
       <c r="D164" t="s">
         <v>2295</v>
       </c>
@@ -13368,6 +13823,9 @@
       <c r="B165" t="s">
         <v>1564</v>
       </c>
+      <c r="C165" t="s">
+        <v>636</v>
+      </c>
       <c r="D165" t="s">
         <v>636</v>
       </c>
@@ -13379,6 +13837,9 @@
       <c r="B166" t="s">
         <v>1565</v>
       </c>
+      <c r="C166" t="s">
+        <v>636</v>
+      </c>
       <c r="D166" t="s">
         <v>636</v>
       </c>
@@ -13390,6 +13851,9 @@
       <c r="B167" t="s">
         <v>1539</v>
       </c>
+      <c r="C167" t="s">
+        <v>2289</v>
+      </c>
       <c r="D167" t="s">
         <v>2289</v>
       </c>
@@ -13401,6 +13865,9 @@
       <c r="B168" t="s">
         <v>1566</v>
       </c>
+      <c r="C168" t="s">
+        <v>3503</v>
+      </c>
       <c r="D168" t="s">
         <v>2237</v>
       </c>
@@ -13412,6 +13879,9 @@
       <c r="B169" t="s">
         <v>1568</v>
       </c>
+      <c r="C169" t="s">
+        <v>3503</v>
+      </c>
       <c r="D169" t="s">
         <v>2237</v>
       </c>
@@ -13423,6 +13893,9 @@
       <c r="B170" t="s">
         <v>1567</v>
       </c>
+      <c r="C170" t="s">
+        <v>3503</v>
+      </c>
       <c r="D170" t="s">
         <v>2237</v>
       </c>
@@ -13434,6 +13907,9 @@
       <c r="B171" t="s">
         <v>1569</v>
       </c>
+      <c r="C171" t="s">
+        <v>3506</v>
+      </c>
       <c r="D171" t="s">
         <v>2245</v>
       </c>
@@ -13445,6 +13921,9 @@
       <c r="B172" t="s">
         <v>1570</v>
       </c>
+      <c r="C172" t="s">
+        <v>603</v>
+      </c>
       <c r="D172" t="s">
         <v>2241</v>
       </c>
@@ -13456,6 +13935,9 @@
       <c r="B173" t="s">
         <v>1572</v>
       </c>
+      <c r="C173" t="s">
+        <v>636</v>
+      </c>
       <c r="D173" t="s">
         <v>636</v>
       </c>
@@ -13467,6 +13949,9 @@
       <c r="B174" t="s">
         <v>1573</v>
       </c>
+      <c r="C174" t="s">
+        <v>3506</v>
+      </c>
       <c r="D174" t="s">
         <v>2245</v>
       </c>
@@ -13478,6 +13963,9 @@
       <c r="B175" t="s">
         <v>1574</v>
       </c>
+      <c r="C175" t="s">
+        <v>570</v>
+      </c>
       <c r="D175" t="s">
         <v>2269</v>
       </c>
@@ -13489,6 +13977,9 @@
       <c r="B176" t="s">
         <v>1575</v>
       </c>
+      <c r="C176" t="s">
+        <v>2249</v>
+      </c>
       <c r="D176" t="s">
         <v>2249</v>
       </c>
@@ -13500,6 +13991,9 @@
       <c r="B177" t="s">
         <v>1576</v>
       </c>
+      <c r="C177" t="s">
+        <v>3506</v>
+      </c>
       <c r="D177" t="s">
         <v>2245</v>
       </c>
@@ -13511,6 +14005,9 @@
       <c r="B178" t="s">
         <v>1577</v>
       </c>
+      <c r="C178" t="s">
+        <v>3523</v>
+      </c>
       <c r="D178" t="s">
         <v>2296</v>
       </c>
@@ -13522,6 +14019,9 @@
       <c r="B179" t="s">
         <v>1579</v>
       </c>
+      <c r="C179" t="s">
+        <v>2249</v>
+      </c>
       <c r="D179" t="s">
         <v>2249</v>
       </c>
@@ -13533,6 +14033,9 @@
       <c r="B180" t="s">
         <v>1578</v>
       </c>
+      <c r="C180" t="s">
+        <v>2249</v>
+      </c>
       <c r="D180" t="s">
         <v>2249</v>
       </c>
@@ -13544,6 +14047,9 @@
       <c r="B181" t="s">
         <v>1580</v>
       </c>
+      <c r="C181" t="s">
+        <v>2295</v>
+      </c>
       <c r="D181" t="s">
         <v>2295</v>
       </c>
@@ -13555,6 +14061,9 @@
       <c r="B182" t="s">
         <v>1581</v>
       </c>
+      <c r="C182" t="s">
+        <v>2253</v>
+      </c>
       <c r="D182" t="s">
         <v>2253</v>
       </c>
@@ -13566,6 +14075,9 @@
       <c r="B183" t="s">
         <v>1582</v>
       </c>
+      <c r="C183" t="s">
+        <v>3508</v>
+      </c>
       <c r="D183" t="s">
         <v>2258</v>
       </c>
@@ -13577,6 +14089,9 @@
       <c r="B184" t="s">
         <v>1583</v>
       </c>
+      <c r="C184" t="s">
+        <v>3503</v>
+      </c>
       <c r="D184" t="s">
         <v>2237</v>
       </c>
@@ -13588,6 +14103,9 @@
       <c r="B185" t="s">
         <v>86</v>
       </c>
+      <c r="C185" t="s">
+        <v>2249</v>
+      </c>
       <c r="D185" t="s">
         <v>2249</v>
       </c>
@@ -13599,6 +14117,9 @@
       <c r="B186" t="s">
         <v>1584</v>
       </c>
+      <c r="C186" t="s">
+        <v>3504</v>
+      </c>
       <c r="D186" t="s">
         <v>2239</v>
       </c>
@@ -13610,6 +14131,9 @@
       <c r="B187" t="s">
         <v>1585</v>
       </c>
+      <c r="C187" t="s">
+        <v>580</v>
+      </c>
       <c r="D187" t="s">
         <v>2275</v>
       </c>
@@ -13621,6 +14145,9 @@
       <c r="B188" t="s">
         <v>1571</v>
       </c>
+      <c r="C188" t="s">
+        <v>580</v>
+      </c>
       <c r="D188" t="s">
         <v>2275</v>
       </c>
@@ -13632,6 +14159,9 @@
       <c r="B189" t="s">
         <v>1586</v>
       </c>
+      <c r="C189" t="s">
+        <v>2297</v>
+      </c>
       <c r="D189" t="s">
         <v>2297</v>
       </c>
@@ -13643,6 +14173,9 @@
       <c r="B190" t="s">
         <v>1587</v>
       </c>
+      <c r="C190" t="s">
+        <v>3506</v>
+      </c>
       <c r="D190" t="s">
         <v>2245</v>
       </c>
@@ -13654,6 +14187,9 @@
       <c r="B191" t="s">
         <v>1866</v>
       </c>
+      <c r="C191" t="s">
+        <v>3510</v>
+      </c>
       <c r="D191" t="s">
         <v>2251</v>
       </c>
@@ -13665,6 +14201,9 @@
       <c r="B192" t="s">
         <v>1589</v>
       </c>
+      <c r="C192" t="s">
+        <v>3523</v>
+      </c>
       <c r="D192" t="s">
         <v>2278</v>
       </c>
@@ -13676,6 +14215,9 @@
       <c r="B193" t="s">
         <v>1591</v>
       </c>
+      <c r="C193" t="s">
+        <v>3505</v>
+      </c>
       <c r="D193" t="s">
         <v>2299</v>
       </c>
@@ -13687,6 +14229,9 @@
       <c r="B194" t="s">
         <v>1590</v>
       </c>
+      <c r="C194" t="s">
+        <v>2276</v>
+      </c>
       <c r="D194" t="s">
         <v>2276</v>
       </c>
@@ -13698,6 +14243,9 @@
       <c r="B195" t="s">
         <v>1593</v>
       </c>
+      <c r="C195" t="s">
+        <v>3506</v>
+      </c>
       <c r="D195" t="s">
         <v>2245</v>
       </c>
@@ -13709,6 +14257,9 @@
       <c r="B196" t="s">
         <v>1592</v>
       </c>
+      <c r="C196" t="s">
+        <v>3514</v>
+      </c>
       <c r="D196" t="s">
         <v>2259</v>
       </c>
@@ -13720,6 +14271,9 @@
       <c r="B197" t="s">
         <v>1588</v>
       </c>
+      <c r="C197" t="s">
+        <v>3528</v>
+      </c>
       <c r="D197" t="s">
         <v>2298</v>
       </c>
@@ -13731,6 +14285,9 @@
       <c r="B198" t="s">
         <v>1603</v>
       </c>
+      <c r="C198" t="s">
+        <v>2276</v>
+      </c>
       <c r="D198" t="s">
         <v>2276</v>
       </c>
@@ -13742,6 +14299,9 @@
       <c r="B199" t="s">
         <v>1607</v>
       </c>
+      <c r="C199" t="s">
+        <v>603</v>
+      </c>
       <c r="D199" t="s">
         <v>2241</v>
       </c>
@@ -13753,6 +14313,9 @@
       <c r="B200" t="s">
         <v>1594</v>
       </c>
+      <c r="C200" t="s">
+        <v>580</v>
+      </c>
       <c r="D200" t="s">
         <v>2275</v>
       </c>
@@ -13764,6 +14327,9 @@
       <c r="B201" t="s">
         <v>1595</v>
       </c>
+      <c r="C201" t="s">
+        <v>3509</v>
+      </c>
       <c r="D201" t="s">
         <v>2300</v>
       </c>
@@ -13775,6 +14341,9 @@
       <c r="B202" t="s">
         <v>1081</v>
       </c>
+      <c r="C202" t="s">
+        <v>2283</v>
+      </c>
       <c r="D202" t="s">
         <v>2283</v>
       </c>
@@ -13786,6 +14355,9 @@
       <c r="B203" t="s">
         <v>1596</v>
       </c>
+      <c r="C203" t="s">
+        <v>3514</v>
+      </c>
       <c r="D203" t="s">
         <v>2259</v>
       </c>
@@ -13797,6 +14369,9 @@
       <c r="B204" t="s">
         <v>1598</v>
       </c>
+      <c r="C204" t="s">
+        <v>636</v>
+      </c>
       <c r="D204" t="s">
         <v>636</v>
       </c>
@@ -13808,6 +14383,9 @@
       <c r="B205" t="s">
         <v>1599</v>
       </c>
+      <c r="C205" t="s">
+        <v>636</v>
+      </c>
       <c r="D205" t="s">
         <v>636</v>
       </c>
@@ -13819,6 +14397,9 @@
       <c r="B206" t="s">
         <v>1597</v>
       </c>
+      <c r="C206" t="s">
+        <v>2249</v>
+      </c>
       <c r="D206" t="s">
         <v>2249</v>
       </c>
@@ -13830,6 +14411,9 @@
       <c r="B207" t="s">
         <v>1600</v>
       </c>
+      <c r="C207" t="s">
+        <v>2249</v>
+      </c>
       <c r="D207" t="s">
         <v>2249</v>
       </c>
@@ -13841,6 +14425,9 @@
       <c r="B208" t="s">
         <v>1601</v>
       </c>
+      <c r="C208" t="s">
+        <v>3528</v>
+      </c>
       <c r="D208" t="s">
         <v>2298</v>
       </c>
@@ -13852,6 +14439,9 @@
       <c r="B209" t="s">
         <v>1602</v>
       </c>
+      <c r="C209" t="s">
+        <v>2294</v>
+      </c>
       <c r="D209" t="s">
         <v>2294</v>
       </c>
@@ -13863,6 +14453,9 @@
       <c r="B210" t="s">
         <v>1604</v>
       </c>
+      <c r="C210" t="s">
+        <v>2276</v>
+      </c>
       <c r="D210" t="s">
         <v>2276</v>
       </c>
@@ -13874,6 +14467,9 @@
       <c r="B211" t="s">
         <v>1605</v>
       </c>
+      <c r="C211" t="s">
+        <v>3519</v>
+      </c>
       <c r="D211" t="s">
         <v>2272</v>
       </c>
@@ -13885,6 +14481,9 @@
       <c r="B212" t="s">
         <v>1606</v>
       </c>
+      <c r="C212" t="s">
+        <v>3528</v>
+      </c>
       <c r="D212" t="s">
         <v>2298</v>
       </c>
@@ -13896,6 +14495,9 @@
       <c r="B213" t="s">
         <v>1608</v>
       </c>
+      <c r="C213" t="s">
+        <v>3508</v>
+      </c>
       <c r="D213" t="s">
         <v>2258</v>
       </c>
@@ -13907,6 +14509,9 @@
       <c r="B214" t="s">
         <v>1609</v>
       </c>
+      <c r="C214" t="s">
+        <v>603</v>
+      </c>
       <c r="D214" t="s">
         <v>2240</v>
       </c>
@@ -13918,6 +14523,9 @@
       <c r="B215" t="s">
         <v>1610</v>
       </c>
+      <c r="C215" t="s">
+        <v>3514</v>
+      </c>
       <c r="D215" t="s">
         <v>2301</v>
       </c>
@@ -13929,6 +14537,9 @@
       <c r="B216" t="s">
         <v>121</v>
       </c>
+      <c r="C216" t="s">
+        <v>2254</v>
+      </c>
       <c r="D216" t="s">
         <v>2254</v>
       </c>
@@ -13940,6 +14551,9 @@
       <c r="B217" t="s">
         <v>1485</v>
       </c>
+      <c r="C217" t="s">
+        <v>2247</v>
+      </c>
       <c r="D217" t="s">
         <v>2247</v>
       </c>
@@ -13959,6 +14573,9 @@
       <c r="B219" t="s">
         <v>1611</v>
       </c>
+      <c r="C219" t="s">
+        <v>3516</v>
+      </c>
       <c r="D219" t="s">
         <v>2290</v>
       </c>
@@ -13970,6 +14587,9 @@
       <c r="B220" t="s">
         <v>1620</v>
       </c>
+      <c r="C220" t="s">
+        <v>636</v>
+      </c>
       <c r="D220" t="s">
         <v>636</v>
       </c>
@@ -13981,6 +14601,9 @@
       <c r="B221" t="s">
         <v>1613</v>
       </c>
+      <c r="C221" t="s">
+        <v>603</v>
+      </c>
       <c r="D221" t="s">
         <v>2241</v>
       </c>
@@ -13992,6 +14615,9 @@
       <c r="B222" t="s">
         <v>1614</v>
       </c>
+      <c r="C222" t="s">
+        <v>2276</v>
+      </c>
       <c r="D222" t="s">
         <v>2276</v>
       </c>
@@ -14003,6 +14629,9 @@
       <c r="B223" t="s">
         <v>1615</v>
       </c>
+      <c r="C223" t="s">
+        <v>3529</v>
+      </c>
       <c r="D223" t="s">
         <v>2302</v>
       </c>
@@ -14014,6 +14643,9 @@
       <c r="B224" t="s">
         <v>1616</v>
       </c>
+      <c r="C224" t="s">
+        <v>3506</v>
+      </c>
       <c r="D224" t="s">
         <v>2245</v>
       </c>
@@ -14025,6 +14657,9 @@
       <c r="B225" t="s">
         <v>1617</v>
       </c>
+      <c r="C225" t="s">
+        <v>3503</v>
+      </c>
       <c r="D225" t="s">
         <v>2237</v>
       </c>
@@ -14036,6 +14671,9 @@
       <c r="B226" t="s">
         <v>1618</v>
       </c>
+      <c r="C226" t="s">
+        <v>3518</v>
+      </c>
       <c r="D226" t="s">
         <v>2303</v>
       </c>
@@ -14047,6 +14685,9 @@
       <c r="B227" t="s">
         <v>1619</v>
       </c>
+      <c r="C227" t="s">
+        <v>2276</v>
+      </c>
       <c r="D227" t="s">
         <v>2276</v>
       </c>
@@ -14058,6 +14699,9 @@
       <c r="B228" t="s">
         <v>1638</v>
       </c>
+      <c r="C228" t="s">
+        <v>2253</v>
+      </c>
       <c r="D228" t="s">
         <v>2253</v>
       </c>
@@ -14069,6 +14713,9 @@
       <c r="B229" t="s">
         <v>1621</v>
       </c>
+      <c r="C229" t="s">
+        <v>2246</v>
+      </c>
       <c r="D229" t="s">
         <v>2246</v>
       </c>
@@ -14080,6 +14727,9 @@
       <c r="B230" t="s">
         <v>1623</v>
       </c>
+      <c r="C230" t="s">
+        <v>3512</v>
+      </c>
       <c r="D230" t="s">
         <v>2255</v>
       </c>
@@ -14091,6 +14741,9 @@
       <c r="B231" t="s">
         <v>1624</v>
       </c>
+      <c r="C231" t="s">
+        <v>3530</v>
+      </c>
       <c r="D231" t="s">
         <v>2304</v>
       </c>
@@ -14102,6 +14755,9 @@
       <c r="B232" t="s">
         <v>1625</v>
       </c>
+      <c r="C232" t="s">
+        <v>3523</v>
+      </c>
       <c r="D232" t="s">
         <v>2278</v>
       </c>
@@ -14113,6 +14769,9 @@
       <c r="B233" t="s">
         <v>1626</v>
       </c>
+      <c r="C233" t="s">
+        <v>2254</v>
+      </c>
       <c r="D233" t="s">
         <v>2254</v>
       </c>
@@ -14124,6 +14783,9 @@
       <c r="B234" t="s">
         <v>1622</v>
       </c>
+      <c r="C234" t="s">
+        <v>2247</v>
+      </c>
       <c r="D234" t="s">
         <v>2247</v>
       </c>
@@ -14135,6 +14797,9 @@
       <c r="B235" t="s">
         <v>1627</v>
       </c>
+      <c r="C235" t="s">
+        <v>3506</v>
+      </c>
       <c r="D235" t="s">
         <v>2245</v>
       </c>
@@ -14146,6 +14811,9 @@
       <c r="B236" t="s">
         <v>1628</v>
       </c>
+      <c r="C236" t="s">
+        <v>3508</v>
+      </c>
       <c r="D236" t="s">
         <v>2258</v>
       </c>
@@ -14157,6 +14825,9 @@
       <c r="B237" t="s">
         <v>1629</v>
       </c>
+      <c r="C237" t="s">
+        <v>2246</v>
+      </c>
       <c r="D237" t="s">
         <v>2271</v>
       </c>
@@ -14168,6 +14839,9 @@
       <c r="B238" t="s">
         <v>1630</v>
       </c>
+      <c r="C238" t="s">
+        <v>2253</v>
+      </c>
       <c r="D238" t="s">
         <v>2253</v>
       </c>
@@ -14179,6 +14853,9 @@
       <c r="B239" t="s">
         <v>1631</v>
       </c>
+      <c r="C239" t="s">
+        <v>580</v>
+      </c>
       <c r="D239" t="s">
         <v>2275</v>
       </c>
@@ -14190,6 +14867,9 @@
       <c r="B240" t="s">
         <v>1632</v>
       </c>
+      <c r="C240" t="s">
+        <v>603</v>
+      </c>
       <c r="D240" t="s">
         <v>2256</v>
       </c>
@@ -14201,6 +14881,9 @@
       <c r="B241" t="s">
         <v>1633</v>
       </c>
+      <c r="C241" t="s">
+        <v>3511</v>
+      </c>
       <c r="D241" t="s">
         <v>2252</v>
       </c>
@@ -14212,6 +14895,9 @@
       <c r="B242" t="s">
         <v>1634</v>
       </c>
+      <c r="C242" t="s">
+        <v>3518</v>
+      </c>
       <c r="D242" t="s">
         <v>2305</v>
       </c>
@@ -14231,6 +14917,9 @@
       <c r="B244" t="s">
         <v>1635</v>
       </c>
+      <c r="C244" t="s">
+        <v>2247</v>
+      </c>
       <c r="D244" t="s">
         <v>2247</v>
       </c>
@@ -14242,6 +14931,9 @@
       <c r="B245" t="s">
         <v>1636</v>
       </c>
+      <c r="C245" t="s">
+        <v>3531</v>
+      </c>
       <c r="D245" t="s">
         <v>2306</v>
       </c>
@@ -14253,6 +14945,9 @@
       <c r="B246" t="s">
         <v>1637</v>
       </c>
+      <c r="C246" t="s">
+        <v>3505</v>
+      </c>
       <c r="D246" t="s">
         <v>2307</v>
       </c>
@@ -14264,6 +14959,9 @@
       <c r="B247" t="s">
         <v>1639</v>
       </c>
+      <c r="C247" t="s">
+        <v>636</v>
+      </c>
       <c r="D247" t="s">
         <v>636</v>
       </c>
@@ -14275,6 +14973,9 @@
       <c r="B248" t="s">
         <v>1640</v>
       </c>
+      <c r="C248" t="s">
+        <v>3508</v>
+      </c>
       <c r="D248" t="s">
         <v>2258</v>
       </c>
@@ -14286,6 +14987,9 @@
       <c r="B249" t="s">
         <v>1641</v>
       </c>
+      <c r="C249" t="s">
+        <v>3506</v>
+      </c>
       <c r="D249" t="s">
         <v>2245</v>
       </c>
@@ -14297,6 +15001,9 @@
       <c r="B250" t="s">
         <v>1642</v>
       </c>
+      <c r="C250" t="s">
+        <v>2295</v>
+      </c>
       <c r="D250" t="s">
         <v>2295</v>
       </c>
@@ -14308,6 +15015,9 @@
       <c r="B251" t="s">
         <v>1643</v>
       </c>
+      <c r="C251" t="s">
+        <v>636</v>
+      </c>
       <c r="D251" t="s">
         <v>636</v>
       </c>
@@ -14319,6 +15029,9 @@
       <c r="B252" t="s">
         <v>1649</v>
       </c>
+      <c r="C252" t="s">
+        <v>636</v>
+      </c>
       <c r="D252" t="s">
         <v>636</v>
       </c>
@@ -14330,6 +15043,9 @@
       <c r="B253" t="s">
         <v>145</v>
       </c>
+      <c r="C253" t="s">
+        <v>603</v>
+      </c>
       <c r="D253" t="s">
         <v>2241</v>
       </c>
@@ -14341,6 +15057,9 @@
       <c r="B254" t="s">
         <v>1644</v>
       </c>
+      <c r="C254" t="s">
+        <v>580</v>
+      </c>
       <c r="D254" t="s">
         <v>2275</v>
       </c>
@@ -14352,6 +15071,9 @@
       <c r="B255" t="s">
         <v>1646</v>
       </c>
+      <c r="C255" t="s">
+        <v>3508</v>
+      </c>
       <c r="D255" t="s">
         <v>2258</v>
       </c>
@@ -14363,6 +15085,9 @@
       <c r="B256" t="s">
         <v>1647</v>
       </c>
+      <c r="C256" t="s">
+        <v>3516</v>
+      </c>
       <c r="D256" t="s">
         <v>2308</v>
       </c>
@@ -14374,6 +15099,9 @@
       <c r="B257" t="s">
         <v>1651</v>
       </c>
+      <c r="C257" t="s">
+        <v>3532</v>
+      </c>
       <c r="D257" t="s">
         <v>2309</v>
       </c>
@@ -14385,6 +15113,9 @@
       <c r="B258" t="s">
         <v>1648</v>
       </c>
+      <c r="C258" t="s">
+        <v>636</v>
+      </c>
       <c r="D258" t="s">
         <v>636</v>
       </c>
@@ -14396,6 +15127,9 @@
       <c r="B259" t="s">
         <v>1650</v>
       </c>
+      <c r="C259" t="s">
+        <v>580</v>
+      </c>
       <c r="D259" t="s">
         <v>2275</v>
       </c>
@@ -14407,6 +15141,9 @@
       <c r="B260" t="s">
         <v>1652</v>
       </c>
+      <c r="C260" t="s">
+        <v>3515</v>
+      </c>
       <c r="D260" t="s">
         <v>2264</v>
       </c>
@@ -14418,6 +15155,9 @@
       <c r="B261" t="s">
         <v>1654</v>
       </c>
+      <c r="C261" t="s">
+        <v>3503</v>
+      </c>
       <c r="D261" t="s">
         <v>2237</v>
       </c>
@@ -14429,6 +15169,9 @@
       <c r="B262" t="s">
         <v>1715</v>
       </c>
+      <c r="C262" t="s">
+        <v>636</v>
+      </c>
       <c r="D262" t="s">
         <v>636</v>
       </c>
@@ -14440,6 +15183,9 @@
       <c r="B263" t="s">
         <v>1645</v>
       </c>
+      <c r="C263" t="s">
+        <v>3508</v>
+      </c>
       <c r="D263" t="s">
         <v>2258</v>
       </c>
@@ -14451,6 +15197,9 @@
       <c r="B264" t="s">
         <v>1655</v>
       </c>
+      <c r="C264" t="s">
+        <v>2263</v>
+      </c>
       <c r="D264" t="s">
         <v>2263</v>
       </c>
@@ -14462,6 +15211,9 @@
       <c r="B265" t="s">
         <v>1656</v>
       </c>
+      <c r="C265" t="s">
+        <v>636</v>
+      </c>
       <c r="D265" t="s">
         <v>636</v>
       </c>
@@ -14473,6 +15225,9 @@
       <c r="B266" t="s">
         <v>1653</v>
       </c>
+      <c r="C266" t="s">
+        <v>3506</v>
+      </c>
       <c r="D266" t="s">
         <v>2245</v>
       </c>
@@ -14484,6 +15239,9 @@
       <c r="B267" t="s">
         <v>1658</v>
       </c>
+      <c r="C267" t="s">
+        <v>3503</v>
+      </c>
       <c r="D267" t="s">
         <v>2237</v>
       </c>
@@ -14495,6 +15253,9 @@
       <c r="B268" t="s">
         <v>1663</v>
       </c>
+      <c r="C268" t="s">
+        <v>3508</v>
+      </c>
       <c r="D268" t="s">
         <v>2258</v>
       </c>
@@ -14506,6 +15267,9 @@
       <c r="B269" t="s">
         <v>1711</v>
       </c>
+      <c r="C269" t="s">
+        <v>3522</v>
+      </c>
       <c r="D269" t="s">
         <v>2250</v>
       </c>
@@ -14517,6 +15281,9 @@
       <c r="B270" t="s">
         <v>1664</v>
       </c>
+      <c r="C270" t="s">
+        <v>2249</v>
+      </c>
       <c r="D270" t="s">
         <v>2249</v>
       </c>
@@ -14528,6 +15295,9 @@
       <c r="B271" t="s">
         <v>1665</v>
       </c>
+      <c r="C271" t="s">
+        <v>3533</v>
+      </c>
       <c r="D271" t="s">
         <v>2310</v>
       </c>
@@ -14539,6 +15309,9 @@
       <c r="B272" t="s">
         <v>1668</v>
       </c>
+      <c r="C272" t="s">
+        <v>3516</v>
+      </c>
       <c r="D272" t="s">
         <v>2311</v>
       </c>
@@ -14550,6 +15323,9 @@
       <c r="B273" t="s">
         <v>1666</v>
       </c>
+      <c r="C273" t="s">
+        <v>636</v>
+      </c>
       <c r="D273" t="s">
         <v>636</v>
       </c>
@@ -14561,6 +15337,9 @@
       <c r="B274" t="s">
         <v>1667</v>
       </c>
+      <c r="C274" t="s">
+        <v>2254</v>
+      </c>
       <c r="D274" t="s">
         <v>2254</v>
       </c>
@@ -14572,6 +15351,9 @@
       <c r="B275" t="s">
         <v>1671</v>
       </c>
+      <c r="C275" t="s">
+        <v>3516</v>
+      </c>
       <c r="D275" t="s">
         <v>2290</v>
       </c>
@@ -14583,6 +15365,9 @@
       <c r="B276" t="s">
         <v>1672</v>
       </c>
+      <c r="C276" t="s">
+        <v>2249</v>
+      </c>
       <c r="D276" t="s">
         <v>2249</v>
       </c>
@@ -14594,6 +15379,9 @@
       <c r="B277" t="s">
         <v>1675</v>
       </c>
+      <c r="C277" t="s">
+        <v>3514</v>
+      </c>
       <c r="D277" t="s">
         <v>2259</v>
       </c>
@@ -14605,6 +15393,9 @@
       <c r="B278" t="s">
         <v>1676</v>
       </c>
+      <c r="C278" t="s">
+        <v>3503</v>
+      </c>
       <c r="D278" t="s">
         <v>2237</v>
       </c>
@@ -14616,6 +15407,9 @@
       <c r="B279" t="s">
         <v>1673</v>
       </c>
+      <c r="C279" t="s">
+        <v>2312</v>
+      </c>
       <c r="D279" t="s">
         <v>2312</v>
       </c>
@@ -14627,6 +15421,9 @@
       <c r="B280" t="s">
         <v>1125</v>
       </c>
+      <c r="C280" t="s">
+        <v>636</v>
+      </c>
       <c r="D280" t="s">
         <v>636</v>
       </c>
@@ -14638,6 +15435,9 @@
       <c r="B281" t="s">
         <v>1674</v>
       </c>
+      <c r="C281" t="s">
+        <v>3503</v>
+      </c>
       <c r="D281" t="s">
         <v>2237</v>
       </c>
@@ -14649,6 +15449,9 @@
       <c r="B282" t="s">
         <v>1677</v>
       </c>
+      <c r="C282" t="s">
+        <v>3523</v>
+      </c>
       <c r="D282" t="s">
         <v>2296</v>
       </c>
@@ -14660,6 +15463,9 @@
       <c r="B283" t="s">
         <v>1709</v>
       </c>
+      <c r="C283" t="s">
+        <v>3507</v>
+      </c>
       <c r="D283" t="s">
         <v>2248</v>
       </c>
@@ -14671,6 +15477,9 @@
       <c r="B284" t="s">
         <v>1678</v>
       </c>
+      <c r="C284" t="s">
+        <v>603</v>
+      </c>
       <c r="D284" t="s">
         <v>2240</v>
       </c>
@@ -14682,6 +15491,9 @@
       <c r="B285" t="s">
         <v>1679</v>
       </c>
+      <c r="C285" t="s">
+        <v>603</v>
+      </c>
       <c r="D285" t="s">
         <v>2243</v>
       </c>
@@ -14693,6 +15505,9 @@
       <c r="B286" t="s">
         <v>1681</v>
       </c>
+      <c r="C286" t="s">
+        <v>603</v>
+      </c>
       <c r="D286" t="s">
         <v>2241</v>
       </c>
@@ -14704,6 +15519,9 @@
       <c r="B287" t="s">
         <v>1683</v>
       </c>
+      <c r="C287" t="s">
+        <v>3534</v>
+      </c>
       <c r="D287" t="s">
         <v>2313</v>
       </c>
@@ -14715,6 +15533,9 @@
       <c r="B288" t="s">
         <v>1680</v>
       </c>
+      <c r="C288" t="s">
+        <v>603</v>
+      </c>
       <c r="D288" t="s">
         <v>2241</v>
       </c>
@@ -14726,6 +15547,9 @@
       <c r="B289" t="s">
         <v>1659</v>
       </c>
+      <c r="C289" t="s">
+        <v>570</v>
+      </c>
       <c r="D289" t="s">
         <v>2269</v>
       </c>
@@ -14737,6 +15561,9 @@
       <c r="B290" t="s">
         <v>1684</v>
       </c>
+      <c r="C290" t="s">
+        <v>2246</v>
+      </c>
       <c r="D290" t="s">
         <v>2246</v>
       </c>
@@ -14748,6 +15575,9 @@
       <c r="B291" t="s">
         <v>1685</v>
       </c>
+      <c r="C291" t="s">
+        <v>3508</v>
+      </c>
       <c r="D291" t="s">
         <v>2258</v>
       </c>
@@ -14759,6 +15589,9 @@
       <c r="B292" t="s">
         <v>1660</v>
       </c>
+      <c r="C292" t="s">
+        <v>636</v>
+      </c>
       <c r="D292" t="s">
         <v>636</v>
       </c>
@@ -14770,6 +15603,9 @@
       <c r="B293" t="s">
         <v>1686</v>
       </c>
+      <c r="C293" t="s">
+        <v>3516</v>
+      </c>
       <c r="D293" t="s">
         <v>2290</v>
       </c>
@@ -14781,6 +15617,9 @@
       <c r="B294" t="s">
         <v>1688</v>
       </c>
+      <c r="C294" t="s">
+        <v>2314</v>
+      </c>
       <c r="D294" t="s">
         <v>2314</v>
       </c>
@@ -14792,6 +15631,9 @@
       <c r="B295" t="s">
         <v>1689</v>
       </c>
+      <c r="C295" t="s">
+        <v>3510</v>
+      </c>
       <c r="D295" t="s">
         <v>2251</v>
       </c>
@@ -14803,6 +15645,9 @@
       <c r="B296" t="s">
         <v>1690</v>
       </c>
+      <c r="C296" t="s">
+        <v>3523</v>
+      </c>
       <c r="D296" t="s">
         <v>2278</v>
       </c>
@@ -14814,6 +15659,9 @@
       <c r="B297" t="s">
         <v>1691</v>
       </c>
+      <c r="C297" t="s">
+        <v>636</v>
+      </c>
       <c r="D297" t="s">
         <v>636</v>
       </c>
@@ -14825,6 +15673,9 @@
       <c r="B298" t="s">
         <v>1692</v>
       </c>
+      <c r="C298" t="s">
+        <v>2254</v>
+      </c>
       <c r="D298" t="s">
         <v>2254</v>
       </c>
@@ -14836,6 +15687,9 @@
       <c r="B299" t="s">
         <v>1693</v>
       </c>
+      <c r="C299" t="s">
+        <v>3516</v>
+      </c>
       <c r="D299" t="s">
         <v>2290</v>
       </c>
@@ -14847,6 +15701,9 @@
       <c r="B300" t="s">
         <v>1694</v>
       </c>
+      <c r="C300" t="s">
+        <v>3522</v>
+      </c>
       <c r="D300" t="s">
         <v>2250</v>
       </c>
@@ -14858,6 +15715,9 @@
       <c r="B301" t="s">
         <v>1695</v>
       </c>
+      <c r="C301" t="s">
+        <v>3535</v>
+      </c>
       <c r="D301" t="s">
         <v>2315</v>
       </c>
@@ -14869,6 +15729,9 @@
       <c r="B302" t="s">
         <v>1696</v>
       </c>
+      <c r="C302" t="s">
+        <v>3188</v>
+      </c>
       <c r="D302" t="s">
         <v>2284</v>
       </c>
@@ -14880,6 +15743,9 @@
       <c r="B303" t="s">
         <v>1697</v>
       </c>
+      <c r="C303" t="s">
+        <v>2265</v>
+      </c>
       <c r="D303" t="s">
         <v>2265</v>
       </c>
@@ -14891,6 +15757,9 @@
       <c r="B304" t="s">
         <v>1687</v>
       </c>
+      <c r="C304" t="s">
+        <v>3188</v>
+      </c>
       <c r="D304" t="s">
         <v>2284</v>
       </c>
@@ -14902,6 +15771,9 @@
       <c r="B305" t="s">
         <v>1710</v>
       </c>
+      <c r="C305" t="s">
+        <v>2249</v>
+      </c>
       <c r="D305" t="s">
         <v>2249</v>
       </c>
@@ -14913,6 +15785,9 @@
       <c r="B306" t="s">
         <v>1698</v>
       </c>
+      <c r="C306" t="s">
+        <v>603</v>
+      </c>
       <c r="D306" t="s">
         <v>2240</v>
       </c>
@@ -14924,6 +15799,9 @@
       <c r="B307" t="s">
         <v>1699</v>
       </c>
+      <c r="C307" t="s">
+        <v>3511</v>
+      </c>
       <c r="D307" t="s">
         <v>2316</v>
       </c>
@@ -14935,6 +15813,9 @@
       <c r="B308" t="s">
         <v>1700</v>
       </c>
+      <c r="C308" t="s">
+        <v>3516</v>
+      </c>
       <c r="D308" t="s">
         <v>2308</v>
       </c>
@@ -14946,6 +15827,9 @@
       <c r="B309" t="s">
         <v>1701</v>
       </c>
+      <c r="C309" t="s">
+        <v>636</v>
+      </c>
       <c r="D309" t="s">
         <v>636</v>
       </c>
@@ -14957,6 +15841,9 @@
       <c r="B310" t="s">
         <v>1702</v>
       </c>
+      <c r="C310" t="s">
+        <v>570</v>
+      </c>
       <c r="D310" t="s">
         <v>2269</v>
       </c>
@@ -14968,6 +15855,9 @@
       <c r="B311" t="s">
         <v>1703</v>
       </c>
+      <c r="C311" t="s">
+        <v>2249</v>
+      </c>
       <c r="D311" t="s">
         <v>2249</v>
       </c>
@@ -14979,6 +15869,9 @@
       <c r="B312" t="s">
         <v>1704</v>
       </c>
+      <c r="C312" t="s">
+        <v>2249</v>
+      </c>
       <c r="D312" t="s">
         <v>2249</v>
       </c>
@@ -14990,6 +15883,9 @@
       <c r="B313" t="s">
         <v>1705</v>
       </c>
+      <c r="C313" t="s">
+        <v>2249</v>
+      </c>
       <c r="D313" t="s">
         <v>2249</v>
       </c>
@@ -15001,6 +15897,9 @@
       <c r="B314" t="s">
         <v>1706</v>
       </c>
+      <c r="C314" t="s">
+        <v>3526</v>
+      </c>
       <c r="D314" t="s">
         <v>2291</v>
       </c>
@@ -15012,6 +15911,9 @@
       <c r="B315" t="s">
         <v>1661</v>
       </c>
+      <c r="C315" t="s">
+        <v>2254</v>
+      </c>
       <c r="D315" t="s">
         <v>2254</v>
       </c>
@@ -15023,6 +15925,9 @@
       <c r="B316" t="s">
         <v>1707</v>
       </c>
+      <c r="C316" t="s">
+        <v>3510</v>
+      </c>
       <c r="D316" t="s">
         <v>2251</v>
       </c>
@@ -15034,6 +15939,9 @@
       <c r="B317" t="s">
         <v>1669</v>
       </c>
+      <c r="C317" t="s">
+        <v>2249</v>
+      </c>
       <c r="D317" t="s">
         <v>2249</v>
       </c>
@@ -15045,6 +15953,9 @@
       <c r="B318" t="s">
         <v>1670</v>
       </c>
+      <c r="C318" t="s">
+        <v>2253</v>
+      </c>
       <c r="D318" t="s">
         <v>2253</v>
       </c>
@@ -15056,6 +15967,9 @@
       <c r="B319" t="s">
         <v>1662</v>
       </c>
+      <c r="C319" t="s">
+        <v>2295</v>
+      </c>
       <c r="D319" t="s">
         <v>2295</v>
       </c>
@@ -15067,6 +15981,9 @@
       <c r="B320" t="s">
         <v>1713</v>
       </c>
+      <c r="C320" t="s">
+        <v>2249</v>
+      </c>
       <c r="D320" t="s">
         <v>2249</v>
       </c>
@@ -15078,6 +15995,9 @@
       <c r="B321" t="s">
         <v>1708</v>
       </c>
+      <c r="C321" t="s">
+        <v>603</v>
+      </c>
       <c r="D321" t="s">
         <v>2241</v>
       </c>
@@ -15089,6 +16009,9 @@
       <c r="B322" t="s">
         <v>1714</v>
       </c>
+      <c r="C322" t="s">
+        <v>3536</v>
+      </c>
       <c r="D322" t="s">
         <v>2317</v>
       </c>
@@ -15100,6 +16023,9 @@
       <c r="B323" t="s">
         <v>1716</v>
       </c>
+      <c r="C323" t="s">
+        <v>2249</v>
+      </c>
       <c r="D323" t="s">
         <v>2249</v>
       </c>
@@ -15111,6 +16037,9 @@
       <c r="B324" t="s">
         <v>1712</v>
       </c>
+      <c r="C324" t="s">
+        <v>603</v>
+      </c>
       <c r="D324" t="s">
         <v>2240</v>
       </c>
@@ -15122,6 +16051,9 @@
       <c r="B325" t="s">
         <v>1717</v>
       </c>
+      <c r="C325" t="s">
+        <v>636</v>
+      </c>
       <c r="D325" t="s">
         <v>636</v>
       </c>
@@ -15133,6 +16065,9 @@
       <c r="B326" t="s">
         <v>1718</v>
       </c>
+      <c r="C326" t="s">
+        <v>636</v>
+      </c>
       <c r="D326" t="s">
         <v>636</v>
       </c>
@@ -15144,6 +16079,9 @@
       <c r="B327" t="s">
         <v>1742</v>
       </c>
+      <c r="C327" t="s">
+        <v>2246</v>
+      </c>
       <c r="D327" t="s">
         <v>2246</v>
       </c>
@@ -15155,6 +16093,9 @@
       <c r="B328" t="s">
         <v>1722</v>
       </c>
+      <c r="C328" t="s">
+        <v>3506</v>
+      </c>
       <c r="D328" t="s">
         <v>2245</v>
       </c>
@@ -15166,6 +16107,9 @@
       <c r="B329" t="s">
         <v>1723</v>
       </c>
+      <c r="C329" t="s">
+        <v>3188</v>
+      </c>
       <c r="D329" t="s">
         <v>2284</v>
       </c>
@@ -15177,6 +16121,9 @@
       <c r="B330" t="s">
         <v>1724</v>
       </c>
+      <c r="C330" t="s">
+        <v>3508</v>
+      </c>
       <c r="D330" t="s">
         <v>2258</v>
       </c>
@@ -15188,6 +16135,9 @@
       <c r="B331" t="s">
         <v>1725</v>
       </c>
+      <c r="C331" t="s">
+        <v>3528</v>
+      </c>
       <c r="D331" t="s">
         <v>2298</v>
       </c>
@@ -15199,6 +16149,9 @@
       <c r="B332" t="s">
         <v>1726</v>
       </c>
+      <c r="C332" t="s">
+        <v>3510</v>
+      </c>
       <c r="D332" t="s">
         <v>2251</v>
       </c>
@@ -15210,6 +16163,9 @@
       <c r="B333" t="s">
         <v>1727</v>
       </c>
+      <c r="C333" t="s">
+        <v>3504</v>
+      </c>
       <c r="D333" t="s">
         <v>2239</v>
       </c>
@@ -15221,6 +16177,9 @@
       <c r="B334" t="s">
         <v>1728</v>
       </c>
+      <c r="C334" t="s">
+        <v>3531</v>
+      </c>
       <c r="D334" t="s">
         <v>2306</v>
       </c>
@@ -15240,6 +16199,9 @@
       <c r="B336" t="s">
         <v>1729</v>
       </c>
+      <c r="C336" t="s">
+        <v>3506</v>
+      </c>
       <c r="D336" t="s">
         <v>2318</v>
       </c>
@@ -15251,6 +16213,9 @@
       <c r="B337" t="s">
         <v>1719</v>
       </c>
+      <c r="C337" t="s">
+        <v>3503</v>
+      </c>
       <c r="D337" t="s">
         <v>2242</v>
       </c>
@@ -15262,6 +16227,9 @@
       <c r="B338" t="s">
         <v>1730</v>
       </c>
+      <c r="C338" t="s">
+        <v>3503</v>
+      </c>
       <c r="D338" t="s">
         <v>2237</v>
       </c>
@@ -15273,6 +16241,9 @@
       <c r="B339" t="s">
         <v>1731</v>
       </c>
+      <c r="C339" t="s">
+        <v>580</v>
+      </c>
       <c r="D339" t="s">
         <v>2275</v>
       </c>
@@ -15284,6 +16255,9 @@
       <c r="B340" t="s">
         <v>1732</v>
       </c>
+      <c r="C340" t="s">
+        <v>3503</v>
+      </c>
       <c r="D340" t="s">
         <v>2237</v>
       </c>
@@ -15295,6 +16269,9 @@
       <c r="B341" t="s">
         <v>185</v>
       </c>
+      <c r="C341" t="s">
+        <v>3511</v>
+      </c>
       <c r="D341" t="s">
         <v>2316</v>
       </c>
@@ -15306,6 +16283,9 @@
       <c r="B342" t="s">
         <v>1733</v>
       </c>
+      <c r="C342" t="s">
+        <v>3505</v>
+      </c>
       <c r="D342" t="s">
         <v>2244</v>
       </c>
@@ -15317,6 +16297,9 @@
       <c r="B343" t="s">
         <v>1734</v>
       </c>
+      <c r="C343" t="s">
+        <v>3519</v>
+      </c>
       <c r="D343" t="s">
         <v>2272</v>
       </c>
@@ -15328,6 +16311,9 @@
       <c r="B344" t="s">
         <v>1735</v>
       </c>
+      <c r="C344" t="s">
+        <v>3510</v>
+      </c>
       <c r="D344" t="s">
         <v>2251</v>
       </c>
@@ -15339,6 +16325,9 @@
       <c r="B345" t="s">
         <v>1736</v>
       </c>
+      <c r="C345" t="s">
+        <v>3518</v>
+      </c>
       <c r="D345" t="s">
         <v>2303</v>
       </c>
@@ -15350,6 +16339,9 @@
       <c r="B346" t="s">
         <v>1737</v>
       </c>
+      <c r="C346" t="s">
+        <v>603</v>
+      </c>
       <c r="D346" t="s">
         <v>2256</v>
       </c>
@@ -15361,6 +16353,9 @@
       <c r="B347" t="s">
         <v>190</v>
       </c>
+      <c r="C347" t="s">
+        <v>2246</v>
+      </c>
       <c r="D347" t="s">
         <v>2271</v>
       </c>
@@ -15372,6 +16367,9 @@
       <c r="B348" t="s">
         <v>1721</v>
       </c>
+      <c r="C348" t="s">
+        <v>2254</v>
+      </c>
       <c r="D348" t="s">
         <v>2254</v>
       </c>
@@ -15383,6 +16381,9 @@
       <c r="B349" t="s">
         <v>1745</v>
       </c>
+      <c r="C349" t="s">
+        <v>3506</v>
+      </c>
       <c r="D349" t="s">
         <v>2245</v>
       </c>
@@ -15394,6 +16395,9 @@
       <c r="B350" t="s">
         <v>1738</v>
       </c>
+      <c r="C350" t="s">
+        <v>603</v>
+      </c>
       <c r="D350" t="s">
         <v>2240</v>
       </c>
@@ -15405,6 +16409,9 @@
       <c r="B351" t="s">
         <v>1739</v>
       </c>
+      <c r="C351" t="s">
+        <v>3505</v>
+      </c>
       <c r="D351" t="s">
         <v>2307</v>
       </c>
@@ -15416,6 +16423,9 @@
       <c r="B352" t="s">
         <v>1744</v>
       </c>
+      <c r="C352" t="s">
+        <v>3537</v>
+      </c>
       <c r="D352" t="s">
         <v>2320</v>
       </c>
@@ -15427,6 +16437,9 @@
       <c r="B353" t="s">
         <v>1746</v>
       </c>
+      <c r="C353" t="s">
+        <v>570</v>
+      </c>
       <c r="D353" t="s">
         <v>2269</v>
       </c>
@@ -15438,6 +16451,9 @@
       <c r="B354" t="s">
         <v>1743</v>
       </c>
+      <c r="C354" t="s">
+        <v>3538</v>
+      </c>
       <c r="D354" t="s">
         <v>2319</v>
       </c>
@@ -15457,6 +16473,9 @@
       <c r="B356" t="s">
         <v>1741</v>
       </c>
+      <c r="C356" t="s">
+        <v>3523</v>
+      </c>
       <c r="D356" t="s">
         <v>2296</v>
       </c>
@@ -15468,6 +16487,9 @@
       <c r="B357" t="s">
         <v>1749</v>
       </c>
+      <c r="C357" t="s">
+        <v>2247</v>
+      </c>
       <c r="D357" t="s">
         <v>2247</v>
       </c>
@@ -15479,6 +16501,9 @@
       <c r="B358" t="s">
         <v>1748</v>
       </c>
+      <c r="C358" t="s">
+        <v>570</v>
+      </c>
       <c r="D358" t="s">
         <v>2269</v>
       </c>
@@ -15490,6 +16515,9 @@
       <c r="B359" t="s">
         <v>1751</v>
       </c>
+      <c r="C359" t="s">
+        <v>2246</v>
+      </c>
       <c r="D359" t="s">
         <v>2246</v>
       </c>
@@ -15501,6 +16529,9 @@
       <c r="B360" t="s">
         <v>1747</v>
       </c>
+      <c r="C360" t="s">
+        <v>3510</v>
+      </c>
       <c r="D360" t="s">
         <v>2251</v>
       </c>
@@ -15512,6 +16543,9 @@
       <c r="B361" t="s">
         <v>1752</v>
       </c>
+      <c r="C361" t="s">
+        <v>3503</v>
+      </c>
       <c r="D361" t="s">
         <v>2242</v>
       </c>
@@ -15523,6 +16557,9 @@
       <c r="B362" t="s">
         <v>1754</v>
       </c>
+      <c r="C362" t="s">
+        <v>3514</v>
+      </c>
       <c r="D362" t="s">
         <v>2259</v>
       </c>
@@ -15534,6 +16571,9 @@
       <c r="B363" t="s">
         <v>1753</v>
       </c>
+      <c r="C363" t="s">
+        <v>3504</v>
+      </c>
       <c r="D363" t="s">
         <v>2239</v>
       </c>
@@ -15545,6 +16585,9 @@
       <c r="B364" t="s">
         <v>1740</v>
       </c>
+      <c r="C364" t="s">
+        <v>636</v>
+      </c>
       <c r="D364" t="s">
         <v>636</v>
       </c>
@@ -15556,6 +16599,9 @@
       <c r="B365" t="s">
         <v>1720</v>
       </c>
+      <c r="C365" t="s">
+        <v>3503</v>
+      </c>
       <c r="D365" t="s">
         <v>2242</v>
       </c>
@@ -15567,6 +16613,9 @@
       <c r="B366" t="s">
         <v>1755</v>
       </c>
+      <c r="C366" t="s">
+        <v>2253</v>
+      </c>
       <c r="D366" t="s">
         <v>2253</v>
       </c>
@@ -15578,6 +16627,9 @@
       <c r="B367" t="s">
         <v>1773</v>
       </c>
+      <c r="C367" t="s">
+        <v>3503</v>
+      </c>
       <c r="D367" t="s">
         <v>2242</v>
       </c>
@@ -15589,6 +16641,9 @@
       <c r="B368" t="s">
         <v>1762</v>
       </c>
+      <c r="C368" t="s">
+        <v>580</v>
+      </c>
       <c r="D368" t="s">
         <v>2275</v>
       </c>
@@ -15600,6 +16655,9 @@
       <c r="B369" t="s">
         <v>1763</v>
       </c>
+      <c r="C369" t="s">
+        <v>3503</v>
+      </c>
       <c r="D369" t="s">
         <v>2237</v>
       </c>
@@ -15611,6 +16669,9 @@
       <c r="B370" t="s">
         <v>1764</v>
       </c>
+      <c r="C370" t="s">
+        <v>3503</v>
+      </c>
       <c r="D370" t="s">
         <v>2237</v>
       </c>
@@ -15622,6 +16683,9 @@
       <c r="B371" t="s">
         <v>1780</v>
       </c>
+      <c r="C371" t="s">
+        <v>3516</v>
+      </c>
       <c r="D371" t="s">
         <v>2267</v>
       </c>
@@ -15641,6 +16705,9 @@
       <c r="B373" t="s">
         <v>1766</v>
       </c>
+      <c r="C373" t="s">
+        <v>580</v>
+      </c>
       <c r="D373" t="s">
         <v>2275</v>
       </c>
@@ -15652,6 +16719,9 @@
       <c r="B374" t="s">
         <v>1756</v>
       </c>
+      <c r="C374" t="s">
+        <v>3503</v>
+      </c>
       <c r="D374" t="s">
         <v>2237</v>
       </c>
@@ -15663,6 +16733,9 @@
       <c r="B375" t="s">
         <v>1767</v>
       </c>
+      <c r="C375" t="s">
+        <v>580</v>
+      </c>
       <c r="D375" t="s">
         <v>2275</v>
       </c>
@@ -15674,6 +16747,9 @@
       <c r="B376" t="s">
         <v>1776</v>
       </c>
+      <c r="C376" t="s">
+        <v>2249</v>
+      </c>
       <c r="D376" t="s">
         <v>2249</v>
       </c>
@@ -15685,6 +16761,9 @@
       <c r="B377" t="s">
         <v>1782</v>
       </c>
+      <c r="C377" t="s">
+        <v>2249</v>
+      </c>
       <c r="D377" t="s">
         <v>2249</v>
       </c>
@@ -15696,6 +16775,9 @@
       <c r="B378" t="s">
         <v>1757</v>
       </c>
+      <c r="C378" t="s">
+        <v>636</v>
+      </c>
       <c r="D378" t="s">
         <v>636</v>
       </c>
@@ -15707,6 +16789,9 @@
       <c r="B379" t="s">
         <v>1768</v>
       </c>
+      <c r="C379" t="s">
+        <v>3503</v>
+      </c>
       <c r="D379" t="s">
         <v>2237</v>
       </c>
@@ -15718,6 +16803,9 @@
       <c r="B380" t="s">
         <v>1769</v>
       </c>
+      <c r="C380" t="s">
+        <v>3503</v>
+      </c>
       <c r="D380" t="s">
         <v>2237</v>
       </c>
@@ -15729,6 +16817,9 @@
       <c r="B381" t="s">
         <v>1778</v>
       </c>
+      <c r="C381" t="s">
+        <v>570</v>
+      </c>
       <c r="D381" t="s">
         <v>2269</v>
       </c>
@@ -15740,6 +16831,9 @@
       <c r="B382" t="s">
         <v>1777</v>
       </c>
+      <c r="C382" t="s">
+        <v>2294</v>
+      </c>
       <c r="D382" t="s">
         <v>2294</v>
       </c>
@@ -15759,6 +16853,9 @@
       <c r="B384" t="s">
         <v>1770</v>
       </c>
+      <c r="C384" t="s">
+        <v>636</v>
+      </c>
       <c r="D384" t="s">
         <v>636</v>
       </c>
@@ -15770,6 +16867,9 @@
       <c r="B385" t="s">
         <v>1774</v>
       </c>
+      <c r="C385" t="s">
+        <v>2249</v>
+      </c>
       <c r="D385" t="s">
         <v>2249</v>
       </c>
@@ -15781,6 +16881,9 @@
       <c r="B386" t="s">
         <v>1775</v>
       </c>
+      <c r="C386" t="s">
+        <v>580</v>
+      </c>
       <c r="D386" t="s">
         <v>2280</v>
       </c>
@@ -15792,6 +16895,9 @@
       <c r="B387" t="s">
         <v>1779</v>
       </c>
+      <c r="C387" t="s">
+        <v>3513</v>
+      </c>
       <c r="D387" t="s">
         <v>2257</v>
       </c>
@@ -15803,6 +16909,9 @@
       <c r="B388" t="s">
         <v>1771</v>
       </c>
+      <c r="C388" t="s">
+        <v>3507</v>
+      </c>
       <c r="D388" t="s">
         <v>2248</v>
       </c>
@@ -15814,6 +16923,9 @@
       <c r="B389" t="s">
         <v>1781</v>
       </c>
+      <c r="C389" t="s">
+        <v>603</v>
+      </c>
       <c r="D389" t="s">
         <v>2241</v>
       </c>
@@ -15825,6 +16937,9 @@
       <c r="B390" t="s">
         <v>1784</v>
       </c>
+      <c r="C390" t="s">
+        <v>580</v>
+      </c>
       <c r="D390" t="s">
         <v>2275</v>
       </c>
@@ -15836,6 +16951,9 @@
       <c r="B391" t="s">
         <v>1783</v>
       </c>
+      <c r="C391" t="s">
+        <v>3539</v>
+      </c>
       <c r="D391" t="s">
         <v>2322</v>
       </c>
@@ -15847,6 +16965,9 @@
       <c r="B392" t="s">
         <v>1785</v>
       </c>
+      <c r="C392" t="s">
+        <v>3506</v>
+      </c>
       <c r="D392" t="s">
         <v>2245</v>
       </c>
@@ -15858,6 +16979,9 @@
       <c r="B393" t="s">
         <v>1787</v>
       </c>
+      <c r="C393" t="s">
+        <v>3506</v>
+      </c>
       <c r="D393" t="s">
         <v>2245</v>
       </c>
@@ -15869,6 +16993,9 @@
       <c r="B394" t="s">
         <v>1788</v>
       </c>
+      <c r="C394" t="s">
+        <v>3506</v>
+      </c>
       <c r="D394" t="s">
         <v>2318</v>
       </c>
@@ -15880,6 +17007,9 @@
       <c r="B395" t="s">
         <v>1789</v>
       </c>
+      <c r="C395" t="s">
+        <v>3530</v>
+      </c>
       <c r="D395" t="s">
         <v>2304</v>
       </c>
@@ -15891,6 +17021,9 @@
       <c r="B396" t="s">
         <v>1790</v>
       </c>
+      <c r="C396" t="s">
+        <v>3519</v>
+      </c>
       <c r="D396" t="s">
         <v>2272</v>
       </c>
@@ -15902,6 +17035,9 @@
       <c r="B397" t="s">
         <v>1791</v>
       </c>
+      <c r="C397" t="s">
+        <v>3506</v>
+      </c>
       <c r="D397" t="s">
         <v>2245</v>
       </c>
@@ -15913,6 +17049,9 @@
       <c r="B398" t="s">
         <v>1758</v>
       </c>
+      <c r="C398" t="s">
+        <v>580</v>
+      </c>
       <c r="D398" t="s">
         <v>2280</v>
       </c>
@@ -15924,6 +17063,9 @@
       <c r="B399" t="s">
         <v>1759</v>
       </c>
+      <c r="C399" t="s">
+        <v>2289</v>
+      </c>
       <c r="D399" t="s">
         <v>2289</v>
       </c>
@@ -15935,6 +17077,9 @@
       <c r="B400" t="s">
         <v>1792</v>
       </c>
+      <c r="C400" t="s">
+        <v>603</v>
+      </c>
       <c r="D400" t="s">
         <v>2241</v>
       </c>
@@ -15946,6 +17091,9 @@
       <c r="B401" t="s">
         <v>1793</v>
       </c>
+      <c r="C401" t="s">
+        <v>2246</v>
+      </c>
       <c r="D401" t="s">
         <v>2246</v>
       </c>
@@ -15957,6 +17105,9 @@
       <c r="B402" t="s">
         <v>1794</v>
       </c>
+      <c r="C402" t="s">
+        <v>603</v>
+      </c>
       <c r="D402" t="s">
         <v>2241</v>
       </c>
@@ -15968,6 +17119,9 @@
       <c r="B403" t="s">
         <v>1772</v>
       </c>
+      <c r="C403" t="s">
+        <v>3519</v>
+      </c>
       <c r="D403" t="s">
         <v>2272</v>
       </c>
@@ -15979,6 +17133,9 @@
       <c r="B404" t="s">
         <v>1795</v>
       </c>
+      <c r="C404" t="s">
+        <v>2254</v>
+      </c>
       <c r="D404" t="s">
         <v>2254</v>
       </c>
@@ -15990,6 +17147,9 @@
       <c r="B405" t="s">
         <v>1796</v>
       </c>
+      <c r="C405" t="s">
+        <v>2254</v>
+      </c>
       <c r="D405" t="s">
         <v>2254</v>
       </c>
@@ -16001,6 +17161,9 @@
       <c r="B406" t="s">
         <v>1797</v>
       </c>
+      <c r="C406" t="s">
+        <v>2254</v>
+      </c>
       <c r="D406" t="s">
         <v>2254</v>
       </c>
@@ -16012,6 +17175,9 @@
       <c r="B407" t="s">
         <v>1760</v>
       </c>
+      <c r="C407" t="s">
+        <v>3529</v>
+      </c>
       <c r="D407" t="s">
         <v>2302</v>
       </c>
@@ -16023,6 +17189,9 @@
       <c r="B408" t="s">
         <v>1761</v>
       </c>
+      <c r="C408" t="s">
+        <v>3503</v>
+      </c>
       <c r="D408" t="s">
         <v>2321</v>
       </c>
@@ -16034,6 +17203,9 @@
       <c r="B409" t="s">
         <v>1765</v>
       </c>
+      <c r="C409" t="s">
+        <v>3503</v>
+      </c>
       <c r="D409" t="s">
         <v>2237</v>
       </c>
@@ -16045,6 +17217,9 @@
       <c r="B410" t="s">
         <v>1798</v>
       </c>
+      <c r="C410" t="s">
+        <v>2246</v>
+      </c>
       <c r="D410" t="s">
         <v>2271</v>
       </c>
@@ -16056,6 +17231,9 @@
       <c r="B411" t="s">
         <v>1799</v>
       </c>
+      <c r="C411" t="s">
+        <v>3188</v>
+      </c>
       <c r="D411" t="s">
         <v>2284</v>
       </c>
@@ -16067,6 +17245,9 @@
       <c r="B412" t="s">
         <v>216</v>
       </c>
+      <c r="C412" t="s">
+        <v>2314</v>
+      </c>
       <c r="D412" t="s">
         <v>2314</v>
       </c>
@@ -16078,6 +17259,9 @@
       <c r="B413" t="s">
         <v>1800</v>
       </c>
+      <c r="C413" t="s">
+        <v>2254</v>
+      </c>
       <c r="D413" t="s">
         <v>2254</v>
       </c>
@@ -16089,6 +17273,9 @@
       <c r="B414" t="s">
         <v>217</v>
       </c>
+      <c r="C414" t="s">
+        <v>3520</v>
+      </c>
       <c r="D414" t="s">
         <v>2273</v>
       </c>
@@ -16100,6 +17287,9 @@
       <c r="B415" t="s">
         <v>1801</v>
       </c>
+      <c r="C415" t="s">
+        <v>580</v>
+      </c>
       <c r="D415" t="s">
         <v>2275</v>
       </c>
@@ -16111,6 +17301,9 @@
       <c r="B416" t="s">
         <v>1805</v>
       </c>
+      <c r="C416" t="s">
+        <v>3528</v>
+      </c>
       <c r="D416" t="s">
         <v>2298</v>
       </c>
@@ -16122,6 +17315,9 @@
       <c r="B417" t="s">
         <v>1806</v>
       </c>
+      <c r="C417" t="s">
+        <v>3188</v>
+      </c>
       <c r="D417" t="s">
         <v>2323</v>
       </c>
@@ -16133,6 +17329,9 @@
       <c r="B418" t="s">
         <v>1807</v>
       </c>
+      <c r="C418" t="s">
+        <v>3515</v>
+      </c>
       <c r="D418" t="s">
         <v>2264</v>
       </c>
@@ -16144,6 +17343,9 @@
       <c r="B419" t="s">
         <v>1808</v>
       </c>
+      <c r="C419" t="s">
+        <v>3508</v>
+      </c>
       <c r="D419" t="s">
         <v>2258</v>
       </c>
@@ -16163,6 +17365,9 @@
       <c r="B421" t="s">
         <v>1802</v>
       </c>
+      <c r="C421" t="s">
+        <v>603</v>
+      </c>
       <c r="D421" t="s">
         <v>2241</v>
       </c>
@@ -16174,6 +17379,9 @@
       <c r="B422" t="s">
         <v>1809</v>
       </c>
+      <c r="C422" t="s">
+        <v>3508</v>
+      </c>
       <c r="D422" t="s">
         <v>2258</v>
       </c>
@@ -16185,6 +17393,9 @@
       <c r="B423" t="s">
         <v>1810</v>
       </c>
+      <c r="C423" t="s">
+        <v>2253</v>
+      </c>
       <c r="D423" t="s">
         <v>2253</v>
       </c>
@@ -16196,6 +17407,9 @@
       <c r="B424" t="s">
         <v>1811</v>
       </c>
+      <c r="C424" t="s">
+        <v>3188</v>
+      </c>
       <c r="D424" t="s">
         <v>2262</v>
       </c>
@@ -16207,6 +17421,9 @@
       <c r="B425" t="s">
         <v>1813</v>
       </c>
+      <c r="C425" t="s">
+        <v>3188</v>
+      </c>
       <c r="D425" t="s">
         <v>2323</v>
       </c>
@@ -16218,6 +17435,9 @@
       <c r="B426" t="s">
         <v>1814</v>
       </c>
+      <c r="C426" t="s">
+        <v>3516</v>
+      </c>
       <c r="D426" t="s">
         <v>2290</v>
       </c>
@@ -16229,6 +17449,9 @@
       <c r="B427" t="s">
         <v>1803</v>
       </c>
+      <c r="C427" t="s">
+        <v>3505</v>
+      </c>
       <c r="D427" t="s">
         <v>2244</v>
       </c>
@@ -16240,6 +17463,9 @@
       <c r="B428" t="s">
         <v>1804</v>
       </c>
+      <c r="C428" t="s">
+        <v>2254</v>
+      </c>
       <c r="D428" t="s">
         <v>2254</v>
       </c>
@@ -16251,6 +17477,9 @@
       <c r="B429" t="s">
         <v>1815</v>
       </c>
+      <c r="C429" t="s">
+        <v>3505</v>
+      </c>
       <c r="D429" t="s">
         <v>2244</v>
       </c>
@@ -16262,6 +17491,9 @@
       <c r="B430" t="s">
         <v>1816</v>
       </c>
+      <c r="C430" t="s">
+        <v>2260</v>
+      </c>
       <c r="D430" t="s">
         <v>2260</v>
       </c>
@@ -16273,6 +17505,9 @@
       <c r="B431" t="s">
         <v>1817</v>
       </c>
+      <c r="C431" t="s">
+        <v>2265</v>
+      </c>
       <c r="D431" t="s">
         <v>2265</v>
       </c>
@@ -16284,6 +17519,9 @@
       <c r="B432" t="s">
         <v>1818</v>
       </c>
+      <c r="C432" t="s">
+        <v>3503</v>
+      </c>
       <c r="D432" t="s">
         <v>2237</v>
       </c>
@@ -16295,6 +17533,9 @@
       <c r="B433" t="s">
         <v>1819</v>
       </c>
+      <c r="C433" t="s">
+        <v>3507</v>
+      </c>
       <c r="D433" t="s">
         <v>2248</v>
       </c>
@@ -16306,6 +17547,9 @@
       <c r="B434" t="s">
         <v>1812</v>
       </c>
+      <c r="C434" t="s">
+        <v>3188</v>
+      </c>
       <c r="D434" t="s">
         <v>2262</v>
       </c>
@@ -16317,6 +17561,9 @@
       <c r="B435" t="s">
         <v>1820</v>
       </c>
+      <c r="C435" t="s">
+        <v>3507</v>
+      </c>
       <c r="D435" t="s">
         <v>2248</v>
       </c>
@@ -16328,6 +17575,9 @@
       <c r="B436" t="s">
         <v>1821</v>
       </c>
+      <c r="C436" t="s">
+        <v>3188</v>
+      </c>
       <c r="D436" t="s">
         <v>2262</v>
       </c>
@@ -16339,6 +17589,9 @@
       <c r="B437" t="s">
         <v>1822</v>
       </c>
+      <c r="C437" t="s">
+        <v>3508</v>
+      </c>
       <c r="D437" t="s">
         <v>2258</v>
       </c>
@@ -16350,6 +17603,9 @@
       <c r="B438" t="s">
         <v>1823</v>
       </c>
+      <c r="C438" t="s">
+        <v>3188</v>
+      </c>
       <c r="D438" t="s">
         <v>2284</v>
       </c>
@@ -16361,6 +17617,9 @@
       <c r="B439" t="s">
         <v>1824</v>
       </c>
+      <c r="C439" t="s">
+        <v>2294</v>
+      </c>
       <c r="D439" t="s">
         <v>2294</v>
       </c>
@@ -16372,6 +17631,9 @@
       <c r="B440" t="s">
         <v>1825</v>
       </c>
+      <c r="C440" t="s">
+        <v>636</v>
+      </c>
       <c r="D440" t="s">
         <v>636</v>
       </c>
@@ -16383,6 +17645,9 @@
       <c r="B441" t="s">
         <v>1826</v>
       </c>
+      <c r="C441" t="s">
+        <v>603</v>
+      </c>
       <c r="D441" t="s">
         <v>2240</v>
       </c>
@@ -16394,6 +17659,9 @@
       <c r="B442" t="s">
         <v>1828</v>
       </c>
+      <c r="C442" t="s">
+        <v>2249</v>
+      </c>
       <c r="D442" t="s">
         <v>2249</v>
       </c>
@@ -16405,6 +17673,9 @@
       <c r="B443" t="s">
         <v>1827</v>
       </c>
+      <c r="C443" t="s">
+        <v>2246</v>
+      </c>
       <c r="D443" t="s">
         <v>2246</v>
       </c>
@@ -16416,6 +17687,9 @@
       <c r="B444" t="s">
         <v>1829</v>
       </c>
+      <c r="C444" t="s">
+        <v>3523</v>
+      </c>
       <c r="D444" t="s">
         <v>2278</v>
       </c>
@@ -16427,6 +17701,9 @@
       <c r="B445" t="s">
         <v>1833</v>
       </c>
+      <c r="C445" t="s">
+        <v>2246</v>
+      </c>
       <c r="D445" t="s">
         <v>2246</v>
       </c>
@@ -16438,6 +17715,9 @@
       <c r="B446" t="s">
         <v>1834</v>
       </c>
+      <c r="C446" t="s">
+        <v>3527</v>
+      </c>
       <c r="D446" t="s">
         <v>2292</v>
       </c>
@@ -16449,6 +17729,9 @@
       <c r="B447" t="s">
         <v>1835</v>
       </c>
+      <c r="C447" t="s">
+        <v>3539</v>
+      </c>
       <c r="D447" t="s">
         <v>2322</v>
       </c>
@@ -16460,6 +17743,9 @@
       <c r="B448" t="s">
         <v>1836</v>
       </c>
+      <c r="C448" t="s">
+        <v>3535</v>
+      </c>
       <c r="D448" t="s">
         <v>2315</v>
       </c>
@@ -16471,6 +17757,9 @@
       <c r="B449" t="s">
         <v>1838</v>
       </c>
+      <c r="C449" t="s">
+        <v>3513</v>
+      </c>
       <c r="D449" t="s">
         <v>2257</v>
       </c>
@@ -16482,6 +17771,9 @@
       <c r="B450" t="s">
         <v>1840</v>
       </c>
+      <c r="C450" t="s">
+        <v>580</v>
+      </c>
       <c r="D450" t="s">
         <v>2275</v>
       </c>
@@ -16493,6 +17785,9 @@
       <c r="B451" t="s">
         <v>1842</v>
       </c>
+      <c r="C451" t="s">
+        <v>3514</v>
+      </c>
       <c r="D451" t="s">
         <v>2259</v>
       </c>
@@ -16504,6 +17799,9 @@
       <c r="B452" t="s">
         <v>1830</v>
       </c>
+      <c r="C452" t="s">
+        <v>3505</v>
+      </c>
       <c r="D452" t="s">
         <v>2299</v>
       </c>
@@ -16515,6 +17813,9 @@
       <c r="B453" t="s">
         <v>1843</v>
       </c>
+      <c r="C453" t="s">
+        <v>2249</v>
+      </c>
       <c r="D453" t="s">
         <v>2249</v>
       </c>
@@ -16526,6 +17827,9 @@
       <c r="B454" t="s">
         <v>1831</v>
       </c>
+      <c r="C454" t="s">
+        <v>3539</v>
+      </c>
       <c r="D454" t="s">
         <v>2322</v>
       </c>
@@ -16537,6 +17841,9 @@
       <c r="B455" t="s">
         <v>1844</v>
       </c>
+      <c r="C455" t="s">
+        <v>3532</v>
+      </c>
       <c r="D455" t="s">
         <v>2309</v>
       </c>
@@ -16548,6 +17855,9 @@
       <c r="B456" t="s">
         <v>1845</v>
       </c>
+      <c r="C456" t="s">
+        <v>2246</v>
+      </c>
       <c r="D456" t="s">
         <v>2246</v>
       </c>
@@ -16559,6 +17869,9 @@
       <c r="B457" t="s">
         <v>1847</v>
       </c>
+      <c r="C457" t="s">
+        <v>2249</v>
+      </c>
       <c r="D457" t="s">
         <v>2249</v>
       </c>
@@ -16570,6 +17883,9 @@
       <c r="B458" t="s">
         <v>1862</v>
       </c>
+      <c r="C458" t="s">
+        <v>2263</v>
+      </c>
       <c r="D458" t="s">
         <v>2263</v>
       </c>
@@ -16581,6 +17897,9 @@
       <c r="B459" t="s">
         <v>1848</v>
       </c>
+      <c r="C459" t="s">
+        <v>3515</v>
+      </c>
       <c r="D459" t="s">
         <v>2264</v>
       </c>
@@ -16592,6 +17911,9 @@
       <c r="B460" t="s">
         <v>1201</v>
       </c>
+      <c r="C460" t="s">
+        <v>570</v>
+      </c>
       <c r="D460" t="s">
         <v>2269</v>
       </c>
@@ -16603,6 +17925,9 @@
       <c r="B461" t="s">
         <v>1849</v>
       </c>
+      <c r="C461" t="s">
+        <v>3521</v>
+      </c>
       <c r="D461" t="s">
         <v>2274</v>
       </c>
@@ -16614,6 +17939,9 @@
       <c r="B462" t="s">
         <v>1851</v>
       </c>
+      <c r="C462" t="s">
+        <v>3188</v>
+      </c>
       <c r="D462" t="s">
         <v>2325</v>
       </c>
@@ -16625,6 +17953,9 @@
       <c r="B463" t="s">
         <v>1850</v>
       </c>
+      <c r="C463" t="s">
+        <v>2324</v>
+      </c>
       <c r="D463" t="s">
         <v>2324</v>
       </c>
@@ -16636,6 +17967,9 @@
       <c r="B464" t="s">
         <v>1854</v>
       </c>
+      <c r="C464" t="s">
+        <v>2297</v>
+      </c>
       <c r="D464" t="s">
         <v>2297</v>
       </c>
@@ -16647,6 +17981,9 @@
       <c r="B465" t="s">
         <v>1853</v>
       </c>
+      <c r="C465" t="s">
+        <v>3503</v>
+      </c>
       <c r="D465" t="s">
         <v>2237</v>
       </c>
@@ -16658,6 +17995,9 @@
       <c r="B466" t="s">
         <v>1852</v>
       </c>
+      <c r="C466" t="s">
+        <v>3530</v>
+      </c>
       <c r="D466" t="s">
         <v>2304</v>
       </c>
@@ -16669,6 +18009,9 @@
       <c r="B467" t="s">
         <v>1855</v>
       </c>
+      <c r="C467" t="s">
+        <v>3516</v>
+      </c>
       <c r="D467" t="s">
         <v>2290</v>
       </c>
@@ -16680,6 +18023,9 @@
       <c r="B468" t="s">
         <v>1846</v>
       </c>
+      <c r="C468" t="s">
+        <v>3516</v>
+      </c>
       <c r="D468" t="s">
         <v>2290</v>
       </c>
@@ -16691,6 +18037,9 @@
       <c r="B469" t="s">
         <v>1856</v>
       </c>
+      <c r="C469" t="s">
+        <v>2254</v>
+      </c>
       <c r="D469" t="s">
         <v>2254</v>
       </c>
@@ -16702,6 +18051,9 @@
       <c r="B470" t="s">
         <v>1857</v>
       </c>
+      <c r="C470" t="s">
+        <v>2254</v>
+      </c>
       <c r="D470" t="s">
         <v>2254</v>
       </c>
@@ -16713,6 +18065,9 @@
       <c r="B471" t="s">
         <v>1858</v>
       </c>
+      <c r="C471" t="s">
+        <v>580</v>
+      </c>
       <c r="D471" t="s">
         <v>2275</v>
       </c>
@@ -16724,6 +18079,9 @@
       <c r="B472" t="s">
         <v>1859</v>
       </c>
+      <c r="C472" t="s">
+        <v>2263</v>
+      </c>
       <c r="D472" t="s">
         <v>2263</v>
       </c>
@@ -16735,6 +18093,9 @@
       <c r="B473" t="s">
         <v>1860</v>
       </c>
+      <c r="C473" t="s">
+        <v>3507</v>
+      </c>
       <c r="D473" t="s">
         <v>2248</v>
       </c>
@@ -16746,6 +18107,9 @@
       <c r="B474" t="s">
         <v>1861</v>
       </c>
+      <c r="C474" t="s">
+        <v>3506</v>
+      </c>
       <c r="D474" t="s">
         <v>2245</v>
       </c>
@@ -16757,6 +18121,9 @@
       <c r="B475" t="s">
         <v>1832</v>
       </c>
+      <c r="C475" t="s">
+        <v>3516</v>
+      </c>
       <c r="D475" t="s">
         <v>2290</v>
       </c>
@@ -16768,6 +18135,9 @@
       <c r="B476" t="s">
         <v>258</v>
       </c>
+      <c r="C476" t="s">
+        <v>3510</v>
+      </c>
       <c r="D476" t="s">
         <v>2251</v>
       </c>
@@ -16779,6 +18149,9 @@
       <c r="B477" t="s">
         <v>1863</v>
       </c>
+      <c r="C477" t="s">
+        <v>2263</v>
+      </c>
       <c r="D477" t="s">
         <v>2263</v>
       </c>
@@ -16790,6 +18163,9 @@
       <c r="B478" t="s">
         <v>259</v>
       </c>
+      <c r="C478" t="s">
+        <v>2324</v>
+      </c>
       <c r="D478" t="s">
         <v>2324</v>
       </c>
@@ -16801,6 +18177,9 @@
       <c r="B479" t="s">
         <v>1841</v>
       </c>
+      <c r="C479" t="s">
+        <v>2249</v>
+      </c>
       <c r="D479" t="s">
         <v>2249</v>
       </c>
@@ -16812,6 +18191,9 @@
       <c r="B480" t="s">
         <v>1837</v>
       </c>
+      <c r="C480" t="s">
+        <v>3188</v>
+      </c>
       <c r="D480" t="s">
         <v>2284</v>
       </c>
@@ -16823,6 +18205,9 @@
       <c r="B481" t="s">
         <v>1839</v>
       </c>
+      <c r="C481" t="s">
+        <v>580</v>
+      </c>
       <c r="D481" t="s">
         <v>2275</v>
       </c>
@@ -16834,6 +18219,9 @@
       <c r="B482" t="s">
         <v>1864</v>
       </c>
+      <c r="C482" t="s">
+        <v>2260</v>
+      </c>
       <c r="D482" t="s">
         <v>2260</v>
       </c>
@@ -16845,6 +18233,9 @@
       <c r="B483" t="s">
         <v>1867</v>
       </c>
+      <c r="C483" t="s">
+        <v>3503</v>
+      </c>
       <c r="D483" t="s">
         <v>2237</v>
       </c>
@@ -16856,6 +18247,9 @@
       <c r="B484" t="s">
         <v>1612</v>
       </c>
+      <c r="C484" t="s">
+        <v>2263</v>
+      </c>
       <c r="D484" t="s">
         <v>2263</v>
       </c>
@@ -16867,6 +18261,9 @@
       <c r="B485" t="s">
         <v>1871</v>
       </c>
+      <c r="C485" t="s">
+        <v>2247</v>
+      </c>
       <c r="D485" t="s">
         <v>2247</v>
       </c>
@@ -16878,6 +18275,9 @@
       <c r="B486" t="s">
         <v>1869</v>
       </c>
+      <c r="C486" t="s">
+        <v>3517</v>
+      </c>
       <c r="D486" t="s">
         <v>2268</v>
       </c>
@@ -16889,6 +18289,9 @@
       <c r="B487" t="s">
         <v>1873</v>
       </c>
+      <c r="C487" t="s">
+        <v>3506</v>
+      </c>
       <c r="D487" t="s">
         <v>2245</v>
       </c>
@@ -16900,6 +18303,9 @@
       <c r="B488" t="s">
         <v>1874</v>
       </c>
+      <c r="C488" t="s">
+        <v>603</v>
+      </c>
       <c r="D488" t="s">
         <v>2256</v>
       </c>
@@ -16911,6 +18317,9 @@
       <c r="B489" t="s">
         <v>1870</v>
       </c>
+      <c r="C489" t="s">
+        <v>3540</v>
+      </c>
       <c r="D489" t="s">
         <v>2326</v>
       </c>
@@ -16922,6 +18331,9 @@
       <c r="B490" t="s">
         <v>1865</v>
       </c>
+      <c r="C490" t="s">
+        <v>3508</v>
+      </c>
       <c r="D490" t="s">
         <v>2258</v>
       </c>
@@ -16933,6 +18345,9 @@
       <c r="B491" t="s">
         <v>1876</v>
       </c>
+      <c r="C491" t="s">
+        <v>3503</v>
+      </c>
       <c r="D491" t="s">
         <v>2242</v>
       </c>
@@ -16944,6 +18359,9 @@
       <c r="B492" t="s">
         <v>775</v>
       </c>
+      <c r="C492" t="s">
+        <v>3503</v>
+      </c>
       <c r="D492" t="s">
         <v>2237</v>
       </c>
@@ -16955,6 +18373,9 @@
       <c r="B493" t="s">
         <v>1877</v>
       </c>
+      <c r="C493" t="s">
+        <v>2254</v>
+      </c>
       <c r="D493" t="s">
         <v>2254</v>
       </c>
@@ -16966,6 +18387,9 @@
       <c r="B494" t="s">
         <v>1878</v>
       </c>
+      <c r="C494" t="s">
+        <v>636</v>
+      </c>
       <c r="D494" t="s">
         <v>636</v>
       </c>
@@ -16977,6 +18401,9 @@
       <c r="B495" t="s">
         <v>1879</v>
       </c>
+      <c r="C495" t="s">
+        <v>3188</v>
+      </c>
       <c r="D495" t="s">
         <v>2323</v>
       </c>
@@ -16988,6 +18415,9 @@
       <c r="B496" t="s">
         <v>1890</v>
       </c>
+      <c r="C496" t="s">
+        <v>2254</v>
+      </c>
       <c r="D496" t="s">
         <v>2254</v>
       </c>
@@ -16999,6 +18429,9 @@
       <c r="B497" t="s">
         <v>1880</v>
       </c>
+      <c r="C497" t="s">
+        <v>3188</v>
+      </c>
       <c r="D497" t="s">
         <v>2284</v>
       </c>
@@ -17010,6 +18443,9 @@
       <c r="B498" t="s">
         <v>1872</v>
       </c>
+      <c r="C498" t="s">
+        <v>2246</v>
+      </c>
       <c r="D498" t="s">
         <v>2271</v>
       </c>
@@ -17021,6 +18457,9 @@
       <c r="B499" t="s">
         <v>1881</v>
       </c>
+      <c r="C499" t="s">
+        <v>3506</v>
+      </c>
       <c r="D499" t="s">
         <v>2318</v>
       </c>
@@ -17032,6 +18471,9 @@
       <c r="B500" t="s">
         <v>1868</v>
       </c>
+      <c r="C500" t="s">
+        <v>3506</v>
+      </c>
       <c r="D500" t="s">
         <v>2245</v>
       </c>
@@ -17043,6 +18485,9 @@
       <c r="B501" t="s">
         <v>1883</v>
       </c>
+      <c r="C501" t="s">
+        <v>3508</v>
+      </c>
       <c r="D501" t="s">
         <v>2258</v>
       </c>
@@ -17054,6 +18499,9 @@
       <c r="B502" t="s">
         <v>1882</v>
       </c>
+      <c r="C502" t="s">
+        <v>3508</v>
+      </c>
       <c r="D502" t="s">
         <v>2258</v>
       </c>
@@ -17065,6 +18513,9 @@
       <c r="B503" t="s">
         <v>1884</v>
       </c>
+      <c r="C503" t="s">
+        <v>603</v>
+      </c>
       <c r="D503" t="s">
         <v>2240</v>
       </c>
@@ -17076,6 +18527,9 @@
       <c r="B504" t="s">
         <v>1885</v>
       </c>
+      <c r="C504" t="s">
+        <v>3516</v>
+      </c>
       <c r="D504" t="s">
         <v>2327</v>
       </c>
@@ -17087,6 +18541,9 @@
       <c r="B505" t="s">
         <v>1875</v>
       </c>
+      <c r="C505" t="s">
+        <v>636</v>
+      </c>
       <c r="D505" t="s">
         <v>636</v>
       </c>
@@ -17098,6 +18555,9 @@
       <c r="B506" t="s">
         <v>1886</v>
       </c>
+      <c r="C506" t="s">
+        <v>3518</v>
+      </c>
       <c r="D506" t="s">
         <v>2328</v>
       </c>
@@ -17109,6 +18569,9 @@
       <c r="B507" t="s">
         <v>1887</v>
       </c>
+      <c r="C507" t="s">
+        <v>3503</v>
+      </c>
       <c r="D507" t="s">
         <v>2237</v>
       </c>
@@ -17120,6 +18583,9 @@
       <c r="B508" t="s">
         <v>1891</v>
       </c>
+      <c r="C508" t="s">
+        <v>2295</v>
+      </c>
       <c r="D508" t="s">
         <v>2295</v>
       </c>
@@ -17131,6 +18597,9 @@
       <c r="B509" t="s">
         <v>1504</v>
       </c>
+      <c r="C509" t="s">
+        <v>580</v>
+      </c>
       <c r="D509" t="s">
         <v>2280</v>
       </c>
@@ -17142,6 +18611,9 @@
       <c r="B510" t="s">
         <v>1895</v>
       </c>
+      <c r="C510" t="s">
+        <v>3512</v>
+      </c>
       <c r="D510" t="s">
         <v>2255</v>
       </c>
@@ -17153,6 +18625,9 @@
       <c r="B511" t="s">
         <v>1897</v>
       </c>
+      <c r="C511" t="s">
+        <v>2254</v>
+      </c>
       <c r="D511" t="s">
         <v>2254</v>
       </c>
@@ -17164,6 +18639,9 @@
       <c r="B512" t="s">
         <v>1898</v>
       </c>
+      <c r="C512" t="s">
+        <v>2249</v>
+      </c>
       <c r="D512" t="s">
         <v>2249</v>
       </c>
@@ -17175,6 +18653,9 @@
       <c r="B513" t="s">
         <v>1892</v>
       </c>
+      <c r="C513" t="s">
+        <v>3503</v>
+      </c>
       <c r="D513" t="s">
         <v>2237</v>
       </c>
@@ -17186,6 +18667,9 @@
       <c r="B514" t="s">
         <v>1893</v>
       </c>
+      <c r="C514" t="s">
+        <v>3188</v>
+      </c>
       <c r="D514" t="s">
         <v>2284</v>
       </c>
@@ -17197,6 +18681,9 @@
       <c r="B515" t="s">
         <v>1899</v>
       </c>
+      <c r="C515" t="s">
+        <v>570</v>
+      </c>
       <c r="D515" t="s">
         <v>2269</v>
       </c>
@@ -17208,6 +18695,9 @@
       <c r="B516" t="s">
         <v>1901</v>
       </c>
+      <c r="C516" t="s">
+        <v>2283</v>
+      </c>
       <c r="D516" t="s">
         <v>2283</v>
       </c>
@@ -17219,6 +18709,9 @@
       <c r="B517" t="s">
         <v>1902</v>
       </c>
+      <c r="C517" t="s">
+        <v>3503</v>
+      </c>
       <c r="D517" t="s">
         <v>2237</v>
       </c>
@@ -17230,6 +18723,9 @@
       <c r="B518" t="s">
         <v>1903</v>
       </c>
+      <c r="C518" t="s">
+        <v>2295</v>
+      </c>
       <c r="D518" t="s">
         <v>2295</v>
       </c>
@@ -17241,6 +18737,9 @@
       <c r="B519" t="s">
         <v>1900</v>
       </c>
+      <c r="C519" t="s">
+        <v>2254</v>
+      </c>
       <c r="D519" t="s">
         <v>2254</v>
       </c>
@@ -17252,6 +18751,9 @@
       <c r="B520" t="s">
         <v>1904</v>
       </c>
+      <c r="C520" t="s">
+        <v>603</v>
+      </c>
       <c r="D520" t="s">
         <v>2241</v>
       </c>
@@ -17263,6 +18765,9 @@
       <c r="B521" t="s">
         <v>1905</v>
       </c>
+      <c r="C521" t="s">
+        <v>3522</v>
+      </c>
       <c r="D521" t="s">
         <v>2250</v>
       </c>
@@ -17274,6 +18779,9 @@
       <c r="B522" t="s">
         <v>2206</v>
       </c>
+      <c r="C522" t="s">
+        <v>2247</v>
+      </c>
       <c r="D522" t="s">
         <v>2247</v>
       </c>
@@ -17285,6 +18793,9 @@
       <c r="B523" t="s">
         <v>1540</v>
       </c>
+      <c r="C523" t="s">
+        <v>3506</v>
+      </c>
       <c r="D523" t="s">
         <v>2245</v>
       </c>
@@ -17296,6 +18807,9 @@
       <c r="B524" t="s">
         <v>1906</v>
       </c>
+      <c r="C524" t="s">
+        <v>2254</v>
+      </c>
       <c r="D524" t="s">
         <v>2254</v>
       </c>
@@ -17307,6 +18821,9 @@
       <c r="B525" t="s">
         <v>1907</v>
       </c>
+      <c r="C525" t="s">
+        <v>3523</v>
+      </c>
       <c r="D525" t="s">
         <v>2278</v>
       </c>
@@ -17318,6 +18835,9 @@
       <c r="B526" t="s">
         <v>1908</v>
       </c>
+      <c r="C526" t="s">
+        <v>603</v>
+      </c>
       <c r="D526" t="s">
         <v>2240</v>
       </c>
@@ -17329,6 +18849,9 @@
       <c r="B527" t="s">
         <v>1909</v>
       </c>
+      <c r="C527" t="s">
+        <v>3518</v>
+      </c>
       <c r="D527" t="s">
         <v>2328</v>
       </c>
@@ -17340,6 +18863,9 @@
       <c r="B528" t="s">
         <v>1910</v>
       </c>
+      <c r="C528" t="s">
+        <v>3503</v>
+      </c>
       <c r="D528" t="s">
         <v>2237</v>
       </c>
@@ -17351,6 +18877,9 @@
       <c r="B529" t="s">
         <v>1911</v>
       </c>
+      <c r="C529" t="s">
+        <v>3506</v>
+      </c>
       <c r="D529" t="s">
         <v>2245</v>
       </c>
@@ -17362,6 +18891,9 @@
       <c r="B530" t="s">
         <v>1912</v>
       </c>
+      <c r="C530" t="s">
+        <v>2249</v>
+      </c>
       <c r="D530" t="s">
         <v>2249</v>
       </c>
@@ -17373,6 +18905,9 @@
       <c r="B531" t="s">
         <v>1914</v>
       </c>
+      <c r="C531" t="s">
+        <v>2263</v>
+      </c>
       <c r="D531" t="s">
         <v>2263</v>
       </c>
@@ -17384,6 +18919,9 @@
       <c r="B532" t="s">
         <v>1915</v>
       </c>
+      <c r="C532" t="s">
+        <v>3503</v>
+      </c>
       <c r="D532" t="s">
         <v>2237</v>
       </c>
@@ -17395,6 +18933,9 @@
       <c r="B533" t="s">
         <v>1916</v>
       </c>
+      <c r="C533" t="s">
+        <v>3515</v>
+      </c>
       <c r="D533" t="s">
         <v>2264</v>
       </c>
@@ -17406,6 +18947,9 @@
       <c r="B534" t="s">
         <v>1917</v>
       </c>
+      <c r="C534" t="s">
+        <v>2249</v>
+      </c>
       <c r="D534" t="s">
         <v>2249</v>
       </c>
@@ -17417,6 +18961,9 @@
       <c r="B535" t="s">
         <v>2190</v>
       </c>
+      <c r="C535" t="s">
+        <v>3534</v>
+      </c>
       <c r="D535" t="s">
         <v>2313</v>
       </c>
@@ -17428,6 +18975,9 @@
       <c r="B536" t="s">
         <v>1937</v>
       </c>
+      <c r="C536" t="s">
+        <v>2249</v>
+      </c>
       <c r="D536" t="s">
         <v>2249</v>
       </c>
@@ -17439,6 +18989,9 @@
       <c r="B537" t="s">
         <v>1682</v>
       </c>
+      <c r="C537" t="s">
+        <v>2263</v>
+      </c>
       <c r="D537" t="s">
         <v>2263</v>
       </c>
@@ -17450,6 +19003,9 @@
       <c r="B538" t="s">
         <v>1918</v>
       </c>
+      <c r="C538" t="s">
+        <v>2247</v>
+      </c>
       <c r="D538" t="s">
         <v>2247</v>
       </c>
@@ -17461,6 +19017,9 @@
       <c r="B539" t="s">
         <v>1921</v>
       </c>
+      <c r="C539" t="s">
+        <v>2247</v>
+      </c>
       <c r="D539" t="s">
         <v>2247</v>
       </c>
@@ -17472,6 +19031,9 @@
       <c r="B540" t="s">
         <v>1922</v>
       </c>
+      <c r="C540" t="s">
+        <v>2263</v>
+      </c>
       <c r="D540" t="s">
         <v>2263</v>
       </c>
@@ -17483,6 +19045,9 @@
       <c r="B541" t="s">
         <v>1919</v>
       </c>
+      <c r="C541" t="s">
+        <v>3536</v>
+      </c>
       <c r="D541" t="s">
         <v>2317</v>
       </c>
@@ -17494,6 +19059,9 @@
       <c r="B542" t="s">
         <v>1913</v>
       </c>
+      <c r="C542" t="s">
+        <v>3503</v>
+      </c>
       <c r="D542" t="s">
         <v>2237</v>
       </c>
@@ -17505,6 +19073,9 @@
       <c r="B543" t="s">
         <v>1894</v>
       </c>
+      <c r="C543" t="s">
+        <v>2249</v>
+      </c>
       <c r="D543" t="s">
         <v>2249</v>
       </c>
@@ -17516,6 +19087,9 @@
       <c r="B544" t="s">
         <v>1896</v>
       </c>
+      <c r="C544" t="s">
+        <v>2294</v>
+      </c>
       <c r="D544" t="s">
         <v>2294</v>
       </c>
@@ -17527,6 +19101,9 @@
       <c r="B545" t="s">
         <v>1925</v>
       </c>
+      <c r="C545" t="s">
+        <v>3188</v>
+      </c>
       <c r="D545" t="s">
         <v>2284</v>
       </c>
@@ -17538,6 +19115,9 @@
       <c r="B546" t="s">
         <v>1923</v>
       </c>
+      <c r="C546" t="s">
+        <v>3508</v>
+      </c>
       <c r="D546" t="s">
         <v>2258</v>
       </c>
@@ -17549,6 +19129,9 @@
       <c r="B547" t="s">
         <v>1924</v>
       </c>
+      <c r="C547" t="s">
+        <v>2254</v>
+      </c>
       <c r="D547" t="s">
         <v>2254</v>
       </c>
@@ -17560,6 +19143,9 @@
       <c r="B548" t="s">
         <v>1888</v>
       </c>
+      <c r="C548" t="s">
+        <v>3512</v>
+      </c>
       <c r="D548" t="s">
         <v>2255</v>
       </c>
@@ -17571,6 +19157,9 @@
       <c r="B549" t="s">
         <v>1243</v>
       </c>
+      <c r="C549" t="s">
+        <v>570</v>
+      </c>
       <c r="D549" t="s">
         <v>2269</v>
       </c>
@@ -17582,6 +19171,9 @@
       <c r="B550" t="s">
         <v>1920</v>
       </c>
+      <c r="C550" t="s">
+        <v>3519</v>
+      </c>
       <c r="D550" t="s">
         <v>2272</v>
       </c>
@@ -17593,6 +19185,9 @@
       <c r="B551" t="s">
         <v>1926</v>
       </c>
+      <c r="C551" t="s">
+        <v>3515</v>
+      </c>
       <c r="D551" t="s">
         <v>2264</v>
       </c>
@@ -17604,6 +19199,9 @@
       <c r="B552" t="s">
         <v>1927</v>
       </c>
+      <c r="C552" t="s">
+        <v>3516</v>
+      </c>
       <c r="D552" t="s">
         <v>2290</v>
       </c>
@@ -17615,6 +19213,9 @@
       <c r="B553" t="s">
         <v>1928</v>
       </c>
+      <c r="C553" t="s">
+        <v>603</v>
+      </c>
       <c r="D553" t="s">
         <v>2241</v>
       </c>
@@ -17626,6 +19227,9 @@
       <c r="B554" t="s">
         <v>2057</v>
       </c>
+      <c r="C554" t="s">
+        <v>3508</v>
+      </c>
       <c r="D554" t="s">
         <v>2258</v>
       </c>
@@ -17637,6 +19241,9 @@
       <c r="B555" t="s">
         <v>1930</v>
       </c>
+      <c r="C555" t="s">
+        <v>3503</v>
+      </c>
       <c r="D555" t="s">
         <v>2237</v>
       </c>
@@ -17648,6 +19255,9 @@
       <c r="B556" t="s">
         <v>1931</v>
       </c>
+      <c r="C556" t="s">
+        <v>3506</v>
+      </c>
       <c r="D556" t="s">
         <v>2245</v>
       </c>
@@ -17659,6 +19269,9 @@
       <c r="B557" t="s">
         <v>1932</v>
       </c>
+      <c r="C557" t="s">
+        <v>3541</v>
+      </c>
       <c r="D557" t="s">
         <v>2329</v>
       </c>
@@ -17670,6 +19283,9 @@
       <c r="B558" t="s">
         <v>283</v>
       </c>
+      <c r="C558" t="s">
+        <v>2265</v>
+      </c>
       <c r="D558" t="s">
         <v>2265</v>
       </c>
@@ -17681,6 +19297,9 @@
       <c r="B559" t="s">
         <v>1889</v>
       </c>
+      <c r="C559" t="s">
+        <v>2289</v>
+      </c>
       <c r="D559" t="s">
         <v>2289</v>
       </c>
@@ -17692,6 +19311,9 @@
       <c r="B560" t="s">
         <v>1934</v>
       </c>
+      <c r="C560" t="s">
+        <v>2247</v>
+      </c>
       <c r="D560" t="s">
         <v>2247</v>
       </c>
@@ -17703,6 +19325,9 @@
       <c r="B561" t="s">
         <v>1929</v>
       </c>
+      <c r="C561" t="s">
+        <v>3508</v>
+      </c>
       <c r="D561" t="s">
         <v>2258</v>
       </c>
@@ -17714,6 +19339,9 @@
       <c r="B562" t="s">
         <v>1935</v>
       </c>
+      <c r="C562" t="s">
+        <v>2246</v>
+      </c>
       <c r="D562" t="s">
         <v>2246</v>
       </c>
@@ -17725,6 +19353,9 @@
       <c r="B563" t="s">
         <v>1936</v>
       </c>
+      <c r="C563" t="s">
+        <v>3188</v>
+      </c>
       <c r="D563" t="s">
         <v>2284</v>
       </c>
@@ -17736,6 +19367,9 @@
       <c r="B564" t="s">
         <v>1938</v>
       </c>
+      <c r="C564" t="s">
+        <v>3503</v>
+      </c>
       <c r="D564" t="s">
         <v>2237</v>
       </c>
@@ -17747,6 +19381,9 @@
       <c r="B565" t="s">
         <v>1939</v>
       </c>
+      <c r="C565" t="s">
+        <v>3519</v>
+      </c>
       <c r="D565" t="s">
         <v>2272</v>
       </c>
@@ -17758,6 +19395,9 @@
       <c r="B566" t="s">
         <v>1955</v>
       </c>
+      <c r="C566" t="s">
+        <v>3503</v>
+      </c>
       <c r="D566" t="s">
         <v>2237</v>
       </c>
@@ -17769,6 +19409,9 @@
       <c r="B567" t="s">
         <v>1941</v>
       </c>
+      <c r="C567" t="s">
+        <v>603</v>
+      </c>
       <c r="D567" t="s">
         <v>2241</v>
       </c>
@@ -17780,6 +19423,9 @@
       <c r="B568" t="s">
         <v>1942</v>
       </c>
+      <c r="C568" t="s">
+        <v>3537</v>
+      </c>
       <c r="D568" t="s">
         <v>2320</v>
       </c>
@@ -17791,6 +19437,9 @@
       <c r="B569" t="s">
         <v>1786</v>
       </c>
+      <c r="C569" t="s">
+        <v>2249</v>
+      </c>
       <c r="D569" t="s">
         <v>2249</v>
       </c>
@@ -17802,6 +19451,9 @@
       <c r="B570" t="s">
         <v>1943</v>
       </c>
+      <c r="C570" t="s">
+        <v>3509</v>
+      </c>
       <c r="D570" t="s">
         <v>2238</v>
       </c>
@@ -17813,6 +19465,9 @@
       <c r="B571" t="s">
         <v>1944</v>
       </c>
+      <c r="C571" t="s">
+        <v>636</v>
+      </c>
       <c r="D571" t="s">
         <v>636</v>
       </c>
@@ -17824,6 +19479,9 @@
       <c r="B572" t="s">
         <v>1945</v>
       </c>
+      <c r="C572" t="s">
+        <v>3541</v>
+      </c>
       <c r="D572" t="s">
         <v>2329</v>
       </c>
@@ -17835,6 +19493,9 @@
       <c r="B573" t="s">
         <v>1946</v>
       </c>
+      <c r="C573" t="s">
+        <v>3506</v>
+      </c>
       <c r="D573" t="s">
         <v>2245</v>
       </c>
@@ -17846,6 +19507,9 @@
       <c r="B574" t="s">
         <v>311</v>
       </c>
+      <c r="C574" t="s">
+        <v>2254</v>
+      </c>
       <c r="D574" t="s">
         <v>2254</v>
       </c>
@@ -17857,6 +19521,9 @@
       <c r="B575" t="s">
         <v>312</v>
       </c>
+      <c r="C575" t="s">
+        <v>2254</v>
+      </c>
       <c r="D575" t="s">
         <v>2254</v>
       </c>
@@ -17868,6 +19535,9 @@
       <c r="B576" t="s">
         <v>1254</v>
       </c>
+      <c r="C576" t="s">
+        <v>3528</v>
+      </c>
       <c r="D576" t="s">
         <v>2298</v>
       </c>
@@ -17879,6 +19549,9 @@
       <c r="B577" t="s">
         <v>1947</v>
       </c>
+      <c r="C577" t="s">
+        <v>636</v>
+      </c>
       <c r="D577" t="s">
         <v>636</v>
       </c>
@@ -17890,6 +19563,9 @@
       <c r="B578" t="s">
         <v>1256</v>
       </c>
+      <c r="C578" t="s">
+        <v>2249</v>
+      </c>
       <c r="D578" t="s">
         <v>2249</v>
       </c>
@@ -17901,6 +19577,9 @@
       <c r="B579" t="s">
         <v>1948</v>
       </c>
+      <c r="C579" t="s">
+        <v>3510</v>
+      </c>
       <c r="D579" t="s">
         <v>2288</v>
       </c>
@@ -17920,6 +19599,9 @@
       <c r="B581" t="s">
         <v>1949</v>
       </c>
+      <c r="C581" t="s">
+        <v>603</v>
+      </c>
       <c r="D581" t="s">
         <v>2240</v>
       </c>
@@ -17931,6 +19613,9 @@
       <c r="B582" t="s">
         <v>1951</v>
       </c>
+      <c r="C582" t="s">
+        <v>3506</v>
+      </c>
       <c r="D582" t="s">
         <v>2245</v>
       </c>
@@ -17942,6 +19627,9 @@
       <c r="B583" t="s">
         <v>1940</v>
       </c>
+      <c r="C583" t="s">
+        <v>2263</v>
+      </c>
       <c r="D583" t="s">
         <v>2263</v>
       </c>
@@ -17953,6 +19641,9 @@
       <c r="B584" t="s">
         <v>1952</v>
       </c>
+      <c r="C584" t="s">
+        <v>3507</v>
+      </c>
       <c r="D584" t="s">
         <v>2248</v>
       </c>
@@ -17964,6 +19655,9 @@
       <c r="B585" t="s">
         <v>1950</v>
       </c>
+      <c r="C585" t="s">
+        <v>3503</v>
+      </c>
       <c r="D585" t="s">
         <v>2237</v>
       </c>
@@ -17975,6 +19669,9 @@
       <c r="B586" t="s">
         <v>1953</v>
       </c>
+      <c r="C586" t="s">
+        <v>3506</v>
+      </c>
       <c r="D586" t="s">
         <v>2266</v>
       </c>
@@ -17986,6 +19683,9 @@
       <c r="B587" t="s">
         <v>1954</v>
       </c>
+      <c r="C587" t="s">
+        <v>3515</v>
+      </c>
       <c r="D587" t="s">
         <v>2264</v>
       </c>
@@ -17997,6 +19697,9 @@
       <c r="B588" t="s">
         <v>1956</v>
       </c>
+      <c r="C588" t="s">
+        <v>3516</v>
+      </c>
       <c r="D588" t="s">
         <v>2267</v>
       </c>
@@ -18008,6 +19711,9 @@
       <c r="B589" t="s">
         <v>1957</v>
       </c>
+      <c r="C589" t="s">
+        <v>3507</v>
+      </c>
       <c r="D589" t="s">
         <v>2248</v>
       </c>
@@ -18019,6 +19725,9 @@
       <c r="B590" t="s">
         <v>315</v>
       </c>
+      <c r="C590" t="s">
+        <v>570</v>
+      </c>
       <c r="D590" t="s">
         <v>2269</v>
       </c>
@@ -18030,6 +19739,9 @@
       <c r="B591" t="s">
         <v>316</v>
       </c>
+      <c r="C591" t="s">
+        <v>636</v>
+      </c>
       <c r="D591" t="s">
         <v>636</v>
       </c>
@@ -18041,6 +19753,9 @@
       <c r="B592" t="s">
         <v>1958</v>
       </c>
+      <c r="C592" t="s">
+        <v>603</v>
+      </c>
       <c r="D592" t="s">
         <v>2243</v>
       </c>
@@ -18052,6 +19767,9 @@
       <c r="B593" t="s">
         <v>1959</v>
       </c>
+      <c r="C593" t="s">
+        <v>2330</v>
+      </c>
       <c r="D593" t="s">
         <v>2330</v>
       </c>
@@ -18063,6 +19781,9 @@
       <c r="B594" t="s">
         <v>317</v>
       </c>
+      <c r="C594" t="s">
+        <v>3507</v>
+      </c>
       <c r="D594" t="s">
         <v>2248</v>
       </c>
@@ -18074,6 +19795,9 @@
       <c r="B595" t="s">
         <v>1960</v>
       </c>
+      <c r="C595" t="s">
+        <v>3506</v>
+      </c>
       <c r="D595" t="s">
         <v>2245</v>
       </c>
@@ -18085,6 +19809,9 @@
       <c r="B596" t="s">
         <v>1961</v>
       </c>
+      <c r="C596" t="s">
+        <v>3505</v>
+      </c>
       <c r="D596" t="s">
         <v>2244</v>
       </c>
@@ -18096,6 +19823,9 @@
       <c r="B597" t="s">
         <v>1657</v>
       </c>
+      <c r="C597" t="s">
+        <v>2249</v>
+      </c>
       <c r="D597" t="s">
         <v>2249</v>
       </c>
@@ -18107,6 +19837,9 @@
       <c r="B598" t="s">
         <v>1963</v>
       </c>
+      <c r="C598" t="s">
+        <v>2254</v>
+      </c>
       <c r="D598" t="s">
         <v>2254</v>
       </c>
@@ -18118,6 +19851,9 @@
       <c r="B599" t="s">
         <v>1966</v>
       </c>
+      <c r="C599" t="s">
+        <v>3506</v>
+      </c>
       <c r="D599" t="s">
         <v>2245</v>
       </c>
@@ -18129,6 +19865,9 @@
       <c r="B600" t="s">
         <v>1964</v>
       </c>
+      <c r="C600" t="s">
+        <v>3538</v>
+      </c>
       <c r="D600" t="s">
         <v>2319</v>
       </c>
@@ -18140,6 +19879,9 @@
       <c r="B601" t="s">
         <v>1965</v>
       </c>
+      <c r="C601" t="s">
+        <v>3518</v>
+      </c>
       <c r="D601" t="s">
         <v>2270</v>
       </c>
@@ -18151,6 +19893,9 @@
       <c r="B602" t="s">
         <v>1962</v>
       </c>
+      <c r="C602" t="s">
+        <v>3538</v>
+      </c>
       <c r="D602" t="s">
         <v>2319</v>
       </c>
@@ -18162,6 +19907,9 @@
       <c r="B603" t="s">
         <v>1967</v>
       </c>
+      <c r="C603" t="s">
+        <v>3505</v>
+      </c>
       <c r="D603" t="s">
         <v>2299</v>
       </c>
@@ -18173,6 +19921,9 @@
       <c r="B604" t="s">
         <v>1968</v>
       </c>
+      <c r="C604" t="s">
+        <v>3524</v>
+      </c>
       <c r="D604" t="s">
         <v>2279</v>
       </c>
@@ -18184,6 +19935,9 @@
       <c r="B605" t="s">
         <v>1969</v>
       </c>
+      <c r="C605" t="s">
+        <v>2294</v>
+      </c>
       <c r="D605" t="s">
         <v>2294</v>
       </c>
@@ -18195,6 +19949,9 @@
       <c r="B606" t="s">
         <v>1973</v>
       </c>
+      <c r="C606" t="s">
+        <v>3516</v>
+      </c>
       <c r="D606" t="s">
         <v>2290</v>
       </c>
@@ -18206,6 +19963,9 @@
       <c r="B607" t="s">
         <v>1974</v>
       </c>
+      <c r="C607" t="s">
+        <v>3503</v>
+      </c>
       <c r="D607" t="s">
         <v>2237</v>
       </c>
@@ -18217,6 +19977,9 @@
       <c r="B608" t="s">
         <v>1975</v>
       </c>
+      <c r="C608" t="s">
+        <v>2283</v>
+      </c>
       <c r="D608" t="s">
         <v>2283</v>
       </c>
@@ -18228,6 +19991,9 @@
       <c r="B609" t="s">
         <v>1976</v>
       </c>
+      <c r="C609" t="s">
+        <v>2295</v>
+      </c>
       <c r="D609" t="s">
         <v>2295</v>
       </c>
@@ -18239,6 +20005,9 @@
       <c r="B610" t="s">
         <v>1977</v>
       </c>
+      <c r="C610" t="s">
+        <v>3510</v>
+      </c>
       <c r="D610" t="s">
         <v>2251</v>
       </c>
@@ -18250,6 +20019,9 @@
       <c r="B611" t="s">
         <v>1978</v>
       </c>
+      <c r="C611" t="s">
+        <v>2246</v>
+      </c>
       <c r="D611" t="s">
         <v>2246</v>
       </c>
@@ -18261,6 +20033,9 @@
       <c r="B612" t="s">
         <v>1979</v>
       </c>
+      <c r="C612" t="s">
+        <v>3522</v>
+      </c>
       <c r="D612" t="s">
         <v>2250</v>
       </c>
@@ -18272,6 +20047,9 @@
       <c r="B613" t="s">
         <v>1980</v>
       </c>
+      <c r="C613" t="s">
+        <v>2254</v>
+      </c>
       <c r="D613" t="s">
         <v>2254</v>
       </c>
@@ -18283,6 +20061,9 @@
       <c r="B614" t="s">
         <v>1981</v>
       </c>
+      <c r="C614" t="s">
+        <v>636</v>
+      </c>
       <c r="D614" t="s">
         <v>636</v>
       </c>
@@ -18294,6 +20075,9 @@
       <c r="B615" t="s">
         <v>1982</v>
       </c>
+      <c r="C615" t="s">
+        <v>3516</v>
+      </c>
       <c r="D615" t="s">
         <v>2290</v>
       </c>
@@ -18305,6 +20089,9 @@
       <c r="B616" t="s">
         <v>1989</v>
       </c>
+      <c r="C616" t="s">
+        <v>3503</v>
+      </c>
       <c r="D616" t="s">
         <v>2237</v>
       </c>
@@ -18316,6 +20103,9 @@
       <c r="B617" t="s">
         <v>1983</v>
       </c>
+      <c r="C617" t="s">
+        <v>3506</v>
+      </c>
       <c r="D617" t="s">
         <v>2245</v>
       </c>
@@ -18327,6 +20117,9 @@
       <c r="B618" t="s">
         <v>1984</v>
       </c>
+      <c r="C618" t="s">
+        <v>2249</v>
+      </c>
       <c r="D618" t="s">
         <v>2249</v>
       </c>
@@ -18338,6 +20131,9 @@
       <c r="B619" t="s">
         <v>2000</v>
       </c>
+      <c r="C619" t="s">
+        <v>3503</v>
+      </c>
       <c r="D619" t="s">
         <v>2321</v>
       </c>
@@ -18349,6 +20145,9 @@
       <c r="B620" t="s">
         <v>1985</v>
       </c>
+      <c r="C620" t="s">
+        <v>603</v>
+      </c>
       <c r="D620" t="s">
         <v>2243</v>
       </c>
@@ -18360,6 +20159,9 @@
       <c r="B621" t="s">
         <v>2008</v>
       </c>
+      <c r="C621" t="s">
+        <v>3528</v>
+      </c>
       <c r="D621" t="s">
         <v>2298</v>
       </c>
@@ -18371,6 +20173,9 @@
       <c r="B622" t="s">
         <v>2015</v>
       </c>
+      <c r="C622" t="s">
+        <v>3503</v>
+      </c>
       <c r="D622" t="s">
         <v>2237</v>
       </c>
@@ -18382,6 +20187,9 @@
       <c r="B623" t="s">
         <v>1986</v>
       </c>
+      <c r="C623" t="s">
+        <v>3514</v>
+      </c>
       <c r="D623" t="s">
         <v>2259</v>
       </c>
@@ -18393,6 +20201,9 @@
       <c r="B624" t="s">
         <v>1971</v>
       </c>
+      <c r="C624" t="s">
+        <v>3523</v>
+      </c>
       <c r="D624" t="s">
         <v>2296</v>
       </c>
@@ -18404,6 +20215,9 @@
       <c r="B625" t="s">
         <v>1970</v>
       </c>
+      <c r="C625" t="s">
+        <v>603</v>
+      </c>
       <c r="D625" t="s">
         <v>2243</v>
       </c>
@@ -18415,6 +20229,9 @@
       <c r="B626" t="s">
         <v>1987</v>
       </c>
+      <c r="C626" t="s">
+        <v>2254</v>
+      </c>
       <c r="D626" t="s">
         <v>2254</v>
       </c>
@@ -18426,6 +20243,9 @@
       <c r="B627" t="s">
         <v>1988</v>
       </c>
+      <c r="C627" t="s">
+        <v>636</v>
+      </c>
       <c r="D627" t="s">
         <v>636</v>
       </c>
@@ -18437,6 +20257,9 @@
       <c r="B628" t="s">
         <v>1972</v>
       </c>
+      <c r="C628" t="s">
+        <v>3519</v>
+      </c>
       <c r="D628" t="s">
         <v>2272</v>
       </c>
@@ -18448,6 +20271,9 @@
       <c r="B629" t="s">
         <v>1991</v>
       </c>
+      <c r="C629" t="s">
+        <v>2246</v>
+      </c>
       <c r="D629" t="s">
         <v>2246</v>
       </c>
@@ -18459,6 +20285,9 @@
       <c r="B630" t="s">
         <v>1992</v>
       </c>
+      <c r="C630" t="s">
+        <v>2249</v>
+      </c>
       <c r="D630" t="s">
         <v>2249</v>
       </c>
@@ -18470,6 +20299,9 @@
       <c r="B631" t="s">
         <v>2017</v>
       </c>
+      <c r="C631" t="s">
+        <v>580</v>
+      </c>
       <c r="D631" t="s">
         <v>2280</v>
       </c>
@@ -18481,6 +20313,9 @@
       <c r="B632" t="s">
         <v>1993</v>
       </c>
+      <c r="C632" t="s">
+        <v>3503</v>
+      </c>
       <c r="D632" t="s">
         <v>2242</v>
       </c>
@@ -18492,6 +20327,9 @@
       <c r="B633" t="s">
         <v>1994</v>
       </c>
+      <c r="C633" t="s">
+        <v>2254</v>
+      </c>
       <c r="D633" t="s">
         <v>2254</v>
       </c>
@@ -18503,6 +20341,9 @@
       <c r="B634" t="s">
         <v>1995</v>
       </c>
+      <c r="C634" t="s">
+        <v>2249</v>
+      </c>
       <c r="D634" t="s">
         <v>2249</v>
       </c>
@@ -18514,6 +20355,9 @@
       <c r="B635" t="s">
         <v>1997</v>
       </c>
+      <c r="C635" t="s">
+        <v>3532</v>
+      </c>
       <c r="D635" t="s">
         <v>2309</v>
       </c>
@@ -18525,6 +20369,9 @@
       <c r="B636" t="s">
         <v>1996</v>
       </c>
+      <c r="C636" t="s">
+        <v>2263</v>
+      </c>
       <c r="D636" t="s">
         <v>2263</v>
       </c>
@@ -18536,6 +20383,9 @@
       <c r="B637" t="s">
         <v>1998</v>
       </c>
+      <c r="C637" t="s">
+        <v>2253</v>
+      </c>
       <c r="D637" t="s">
         <v>2253</v>
       </c>
@@ -18547,6 +20397,9 @@
       <c r="B638" t="s">
         <v>1999</v>
       </c>
+      <c r="C638" t="s">
+        <v>3503</v>
+      </c>
       <c r="D638" t="s">
         <v>2237</v>
       </c>
@@ -18558,6 +20411,9 @@
       <c r="B639" t="s">
         <v>2001</v>
       </c>
+      <c r="C639" t="s">
+        <v>3507</v>
+      </c>
       <c r="D639" t="s">
         <v>2248</v>
       </c>
@@ -18569,6 +20425,9 @@
       <c r="B640" t="s">
         <v>1750</v>
       </c>
+      <c r="C640" t="s">
+        <v>3504</v>
+      </c>
       <c r="D640" t="s">
         <v>2239</v>
       </c>
@@ -18580,6 +20439,9 @@
       <c r="B641" t="s">
         <v>2002</v>
       </c>
+      <c r="C641" t="s">
+        <v>2246</v>
+      </c>
       <c r="D641" t="s">
         <v>2271</v>
       </c>
@@ -18591,6 +20453,9 @@
       <c r="B642" t="s">
         <v>1990</v>
       </c>
+      <c r="C642" t="s">
+        <v>603</v>
+      </c>
       <c r="D642" t="s">
         <v>2241</v>
       </c>
@@ -18602,6 +20467,9 @@
       <c r="B643" t="s">
         <v>2003</v>
       </c>
+      <c r="C643" t="s">
+        <v>2246</v>
+      </c>
       <c r="D643" t="s">
         <v>2246</v>
       </c>
@@ -18613,6 +20481,9 @@
       <c r="B644" t="s">
         <v>2005</v>
       </c>
+      <c r="C644" t="s">
+        <v>3508</v>
+      </c>
       <c r="D644" t="s">
         <v>2258</v>
       </c>
@@ -18624,6 +20495,9 @@
       <c r="B645" t="s">
         <v>2004</v>
       </c>
+      <c r="C645" t="s">
+        <v>570</v>
+      </c>
       <c r="D645" t="s">
         <v>2269</v>
       </c>
@@ -18635,6 +20509,9 @@
       <c r="B646" t="s">
         <v>2006</v>
       </c>
+      <c r="C646" t="s">
+        <v>2254</v>
+      </c>
       <c r="D646" t="s">
         <v>2254</v>
       </c>
@@ -18646,6 +20523,9 @@
       <c r="B647" t="s">
         <v>2007</v>
       </c>
+      <c r="C647" t="s">
+        <v>3508</v>
+      </c>
       <c r="D647" t="s">
         <v>2258</v>
       </c>
@@ -18657,6 +20537,9 @@
       <c r="B648" t="s">
         <v>2010</v>
       </c>
+      <c r="C648" t="s">
+        <v>3515</v>
+      </c>
       <c r="D648" t="s">
         <v>2264</v>
       </c>
@@ -18668,6 +20551,9 @@
       <c r="B649" t="s">
         <v>2011</v>
       </c>
+      <c r="C649" t="s">
+        <v>636</v>
+      </c>
       <c r="D649" t="s">
         <v>636</v>
       </c>
@@ -18679,6 +20565,9 @@
       <c r="B650" t="s">
         <v>2012</v>
       </c>
+      <c r="C650" t="s">
+        <v>3503</v>
+      </c>
       <c r="D650" t="s">
         <v>2237</v>
       </c>
@@ -18690,6 +20579,9 @@
       <c r="B651" t="s">
         <v>2016</v>
       </c>
+      <c r="C651" t="s">
+        <v>580</v>
+      </c>
       <c r="D651" t="s">
         <v>2280</v>
       </c>
@@ -18701,6 +20593,9 @@
       <c r="B652" t="s">
         <v>2013</v>
       </c>
+      <c r="C652" t="s">
+        <v>2254</v>
+      </c>
       <c r="D652" t="s">
         <v>2254</v>
       </c>
@@ -18712,6 +20607,9 @@
       <c r="B653" t="s">
         <v>2014</v>
       </c>
+      <c r="C653" t="s">
+        <v>2247</v>
+      </c>
       <c r="D653" t="s">
         <v>2247</v>
       </c>
@@ -18723,6 +20621,9 @@
       <c r="B654" t="s">
         <v>2009</v>
       </c>
+      <c r="C654" t="s">
+        <v>3536</v>
+      </c>
       <c r="D654" t="s">
         <v>2317</v>
       </c>
@@ -18734,6 +20635,9 @@
       <c r="B655" t="s">
         <v>2018</v>
       </c>
+      <c r="C655" t="s">
+        <v>2254</v>
+      </c>
       <c r="D655" t="s">
         <v>2254</v>
       </c>
@@ -18745,6 +20649,9 @@
       <c r="B656" t="s">
         <v>2019</v>
       </c>
+      <c r="C656" t="s">
+        <v>3509</v>
+      </c>
       <c r="D656" t="s">
         <v>2238</v>
       </c>
@@ -18756,6 +20663,9 @@
       <c r="B657" t="s">
         <v>2022</v>
       </c>
+      <c r="C657" t="s">
+        <v>3534</v>
+      </c>
       <c r="D657" t="s">
         <v>2313</v>
       </c>
@@ -18767,6 +20677,9 @@
       <c r="B658" t="s">
         <v>2024</v>
       </c>
+      <c r="C658" t="s">
+        <v>3520</v>
+      </c>
       <c r="D658" t="s">
         <v>2285</v>
       </c>
@@ -18778,6 +20691,9 @@
       <c r="B659" t="s">
         <v>2025</v>
       </c>
+      <c r="C659" t="s">
+        <v>2247</v>
+      </c>
       <c r="D659" t="s">
         <v>2247</v>
       </c>
@@ -18789,6 +20705,9 @@
       <c r="B660" t="s">
         <v>2026</v>
       </c>
+      <c r="C660" t="s">
+        <v>2263</v>
+      </c>
       <c r="D660" t="s">
         <v>2263</v>
       </c>
@@ -18800,6 +20719,9 @@
       <c r="B661" t="s">
         <v>2027</v>
       </c>
+      <c r="C661" t="s">
+        <v>3535</v>
+      </c>
       <c r="D661" t="s">
         <v>2315</v>
       </c>
@@ -18811,6 +20733,9 @@
       <c r="B662" t="s">
         <v>2028</v>
       </c>
+      <c r="C662" t="s">
+        <v>3188</v>
+      </c>
       <c r="D662" t="s">
         <v>2284</v>
       </c>
@@ -18822,6 +20747,9 @@
       <c r="B663" t="s">
         <v>2029</v>
       </c>
+      <c r="C663" t="s">
+        <v>3519</v>
+      </c>
       <c r="D663" t="s">
         <v>2272</v>
       </c>
@@ -18833,6 +20761,9 @@
       <c r="B664" t="s">
         <v>2030</v>
       </c>
+      <c r="C664" t="s">
+        <v>3188</v>
+      </c>
       <c r="D664" t="s">
         <v>2284</v>
       </c>
@@ -18844,6 +20775,9 @@
       <c r="B665" t="s">
         <v>2157</v>
       </c>
+      <c r="C665" t="s">
+        <v>3505</v>
+      </c>
       <c r="D665" t="s">
         <v>2299</v>
       </c>
@@ -18855,6 +20789,9 @@
       <c r="B666" t="s">
         <v>2031</v>
       </c>
+      <c r="C666" t="s">
+        <v>3505</v>
+      </c>
       <c r="D666" t="s">
         <v>2307</v>
       </c>
@@ -18866,6 +20803,9 @@
       <c r="B667" t="s">
         <v>2033</v>
       </c>
+      <c r="C667" t="s">
+        <v>2254</v>
+      </c>
       <c r="D667" t="s">
         <v>2254</v>
       </c>
@@ -18877,6 +20817,9 @@
       <c r="B668" t="s">
         <v>2034</v>
       </c>
+      <c r="C668" t="s">
+        <v>3188</v>
+      </c>
       <c r="D668" t="s">
         <v>2284</v>
       </c>
@@ -18888,6 +20831,9 @@
       <c r="B669" t="s">
         <v>2035</v>
       </c>
+      <c r="C669" t="s">
+        <v>3516</v>
+      </c>
       <c r="D669" t="s">
         <v>2290</v>
       </c>
@@ -18899,6 +20845,9 @@
       <c r="B670" t="s">
         <v>2036</v>
       </c>
+      <c r="C670" t="s">
+        <v>580</v>
+      </c>
       <c r="D670" t="s">
         <v>2275</v>
       </c>
@@ -18910,6 +20859,9 @@
       <c r="B671" t="s">
         <v>2020</v>
       </c>
+      <c r="C671" t="s">
+        <v>2295</v>
+      </c>
       <c r="D671" t="s">
         <v>2295</v>
       </c>
@@ -18921,6 +20873,9 @@
       <c r="B672" t="s">
         <v>2037</v>
       </c>
+      <c r="C672" t="s">
+        <v>3503</v>
+      </c>
       <c r="D672" t="s">
         <v>2321</v>
       </c>
@@ -18932,6 +20887,9 @@
       <c r="B673" t="s">
         <v>2038</v>
       </c>
+      <c r="C673" t="s">
+        <v>2247</v>
+      </c>
       <c r="D673" t="s">
         <v>2247</v>
       </c>
@@ -18943,6 +20901,9 @@
       <c r="B674" t="s">
         <v>2039</v>
       </c>
+      <c r="C674" t="s">
+        <v>3525</v>
+      </c>
       <c r="D674" t="s">
         <v>2281</v>
       </c>
@@ -18954,6 +20915,9 @@
       <c r="B675" t="s">
         <v>2040</v>
       </c>
+      <c r="C675" t="s">
+        <v>2289</v>
+      </c>
       <c r="D675" t="s">
         <v>2289</v>
       </c>
@@ -18965,6 +20929,9 @@
       <c r="B676" t="s">
         <v>2041</v>
       </c>
+      <c r="C676" t="s">
+        <v>3503</v>
+      </c>
       <c r="D676" t="s">
         <v>2242</v>
       </c>
@@ -18976,6 +20943,9 @@
       <c r="B677" t="s">
         <v>2042</v>
       </c>
+      <c r="C677" t="s">
+        <v>3515</v>
+      </c>
       <c r="D677" t="s">
         <v>2264</v>
       </c>
@@ -18987,6 +20957,9 @@
       <c r="B678" t="s">
         <v>881</v>
       </c>
+      <c r="C678" t="s">
+        <v>3542</v>
+      </c>
       <c r="D678" t="s">
         <v>2331</v>
       </c>
@@ -19006,6 +20979,9 @@
       <c r="B680" t="s">
         <v>2043</v>
       </c>
+      <c r="C680" t="s">
+        <v>2246</v>
+      </c>
       <c r="D680" t="s">
         <v>2271</v>
       </c>
@@ -19017,6 +20993,9 @@
       <c r="B681" t="s">
         <v>2032</v>
       </c>
+      <c r="C681" t="s">
+        <v>3512</v>
+      </c>
       <c r="D681" t="s">
         <v>2255</v>
       </c>
@@ -19028,6 +21007,9 @@
       <c r="B682" t="s">
         <v>2044</v>
       </c>
+      <c r="C682" t="s">
+        <v>3508</v>
+      </c>
       <c r="D682" t="s">
         <v>2258</v>
       </c>
@@ -19039,6 +21021,9 @@
       <c r="B683" t="s">
         <v>2045</v>
       </c>
+      <c r="C683" t="s">
+        <v>636</v>
+      </c>
       <c r="D683" t="s">
         <v>636</v>
       </c>
@@ -19058,6 +21043,9 @@
       <c r="B685" t="s">
         <v>2046</v>
       </c>
+      <c r="C685" t="s">
+        <v>3506</v>
+      </c>
       <c r="D685" t="s">
         <v>2245</v>
       </c>
@@ -19069,6 +21057,9 @@
       <c r="B686" t="s">
         <v>2047</v>
       </c>
+      <c r="C686" t="s">
+        <v>603</v>
+      </c>
       <c r="D686" t="s">
         <v>2241</v>
       </c>
@@ -19080,6 +21071,9 @@
       <c r="B687" t="s">
         <v>2048</v>
       </c>
+      <c r="C687" t="s">
+        <v>3506</v>
+      </c>
       <c r="D687" t="s">
         <v>2245</v>
       </c>
@@ -19091,6 +21085,9 @@
       <c r="B688" t="s">
         <v>2021</v>
       </c>
+      <c r="C688" t="s">
+        <v>3506</v>
+      </c>
       <c r="D688" t="s">
         <v>2245</v>
       </c>
@@ -19102,6 +21099,9 @@
       <c r="B689" t="s">
         <v>2049</v>
       </c>
+      <c r="C689" t="s">
+        <v>3516</v>
+      </c>
       <c r="D689" t="s">
         <v>2290</v>
       </c>
@@ -19121,6 +21121,9 @@
       <c r="B691" t="s">
         <v>2023</v>
       </c>
+      <c r="C691" t="s">
+        <v>2254</v>
+      </c>
       <c r="D691" t="s">
         <v>2254</v>
       </c>
@@ -19132,6 +21135,9 @@
       <c r="B692" t="s">
         <v>2054</v>
       </c>
+      <c r="C692" t="s">
+        <v>3543</v>
+      </c>
       <c r="D692" t="s">
         <v>2332</v>
       </c>
@@ -19151,6 +21157,9 @@
       <c r="B694" t="s">
         <v>2050</v>
       </c>
+      <c r="C694" t="s">
+        <v>3188</v>
+      </c>
       <c r="D694" t="s">
         <v>2262</v>
       </c>
@@ -19162,6 +21171,9 @@
       <c r="B695" t="s">
         <v>2055</v>
       </c>
+      <c r="C695" t="s">
+        <v>3506</v>
+      </c>
       <c r="D695" t="s">
         <v>2245</v>
       </c>
@@ -19173,6 +21185,9 @@
       <c r="B696" t="s">
         <v>2056</v>
       </c>
+      <c r="C696" t="s">
+        <v>3188</v>
+      </c>
       <c r="D696" t="s">
         <v>2284</v>
       </c>
@@ -19184,6 +21199,9 @@
       <c r="B697" t="s">
         <v>2058</v>
       </c>
+      <c r="C697" t="s">
+        <v>3508</v>
+      </c>
       <c r="D697" t="s">
         <v>2258</v>
       </c>
@@ -19195,6 +21213,9 @@
       <c r="B698" t="s">
         <v>2059</v>
       </c>
+      <c r="C698" t="s">
+        <v>2249</v>
+      </c>
       <c r="D698" t="s">
         <v>2249</v>
       </c>
@@ -19206,6 +21227,9 @@
       <c r="B699" t="s">
         <v>2060</v>
       </c>
+      <c r="C699" t="s">
+        <v>603</v>
+      </c>
       <c r="D699" t="s">
         <v>2243</v>
       </c>
@@ -19217,6 +21241,9 @@
       <c r="B700" t="s">
         <v>2061</v>
       </c>
+      <c r="C700" t="s">
+        <v>3508</v>
+      </c>
       <c r="D700" t="s">
         <v>2258</v>
       </c>
@@ -19228,6 +21255,9 @@
       <c r="B701" t="s">
         <v>2062</v>
       </c>
+      <c r="C701" t="s">
+        <v>2294</v>
+      </c>
       <c r="D701" t="s">
         <v>2294</v>
       </c>
@@ -19239,6 +21269,9 @@
       <c r="B702" t="s">
         <v>2063</v>
       </c>
+      <c r="C702" t="s">
+        <v>3188</v>
+      </c>
       <c r="D702" t="s">
         <v>2284</v>
       </c>
@@ -19250,6 +21283,9 @@
       <c r="B703" t="s">
         <v>2064</v>
       </c>
+      <c r="C703" t="s">
+        <v>3528</v>
+      </c>
       <c r="D703" t="s">
         <v>2298</v>
       </c>
@@ -19261,6 +21297,9 @@
       <c r="B704" t="s">
         <v>2065</v>
       </c>
+      <c r="C704" t="s">
+        <v>2260</v>
+      </c>
       <c r="D704" t="s">
         <v>2260</v>
       </c>
@@ -19272,6 +21311,9 @@
       <c r="B705" t="s">
         <v>2081</v>
       </c>
+      <c r="C705" t="s">
+        <v>3514</v>
+      </c>
       <c r="D705" t="s">
         <v>2259</v>
       </c>
@@ -19283,6 +21325,9 @@
       <c r="B706" t="s">
         <v>2067</v>
       </c>
+      <c r="C706" t="s">
+        <v>3503</v>
+      </c>
       <c r="D706" t="s">
         <v>2237</v>
       </c>
@@ -19294,6 +21339,9 @@
       <c r="B707" t="s">
         <v>2068</v>
       </c>
+      <c r="C707" t="s">
+        <v>3503</v>
+      </c>
       <c r="D707" t="s">
         <v>2237</v>
       </c>
@@ -19305,6 +21353,9 @@
       <c r="B708" t="s">
         <v>2100</v>
       </c>
+      <c r="C708" t="s">
+        <v>580</v>
+      </c>
       <c r="D708" t="s">
         <v>2280</v>
       </c>
@@ -19316,6 +21367,9 @@
       <c r="B709" t="s">
         <v>2069</v>
       </c>
+      <c r="C709" t="s">
+        <v>2330</v>
+      </c>
       <c r="D709" t="s">
         <v>2330</v>
       </c>
@@ -19327,6 +21381,9 @@
       <c r="B710" t="s">
         <v>2070</v>
       </c>
+      <c r="C710" t="s">
+        <v>3504</v>
+      </c>
       <c r="D710" t="s">
         <v>2239</v>
       </c>
@@ -19338,6 +21395,9 @@
       <c r="B711" t="s">
         <v>2051</v>
       </c>
+      <c r="C711" t="s">
+        <v>2312</v>
+      </c>
       <c r="D711" t="s">
         <v>2312</v>
       </c>
@@ -19349,6 +21409,9 @@
       <c r="B712" t="s">
         <v>2095</v>
       </c>
+      <c r="C712" t="s">
+        <v>3534</v>
+      </c>
       <c r="D712" t="s">
         <v>2313</v>
       </c>
@@ -19368,6 +21431,9 @@
       <c r="B714" t="s">
         <v>2071</v>
       </c>
+      <c r="C714" t="s">
+        <v>2260</v>
+      </c>
       <c r="D714" t="s">
         <v>2260</v>
       </c>
@@ -19379,6 +21445,9 @@
       <c r="B715" t="s">
         <v>2079</v>
       </c>
+      <c r="C715" t="s">
+        <v>3516</v>
+      </c>
       <c r="D715" t="s">
         <v>2333</v>
       </c>
@@ -19390,6 +21459,9 @@
       <c r="B716" t="s">
         <v>2073</v>
       </c>
+      <c r="C716" t="s">
+        <v>2263</v>
+      </c>
       <c r="D716" t="s">
         <v>2263</v>
       </c>
@@ -19401,6 +21473,9 @@
       <c r="B717" t="s">
         <v>2074</v>
       </c>
+      <c r="C717" t="s">
+        <v>2247</v>
+      </c>
       <c r="D717" t="s">
         <v>2247</v>
       </c>
@@ -19412,6 +21487,9 @@
       <c r="B718" t="s">
         <v>2075</v>
       </c>
+      <c r="C718" t="s">
+        <v>3508</v>
+      </c>
       <c r="D718" t="s">
         <v>2258</v>
       </c>
@@ -19423,6 +21501,9 @@
       <c r="B719" t="s">
         <v>2076</v>
       </c>
+      <c r="C719" t="s">
+        <v>3519</v>
+      </c>
       <c r="D719" t="s">
         <v>2272</v>
       </c>
@@ -19434,6 +21515,9 @@
       <c r="B720" t="s">
         <v>2077</v>
       </c>
+      <c r="C720" t="s">
+        <v>3508</v>
+      </c>
       <c r="D720" t="s">
         <v>2258</v>
       </c>
@@ -19445,6 +21529,9 @@
       <c r="B721" t="s">
         <v>2078</v>
       </c>
+      <c r="C721" t="s">
+        <v>3503</v>
+      </c>
       <c r="D721" t="s">
         <v>2237</v>
       </c>
@@ -19456,6 +21543,9 @@
       <c r="B722" t="s">
         <v>2080</v>
       </c>
+      <c r="C722" t="s">
+        <v>603</v>
+      </c>
       <c r="D722" t="s">
         <v>2240</v>
       </c>
@@ -19467,6 +21557,9 @@
       <c r="B723" t="s">
         <v>2082</v>
       </c>
+      <c r="C723" t="s">
+        <v>3519</v>
+      </c>
       <c r="D723" t="s">
         <v>2272</v>
       </c>
@@ -19478,6 +21571,9 @@
       <c r="B724" t="s">
         <v>2052</v>
       </c>
+      <c r="C724" t="s">
+        <v>636</v>
+      </c>
       <c r="D724" t="s">
         <v>636</v>
       </c>
@@ -19489,6 +21585,9 @@
       <c r="B725" t="s">
         <v>2083</v>
       </c>
+      <c r="C725" t="s">
+        <v>3516</v>
+      </c>
       <c r="D725" t="s">
         <v>2290</v>
       </c>
@@ -19500,6 +21599,9 @@
       <c r="B726" t="s">
         <v>2072</v>
       </c>
+      <c r="C726" t="s">
+        <v>3505</v>
+      </c>
       <c r="D726" t="s">
         <v>2244</v>
       </c>
@@ -19511,6 +21613,9 @@
       <c r="B727" t="s">
         <v>2084</v>
       </c>
+      <c r="C727" t="s">
+        <v>3505</v>
+      </c>
       <c r="D727" t="s">
         <v>2244</v>
       </c>
@@ -19522,6 +21627,9 @@
       <c r="B728" t="s">
         <v>2085</v>
       </c>
+      <c r="C728" t="s">
+        <v>3503</v>
+      </c>
       <c r="D728" t="s">
         <v>2237</v>
       </c>
@@ -19533,6 +21641,9 @@
       <c r="B729" t="s">
         <v>2086</v>
       </c>
+      <c r="C729" t="s">
+        <v>3188</v>
+      </c>
       <c r="D729" t="s">
         <v>2284</v>
       </c>
@@ -19544,6 +21655,9 @@
       <c r="B730" t="s">
         <v>2087</v>
       </c>
+      <c r="C730" t="s">
+        <v>3504</v>
+      </c>
       <c r="D730" t="s">
         <v>2239</v>
       </c>
@@ -19555,6 +21669,9 @@
       <c r="B731" t="s">
         <v>2088</v>
       </c>
+      <c r="C731" t="s">
+        <v>2247</v>
+      </c>
       <c r="D731" t="s">
         <v>2247</v>
       </c>
@@ -19566,6 +21683,9 @@
       <c r="B732" t="s">
         <v>1331</v>
       </c>
+      <c r="C732" t="s">
+        <v>2249</v>
+      </c>
       <c r="D732" t="s">
         <v>2249</v>
       </c>
@@ -19577,6 +21697,9 @@
       <c r="B733" t="s">
         <v>2089</v>
       </c>
+      <c r="C733" t="s">
+        <v>3516</v>
+      </c>
       <c r="D733" t="s">
         <v>2311</v>
       </c>
@@ -19588,6 +21711,9 @@
       <c r="B734" t="s">
         <v>2090</v>
       </c>
+      <c r="C734" t="s">
+        <v>3508</v>
+      </c>
       <c r="D734" t="s">
         <v>2258</v>
       </c>
@@ -19599,6 +21725,9 @@
       <c r="B735" t="s">
         <v>376</v>
       </c>
+      <c r="C735" t="s">
+        <v>3507</v>
+      </c>
       <c r="D735" t="s">
         <v>2248</v>
       </c>
@@ -19610,6 +21739,9 @@
       <c r="B736" t="s">
         <v>2091</v>
       </c>
+      <c r="C736" t="s">
+        <v>2330</v>
+      </c>
       <c r="D736" t="s">
         <v>2330</v>
       </c>
@@ -19621,6 +21753,9 @@
       <c r="B737" t="s">
         <v>2092</v>
       </c>
+      <c r="C737" t="s">
+        <v>2246</v>
+      </c>
       <c r="D737" t="s">
         <v>2246</v>
       </c>
@@ -19632,6 +21767,9 @@
       <c r="B738" t="s">
         <v>2093</v>
       </c>
+      <c r="C738" t="s">
+        <v>2254</v>
+      </c>
       <c r="D738" t="s">
         <v>2254</v>
       </c>
@@ -19643,6 +21781,9 @@
       <c r="B739" t="s">
         <v>2094</v>
       </c>
+      <c r="C739" t="s">
+        <v>636</v>
+      </c>
       <c r="D739" t="s">
         <v>636</v>
       </c>
@@ -19654,6 +21795,9 @@
       <c r="B740" t="s">
         <v>2096</v>
       </c>
+      <c r="C740" t="s">
+        <v>3527</v>
+      </c>
       <c r="D740" t="s">
         <v>2292</v>
       </c>
@@ -19665,6 +21809,9 @@
       <c r="B741" t="s">
         <v>2097</v>
       </c>
+      <c r="C741" t="s">
+        <v>3508</v>
+      </c>
       <c r="D741" t="s">
         <v>2258</v>
       </c>
@@ -19676,6 +21823,9 @@
       <c r="B742" t="s">
         <v>2098</v>
       </c>
+      <c r="C742" t="s">
+        <v>3506</v>
+      </c>
       <c r="D742" t="s">
         <v>2245</v>
       </c>
@@ -19687,6 +21837,9 @@
       <c r="B743" t="s">
         <v>2066</v>
       </c>
+      <c r="C743" t="s">
+        <v>2283</v>
+      </c>
       <c r="D743" t="s">
         <v>2283</v>
       </c>
@@ -19698,6 +21851,9 @@
       <c r="B744" t="s">
         <v>2099</v>
       </c>
+      <c r="C744" t="s">
+        <v>580</v>
+      </c>
       <c r="D744" t="s">
         <v>2275</v>
       </c>
@@ -19717,6 +21873,9 @@
       <c r="B746" t="s">
         <v>2053</v>
       </c>
+      <c r="C746" t="s">
+        <v>2295</v>
+      </c>
       <c r="D746" t="s">
         <v>2295</v>
       </c>
@@ -19728,6 +21887,9 @@
       <c r="B747" t="s">
         <v>2124</v>
       </c>
+      <c r="C747" t="s">
+        <v>2283</v>
+      </c>
       <c r="D747" t="s">
         <v>2283</v>
       </c>
@@ -19739,6 +21901,9 @@
       <c r="B748" t="s">
         <v>2154</v>
       </c>
+      <c r="C748" t="s">
+        <v>3536</v>
+      </c>
       <c r="D748" t="s">
         <v>2317</v>
       </c>
@@ -19750,6 +21915,9 @@
       <c r="B749" t="s">
         <v>378</v>
       </c>
+      <c r="C749" t="s">
+        <v>636</v>
+      </c>
       <c r="D749" t="s">
         <v>636</v>
       </c>
@@ -19761,6 +21929,9 @@
       <c r="B750" t="s">
         <v>2104</v>
       </c>
+      <c r="C750" t="s">
+        <v>3508</v>
+      </c>
       <c r="D750" t="s">
         <v>2258</v>
       </c>
@@ -19772,6 +21943,9 @@
       <c r="B751" t="s">
         <v>2101</v>
       </c>
+      <c r="C751" t="s">
+        <v>3505</v>
+      </c>
       <c r="D751" t="s">
         <v>2244</v>
       </c>
@@ -19783,6 +21957,9 @@
       <c r="B752" t="s">
         <v>2102</v>
       </c>
+      <c r="C752" t="s">
+        <v>3503</v>
+      </c>
       <c r="D752" t="s">
         <v>2237</v>
       </c>
@@ -19794,6 +21971,9 @@
       <c r="B753" t="s">
         <v>2105</v>
       </c>
+      <c r="C753" t="s">
+        <v>3512</v>
+      </c>
       <c r="D753" t="s">
         <v>2255</v>
       </c>
@@ -19805,6 +21985,9 @@
       <c r="B754" t="s">
         <v>2103</v>
       </c>
+      <c r="C754" t="s">
+        <v>2247</v>
+      </c>
       <c r="D754" t="s">
         <v>2247</v>
       </c>
@@ -19816,6 +21999,9 @@
       <c r="B755" t="s">
         <v>2106</v>
       </c>
+      <c r="C755" t="s">
+        <v>2334</v>
+      </c>
       <c r="D755" t="s">
         <v>2334</v>
       </c>
@@ -19827,6 +22013,9 @@
       <c r="B756" t="s">
         <v>2107</v>
       </c>
+      <c r="C756" t="s">
+        <v>3532</v>
+      </c>
       <c r="D756" t="s">
         <v>2335</v>
       </c>
@@ -19838,6 +22027,9 @@
       <c r="B757" t="s">
         <v>2108</v>
       </c>
+      <c r="C757" t="s">
+        <v>3524</v>
+      </c>
       <c r="D757" t="s">
         <v>2279</v>
       </c>
@@ -19849,6 +22041,9 @@
       <c r="B758" t="s">
         <v>2109</v>
       </c>
+      <c r="C758" t="s">
+        <v>2249</v>
+      </c>
       <c r="D758" t="s">
         <v>2249</v>
       </c>
@@ -19860,6 +22055,9 @@
       <c r="B759" t="s">
         <v>2110</v>
       </c>
+      <c r="C759" t="s">
+        <v>2283</v>
+      </c>
       <c r="D759" t="s">
         <v>2283</v>
       </c>
@@ -19879,6 +22077,9 @@
       <c r="B761" t="s">
         <v>2111</v>
       </c>
+      <c r="C761" t="s">
+        <v>3508</v>
+      </c>
       <c r="D761" t="s">
         <v>2258</v>
       </c>
@@ -19890,6 +22091,9 @@
       <c r="B762" t="s">
         <v>2112</v>
       </c>
+      <c r="C762" t="s">
+        <v>3521</v>
+      </c>
       <c r="D762" t="s">
         <v>2274</v>
       </c>
@@ -19901,6 +22105,9 @@
       <c r="B763" t="s">
         <v>2113</v>
       </c>
+      <c r="C763" t="s">
+        <v>3534</v>
+      </c>
       <c r="D763" t="s">
         <v>2313</v>
       </c>
@@ -19912,6 +22119,9 @@
       <c r="B764" t="s">
         <v>2114</v>
       </c>
+      <c r="C764" t="s">
+        <v>3519</v>
+      </c>
       <c r="D764" t="s">
         <v>2272</v>
       </c>
@@ -19923,6 +22133,9 @@
       <c r="B765" t="s">
         <v>2117</v>
       </c>
+      <c r="C765" t="s">
+        <v>3508</v>
+      </c>
       <c r="D765" t="s">
         <v>2258</v>
       </c>
@@ -19934,6 +22147,9 @@
       <c r="B766" t="s">
         <v>2118</v>
       </c>
+      <c r="C766" t="s">
+        <v>3503</v>
+      </c>
       <c r="D766" t="s">
         <v>2237</v>
       </c>
@@ -19945,6 +22161,9 @@
       <c r="B767" t="s">
         <v>2119</v>
       </c>
+      <c r="C767" t="s">
+        <v>2334</v>
+      </c>
       <c r="D767" t="s">
         <v>2334</v>
       </c>
@@ -19956,6 +22175,9 @@
       <c r="B768" t="s">
         <v>2120</v>
       </c>
+      <c r="C768" t="s">
+        <v>3188</v>
+      </c>
       <c r="D768" t="s">
         <v>2284</v>
       </c>
@@ -19967,6 +22189,9 @@
       <c r="B769" t="s">
         <v>2115</v>
       </c>
+      <c r="C769" t="s">
+        <v>603</v>
+      </c>
       <c r="D769" t="s">
         <v>2241</v>
       </c>
@@ -19978,6 +22203,9 @@
       <c r="B770" t="s">
         <v>2121</v>
       </c>
+      <c r="C770" t="s">
+        <v>2254</v>
+      </c>
       <c r="D770" t="s">
         <v>2254</v>
       </c>
@@ -19989,6 +22217,9 @@
       <c r="B771" t="s">
         <v>2116</v>
       </c>
+      <c r="C771" t="s">
+        <v>3528</v>
+      </c>
       <c r="D771" t="s">
         <v>2298</v>
       </c>
@@ -20000,6 +22231,9 @@
       <c r="B772" t="s">
         <v>2122</v>
       </c>
+      <c r="C772" t="s">
+        <v>3508</v>
+      </c>
       <c r="D772" t="s">
         <v>2258</v>
       </c>
@@ -20011,6 +22245,9 @@
       <c r="B773" t="s">
         <v>2123</v>
       </c>
+      <c r="C773" t="s">
+        <v>3515</v>
+      </c>
       <c r="D773" t="s">
         <v>2264</v>
       </c>
@@ -20022,6 +22259,9 @@
       <c r="B774" t="s">
         <v>2125</v>
       </c>
+      <c r="C774" t="s">
+        <v>603</v>
+      </c>
       <c r="D774" t="s">
         <v>2241</v>
       </c>
@@ -20033,6 +22273,9 @@
       <c r="B775" t="s">
         <v>2126</v>
       </c>
+      <c r="C775" t="s">
+        <v>3188</v>
+      </c>
       <c r="D775" t="s">
         <v>2262</v>
       </c>
@@ -20044,6 +22287,9 @@
       <c r="B776" t="s">
         <v>2127</v>
       </c>
+      <c r="C776" t="s">
+        <v>603</v>
+      </c>
       <c r="D776" t="s">
         <v>2241</v>
       </c>
@@ -20055,6 +22301,9 @@
       <c r="B777" t="s">
         <v>2128</v>
       </c>
+      <c r="C777" t="s">
+        <v>2297</v>
+      </c>
       <c r="D777" t="s">
         <v>2297</v>
       </c>
@@ -20066,6 +22315,9 @@
       <c r="B778" t="s">
         <v>2129</v>
       </c>
+      <c r="C778" t="s">
+        <v>3524</v>
+      </c>
       <c r="D778" t="s">
         <v>2279</v>
       </c>
@@ -20077,6 +22329,9 @@
       <c r="B779" t="s">
         <v>2130</v>
       </c>
+      <c r="C779" t="s">
+        <v>603</v>
+      </c>
       <c r="D779" t="s">
         <v>2241</v>
       </c>
@@ -20088,6 +22343,9 @@
       <c r="B780" t="s">
         <v>2131</v>
       </c>
+      <c r="C780" t="s">
+        <v>3514</v>
+      </c>
       <c r="D780" t="s">
         <v>2259</v>
       </c>
@@ -20099,6 +22357,9 @@
       <c r="B781" t="s">
         <v>2134</v>
       </c>
+      <c r="C781" t="s">
+        <v>3506</v>
+      </c>
       <c r="D781" t="s">
         <v>2245</v>
       </c>
@@ -20110,6 +22371,9 @@
       <c r="B782" t="s">
         <v>2135</v>
       </c>
+      <c r="C782" t="s">
+        <v>2249</v>
+      </c>
       <c r="D782" t="s">
         <v>2249</v>
       </c>
@@ -20121,6 +22385,9 @@
       <c r="B783" t="s">
         <v>2136</v>
       </c>
+      <c r="C783" t="s">
+        <v>636</v>
+      </c>
       <c r="D783" t="s">
         <v>636</v>
       </c>
@@ -20132,6 +22399,9 @@
       <c r="B784" t="s">
         <v>2137</v>
       </c>
+      <c r="C784" t="s">
+        <v>2293</v>
+      </c>
       <c r="D784" t="s">
         <v>2293</v>
       </c>
@@ -20143,6 +22413,9 @@
       <c r="B785" t="s">
         <v>2138</v>
       </c>
+      <c r="C785" t="s">
+        <v>3520</v>
+      </c>
       <c r="D785" t="s">
         <v>2285</v>
       </c>
@@ -20154,6 +22427,9 @@
       <c r="B786" t="s">
         <v>2139</v>
       </c>
+      <c r="C786" t="s">
+        <v>2293</v>
+      </c>
       <c r="D786" t="s">
         <v>2293</v>
       </c>
@@ -20165,6 +22441,9 @@
       <c r="B787" t="s">
         <v>2140</v>
       </c>
+      <c r="C787" t="s">
+        <v>3506</v>
+      </c>
       <c r="D787" t="s">
         <v>2245</v>
       </c>
@@ -20176,6 +22455,9 @@
       <c r="B788" t="s">
         <v>2141</v>
       </c>
+      <c r="C788" t="s">
+        <v>3503</v>
+      </c>
       <c r="D788" t="s">
         <v>2237</v>
       </c>
@@ -20187,6 +22469,9 @@
       <c r="B789" t="s">
         <v>2142</v>
       </c>
+      <c r="C789" t="s">
+        <v>3188</v>
+      </c>
       <c r="D789" t="s">
         <v>2325</v>
       </c>
@@ -20198,6 +22483,9 @@
       <c r="B790" t="s">
         <v>2143</v>
       </c>
+      <c r="C790" t="s">
+        <v>3507</v>
+      </c>
       <c r="D790" t="s">
         <v>2248</v>
       </c>
@@ -20209,6 +22497,9 @@
       <c r="B791" t="s">
         <v>2144</v>
       </c>
+      <c r="C791" t="s">
+        <v>3188</v>
+      </c>
       <c r="D791" t="s">
         <v>2262</v>
       </c>
@@ -20228,6 +22519,9 @@
       <c r="B793" t="s">
         <v>2145</v>
       </c>
+      <c r="C793" t="s">
+        <v>636</v>
+      </c>
       <c r="D793" t="s">
         <v>636</v>
       </c>
@@ -20239,6 +22533,9 @@
       <c r="B794" t="s">
         <v>2171</v>
       </c>
+      <c r="C794" t="s">
+        <v>2249</v>
+      </c>
       <c r="D794" t="s">
         <v>2249</v>
       </c>
@@ -20250,6 +22547,9 @@
       <c r="B795" t="s">
         <v>2146</v>
       </c>
+      <c r="C795" t="s">
+        <v>2249</v>
+      </c>
       <c r="D795" t="s">
         <v>2249</v>
       </c>
@@ -20261,6 +22561,9 @@
       <c r="B796" t="s">
         <v>2147</v>
       </c>
+      <c r="C796" t="s">
+        <v>2253</v>
+      </c>
       <c r="D796" t="s">
         <v>2253</v>
       </c>
@@ -20272,6 +22575,9 @@
       <c r="B797" t="s">
         <v>415</v>
       </c>
+      <c r="C797" t="s">
+        <v>3506</v>
+      </c>
       <c r="D797" t="s">
         <v>2318</v>
       </c>
@@ -20283,6 +22589,9 @@
       <c r="B798" t="s">
         <v>2148</v>
       </c>
+      <c r="C798" t="s">
+        <v>3504</v>
+      </c>
       <c r="D798" t="s">
         <v>2239</v>
       </c>
@@ -20294,6 +22603,9 @@
       <c r="B799" t="s">
         <v>2149</v>
       </c>
+      <c r="C799" t="s">
+        <v>2249</v>
+      </c>
       <c r="D799" t="s">
         <v>2249</v>
       </c>
@@ -20305,6 +22617,9 @@
       <c r="B800" t="s">
         <v>2150</v>
       </c>
+      <c r="C800" t="s">
+        <v>3506</v>
+      </c>
       <c r="D800" t="s">
         <v>2318</v>
       </c>
@@ -20316,6 +22631,9 @@
       <c r="B801" t="s">
         <v>2151</v>
       </c>
+      <c r="C801" t="s">
+        <v>2246</v>
+      </c>
       <c r="D801" t="s">
         <v>2271</v>
       </c>
@@ -20327,6 +22645,9 @@
       <c r="B802" t="s">
         <v>2153</v>
       </c>
+      <c r="C802" t="s">
+        <v>2249</v>
+      </c>
       <c r="D802" t="s">
         <v>2249</v>
       </c>
@@ -20346,6 +22667,9 @@
       <c r="B804" t="s">
         <v>2155</v>
       </c>
+      <c r="C804" t="s">
+        <v>3535</v>
+      </c>
       <c r="D804" t="s">
         <v>2315</v>
       </c>
@@ -20357,6 +22681,9 @@
       <c r="B805" t="s">
         <v>2158</v>
       </c>
+      <c r="C805" t="s">
+        <v>603</v>
+      </c>
       <c r="D805" t="s">
         <v>2241</v>
       </c>
@@ -20368,6 +22695,9 @@
       <c r="B806" t="s">
         <v>2159</v>
       </c>
+      <c r="C806" t="s">
+        <v>2246</v>
+      </c>
       <c r="D806" t="s">
         <v>2246</v>
       </c>
@@ -20379,6 +22709,9 @@
       <c r="B807" t="s">
         <v>2161</v>
       </c>
+      <c r="C807" t="s">
+        <v>2263</v>
+      </c>
       <c r="D807" t="s">
         <v>2263</v>
       </c>
@@ -20390,6 +22723,9 @@
       <c r="B808" t="s">
         <v>2163</v>
       </c>
+      <c r="C808" t="s">
+        <v>3534</v>
+      </c>
       <c r="D808" t="s">
         <v>2313</v>
       </c>
@@ -20401,6 +22737,9 @@
       <c r="B809" t="s">
         <v>2162</v>
       </c>
+      <c r="C809" t="s">
+        <v>636</v>
+      </c>
       <c r="D809" t="s">
         <v>636</v>
       </c>
@@ -20412,6 +22751,9 @@
       <c r="B810" t="s">
         <v>2152</v>
       </c>
+      <c r="C810" t="s">
+        <v>3188</v>
+      </c>
       <c r="D810" t="s">
         <v>2284</v>
       </c>
@@ -20423,6 +22765,9 @@
       <c r="B811" t="s">
         <v>2178</v>
       </c>
+      <c r="C811" t="s">
+        <v>3508</v>
+      </c>
       <c r="D811" t="s">
         <v>2258</v>
       </c>
@@ -20434,6 +22779,9 @@
       <c r="B812" t="s">
         <v>2164</v>
       </c>
+      <c r="C812" t="s">
+        <v>3515</v>
+      </c>
       <c r="D812" t="s">
         <v>2264</v>
       </c>
@@ -20445,6 +22793,9 @@
       <c r="B813" t="s">
         <v>2165</v>
       </c>
+      <c r="C813" t="s">
+        <v>2330</v>
+      </c>
       <c r="D813" t="s">
         <v>2330</v>
       </c>
@@ -20456,6 +22807,9 @@
       <c r="B814" t="s">
         <v>2166</v>
       </c>
+      <c r="C814" t="s">
+        <v>570</v>
+      </c>
       <c r="D814" t="s">
         <v>2269</v>
       </c>
@@ -20467,6 +22821,9 @@
       <c r="B815" t="s">
         <v>2167</v>
       </c>
+      <c r="C815" t="s">
+        <v>3528</v>
+      </c>
       <c r="D815" t="s">
         <v>2298</v>
       </c>
@@ -20478,6 +22835,9 @@
       <c r="B816" t="s">
         <v>2160</v>
       </c>
+      <c r="C816" t="s">
+        <v>636</v>
+      </c>
       <c r="D816" t="s">
         <v>636</v>
       </c>
@@ -20489,6 +22849,9 @@
       <c r="B817" t="s">
         <v>2168</v>
       </c>
+      <c r="C817" t="s">
+        <v>3535</v>
+      </c>
       <c r="D817" t="s">
         <v>2315</v>
       </c>
@@ -20500,6 +22863,9 @@
       <c r="B818" t="s">
         <v>2132</v>
       </c>
+      <c r="C818" t="s">
+        <v>580</v>
+      </c>
       <c r="D818" t="s">
         <v>2275</v>
       </c>
@@ -20511,6 +22877,9 @@
       <c r="B819" t="s">
         <v>2169</v>
       </c>
+      <c r="C819" t="s">
+        <v>603</v>
+      </c>
       <c r="D819" t="s">
         <v>2241</v>
       </c>
@@ -20522,6 +22891,9 @@
       <c r="B820" t="s">
         <v>2170</v>
       </c>
+      <c r="C820" t="s">
+        <v>3507</v>
+      </c>
       <c r="D820" t="s">
         <v>2248</v>
       </c>
@@ -20533,6 +22905,9 @@
       <c r="B821" t="s">
         <v>2172</v>
       </c>
+      <c r="C821" t="s">
+        <v>2247</v>
+      </c>
       <c r="D821" t="s">
         <v>2247</v>
       </c>
@@ -20544,6 +22919,9 @@
       <c r="B822" t="s">
         <v>2173</v>
       </c>
+      <c r="C822" t="s">
+        <v>3516</v>
+      </c>
       <c r="D822" t="s">
         <v>2290</v>
       </c>
@@ -20555,6 +22933,9 @@
       <c r="B823" t="s">
         <v>2175</v>
       </c>
+      <c r="C823" t="s">
+        <v>3504</v>
+      </c>
       <c r="D823" t="s">
         <v>2239</v>
       </c>
@@ -20566,6 +22947,9 @@
       <c r="B824" t="s">
         <v>2174</v>
       </c>
+      <c r="C824" t="s">
+        <v>2276</v>
+      </c>
       <c r="D824" t="s">
         <v>2276</v>
       </c>
@@ -20577,6 +22961,9 @@
       <c r="B825" t="s">
         <v>2176</v>
       </c>
+      <c r="C825" t="s">
+        <v>3509</v>
+      </c>
       <c r="D825" t="s">
         <v>2261</v>
       </c>
@@ -20588,6 +22975,9 @@
       <c r="B826" t="s">
         <v>2177</v>
       </c>
+      <c r="C826" t="s">
+        <v>3524</v>
+      </c>
       <c r="D826" t="s">
         <v>2279</v>
       </c>
@@ -20599,6 +22989,9 @@
       <c r="B827" t="s">
         <v>2179</v>
       </c>
+      <c r="C827" t="s">
+        <v>3528</v>
+      </c>
       <c r="D827" t="s">
         <v>2298</v>
       </c>
@@ -20610,6 +23003,9 @@
       <c r="B828" t="s">
         <v>2180</v>
       </c>
+      <c r="C828" t="s">
+        <v>3518</v>
+      </c>
       <c r="D828" t="s">
         <v>2303</v>
       </c>
@@ -20621,6 +23017,9 @@
       <c r="B829" t="s">
         <v>2181</v>
       </c>
+      <c r="C829" t="s">
+        <v>2265</v>
+      </c>
       <c r="D829" t="s">
         <v>2265</v>
       </c>
@@ -20632,6 +23031,9 @@
       <c r="B830" t="s">
         <v>2133</v>
       </c>
+      <c r="C830" t="s">
+        <v>3528</v>
+      </c>
       <c r="D830" t="s">
         <v>2298</v>
       </c>
@@ -20643,6 +23045,9 @@
       <c r="B831" t="s">
         <v>2189</v>
       </c>
+      <c r="C831" t="s">
+        <v>3534</v>
+      </c>
       <c r="D831" t="s">
         <v>2313</v>
       </c>
@@ -20654,6 +23059,9 @@
       <c r="B832" t="s">
         <v>2182</v>
       </c>
+      <c r="C832" t="s">
+        <v>580</v>
+      </c>
       <c r="D832" t="s">
         <v>2280</v>
       </c>
@@ -20665,6 +23073,9 @@
       <c r="B833" t="s">
         <v>2183</v>
       </c>
+      <c r="C833" t="s">
+        <v>2253</v>
+      </c>
       <c r="D833" t="s">
         <v>2253</v>
       </c>
@@ -20676,6 +23087,9 @@
       <c r="B834" t="s">
         <v>2184</v>
       </c>
+      <c r="C834" t="s">
+        <v>2276</v>
+      </c>
       <c r="D834" t="s">
         <v>2276</v>
       </c>
@@ -20687,6 +23101,9 @@
       <c r="B835" t="s">
         <v>2186</v>
       </c>
+      <c r="C835" t="s">
+        <v>3505</v>
+      </c>
       <c r="D835" t="s">
         <v>2244</v>
       </c>
@@ -20698,6 +23115,9 @@
       <c r="B836" t="s">
         <v>2185</v>
       </c>
+      <c r="C836" t="s">
+        <v>3521</v>
+      </c>
       <c r="D836" t="s">
         <v>2274</v>
       </c>
@@ -20717,6 +23137,9 @@
       <c r="B838" t="s">
         <v>2187</v>
       </c>
+      <c r="C838" t="s">
+        <v>580</v>
+      </c>
       <c r="D838" t="s">
         <v>2280</v>
       </c>
@@ -20728,6 +23151,9 @@
       <c r="B839" t="s">
         <v>2188</v>
       </c>
+      <c r="C839" t="s">
+        <v>3508</v>
+      </c>
       <c r="D839" t="s">
         <v>2258</v>
       </c>
@@ -20739,6 +23165,9 @@
       <c r="B840" t="s">
         <v>2191</v>
       </c>
+      <c r="C840" t="s">
+        <v>3532</v>
+      </c>
       <c r="D840" t="s">
         <v>2309</v>
       </c>
@@ -20750,6 +23179,9 @@
       <c r="B841" t="s">
         <v>2192</v>
       </c>
+      <c r="C841" t="s">
+        <v>3508</v>
+      </c>
       <c r="D841" t="s">
         <v>2258</v>
       </c>
@@ -20761,6 +23193,9 @@
       <c r="B842" t="s">
         <v>439</v>
       </c>
+      <c r="C842" t="s">
+        <v>3519</v>
+      </c>
       <c r="D842" t="s">
         <v>2272</v>
       </c>
@@ -20772,6 +23207,9 @@
       <c r="B843" t="s">
         <v>2193</v>
       </c>
+      <c r="C843" t="s">
+        <v>3188</v>
+      </c>
       <c r="D843" t="s">
         <v>2284</v>
       </c>
@@ -20783,6 +23221,9 @@
       <c r="B844" t="s">
         <v>2194</v>
       </c>
+      <c r="C844" t="s">
+        <v>3503</v>
+      </c>
       <c r="D844" t="s">
         <v>2237</v>
       </c>
@@ -20794,6 +23235,9 @@
       <c r="B845" t="s">
         <v>2195</v>
       </c>
+      <c r="C845" t="s">
+        <v>2276</v>
+      </c>
       <c r="D845" t="s">
         <v>2276</v>
       </c>
@@ -20805,6 +23249,9 @@
       <c r="B846" t="s">
         <v>2199</v>
       </c>
+      <c r="C846" t="s">
+        <v>3510</v>
+      </c>
       <c r="D846" t="s">
         <v>2251</v>
       </c>
@@ -20816,6 +23263,9 @@
       <c r="B847" t="s">
         <v>2200</v>
       </c>
+      <c r="C847" t="s">
+        <v>3535</v>
+      </c>
       <c r="D847" t="s">
         <v>2315</v>
       </c>
@@ -20827,6 +23277,9 @@
       <c r="B848" t="s">
         <v>2201</v>
       </c>
+      <c r="C848" t="s">
+        <v>3506</v>
+      </c>
       <c r="D848" t="s">
         <v>2336</v>
       </c>
@@ -20838,6 +23291,9 @@
       <c r="B849" t="s">
         <v>2202</v>
       </c>
+      <c r="C849" t="s">
+        <v>636</v>
+      </c>
       <c r="D849" t="s">
         <v>636</v>
       </c>
@@ -20849,6 +23305,9 @@
       <c r="B850" t="s">
         <v>2205</v>
       </c>
+      <c r="C850" t="s">
+        <v>3510</v>
+      </c>
       <c r="D850" t="s">
         <v>2251</v>
       </c>
@@ -20860,6 +23319,9 @@
       <c r="B851" t="s">
         <v>2207</v>
       </c>
+      <c r="C851" t="s">
+        <v>570</v>
+      </c>
       <c r="D851" t="s">
         <v>2269</v>
       </c>
@@ -20871,6 +23333,9 @@
       <c r="B852" t="s">
         <v>2208</v>
       </c>
+      <c r="C852" t="s">
+        <v>2249</v>
+      </c>
       <c r="D852" t="s">
         <v>2249</v>
       </c>
@@ -20882,6 +23347,9 @@
       <c r="B853" t="s">
         <v>2209</v>
       </c>
+      <c r="C853" t="s">
+        <v>3188</v>
+      </c>
       <c r="D853" t="s">
         <v>2284</v>
       </c>
@@ -20893,6 +23361,9 @@
       <c r="B854" t="s">
         <v>2210</v>
       </c>
+      <c r="C854" t="s">
+        <v>3542</v>
+      </c>
       <c r="D854" t="s">
         <v>2331</v>
       </c>
@@ -20904,6 +23375,9 @@
       <c r="B855" t="s">
         <v>2197</v>
       </c>
+      <c r="C855" t="s">
+        <v>3504</v>
+      </c>
       <c r="D855" t="s">
         <v>2239</v>
       </c>
@@ -20915,6 +23389,9 @@
       <c r="B856" t="s">
         <v>2211</v>
       </c>
+      <c r="C856" t="s">
+        <v>3521</v>
+      </c>
       <c r="D856" t="s">
         <v>2274</v>
       </c>
@@ -20926,6 +23403,9 @@
       <c r="B857" t="s">
         <v>2212</v>
       </c>
+      <c r="C857" t="s">
+        <v>2263</v>
+      </c>
       <c r="D857" t="s">
         <v>2263</v>
       </c>
@@ -20937,6 +23417,9 @@
       <c r="B858" t="s">
         <v>2213</v>
       </c>
+      <c r="C858" t="s">
+        <v>636</v>
+      </c>
       <c r="D858" t="s">
         <v>636</v>
       </c>
@@ -20948,6 +23431,9 @@
       <c r="B859" t="s">
         <v>2214</v>
       </c>
+      <c r="C859" t="s">
+        <v>2254</v>
+      </c>
       <c r="D859" t="s">
         <v>2254</v>
       </c>
@@ -20959,6 +23445,9 @@
       <c r="B860" t="s">
         <v>2196</v>
       </c>
+      <c r="C860" t="s">
+        <v>3543</v>
+      </c>
       <c r="D860" t="s">
         <v>2332</v>
       </c>
@@ -20970,6 +23459,9 @@
       <c r="B861" t="s">
         <v>2215</v>
       </c>
+      <c r="C861" t="s">
+        <v>636</v>
+      </c>
       <c r="D861" t="s">
         <v>636</v>
       </c>
@@ -20981,6 +23473,9 @@
       <c r="B862" t="s">
         <v>2216</v>
       </c>
+      <c r="C862" t="s">
+        <v>3504</v>
+      </c>
       <c r="D862" t="s">
         <v>2239</v>
       </c>
@@ -20992,6 +23487,9 @@
       <c r="B863" t="s">
         <v>2217</v>
       </c>
+      <c r="C863" t="s">
+        <v>2287</v>
+      </c>
       <c r="D863" t="s">
         <v>2287</v>
       </c>
@@ -21003,6 +23501,9 @@
       <c r="B864" t="s">
         <v>2218</v>
       </c>
+      <c r="C864" t="s">
+        <v>2249</v>
+      </c>
       <c r="D864" t="s">
         <v>2249</v>
       </c>
@@ -21014,6 +23515,9 @@
       <c r="B865" t="s">
         <v>2203</v>
       </c>
+      <c r="C865" t="s">
+        <v>3188</v>
+      </c>
       <c r="D865" t="s">
         <v>2284</v>
       </c>
@@ -21025,6 +23529,9 @@
       <c r="B866" t="s">
         <v>2219</v>
       </c>
+      <c r="C866" t="s">
+        <v>2314</v>
+      </c>
       <c r="D866" t="s">
         <v>2314</v>
       </c>
@@ -21036,6 +23543,9 @@
       <c r="B867" t="s">
         <v>2220</v>
       </c>
+      <c r="C867" t="s">
+        <v>3518</v>
+      </c>
       <c r="D867" t="s">
         <v>2305</v>
       </c>
@@ -21047,6 +23557,9 @@
       <c r="B868" t="s">
         <v>2204</v>
       </c>
+      <c r="C868" t="s">
+        <v>3516</v>
+      </c>
       <c r="D868" t="s">
         <v>2267</v>
       </c>
@@ -21058,6 +23571,9 @@
       <c r="B869" t="s">
         <v>2198</v>
       </c>
+      <c r="C869" t="s">
+        <v>2246</v>
+      </c>
       <c r="D869" t="s">
         <v>2246</v>
       </c>
@@ -21069,6 +23585,9 @@
       <c r="B870" t="s">
         <v>2221</v>
       </c>
+      <c r="C870" t="s">
+        <v>3188</v>
+      </c>
       <c r="D870" t="s">
         <v>2284</v>
       </c>
@@ -21080,6 +23599,9 @@
       <c r="B871" t="s">
         <v>2222</v>
       </c>
+      <c r="C871" t="s">
+        <v>2254</v>
+      </c>
       <c r="D871" t="s">
         <v>2254</v>
       </c>
@@ -21091,6 +23613,9 @@
       <c r="B872" t="s">
         <v>2223</v>
       </c>
+      <c r="C872" t="s">
+        <v>3516</v>
+      </c>
       <c r="D872" t="s">
         <v>2290</v>
       </c>
@@ -21110,6 +23635,9 @@
       <c r="B874" t="s">
         <v>2225</v>
       </c>
+      <c r="C874" t="s">
+        <v>2294</v>
+      </c>
       <c r="D874" t="s">
         <v>2294</v>
       </c>
@@ -21121,6 +23649,9 @@
       <c r="B875" t="s">
         <v>2226</v>
       </c>
+      <c r="C875" t="s">
+        <v>3524</v>
+      </c>
       <c r="D875" t="s">
         <v>2279</v>
       </c>
@@ -21132,6 +23663,9 @@
       <c r="B876" t="s">
         <v>2227</v>
       </c>
+      <c r="C876" t="s">
+        <v>3506</v>
+      </c>
       <c r="D876" t="s">
         <v>2318</v>
       </c>
@@ -21143,6 +23677,9 @@
       <c r="B877" t="s">
         <v>2224</v>
       </c>
+      <c r="C877" t="s">
+        <v>2260</v>
+      </c>
       <c r="D877" t="s">
         <v>2260</v>
       </c>
@@ -21154,6 +23691,9 @@
       <c r="B878" t="s">
         <v>2228</v>
       </c>
+      <c r="C878" t="s">
+        <v>3515</v>
+      </c>
       <c r="D878" t="s">
         <v>2264</v>
       </c>
@@ -21165,6 +23705,9 @@
       <c r="B879" t="s">
         <v>2229</v>
       </c>
+      <c r="C879" t="s">
+        <v>580</v>
+      </c>
       <c r="D879" t="s">
         <v>2275</v>
       </c>
@@ -21176,6 +23719,9 @@
       <c r="B880" t="s">
         <v>2230</v>
       </c>
+      <c r="C880" t="s">
+        <v>3528</v>
+      </c>
       <c r="D880" t="s">
         <v>2298</v>
       </c>
@@ -21187,6 +23733,9 @@
       <c r="B881" t="s">
         <v>2232</v>
       </c>
+      <c r="C881" t="s">
+        <v>3506</v>
+      </c>
       <c r="D881" t="s">
         <v>2245</v>
       </c>
@@ -21198,6 +23747,9 @@
       <c r="B882" t="s">
         <v>2231</v>
       </c>
+      <c r="C882" t="s">
+        <v>3506</v>
+      </c>
       <c r="D882" t="s">
         <v>2245</v>
       </c>
@@ -21209,6 +23761,9 @@
       <c r="B883" t="s">
         <v>2233</v>
       </c>
+      <c r="C883" t="s">
+        <v>3508</v>
+      </c>
       <c r="D883" t="s">
         <v>2258</v>
       </c>
@@ -21220,6 +23775,9 @@
       <c r="B884" t="s">
         <v>2234</v>
       </c>
+      <c r="C884" t="s">
+        <v>603</v>
+      </c>
       <c r="D884" t="s">
         <v>2241</v>
       </c>
@@ -21231,15 +23789,15 @@
       <c r="B885" t="s">
         <v>2235</v>
       </c>
+      <c r="C885" t="s">
+        <v>3510</v>
+      </c>
       <c r="D885" t="s">
         <v>2251</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D885" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/stock_list_github.xlsx
+++ b/stock_list_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadashiv\Desktop\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BE5D1-F632-4A3C-BBDC-B83D8D97B310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5B750-E1B7-41FD-B579-27061D282093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6705" uniqueCount="3545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="3544">
   <si>
     <t>Symbol</t>
   </si>
@@ -10660,9 +10660,6 @@
   </si>
   <si>
     <t>Transmisson</t>
-  </si>
-  <si>
-    <t>Textile</t>
   </si>
   <si>
     <t>Printing</t>
@@ -11215,17 +11212,19 @@
   <dxfs count="2">
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11546,7 +11545,7 @@
   <dimension ref="A1:F885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C489" sqref="C489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11568,7 +11567,7 @@
         <v>3501</v>
       </c>
       <c r="D1" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="E1" t="s">
         <v>2236</v>
@@ -18654,12 +18653,6 @@
       <c r="B489" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="C489" s="1" t="s">
-        <v>3540</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>3540</v>
-      </c>
       <c r="E489" s="1" t="s">
         <v>2326</v>
       </c>
@@ -19649,7 +19642,7 @@
         <v>1932</v>
       </c>
       <c r="C557" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="E557" t="s">
         <v>2329</v>
@@ -19868,7 +19861,7 @@
         <v>1945</v>
       </c>
       <c r="C572" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="E572" t="s">
         <v>2329</v>
@@ -21400,7 +21393,7 @@
         <v>881</v>
       </c>
       <c r="C678" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="E678" t="s">
         <v>2331</v>
@@ -21584,7 +21577,7 @@
         <v>2054</v>
       </c>
       <c r="C692" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="E692" t="s">
         <v>2332</v>
@@ -23933,7 +23926,7 @@
         <v>2210</v>
       </c>
       <c r="C854" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="E854" t="s">
         <v>2331</v>
@@ -24017,7 +24010,7 @@
         <v>2196</v>
       </c>
       <c r="C860" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="E860" t="s">
         <v>2332</v>
@@ -24381,6 +24374,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E885" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/stock_list_github.xlsx
+++ b/stock_list_github.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadashiv\Desktop\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5B750-E1B7-41FD-B579-27061D282093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D3E18-AEAF-433B-9637-39A3B9545636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDIA" sheetId="1" r:id="rId1"/>
-    <sheet name="UK" sheetId="2" r:id="rId2"/>
-    <sheet name="USA" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="UK" sheetId="2" r:id="rId3"/>
+    <sheet name="USA" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDIA!$A$1:$E$885</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UK!$A$1:$D$251</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">USA!$A$1:$D$1</definedName>
-    <definedName name="FTSE_250_Index" localSheetId="1">UK!$A$1:$D$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UK!$A$1:$D$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">USA!$A$1:$D$1</definedName>
+    <definedName name="FTSE_250_Index" localSheetId="2">UK!$A$1:$D$251</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="3544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="3544">
   <si>
     <t>Symbol</t>
   </si>
@@ -11211,10 +11213,12 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11545,7 +11549,7 @@
   <dimension ref="A1:F885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C489" sqref="C489"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11614,9 +11618,6 @@
       <c r="C4" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>2240</v>
       </c>
@@ -11645,9 +11646,6 @@
       <c r="C6" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>2241</v>
       </c>
@@ -11690,9 +11688,6 @@
       <c r="C9" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E9" s="1" t="s">
         <v>2243</v>
       </c>
@@ -12004,9 +11999,6 @@
       <c r="C31" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E31" s="1" t="s">
         <v>2256</v>
       </c>
@@ -12063,9 +12055,6 @@
       <c r="C35" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E35" s="1" t="s">
         <v>2258</v>
       </c>
@@ -12080,9 +12069,6 @@
       <c r="C36" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E36" s="1" t="s">
         <v>2241</v>
       </c>
@@ -12125,9 +12111,6 @@
       <c r="C39" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E39" s="1" t="s">
         <v>2258</v>
       </c>
@@ -12173,9 +12156,6 @@
       <c r="C42" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E42" s="1" t="s">
         <v>2240</v>
       </c>
@@ -12190,9 +12170,6 @@
       <c r="C43" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E43" s="1" t="s">
         <v>2256</v>
       </c>
@@ -12347,9 +12324,6 @@
       <c r="C54" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E54" s="1" t="s">
         <v>2241</v>
       </c>
@@ -12613,9 +12587,6 @@
       <c r="C73" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E73" s="1" t="s">
         <v>2243</v>
       </c>
@@ -12658,9 +12629,6 @@
       <c r="C76" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E76" s="1" t="s">
         <v>2275</v>
       </c>
@@ -12689,9 +12657,6 @@
       <c r="C78" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E78" s="1" t="s">
         <v>2241</v>
       </c>
@@ -12706,9 +12671,6 @@
       <c r="C79" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E79" s="1" t="s">
         <v>2258</v>
       </c>
@@ -12796,9 +12758,6 @@
       <c r="C85" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E85" s="1" t="s">
         <v>2275</v>
       </c>
@@ -12970,9 +12929,6 @@
       <c r="C97" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E97" s="1" t="s">
         <v>2258</v>
       </c>
@@ -12987,9 +12943,6 @@
       <c r="C98" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E98" s="1" t="s">
         <v>2275</v>
       </c>
@@ -13004,9 +12957,6 @@
       <c r="C99" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E99" s="1" t="s">
         <v>2280</v>
       </c>
@@ -13021,9 +12971,6 @@
       <c r="C100" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E100" s="1" t="s">
         <v>2280</v>
       </c>
@@ -13209,9 +13156,6 @@
       <c r="C113" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="E113" s="1" t="s">
         <v>2283</v>
       </c>
@@ -13389,9 +13333,6 @@
       <c r="C125" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E125" s="1" t="s">
         <v>2241</v>
       </c>
@@ -13507,9 +13448,6 @@
       <c r="C133" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E133" s="1" t="s">
         <v>2258</v>
       </c>
@@ -13624,9 +13562,6 @@
       <c r="C142" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E142" s="1" t="s">
         <v>2280</v>
       </c>
@@ -13683,9 +13618,6 @@
       <c r="C146" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E146" s="1" t="s">
         <v>2256</v>
       </c>
@@ -13812,9 +13744,6 @@
       <c r="C155" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E155" s="1" t="s">
         <v>2280</v>
       </c>
@@ -14050,9 +13979,6 @@
       <c r="C172" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E172" s="1" t="s">
         <v>2241</v>
       </c>
@@ -14207,9 +14133,6 @@
       <c r="C183" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E183" s="1" t="s">
         <v>2258</v>
       </c>
@@ -14266,9 +14189,6 @@
       <c r="C187" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E187" s="1" t="s">
         <v>2275</v>
       </c>
@@ -14283,9 +14203,6 @@
       <c r="C188" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E188" s="1" t="s">
         <v>2275</v>
       </c>
@@ -14449,9 +14366,6 @@
       <c r="C199" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E199" s="1" t="s">
         <v>2241</v>
       </c>
@@ -14466,9 +14380,6 @@
       <c r="C200" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E200" s="1" t="s">
         <v>2275</v>
       </c>
@@ -14497,9 +14408,6 @@
       <c r="C202" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="E202" s="1" t="s">
         <v>2283</v>
       </c>
@@ -14663,9 +14571,6 @@
       <c r="C213" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E213" s="1" t="s">
         <v>2258</v>
       </c>
@@ -14680,9 +14585,6 @@
       <c r="C214" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E214" s="1" t="s">
         <v>2240</v>
       </c>
@@ -14775,9 +14677,6 @@
       <c r="C221" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E221" s="1" t="s">
         <v>2241</v>
       </c>
@@ -14994,9 +14893,6 @@
       <c r="C236" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E236" s="1" t="s">
         <v>2258</v>
       </c>
@@ -15039,9 +14935,6 @@
       <c r="C239" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E239" s="1" t="s">
         <v>2275</v>
       </c>
@@ -15056,9 +14949,6 @@
       <c r="C240" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E240" s="1" t="s">
         <v>2256</v>
       </c>
@@ -15168,9 +15058,6 @@
       <c r="C248" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E248" s="1" t="s">
         <v>2258</v>
       </c>
@@ -15241,9 +15128,6 @@
       <c r="C253" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E253" s="1" t="s">
         <v>2241</v>
       </c>
@@ -15258,9 +15142,6 @@
       <c r="C254" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E254" s="1" t="s">
         <v>2275</v>
       </c>
@@ -15275,9 +15156,6 @@
       <c r="C255" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E255" s="1" t="s">
         <v>2258</v>
       </c>
@@ -15334,9 +15212,6 @@
       <c r="C259" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E259" s="1" t="s">
         <v>2275</v>
       </c>
@@ -15393,9 +15268,6 @@
       <c r="C263" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E263" s="1" t="s">
         <v>2258</v>
       </c>
@@ -15466,9 +15338,6 @@
       <c r="C268" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E268" s="1" t="s">
         <v>2258</v>
       </c>
@@ -15693,9 +15562,6 @@
       <c r="C284" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E284" s="1" t="s">
         <v>2240</v>
       </c>
@@ -15710,9 +15576,6 @@
       <c r="C285" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E285" s="1" t="s">
         <v>2243</v>
       </c>
@@ -15727,9 +15590,6 @@
       <c r="C286" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E286" s="1" t="s">
         <v>2241</v>
       </c>
@@ -15758,9 +15618,6 @@
       <c r="C288" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E288" s="1" t="s">
         <v>2241</v>
       </c>
@@ -15803,9 +15660,6 @@
       <c r="C291" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E291" s="1" t="s">
         <v>2258</v>
       </c>
@@ -16016,9 +15870,6 @@
       <c r="C306" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E306" s="1" t="s">
         <v>2240</v>
       </c>
@@ -16229,9 +16080,6 @@
       <c r="C321" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E321" s="1" t="s">
         <v>2241</v>
       </c>
@@ -16274,9 +16122,6 @@
       <c r="C324" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E324" s="1" t="s">
         <v>2240</v>
       </c>
@@ -16361,9 +16206,6 @@
       <c r="C330" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E330" s="1" t="s">
         <v>2258</v>
       </c>
@@ -16484,9 +16326,6 @@
       <c r="C339" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E339" s="1" t="s">
         <v>2275</v>
       </c>
@@ -16591,9 +16430,6 @@
       <c r="C346" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E346" s="1" t="s">
         <v>2256</v>
       </c>
@@ -16650,9 +16486,6 @@
       <c r="C350" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D350" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E350" s="1" t="s">
         <v>2240</v>
       </c>
@@ -16902,9 +16735,6 @@
       <c r="C368" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E368" s="1" t="s">
         <v>2275</v>
       </c>
@@ -16969,9 +16799,6 @@
       <c r="C373" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E373" s="1" t="s">
         <v>2275</v>
       </c>
@@ -17000,9 +16827,6 @@
       <c r="C375" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D375" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E375" s="1" t="s">
         <v>2275</v>
       </c>
@@ -17154,9 +16978,6 @@
       <c r="C386" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D386" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E386" s="1" t="s">
         <v>2280</v>
       </c>
@@ -17199,9 +17020,6 @@
       <c r="C389" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D389" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E389" s="1" t="s">
         <v>2241</v>
       </c>
@@ -17216,9 +17034,6 @@
       <c r="C390" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D390" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E390" s="1" t="s">
         <v>2275</v>
       </c>
@@ -17334,9 +17149,6 @@
       <c r="C398" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E398" s="1" t="s">
         <v>2280</v>
       </c>
@@ -17365,9 +17177,6 @@
       <c r="C400" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D400" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E400" s="1" t="s">
         <v>2241</v>
       </c>
@@ -17396,9 +17205,6 @@
       <c r="C402" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D402" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E402" s="1" t="s">
         <v>2241</v>
       </c>
@@ -17584,9 +17390,6 @@
       <c r="C415" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D415" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E415" s="1" t="s">
         <v>2275</v>
       </c>
@@ -17643,9 +17446,6 @@
       <c r="C419" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D419" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E419" s="1" t="s">
         <v>2258</v>
       </c>
@@ -17668,9 +17468,6 @@
       <c r="C421" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D421" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E421" s="1" t="s">
         <v>2241</v>
       </c>
@@ -17685,9 +17482,6 @@
       <c r="C422" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D422" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E422" s="1" t="s">
         <v>2258</v>
       </c>
@@ -17904,9 +17698,6 @@
       <c r="C437" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D437" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E437" s="1" t="s">
         <v>2258</v>
       </c>
@@ -17966,9 +17757,6 @@
       <c r="C441" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D441" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E441" s="1" t="s">
         <v>2240</v>
       </c>
@@ -18095,9 +17883,6 @@
       <c r="C450" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D450" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E450" s="1" t="s">
         <v>2275</v>
       </c>
@@ -18395,9 +18180,6 @@
       <c r="C471" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D471" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E471" s="1" t="s">
         <v>2275</v>
       </c>
@@ -18538,9 +18320,6 @@
       <c r="C481" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D481" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E481" s="1" t="s">
         <v>2275</v>
       </c>
@@ -18639,9 +18418,6 @@
       <c r="C488" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D488" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E488" s="1" t="s">
         <v>2256</v>
       </c>
@@ -18667,9 +18443,6 @@
       <c r="C490" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D490" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E490" s="1" t="s">
         <v>2258</v>
       </c>
@@ -18824,9 +18597,6 @@
       <c r="C501" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D501" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E501" s="1" t="s">
         <v>2258</v>
       </c>
@@ -18841,9 +18611,6 @@
       <c r="C502" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D502" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E502" s="1" t="s">
         <v>2258</v>
       </c>
@@ -18858,9 +18625,6 @@
       <c r="C503" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D503" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E503" s="1" t="s">
         <v>2240</v>
       </c>
@@ -18945,9 +18709,6 @@
       <c r="C509" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D509" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E509" s="1" t="s">
         <v>2280</v>
       </c>
@@ -19046,9 +18807,6 @@
       <c r="C516" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D516" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="E516" s="1" t="s">
         <v>2283</v>
       </c>
@@ -19105,9 +18863,6 @@
       <c r="C520" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D520" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E520" s="1" t="s">
         <v>2241</v>
       </c>
@@ -19192,9 +18947,6 @@
       <c r="C526" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D526" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E526" s="1" t="s">
         <v>2240</v>
       </c>
@@ -19478,9 +19230,6 @@
       <c r="C546" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D546" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E546" s="1" t="s">
         <v>2258</v>
       </c>
@@ -19582,9 +19331,6 @@
       <c r="C553" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D553" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E553" s="1" t="s">
         <v>2241</v>
       </c>
@@ -19599,9 +19345,6 @@
       <c r="C554" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D554" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E554" s="1" t="s">
         <v>2258</v>
       </c>
@@ -19700,9 +19443,6 @@
       <c r="C561" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D561" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E561" s="1" t="s">
         <v>2258</v>
       </c>
@@ -19790,9 +19530,6 @@
       <c r="C567" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D567" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E567" s="1" t="s">
         <v>2241</v>
       </c>
@@ -19983,9 +19720,6 @@
       <c r="C581" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D581" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E581" s="1" t="s">
         <v>2240</v>
       </c>
@@ -20140,9 +19874,6 @@
       <c r="C592" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D592" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E592" s="1" t="s">
         <v>2243</v>
       </c>
@@ -20376,9 +20107,6 @@
       <c r="C608" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D608" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="E608" s="1" t="s">
         <v>2283</v>
       </c>
@@ -20547,9 +20275,6 @@
       <c r="C620" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D620" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E620" s="1" t="s">
         <v>2243</v>
       </c>
@@ -20620,9 +20345,6 @@
       <c r="C625" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D625" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E625" s="1" t="s">
         <v>2243</v>
       </c>
@@ -20710,9 +20432,6 @@
       <c r="C631" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D631" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E631" s="1" t="s">
         <v>2280</v>
       </c>
@@ -20867,9 +20586,6 @@
       <c r="C642" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D642" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E642" s="1" t="s">
         <v>2241</v>
       </c>
@@ -20898,9 +20614,6 @@
       <c r="C644" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D644" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E644" s="1" t="s">
         <v>2258</v>
       </c>
@@ -20943,9 +20656,6 @@
       <c r="C647" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D647" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E647" s="1" t="s">
         <v>2258</v>
       </c>
@@ -21002,9 +20712,6 @@
       <c r="C651" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D651" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E651" s="1" t="s">
         <v>2280</v>
       </c>
@@ -21280,9 +20987,6 @@
       <c r="C670" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D670" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E670" s="1" t="s">
         <v>2275</v>
       </c>
@@ -21445,9 +21149,6 @@
       <c r="C682" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D682" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E682" s="1" t="s">
         <v>2258</v>
       </c>
@@ -21498,9 +21199,6 @@
       <c r="C686" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D686" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E686" s="1" t="s">
         <v>2241</v>
       </c>
@@ -21643,9 +21341,6 @@
       <c r="C697" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D697" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E697" s="1" t="s">
         <v>2258</v>
       </c>
@@ -21674,9 +21369,6 @@
       <c r="C699" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D699" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E699" s="1" t="s">
         <v>2243</v>
       </c>
@@ -21691,9 +21383,6 @@
       <c r="C700" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D700" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E700" s="1" t="s">
         <v>2258</v>
       </c>
@@ -21809,9 +21498,6 @@
       <c r="C708" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D708" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E708" s="1" t="s">
         <v>2280</v>
       </c>
@@ -21946,9 +21632,6 @@
       <c r="C718" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D718" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E718" s="1" t="s">
         <v>2258</v>
       </c>
@@ -21980,9 +21663,6 @@
       <c r="C720" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D720" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E720" s="1" t="s">
         <v>2258</v>
       </c>
@@ -22011,9 +21691,6 @@
       <c r="C722" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D722" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E722" s="1" t="s">
         <v>2240</v>
       </c>
@@ -22191,9 +21868,6 @@
       <c r="C734" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D734" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E734" s="1" t="s">
         <v>2258</v>
       </c>
@@ -22292,9 +21966,6 @@
       <c r="C741" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D741" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E741" s="1" t="s">
         <v>2258</v>
       </c>
@@ -22323,9 +21994,6 @@
       <c r="C743" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D743" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="E743" s="1" t="s">
         <v>2283</v>
       </c>
@@ -22340,9 +22008,6 @@
       <c r="C744" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D744" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E744" s="1" t="s">
         <v>2275</v>
       </c>
@@ -22379,9 +22044,6 @@
       <c r="C747" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D747" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="E747" s="1" t="s">
         <v>2283</v>
       </c>
@@ -22424,9 +22086,6 @@
       <c r="C750" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D750" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E750" s="1" t="s">
         <v>2258</v>
       </c>
@@ -22556,9 +22215,6 @@
       <c r="C759" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D759" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="E759" s="1" t="s">
         <v>2283</v>
       </c>
@@ -22581,9 +22237,6 @@
       <c r="C761" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D761" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E761" s="1" t="s">
         <v>2258</v>
       </c>
@@ -22643,9 +22296,6 @@
       <c r="C765" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D765" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E765" s="1" t="s">
         <v>2258</v>
       </c>
@@ -22702,9 +22352,6 @@
       <c r="C769" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D769" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E769" s="1" t="s">
         <v>2241</v>
       </c>
@@ -22747,9 +22394,6 @@
       <c r="C772" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D772" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E772" s="1" t="s">
         <v>2258</v>
       </c>
@@ -22778,9 +22422,6 @@
       <c r="C774" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D774" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E774" s="1" t="s">
         <v>2241</v>
       </c>
@@ -22809,9 +22450,6 @@
       <c r="C776" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D776" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E776" s="1" t="s">
         <v>2241</v>
       </c>
@@ -22854,9 +22492,6 @@
       <c r="C779" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D779" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E779" s="1" t="s">
         <v>2241</v>
       </c>
@@ -23209,9 +22844,6 @@
       <c r="C805" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D805" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E805" s="1" t="s">
         <v>2241</v>
       </c>
@@ -23296,9 +22928,6 @@
       <c r="C811" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D811" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E811" s="1" t="s">
         <v>2258</v>
       </c>
@@ -23397,9 +23026,6 @@
       <c r="C818" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D818" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E818" s="1" t="s">
         <v>2275</v>
       </c>
@@ -23414,9 +23040,6 @@
       <c r="C819" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D819" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E819" s="1" t="s">
         <v>2241</v>
       </c>
@@ -23602,9 +23225,6 @@
       <c r="C832" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D832" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E832" s="1" t="s">
         <v>2280</v>
       </c>
@@ -23689,9 +23309,6 @@
       <c r="C838" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D838" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E838" s="1" t="s">
         <v>2280</v>
       </c>
@@ -23706,9 +23323,6 @@
       <c r="C839" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D839" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E839" s="1" t="s">
         <v>2258</v>
       </c>
@@ -23737,9 +23351,6 @@
       <c r="C841" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D841" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E841" s="1" t="s">
         <v>2258</v>
       </c>
@@ -24275,9 +23886,6 @@
       <c r="C879" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D879" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E879" s="1" t="s">
         <v>2275</v>
       </c>
@@ -24334,9 +23942,6 @@
       <c r="C883" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="D883" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="E883" s="1" t="s">
         <v>2258</v>
       </c>
@@ -24349,9 +23954,6 @@
         <v>2234</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D884" s="1" t="s">
         <v>603</v>
       </c>
       <c r="E884" s="1" t="s">
@@ -24382,6 +23984,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C21FB75-CB43-460B-93E1-D837B6EA32AE}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A10" xr:uid="{3C21FB75-CB43-460B-93E1-D837B6EA32AE}"/>
+  <conditionalFormatting sqref="A1:A10 A886:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E251"/>
   <sheetViews>
@@ -27925,7 +27594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773CB916-D3CC-4D7A-85CF-288BD2003D89}">
   <dimension ref="A1:D504"/>
   <sheetViews>

--- a/stock_list_github.xlsx
+++ b/stock_list_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadashiv\Desktop\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D3E18-AEAF-433B-9637-39A3B9545636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED2A77D-AAD4-4555-9D21-61C38D2BA824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="3544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="3544">
   <si>
     <t>Symbol</t>
   </si>
@@ -11549,7 +11549,7 @@
   <dimension ref="A1:F885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16298,6 +16298,9 @@
       <c r="C337" t="s">
         <v>3503</v>
       </c>
+      <c r="D337" t="s">
+        <v>206</v>
+      </c>
       <c r="E337" t="s">
         <v>2242</v>
       </c>
@@ -16312,6 +16315,9 @@
       <c r="C338" t="s">
         <v>3503</v>
       </c>
+      <c r="D338" t="s">
+        <v>206</v>
+      </c>
       <c r="E338" t="s">
         <v>2237</v>
       </c>
@@ -16326,6 +16332,9 @@
       <c r="C339" s="1" t="s">
         <v>580</v>
       </c>
+      <c r="D339" t="s">
+        <v>206</v>
+      </c>
       <c r="E339" s="1" t="s">
         <v>2275</v>
       </c>
@@ -16339,6 +16348,9 @@
       </c>
       <c r="C340" t="s">
         <v>3503</v>
+      </c>
+      <c r="D340" t="s">
+        <v>206</v>
       </c>
       <c r="E340" t="s">
         <v>2237</v>

--- a/stock_list_github.xlsx
+++ b/stock_list_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadashiv\Desktop\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9596D6A3-964A-4DFC-B936-EC12C46B046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA06A8-B7D9-476D-B504-00FCD7D81E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7400" uniqueCount="3673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7374" uniqueCount="3641">
   <si>
     <t>Symbol</t>
   </si>
@@ -10695,9 +10695,6 @@
     <t>Construction Vehicles</t>
   </si>
   <si>
-    <t>Trading - Minerals</t>
-  </si>
-  <si>
     <t>Port &amp; Port services</t>
   </si>
   <si>
@@ -10710,9 +10707,6 @@
     <t>Other Agricultural Products</t>
   </si>
   <si>
-    <t>Trading - Gas</t>
-  </si>
-  <si>
     <t>IT Enabled Services</t>
   </si>
   <si>
@@ -10734,15 +10728,9 @@
     <t>Logistics Solution Provider</t>
   </si>
   <si>
-    <t>Batteries - Automobile</t>
-  </si>
-  <si>
     <t>Air Conditioner</t>
   </si>
   <si>
-    <t>Financial Products Distributor</t>
-  </si>
-  <si>
     <t>Stockbroking &amp; Allied</t>
   </si>
   <si>
@@ -10821,12 +10809,6 @@
     <t>Tour- Travel Related Services</t>
   </si>
   <si>
-    <t>Glass - Consumer</t>
-  </si>
-  <si>
-    <t>Glass - Industrial</t>
-  </si>
-  <si>
     <t>Refineries &amp; Marketing</t>
   </si>
   <si>
@@ -10860,9 +10842,6 @@
     <t>Paper &amp; Paper Products</t>
   </si>
   <si>
-    <t>Sanitary Ware</t>
-  </si>
-  <si>
     <t>Hotels &amp; Resorts</t>
   </si>
   <si>
@@ -10872,9 +10851,6 @@
     <t>Diversified Commercial Services</t>
   </si>
   <si>
-    <t>Coal</t>
-  </si>
-  <si>
     <t>Ship Building &amp; Allied Services</t>
   </si>
   <si>
@@ -10884,9 +10860,6 @@
     <t>Print Media</t>
   </si>
   <si>
-    <t>Amusement Parks/ Other Recreation</t>
-  </si>
-  <si>
     <t>TV Broadcasting &amp; Software Production</t>
   </si>
   <si>
@@ -10926,9 +10899,6 @@
     <t>Gas Transmission/Marketing</t>
   </si>
   <si>
-    <t>Oil Storage &amp; Transportation</t>
-  </si>
-  <si>
     <t>General Insurance</t>
   </si>
   <si>
@@ -10947,9 +10917,6 @@
     <t>Diversified FMCG</t>
   </si>
   <si>
-    <t>Zinc</t>
-  </si>
-  <si>
     <t>Financial Institution</t>
   </si>
   <si>
@@ -10959,106 +10926,43 @@
     <t>Internet &amp; Catalogue Retail</t>
   </si>
   <si>
-    <t>Telecom - Equipment &amp; Accessories</t>
-  </si>
-  <si>
     <t>Pig Iron</t>
   </si>
   <si>
     <t>Iron &amp; Steel</t>
   </si>
   <si>
-    <t>Sponge Iron</t>
-  </si>
-  <si>
     <t>Healthcare Service Provider</t>
   </si>
   <si>
-    <t>Auto -Dealer</t>
-  </si>
-  <si>
-    <t>Industrial Machinery</t>
-  </si>
-  <si>
     <t>Passenger Cars &amp; Utility Vehicles</t>
   </si>
   <si>
-    <t>Other Food Products</t>
-  </si>
-  <si>
     <t>Software Products</t>
   </si>
   <si>
-    <t>Leather And Leather Products</t>
-  </si>
-  <si>
-    <t>Pharmacy Retail</t>
-  </si>
-  <si>
-    <t>E-Learning</t>
-  </si>
-  <si>
     <t>Trading &amp; Distributors</t>
   </si>
   <si>
-    <t>Printing &amp; Publication</t>
-  </si>
-  <si>
-    <t>Digital Entertainment</t>
-  </si>
-  <si>
     <t>Media &amp; Entertainment</t>
   </si>
   <si>
     <t>Plastic Products - Consumer</t>
   </si>
   <si>
-    <t>Carbon Black</t>
-  </si>
-  <si>
-    <t>Trading - Textile Products</t>
-  </si>
-  <si>
-    <t>Film Production- Distribution &amp; Exhibition</t>
-  </si>
-  <si>
     <t>Medical Equipment &amp; Supplies</t>
   </si>
   <si>
     <t>Engineering &amp; Construction products</t>
   </si>
   <si>
-    <t>Aluminium- Copper &amp; Zinc Products</t>
-  </si>
-  <si>
-    <t>Power Trading</t>
-  </si>
-  <si>
     <t>Other Telecom Services</t>
   </si>
   <si>
-    <t>Explosives</t>
-  </si>
-  <si>
     <t>Fastener</t>
   </si>
   <si>
-    <t>Forest Products</t>
-  </si>
-  <si>
-    <t>Healthcare Research- Analytics &amp; Technology</t>
-  </si>
-  <si>
-    <t>Industrial Products</t>
-  </si>
-  <si>
-    <t>Other Beverages</t>
-  </si>
-  <si>
-    <t>Diversified Metals</t>
-  </si>
-  <si>
-    <t>Water Supply &amp; Management</t>
+    <t>Non Ferrous Metals</t>
   </si>
 </sst>
 </file>
@@ -11589,7 +11493,39 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11597,6 +11533,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11916,8 +11912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F885"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="D869" sqref="D24:D869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12198,9 +12194,6 @@
       <c r="C16" t="s">
         <v>2247</v>
       </c>
-      <c r="D16" t="s">
-        <v>3551</v>
-      </c>
       <c r="E16" t="s">
         <v>2247</v>
       </c>
@@ -12233,7 +12226,7 @@
         <v>2249</v>
       </c>
       <c r="D18" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="E18" t="s">
         <v>2249</v>
@@ -12267,7 +12260,7 @@
         <v>3507</v>
       </c>
       <c r="D20" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E20" t="s">
         <v>2248</v>
@@ -12284,7 +12277,7 @@
         <v>3510</v>
       </c>
       <c r="D21" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E21" t="s">
         <v>2251</v>
@@ -12318,7 +12311,7 @@
         <v>636</v>
       </c>
       <c r="D23" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E23" t="s">
         <v>636</v>
@@ -12334,9 +12327,6 @@
       <c r="C24" t="s">
         <v>2247</v>
       </c>
-      <c r="D24" t="s">
-        <v>3556</v>
-      </c>
       <c r="E24" t="s">
         <v>2247</v>
       </c>
@@ -12369,7 +12359,7 @@
         <v>3506</v>
       </c>
       <c r="D26" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E26" t="s">
         <v>2245</v>
@@ -12386,7 +12376,7 @@
         <v>2253</v>
       </c>
       <c r="D27" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E27" t="s">
         <v>2253</v>
@@ -12403,7 +12393,7 @@
         <v>3503</v>
       </c>
       <c r="D28" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E28" t="s">
         <v>2237</v>
@@ -12420,7 +12410,7 @@
         <v>2254</v>
       </c>
       <c r="D29" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E29" t="s">
         <v>2254</v>
@@ -12471,7 +12461,7 @@
         <v>2254</v>
       </c>
       <c r="D32" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E32" t="s">
         <v>2254</v>
@@ -12505,7 +12495,7 @@
         <v>2254</v>
       </c>
       <c r="D34" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E34" t="s">
         <v>2254</v>
@@ -12522,7 +12512,7 @@
         <v>3508</v>
       </c>
       <c r="D35" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E35" t="s">
         <v>2258</v>
@@ -12573,7 +12563,7 @@
         <v>2249</v>
       </c>
       <c r="D38" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E38" t="s">
         <v>2249</v>
@@ -12590,7 +12580,7 @@
         <v>3508</v>
       </c>
       <c r="D39" t="s">
-        <v>3564</v>
+        <v>3615</v>
       </c>
       <c r="E39" t="s">
         <v>2258</v>
@@ -12607,7 +12597,7 @@
         <v>3514</v>
       </c>
       <c r="D40" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="E40" t="s">
         <v>2259</v>
@@ -12674,9 +12664,6 @@
       <c r="C44" t="s">
         <v>3503</v>
       </c>
-      <c r="D44" t="s">
-        <v>3566</v>
-      </c>
       <c r="E44" t="s">
         <v>2237</v>
       </c>
@@ -12692,7 +12679,7 @@
         <v>2254</v>
       </c>
       <c r="D45" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E45" t="s">
         <v>2254</v>
@@ -12709,7 +12696,7 @@
         <v>2260</v>
       </c>
       <c r="D46" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E46" t="s">
         <v>2260</v>
@@ -12743,7 +12730,7 @@
         <v>3503</v>
       </c>
       <c r="D48" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="E48" t="s">
         <v>2237</v>
@@ -12760,7 +12747,7 @@
         <v>2246</v>
       </c>
       <c r="D49" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E49" t="s">
         <v>2246</v>
@@ -12794,7 +12781,7 @@
         <v>3504</v>
       </c>
       <c r="D51" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="E51" t="s">
         <v>2239</v>
@@ -12811,7 +12798,7 @@
         <v>2249</v>
       </c>
       <c r="D52" t="s">
-        <v>3570</v>
+        <v>3566</v>
       </c>
       <c r="E52" t="s">
         <v>2249</v>
@@ -12828,7 +12815,7 @@
         <v>3188</v>
       </c>
       <c r="D53" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E53" t="s">
         <v>2262</v>
@@ -12862,7 +12849,7 @@
         <v>2263</v>
       </c>
       <c r="D55" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E55" t="s">
         <v>2263</v>
@@ -12879,7 +12866,7 @@
         <v>3515</v>
       </c>
       <c r="D56" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E56" t="s">
         <v>2264</v>
@@ -12896,7 +12883,7 @@
         <v>2265</v>
       </c>
       <c r="D57" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E57" t="s">
         <v>2265</v>
@@ -12913,7 +12900,7 @@
         <v>3506</v>
       </c>
       <c r="D58" t="s">
-        <v>3575</v>
+        <v>3571</v>
       </c>
       <c r="E58" t="s">
         <v>2266</v>
@@ -12944,7 +12931,7 @@
         <v>2375</v>
       </c>
       <c r="D60" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -12958,7 +12945,7 @@
         <v>2263</v>
       </c>
       <c r="D61" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E61" t="s">
         <v>2263</v>
@@ -12975,7 +12962,7 @@
         <v>3516</v>
       </c>
       <c r="D62" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E62" t="s">
         <v>2267</v>
@@ -12992,7 +12979,7 @@
         <v>2254</v>
       </c>
       <c r="D63" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E63" t="s">
         <v>2254</v>
@@ -13009,7 +12996,7 @@
         <v>3517</v>
       </c>
       <c r="D64" t="s">
-        <v>3562</v>
+        <v>3517</v>
       </c>
       <c r="E64" t="s">
         <v>2268</v>
@@ -13026,7 +13013,7 @@
         <v>570</v>
       </c>
       <c r="D65" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="E65" t="s">
         <v>2269</v>
@@ -13043,7 +13030,7 @@
         <v>2246</v>
       </c>
       <c r="D66" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E66" t="s">
         <v>2271</v>
@@ -13060,7 +13047,7 @@
         <v>3518</v>
       </c>
       <c r="D67" t="s">
-        <v>3579</v>
+        <v>3575</v>
       </c>
       <c r="E67" t="s">
         <v>2270</v>
@@ -13094,7 +13081,7 @@
         <v>3519</v>
       </c>
       <c r="D69" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E69" t="s">
         <v>2272</v>
@@ -13111,7 +13098,7 @@
         <v>2263</v>
       </c>
       <c r="D70" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E70" t="s">
         <v>2263</v>
@@ -13128,7 +13115,7 @@
         <v>3515</v>
       </c>
       <c r="D71" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E71" t="s">
         <v>2264</v>
@@ -13179,7 +13166,7 @@
         <v>2249</v>
       </c>
       <c r="D74" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
       <c r="E74" t="s">
         <v>2249</v>
@@ -13213,7 +13200,7 @@
         <v>580</v>
       </c>
       <c r="D76" t="s">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="E76" t="s">
         <v>2275</v>
@@ -13264,7 +13251,7 @@
         <v>3508</v>
       </c>
       <c r="D79" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E79" t="s">
         <v>2258</v>
@@ -13298,7 +13285,7 @@
         <v>3514</v>
       </c>
       <c r="D81" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="E81" t="s">
         <v>2259</v>
@@ -13315,7 +13302,7 @@
         <v>3510</v>
       </c>
       <c r="D82" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
       <c r="E82" t="s">
         <v>2251</v>
@@ -13332,7 +13319,7 @@
         <v>3522</v>
       </c>
       <c r="D83" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E83" t="s">
         <v>2250</v>
@@ -13349,7 +13336,7 @@
         <v>3522</v>
       </c>
       <c r="D84" t="s">
-        <v>3584</v>
+        <v>3580</v>
       </c>
       <c r="E84" t="s">
         <v>2250</v>
@@ -13366,7 +13353,7 @@
         <v>580</v>
       </c>
       <c r="D85" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E85" t="s">
         <v>2275</v>
@@ -13383,7 +13370,7 @@
         <v>3506</v>
       </c>
       <c r="D86" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E86" t="s">
         <v>2245</v>
@@ -13400,7 +13387,7 @@
         <v>3518</v>
       </c>
       <c r="D87" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="E87" t="s">
         <v>2277</v>
@@ -13417,7 +13404,7 @@
         <v>3523</v>
       </c>
       <c r="D88" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E88" t="s">
         <v>2278</v>
@@ -13451,7 +13438,7 @@
         <v>3503</v>
       </c>
       <c r="D90" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E90" t="s">
         <v>2237</v>
@@ -13468,7 +13455,7 @@
         <v>3503</v>
       </c>
       <c r="D91" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E91" t="s">
         <v>2237</v>
@@ -13485,7 +13472,7 @@
         <v>3503</v>
       </c>
       <c r="D92" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E92" t="s">
         <v>2237</v>
@@ -13519,7 +13506,7 @@
         <v>2265</v>
       </c>
       <c r="D94" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E94" t="s">
         <v>2265</v>
@@ -13570,7 +13557,7 @@
         <v>3508</v>
       </c>
       <c r="D97" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E97" t="s">
         <v>2258</v>
@@ -13587,7 +13574,7 @@
         <v>580</v>
       </c>
       <c r="D98" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E98" t="s">
         <v>2275</v>
@@ -13604,7 +13591,7 @@
         <v>580</v>
       </c>
       <c r="D99" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E99" t="s">
         <v>2280</v>
@@ -13621,7 +13608,7 @@
         <v>580</v>
       </c>
       <c r="D100" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E100" t="s">
         <v>2280</v>
@@ -13655,7 +13642,7 @@
         <v>3525</v>
       </c>
       <c r="D102" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
       <c r="E102" t="s">
         <v>2281</v>
@@ -13672,7 +13659,7 @@
         <v>3519</v>
       </c>
       <c r="D103" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E103" t="s">
         <v>2282</v>
@@ -13689,7 +13676,7 @@
         <v>3504</v>
       </c>
       <c r="D104" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="E104" t="s">
         <v>2239</v>
@@ -13706,7 +13693,7 @@
         <v>3506</v>
       </c>
       <c r="D105" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E105" t="s">
         <v>2245</v>
@@ -13723,7 +13710,7 @@
         <v>3509</v>
       </c>
       <c r="D106" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E106" t="s">
         <v>2238</v>
@@ -13740,7 +13727,7 @@
         <v>3506</v>
       </c>
       <c r="D107" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E107" t="s">
         <v>2245</v>
@@ -13757,7 +13744,7 @@
         <v>3522</v>
       </c>
       <c r="D108" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E108" t="s">
         <v>2250</v>
@@ -13791,7 +13778,7 @@
         <v>3510</v>
       </c>
       <c r="D110" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E110" t="s">
         <v>2251</v>
@@ -13876,7 +13863,7 @@
         <v>3519</v>
       </c>
       <c r="D115" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E115" t="s">
         <v>2272</v>
@@ -13893,7 +13880,7 @@
         <v>3503</v>
       </c>
       <c r="D116" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E116" t="s">
         <v>2237</v>
@@ -13910,7 +13897,7 @@
         <v>3507</v>
       </c>
       <c r="D117" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E117" t="s">
         <v>2248</v>
@@ -13927,7 +13914,7 @@
         <v>3519</v>
       </c>
       <c r="D118" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E118" t="s">
         <v>2272</v>
@@ -13961,7 +13948,7 @@
         <v>3519</v>
       </c>
       <c r="D120" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E120" t="s">
         <v>2272</v>
@@ -13978,7 +13965,7 @@
         <v>3188</v>
       </c>
       <c r="D121" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E121" t="s">
         <v>2284</v>
@@ -13995,7 +13982,7 @@
         <v>3520</v>
       </c>
       <c r="D122" t="s">
-        <v>3590</v>
+        <v>3586</v>
       </c>
       <c r="E122" t="s">
         <v>2285</v>
@@ -14029,7 +14016,7 @@
         <v>3510</v>
       </c>
       <c r="D124" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E124" t="s">
         <v>2251</v>
@@ -14063,7 +14050,7 @@
         <v>2254</v>
       </c>
       <c r="D126" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="E126" t="s">
         <v>2254</v>
@@ -14097,7 +14084,7 @@
         <v>3506</v>
       </c>
       <c r="D128" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
       <c r="E128" t="s">
         <v>2245</v>
@@ -14114,7 +14101,7 @@
         <v>2286</v>
       </c>
       <c r="D129" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E129" t="s">
         <v>2286</v>
@@ -14131,7 +14118,7 @@
         <v>2287</v>
       </c>
       <c r="D130" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="E130" t="s">
         <v>2287</v>
@@ -14148,7 +14135,7 @@
         <v>3517</v>
       </c>
       <c r="D131" t="s">
-        <v>3593</v>
+        <v>3517</v>
       </c>
       <c r="E131" t="s">
         <v>2268</v>
@@ -14165,7 +14152,7 @@
         <v>3517</v>
       </c>
       <c r="D132" t="s">
-        <v>3594</v>
+        <v>3517</v>
       </c>
       <c r="E132" t="s">
         <v>2268</v>
@@ -14182,7 +14169,7 @@
         <v>3508</v>
       </c>
       <c r="D133" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E133" t="s">
         <v>2258</v>
@@ -14196,7 +14183,7 @@
         <v>2382</v>
       </c>
       <c r="D134" t="s">
-        <v>3595</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -14207,7 +14194,7 @@
         <v>2368</v>
       </c>
       <c r="D135" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -14221,7 +14208,7 @@
         <v>3510</v>
       </c>
       <c r="D136" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E136" t="s">
         <v>2288</v>
@@ -14238,7 +14225,7 @@
         <v>2249</v>
       </c>
       <c r="D137" t="s">
-        <v>3596</v>
+        <v>3590</v>
       </c>
       <c r="E137" t="s">
         <v>2249</v>
@@ -14289,7 +14276,7 @@
         <v>3525</v>
       </c>
       <c r="D140" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
       <c r="E140" t="s">
         <v>2281</v>
@@ -14306,7 +14293,7 @@
         <v>2249</v>
       </c>
       <c r="D141" t="s">
-        <v>3597</v>
+        <v>3591</v>
       </c>
       <c r="E141" t="s">
         <v>2249</v>
@@ -14323,7 +14310,7 @@
         <v>580</v>
       </c>
       <c r="D142" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E142" t="s">
         <v>2280</v>
@@ -14357,7 +14344,7 @@
         <v>3516</v>
       </c>
       <c r="D144" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E144" t="s">
         <v>2290</v>
@@ -14374,7 +14361,7 @@
         <v>2254</v>
       </c>
       <c r="D145" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E145" t="s">
         <v>2254</v>
@@ -14425,7 +14412,7 @@
         <v>2249</v>
       </c>
       <c r="D148" t="s">
-        <v>3599</v>
+        <v>3593</v>
       </c>
       <c r="E148" t="s">
         <v>2249</v>
@@ -14442,7 +14429,7 @@
         <v>2247</v>
       </c>
       <c r="D149" t="s">
-        <v>3600</v>
+        <v>3594</v>
       </c>
       <c r="E149" t="s">
         <v>2247</v>
@@ -14476,7 +14463,7 @@
         <v>636</v>
       </c>
       <c r="D151" t="s">
-        <v>3601</v>
+        <v>3595</v>
       </c>
       <c r="E151" t="s">
         <v>636</v>
@@ -14493,7 +14480,7 @@
         <v>2293</v>
       </c>
       <c r="D152" t="s">
-        <v>3602</v>
+        <v>3596</v>
       </c>
       <c r="E152" t="s">
         <v>2293</v>
@@ -14510,7 +14497,7 @@
         <v>2249</v>
       </c>
       <c r="D153" t="s">
-        <v>3597</v>
+        <v>3591</v>
       </c>
       <c r="E153" t="s">
         <v>2249</v>
@@ -14527,7 +14514,7 @@
         <v>2265</v>
       </c>
       <c r="D154" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E154" t="s">
         <v>2265</v>
@@ -14544,7 +14531,7 @@
         <v>580</v>
       </c>
       <c r="D155" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E155" t="s">
         <v>2280</v>
@@ -14558,7 +14545,7 @@
         <v>2366</v>
       </c>
       <c r="D156" t="s">
-        <v>3603</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -14572,7 +14559,7 @@
         <v>2249</v>
       </c>
       <c r="D157" t="s">
-        <v>3604</v>
+        <v>3598</v>
       </c>
       <c r="E157" t="s">
         <v>2249</v>
@@ -14589,7 +14576,7 @@
         <v>2260</v>
       </c>
       <c r="D158" t="s">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="E158" t="s">
         <v>2260</v>
@@ -14606,7 +14593,7 @@
         <v>3527</v>
       </c>
       <c r="D159" t="s">
-        <v>3606</v>
+        <v>3622</v>
       </c>
       <c r="E159" t="s">
         <v>2292</v>
@@ -14640,7 +14627,7 @@
         <v>3503</v>
       </c>
       <c r="D161" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E161" t="s">
         <v>2237</v>
@@ -14674,7 +14661,7 @@
         <v>2294</v>
       </c>
       <c r="D163" t="s">
-        <v>3607</v>
+        <v>3600</v>
       </c>
       <c r="E163" t="s">
         <v>2294</v>
@@ -14742,7 +14729,7 @@
         <v>2289</v>
       </c>
       <c r="D167" t="s">
-        <v>3595</v>
+        <v>3589</v>
       </c>
       <c r="E167" t="s">
         <v>2289</v>
@@ -14759,7 +14746,7 @@
         <v>3503</v>
       </c>
       <c r="D168" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E168" t="s">
         <v>2237</v>
@@ -14776,7 +14763,7 @@
         <v>3503</v>
       </c>
       <c r="D169" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E169" t="s">
         <v>2237</v>
@@ -14793,7 +14780,7 @@
         <v>3503</v>
       </c>
       <c r="D170" t="s">
-        <v>3608</v>
+        <v>3601</v>
       </c>
       <c r="E170" t="s">
         <v>2237</v>
@@ -14810,7 +14797,7 @@
         <v>3506</v>
       </c>
       <c r="D171" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E171" t="s">
         <v>2245</v>
@@ -14861,7 +14848,7 @@
         <v>3506</v>
       </c>
       <c r="D174" t="s">
-        <v>3609</v>
+        <v>3602</v>
       </c>
       <c r="E174" t="s">
         <v>2245</v>
@@ -14877,9 +14864,6 @@
       <c r="C175" t="s">
         <v>570</v>
       </c>
-      <c r="D175" t="s">
-        <v>3610</v>
-      </c>
       <c r="E175" t="s">
         <v>2269</v>
       </c>
@@ -14895,7 +14879,7 @@
         <v>2249</v>
       </c>
       <c r="D176" t="s">
-        <v>3611</v>
+        <v>3603</v>
       </c>
       <c r="E176" t="s">
         <v>2249</v>
@@ -14929,7 +14913,7 @@
         <v>3523</v>
       </c>
       <c r="D178" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E178" t="s">
         <v>2296</v>
@@ -14946,7 +14930,7 @@
         <v>2249</v>
       </c>
       <c r="D179" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E179" t="s">
         <v>2249</v>
@@ -14963,7 +14947,7 @@
         <v>2249</v>
       </c>
       <c r="D180" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
       <c r="E180" t="s">
         <v>2249</v>
@@ -14997,7 +14981,7 @@
         <v>2253</v>
       </c>
       <c r="D182" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E182" t="s">
         <v>2253</v>
@@ -15014,7 +14998,7 @@
         <v>3508</v>
       </c>
       <c r="D183" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E183" t="s">
         <v>2258</v>
@@ -15031,7 +15015,7 @@
         <v>3503</v>
       </c>
       <c r="D184" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E184" t="s">
         <v>2237</v>
@@ -15082,7 +15066,7 @@
         <v>580</v>
       </c>
       <c r="D187" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E187" t="s">
         <v>2275</v>
@@ -15099,7 +15083,7 @@
         <v>580</v>
       </c>
       <c r="D188" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E188" t="s">
         <v>2275</v>
@@ -15116,7 +15100,7 @@
         <v>2297</v>
       </c>
       <c r="D189" t="s">
-        <v>3612</v>
+        <v>3604</v>
       </c>
       <c r="E189" t="s">
         <v>2297</v>
@@ -15133,7 +15117,7 @@
         <v>3506</v>
       </c>
       <c r="D190" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E190" t="s">
         <v>2245</v>
@@ -15150,7 +15134,7 @@
         <v>3510</v>
       </c>
       <c r="D191" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E191" t="s">
         <v>2251</v>
@@ -15167,7 +15151,7 @@
         <v>3523</v>
       </c>
       <c r="D192" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E192" t="s">
         <v>2278</v>
@@ -15218,7 +15202,7 @@
         <v>3506</v>
       </c>
       <c r="D195" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E195" t="s">
         <v>2245</v>
@@ -15252,7 +15236,7 @@
         <v>3528</v>
       </c>
       <c r="D197" t="s">
-        <v>3613</v>
+        <v>3605</v>
       </c>
       <c r="E197" t="s">
         <v>2298</v>
@@ -15303,7 +15287,7 @@
         <v>580</v>
       </c>
       <c r="D200" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E200" t="s">
         <v>2275</v>
@@ -15405,7 +15389,7 @@
         <v>2249</v>
       </c>
       <c r="D206" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E206" t="s">
         <v>2249</v>
@@ -15421,9 +15405,6 @@
       <c r="C207" t="s">
         <v>2249</v>
       </c>
-      <c r="D207" t="s">
-        <v>3614</v>
-      </c>
       <c r="E207" t="s">
         <v>2249</v>
       </c>
@@ -15439,7 +15420,7 @@
         <v>3528</v>
       </c>
       <c r="D208" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E208" t="s">
         <v>2298</v>
@@ -15490,7 +15471,7 @@
         <v>3519</v>
       </c>
       <c r="D211" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E211" t="s">
         <v>2272</v>
@@ -15507,7 +15488,7 @@
         <v>3528</v>
       </c>
       <c r="D212" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E212" t="s">
         <v>2298</v>
@@ -15524,7 +15505,7 @@
         <v>3508</v>
       </c>
       <c r="D213" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E213" t="s">
         <v>2258</v>
@@ -15575,7 +15556,7 @@
         <v>2254</v>
       </c>
       <c r="D216" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E216" t="s">
         <v>2254</v>
@@ -15592,7 +15573,7 @@
         <v>2247</v>
       </c>
       <c r="D217" t="s">
-        <v>3616</v>
+        <v>3607</v>
       </c>
       <c r="E217" t="s">
         <v>2247</v>
@@ -15606,7 +15587,7 @@
         <v>2373</v>
       </c>
       <c r="D218" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -15620,7 +15601,7 @@
         <v>3516</v>
       </c>
       <c r="D219" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E219" t="s">
         <v>2290</v>
@@ -15637,7 +15618,7 @@
         <v>636</v>
       </c>
       <c r="D220" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E220" t="s">
         <v>636</v>
@@ -15688,7 +15669,7 @@
         <v>3529</v>
       </c>
       <c r="D223" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
       <c r="E223" t="s">
         <v>2302</v>
@@ -15705,7 +15686,7 @@
         <v>3506</v>
       </c>
       <c r="D224" t="s">
-        <v>3618</v>
+        <v>3609</v>
       </c>
       <c r="E224" t="s">
         <v>2245</v>
@@ -15722,7 +15703,7 @@
         <v>3503</v>
       </c>
       <c r="D225" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E225" t="s">
         <v>2237</v>
@@ -15739,7 +15720,7 @@
         <v>3518</v>
       </c>
       <c r="D226" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="E226" t="s">
         <v>2303</v>
@@ -15756,7 +15737,7 @@
         <v>2276</v>
       </c>
       <c r="D227" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E227" t="s">
         <v>2276</v>
@@ -15773,7 +15754,7 @@
         <v>2253</v>
       </c>
       <c r="D228" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E228" t="s">
         <v>2253</v>
@@ -15790,7 +15771,7 @@
         <v>2246</v>
       </c>
       <c r="D229" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E229" t="s">
         <v>2246</v>
@@ -15824,7 +15805,7 @@
         <v>3530</v>
       </c>
       <c r="D231" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
       <c r="E231" t="s">
         <v>2304</v>
@@ -15841,7 +15822,7 @@
         <v>3523</v>
       </c>
       <c r="D232" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E232" t="s">
         <v>2278</v>
@@ -15858,7 +15839,7 @@
         <v>2254</v>
       </c>
       <c r="D233" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="E233" t="s">
         <v>2254</v>
@@ -15875,7 +15856,7 @@
         <v>2247</v>
       </c>
       <c r="D234" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
       <c r="E234" t="s">
         <v>2247</v>
@@ -15892,7 +15873,7 @@
         <v>3506</v>
       </c>
       <c r="D235" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E235" t="s">
         <v>2245</v>
@@ -15909,7 +15890,7 @@
         <v>3508</v>
       </c>
       <c r="D236" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E236" t="s">
         <v>2258</v>
@@ -15926,7 +15907,7 @@
         <v>2246</v>
       </c>
       <c r="D237" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E237" t="s">
         <v>2271</v>
@@ -15960,7 +15941,7 @@
         <v>580</v>
       </c>
       <c r="D239" t="s">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="E239" t="s">
         <v>2275</v>
@@ -15994,7 +15975,7 @@
         <v>3511</v>
       </c>
       <c r="D241" t="s">
-        <v>3621</v>
+        <v>3612</v>
       </c>
       <c r="E241" t="s">
         <v>2252</v>
@@ -16011,7 +15992,7 @@
         <v>3518</v>
       </c>
       <c r="D242" t="s">
-        <v>3622</v>
+        <v>3613</v>
       </c>
       <c r="E242" t="s">
         <v>2305</v>
@@ -16039,7 +16020,7 @@
         <v>2247</v>
       </c>
       <c r="D244" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E244" t="s">
         <v>2247</v>
@@ -16056,7 +16037,7 @@
         <v>3531</v>
       </c>
       <c r="D245" t="s">
-        <v>3624</v>
+        <v>3615</v>
       </c>
       <c r="E245" t="s">
         <v>2306</v>
@@ -16107,7 +16088,7 @@
         <v>3508</v>
       </c>
       <c r="D248" t="s">
-        <v>3564</v>
+        <v>3615</v>
       </c>
       <c r="E248" t="s">
         <v>2258</v>
@@ -16124,7 +16105,7 @@
         <v>3506</v>
       </c>
       <c r="D249" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E249" t="s">
         <v>2245</v>
@@ -16209,7 +16190,7 @@
         <v>580</v>
       </c>
       <c r="D254" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E254" t="s">
         <v>2275</v>
@@ -16226,7 +16207,7 @@
         <v>3508</v>
       </c>
       <c r="D255" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E255" t="s">
         <v>2258</v>
@@ -16243,7 +16224,7 @@
         <v>3516</v>
       </c>
       <c r="D256" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E256" t="s">
         <v>2308</v>
@@ -16260,7 +16241,7 @@
         <v>3532</v>
       </c>
       <c r="D257" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="E257" t="s">
         <v>2309</v>
@@ -16294,7 +16275,7 @@
         <v>580</v>
       </c>
       <c r="D259" t="s">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="E259" t="s">
         <v>2275</v>
@@ -16311,7 +16292,7 @@
         <v>3515</v>
       </c>
       <c r="D260" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E260" t="s">
         <v>2264</v>
@@ -16328,7 +16309,7 @@
         <v>3503</v>
       </c>
       <c r="D261" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E261" t="s">
         <v>2237</v>
@@ -16362,7 +16343,7 @@
         <v>3508</v>
       </c>
       <c r="D263" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E263" t="s">
         <v>2258</v>
@@ -16379,7 +16360,7 @@
         <v>2263</v>
       </c>
       <c r="D264" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E264" t="s">
         <v>2263</v>
@@ -16413,7 +16394,7 @@
         <v>3506</v>
       </c>
       <c r="D266" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E266" t="s">
         <v>2245</v>
@@ -16430,7 +16411,7 @@
         <v>3503</v>
       </c>
       <c r="D267" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E267" t="s">
         <v>2237</v>
@@ -16447,7 +16428,7 @@
         <v>3508</v>
       </c>
       <c r="D268" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E268" t="s">
         <v>2258</v>
@@ -16464,7 +16445,7 @@
         <v>3522</v>
       </c>
       <c r="D269" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E269" t="s">
         <v>2250</v>
@@ -16481,7 +16462,7 @@
         <v>2249</v>
       </c>
       <c r="D270" t="s">
-        <v>3627</v>
+        <v>3618</v>
       </c>
       <c r="E270" t="s">
         <v>2249</v>
@@ -16515,7 +16496,7 @@
         <v>3516</v>
       </c>
       <c r="D272" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E272" t="s">
         <v>2311</v>
@@ -16531,9 +16512,6 @@
       <c r="C273" t="s">
         <v>636</v>
       </c>
-      <c r="D273" t="s">
-        <v>3628</v>
-      </c>
       <c r="E273" t="s">
         <v>636</v>
       </c>
@@ -16549,7 +16527,7 @@
         <v>2254</v>
       </c>
       <c r="D274" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E274" t="s">
         <v>2254</v>
@@ -16566,7 +16544,7 @@
         <v>3516</v>
       </c>
       <c r="D275" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E275" t="s">
         <v>2290</v>
@@ -16583,7 +16561,7 @@
         <v>2249</v>
       </c>
       <c r="D276" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E276" t="s">
         <v>2249</v>
@@ -16600,7 +16578,7 @@
         <v>3514</v>
       </c>
       <c r="D277" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="E277" t="s">
         <v>2259</v>
@@ -16617,7 +16595,7 @@
         <v>3503</v>
       </c>
       <c r="D278" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="E278" t="s">
         <v>2237</v>
@@ -16668,7 +16646,7 @@
         <v>3503</v>
       </c>
       <c r="D281" t="s">
-        <v>3629</v>
+        <v>3619</v>
       </c>
       <c r="E281" t="s">
         <v>2237</v>
@@ -16685,7 +16663,7 @@
         <v>3523</v>
       </c>
       <c r="D282" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E282" t="s">
         <v>2296</v>
@@ -16804,7 +16782,7 @@
         <v>570</v>
       </c>
       <c r="D289" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="E289" t="s">
         <v>2269</v>
@@ -16821,7 +16799,7 @@
         <v>2246</v>
       </c>
       <c r="D290" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E290" t="s">
         <v>2246</v>
@@ -16838,7 +16816,7 @@
         <v>3508</v>
       </c>
       <c r="D291" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E291" t="s">
         <v>2258</v>
@@ -16872,7 +16850,7 @@
         <v>3516</v>
       </c>
       <c r="D293" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
       <c r="E293" t="s">
         <v>2290</v>
@@ -16889,7 +16867,7 @@
         <v>2314</v>
       </c>
       <c r="D294" t="s">
-        <v>3630</v>
+        <v>3620</v>
       </c>
       <c r="E294" t="s">
         <v>2314</v>
@@ -16906,7 +16884,7 @@
         <v>3510</v>
       </c>
       <c r="D295" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
       <c r="E295" t="s">
         <v>2251</v>
@@ -16923,7 +16901,7 @@
         <v>3523</v>
       </c>
       <c r="D296" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E296" t="s">
         <v>2278</v>
@@ -16940,7 +16918,7 @@
         <v>636</v>
       </c>
       <c r="D297" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
       <c r="E297" t="s">
         <v>636</v>
@@ -16957,7 +16935,7 @@
         <v>2254</v>
       </c>
       <c r="D298" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E298" t="s">
         <v>2254</v>
@@ -16974,7 +16952,7 @@
         <v>3516</v>
       </c>
       <c r="D299" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E299" t="s">
         <v>2290</v>
@@ -16991,7 +16969,7 @@
         <v>3522</v>
       </c>
       <c r="D300" t="s">
-        <v>3584</v>
+        <v>3580</v>
       </c>
       <c r="E300" t="s">
         <v>2250</v>
@@ -17008,7 +16986,7 @@
         <v>3535</v>
       </c>
       <c r="D301" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E301" t="s">
         <v>2315</v>
@@ -17025,7 +17003,7 @@
         <v>3188</v>
       </c>
       <c r="D302" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E302" t="s">
         <v>2284</v>
@@ -17042,7 +17020,7 @@
         <v>2265</v>
       </c>
       <c r="D303" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E303" t="s">
         <v>2265</v>
@@ -17059,7 +17037,7 @@
         <v>3188</v>
       </c>
       <c r="D304" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E304" t="s">
         <v>2284</v>
@@ -17076,7 +17054,7 @@
         <v>2249</v>
       </c>
       <c r="D305" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="E305" t="s">
         <v>2249</v>
@@ -17161,7 +17139,7 @@
         <v>570</v>
       </c>
       <c r="D310" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="E310" t="s">
         <v>2269</v>
@@ -17178,7 +17156,7 @@
         <v>2249</v>
       </c>
       <c r="D311" t="s">
-        <v>3604</v>
+        <v>3598</v>
       </c>
       <c r="E311" t="s">
         <v>2249</v>
@@ -17195,7 +17173,7 @@
         <v>2249</v>
       </c>
       <c r="D312" t="s">
-        <v>3604</v>
+        <v>3598</v>
       </c>
       <c r="E312" t="s">
         <v>2249</v>
@@ -17212,7 +17190,7 @@
         <v>2249</v>
       </c>
       <c r="D313" t="s">
-        <v>3604</v>
+        <v>3598</v>
       </c>
       <c r="E313" t="s">
         <v>2249</v>
@@ -17246,7 +17224,7 @@
         <v>2254</v>
       </c>
       <c r="D315" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E315" t="s">
         <v>2254</v>
@@ -17263,7 +17241,7 @@
         <v>3510</v>
       </c>
       <c r="D316" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E316" t="s">
         <v>2251</v>
@@ -17297,7 +17275,7 @@
         <v>2253</v>
       </c>
       <c r="D318" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E318" t="s">
         <v>2253</v>
@@ -17331,7 +17309,7 @@
         <v>2249</v>
       </c>
       <c r="D320" t="s">
-        <v>3627</v>
+        <v>3618</v>
       </c>
       <c r="E320" t="s">
         <v>2249</v>
@@ -17382,7 +17360,7 @@
         <v>2249</v>
       </c>
       <c r="D323" t="s">
-        <v>3627</v>
+        <v>3618</v>
       </c>
       <c r="E323" t="s">
         <v>2249</v>
@@ -17399,7 +17377,7 @@
         <v>603</v>
       </c>
       <c r="D324" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E324" t="s">
         <v>2240</v>
@@ -17416,7 +17394,7 @@
         <v>636</v>
       </c>
       <c r="D325" t="s">
-        <v>3601</v>
+        <v>3595</v>
       </c>
       <c r="E325" t="s">
         <v>636</v>
@@ -17484,7 +17462,7 @@
         <v>3188</v>
       </c>
       <c r="D329" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E329" t="s">
         <v>2284</v>
@@ -17501,7 +17479,7 @@
         <v>3508</v>
       </c>
       <c r="D330" t="s">
-        <v>3621</v>
+        <v>3612</v>
       </c>
       <c r="E330" t="s">
         <v>2258</v>
@@ -17518,7 +17496,7 @@
         <v>3528</v>
       </c>
       <c r="D331" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E331" t="s">
         <v>2298</v>
@@ -17535,7 +17513,7 @@
         <v>3510</v>
       </c>
       <c r="D332" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
       <c r="E332" t="s">
         <v>2251</v>
@@ -17569,7 +17547,7 @@
         <v>3531</v>
       </c>
       <c r="D334" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="E334" t="s">
         <v>2306</v>
@@ -17583,7 +17561,7 @@
         <v>2367</v>
       </c>
       <c r="D335" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -17648,7 +17626,7 @@
         <v>580</v>
       </c>
       <c r="D339" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E339" t="s">
         <v>2275</v>
@@ -17716,7 +17694,7 @@
         <v>3519</v>
       </c>
       <c r="D343" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E343" t="s">
         <v>2272</v>
@@ -17733,7 +17711,7 @@
         <v>3510</v>
       </c>
       <c r="D344" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
       <c r="E344" t="s">
         <v>2251</v>
@@ -17750,7 +17728,7 @@
         <v>3518</v>
       </c>
       <c r="D345" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="E345" t="s">
         <v>2303</v>
@@ -17784,7 +17762,7 @@
         <v>2246</v>
       </c>
       <c r="D347" t="s">
-        <v>3631</v>
+        <v>3621</v>
       </c>
       <c r="E347" t="s">
         <v>2271</v>
@@ -17801,7 +17779,7 @@
         <v>2254</v>
       </c>
       <c r="D348" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E348" t="s">
         <v>2254</v>
@@ -17818,7 +17796,7 @@
         <v>3506</v>
       </c>
       <c r="D349" t="s">
-        <v>3618</v>
+        <v>3609</v>
       </c>
       <c r="E349" t="s">
         <v>2245</v>
@@ -17852,7 +17830,7 @@
         <v>3505</v>
       </c>
       <c r="D351" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E351" t="s">
         <v>2307</v>
@@ -17886,7 +17864,7 @@
         <v>570</v>
       </c>
       <c r="D353" t="s">
-        <v>2897</v>
+        <v>3640</v>
       </c>
       <c r="E353" t="s">
         <v>2269</v>
@@ -17903,7 +17881,7 @@
         <v>3538</v>
       </c>
       <c r="D354" t="s">
-        <v>3633</v>
+        <v>3623</v>
       </c>
       <c r="E354" t="s">
         <v>2319</v>
@@ -17917,7 +17895,7 @@
         <v>2365</v>
       </c>
       <c r="D355" t="s">
-        <v>3595</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -17931,7 +17909,7 @@
         <v>3523</v>
       </c>
       <c r="D356" t="s">
-        <v>3634</v>
+        <v>3624</v>
       </c>
       <c r="E356" t="s">
         <v>2296</v>
@@ -17948,7 +17926,7 @@
         <v>2247</v>
       </c>
       <c r="D357" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E357" t="s">
         <v>2247</v>
@@ -17965,7 +17943,7 @@
         <v>570</v>
       </c>
       <c r="D358" t="s">
-        <v>3635</v>
+        <v>3640</v>
       </c>
       <c r="E358" t="s">
         <v>2269</v>
@@ -17982,7 +17960,7 @@
         <v>2246</v>
       </c>
       <c r="D359" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E359" t="s">
         <v>2246</v>
@@ -17999,7 +17977,7 @@
         <v>3510</v>
       </c>
       <c r="D360" t="s">
-        <v>3634</v>
+        <v>3624</v>
       </c>
       <c r="E360" t="s">
         <v>2251</v>
@@ -18033,7 +18011,7 @@
         <v>3514</v>
       </c>
       <c r="D362" t="s">
-        <v>3603</v>
+        <v>3597</v>
       </c>
       <c r="E362" t="s">
         <v>2259</v>
@@ -18050,7 +18028,7 @@
         <v>3504</v>
       </c>
       <c r="D363" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E363" t="s">
         <v>2239</v>
@@ -18084,7 +18062,7 @@
         <v>3503</v>
       </c>
       <c r="D365" t="s">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="E365" t="s">
         <v>2242</v>
@@ -18135,7 +18113,7 @@
         <v>580</v>
       </c>
       <c r="D368" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E368" t="s">
         <v>2275</v>
@@ -18152,7 +18130,7 @@
         <v>3503</v>
       </c>
       <c r="D369" t="s">
-        <v>3629</v>
+        <v>3619</v>
       </c>
       <c r="E369" t="s">
         <v>2237</v>
@@ -18186,7 +18164,7 @@
         <v>3516</v>
       </c>
       <c r="D371" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E371" t="s">
         <v>2267</v>
@@ -18200,7 +18178,7 @@
         <v>2370</v>
       </c>
       <c r="D372" t="s">
-        <v>3599</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
@@ -18214,7 +18192,7 @@
         <v>580</v>
       </c>
       <c r="D373" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E373" t="s">
         <v>2275</v>
@@ -18231,7 +18209,7 @@
         <v>3503</v>
       </c>
       <c r="D374" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E374" t="s">
         <v>2237</v>
@@ -18248,7 +18226,7 @@
         <v>580</v>
       </c>
       <c r="D375" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E375" t="s">
         <v>2275</v>
@@ -18265,7 +18243,7 @@
         <v>2249</v>
       </c>
       <c r="D376" t="s">
-        <v>3596</v>
+        <v>3590</v>
       </c>
       <c r="E376" t="s">
         <v>2249</v>
@@ -18282,7 +18260,7 @@
         <v>2249</v>
       </c>
       <c r="D377" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
       <c r="E377" t="s">
         <v>2249</v>
@@ -18316,7 +18294,7 @@
         <v>3503</v>
       </c>
       <c r="D379" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E379" t="s">
         <v>2237</v>
@@ -18333,7 +18311,7 @@
         <v>3503</v>
       </c>
       <c r="D380" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="E380" t="s">
         <v>2237</v>
@@ -18350,7 +18328,7 @@
         <v>570</v>
       </c>
       <c r="D381" t="s">
-        <v>3637</v>
+        <v>3626</v>
       </c>
       <c r="E381" t="s">
         <v>2269</v>
@@ -18367,7 +18345,7 @@
         <v>2294</v>
       </c>
       <c r="D382" t="s">
-        <v>3607</v>
+        <v>3600</v>
       </c>
       <c r="E382" t="s">
         <v>2294</v>
@@ -18412,7 +18390,7 @@
         <v>2249</v>
       </c>
       <c r="D385" t="s">
-        <v>3638</v>
+        <v>3627</v>
       </c>
       <c r="E385" t="s">
         <v>2249</v>
@@ -18429,7 +18407,7 @@
         <v>580</v>
       </c>
       <c r="D386" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E386" t="s">
         <v>2280</v>
@@ -18463,7 +18441,7 @@
         <v>3507</v>
       </c>
       <c r="D388" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E388" t="s">
         <v>2248</v>
@@ -18497,7 +18475,7 @@
         <v>580</v>
       </c>
       <c r="D390" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E390" t="s">
         <v>2275</v>
@@ -18514,7 +18492,7 @@
         <v>3539</v>
       </c>
       <c r="D391" t="s">
-        <v>3631</v>
+        <v>3621</v>
       </c>
       <c r="E391" t="s">
         <v>2322</v>
@@ -18531,7 +18509,7 @@
         <v>3506</v>
       </c>
       <c r="D392" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E392" t="s">
         <v>2245</v>
@@ -18582,7 +18560,7 @@
         <v>3530</v>
       </c>
       <c r="D395" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
       <c r="E395" t="s">
         <v>2304</v>
@@ -18599,7 +18577,7 @@
         <v>3519</v>
       </c>
       <c r="D396" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E396" t="s">
         <v>2272</v>
@@ -18633,7 +18611,7 @@
         <v>580</v>
       </c>
       <c r="D398" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E398" t="s">
         <v>2280</v>
@@ -18650,7 +18628,7 @@
         <v>2289</v>
       </c>
       <c r="D399" t="s">
-        <v>3595</v>
+        <v>3589</v>
       </c>
       <c r="E399" t="s">
         <v>2289</v>
@@ -18684,7 +18662,7 @@
         <v>2246</v>
       </c>
       <c r="D401" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E401" t="s">
         <v>2246</v>
@@ -18718,7 +18696,7 @@
         <v>3519</v>
       </c>
       <c r="D403" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E403" t="s">
         <v>2272</v>
@@ -18735,7 +18713,7 @@
         <v>2254</v>
       </c>
       <c r="D404" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E404" t="s">
         <v>2254</v>
@@ -18752,7 +18730,7 @@
         <v>2254</v>
       </c>
       <c r="D405" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E405" t="s">
         <v>2254</v>
@@ -18769,7 +18747,7 @@
         <v>2254</v>
       </c>
       <c r="D406" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E406" t="s">
         <v>2254</v>
@@ -18786,7 +18764,7 @@
         <v>3529</v>
       </c>
       <c r="D407" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
       <c r="E407" t="s">
         <v>2302</v>
@@ -18803,7 +18781,7 @@
         <v>3503</v>
       </c>
       <c r="D408" t="s">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="E408" t="s">
         <v>2321</v>
@@ -18820,7 +18798,7 @@
         <v>3503</v>
       </c>
       <c r="D409" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="E409" t="s">
         <v>2237</v>
@@ -18837,7 +18815,7 @@
         <v>2246</v>
       </c>
       <c r="D410" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E410" t="s">
         <v>2271</v>
@@ -18854,7 +18832,7 @@
         <v>3188</v>
       </c>
       <c r="D411" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E411" t="s">
         <v>2284</v>
@@ -18871,7 +18849,7 @@
         <v>2314</v>
       </c>
       <c r="D412" t="s">
-        <v>3634</v>
+        <v>3624</v>
       </c>
       <c r="E412" t="s">
         <v>2314</v>
@@ -18888,7 +18866,7 @@
         <v>2254</v>
       </c>
       <c r="D413" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E413" t="s">
         <v>2254</v>
@@ -18904,9 +18882,6 @@
       <c r="C414" t="s">
         <v>3520</v>
       </c>
-      <c r="D414" t="s">
-        <v>3639</v>
-      </c>
       <c r="E414" t="s">
         <v>2273</v>
       </c>
@@ -18922,7 +18897,7 @@
         <v>580</v>
       </c>
       <c r="D415" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E415" t="s">
         <v>2275</v>
@@ -18939,7 +18914,7 @@
         <v>3528</v>
       </c>
       <c r="D416" t="s">
-        <v>3613</v>
+        <v>3605</v>
       </c>
       <c r="E416" t="s">
         <v>2298</v>
@@ -18956,7 +18931,7 @@
         <v>3188</v>
       </c>
       <c r="D417" t="s">
-        <v>3640</v>
+        <v>3628</v>
       </c>
       <c r="E417" t="s">
         <v>2323</v>
@@ -18973,7 +18948,7 @@
         <v>3515</v>
       </c>
       <c r="D418" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E418" t="s">
         <v>2264</v>
@@ -18990,7 +18965,7 @@
         <v>3508</v>
       </c>
       <c r="D419" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E419" t="s">
         <v>2258</v>
@@ -19004,7 +18979,7 @@
         <v>2364</v>
       </c>
       <c r="D420" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
@@ -19035,7 +19010,7 @@
         <v>3508</v>
       </c>
       <c r="D422" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E422" t="s">
         <v>2258</v>
@@ -19069,7 +19044,7 @@
         <v>3188</v>
       </c>
       <c r="D424" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E424" t="s">
         <v>2262</v>
@@ -19086,7 +19061,7 @@
         <v>3188</v>
       </c>
       <c r="D425" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E425" t="s">
         <v>2323</v>
@@ -19103,7 +19078,7 @@
         <v>3516</v>
       </c>
       <c r="D426" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E426" t="s">
         <v>2290</v>
@@ -19137,7 +19112,7 @@
         <v>2254</v>
       </c>
       <c r="D428" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E428" t="s">
         <v>2254</v>
@@ -19171,7 +19146,7 @@
         <v>2260</v>
       </c>
       <c r="D430" t="s">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="E430" t="s">
         <v>2260</v>
@@ -19188,7 +19163,7 @@
         <v>2265</v>
       </c>
       <c r="D431" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E431" t="s">
         <v>2265</v>
@@ -19205,7 +19180,7 @@
         <v>3503</v>
       </c>
       <c r="D432" t="s">
-        <v>3608</v>
+        <v>3601</v>
       </c>
       <c r="E432" t="s">
         <v>2237</v>
@@ -19239,7 +19214,7 @@
         <v>3188</v>
       </c>
       <c r="D434" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E434" t="s">
         <v>2262</v>
@@ -19273,7 +19248,7 @@
         <v>3188</v>
       </c>
       <c r="D436" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E436" t="s">
         <v>2262</v>
@@ -19290,7 +19265,7 @@
         <v>3508</v>
       </c>
       <c r="D437" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E437" t="s">
         <v>2258</v>
@@ -19307,7 +19282,7 @@
         <v>3188</v>
       </c>
       <c r="D438" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E438" t="s">
         <v>2284</v>
@@ -19375,7 +19350,7 @@
         <v>2249</v>
       </c>
       <c r="D442" t="s">
-        <v>3638</v>
+        <v>3627</v>
       </c>
       <c r="E442" t="s">
         <v>2249</v>
@@ -19392,7 +19367,7 @@
         <v>2246</v>
       </c>
       <c r="D443" t="s">
-        <v>3579</v>
+        <v>3575</v>
       </c>
       <c r="E443" t="s">
         <v>2246</v>
@@ -19408,9 +19383,6 @@
       <c r="C444" t="s">
         <v>3523</v>
       </c>
-      <c r="D444" t="s">
-        <v>2672</v>
-      </c>
       <c r="E444" t="s">
         <v>2278</v>
       </c>
@@ -19426,7 +19398,7 @@
         <v>2246</v>
       </c>
       <c r="D445" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E445" t="s">
         <v>2246</v>
@@ -19443,7 +19415,7 @@
         <v>3527</v>
       </c>
       <c r="D446" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E446" t="s">
         <v>2292</v>
@@ -19460,7 +19432,7 @@
         <v>3539</v>
       </c>
       <c r="D447" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E447" t="s">
         <v>2322</v>
@@ -19477,7 +19449,7 @@
         <v>3535</v>
       </c>
       <c r="D448" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E448" t="s">
         <v>2315</v>
@@ -19511,7 +19483,7 @@
         <v>580</v>
       </c>
       <c r="D450" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E450" t="s">
         <v>2275</v>
@@ -19528,7 +19500,7 @@
         <v>3514</v>
       </c>
       <c r="D451" t="s">
-        <v>3603</v>
+        <v>3597</v>
       </c>
       <c r="E451" t="s">
         <v>2259</v>
@@ -19562,7 +19534,7 @@
         <v>2249</v>
       </c>
       <c r="D453" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E453" t="s">
         <v>2249</v>
@@ -19596,7 +19568,7 @@
         <v>3532</v>
       </c>
       <c r="D455" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="E455" t="s">
         <v>2309</v>
@@ -19613,7 +19585,7 @@
         <v>2246</v>
       </c>
       <c r="D456" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E456" t="s">
         <v>2246</v>
@@ -19630,7 +19602,7 @@
         <v>2249</v>
       </c>
       <c r="D457" t="s">
-        <v>3597</v>
+        <v>3591</v>
       </c>
       <c r="E457" t="s">
         <v>2249</v>
@@ -19647,7 +19619,7 @@
         <v>2263</v>
       </c>
       <c r="D458" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E458" t="s">
         <v>2263</v>
@@ -19664,7 +19636,7 @@
         <v>3515</v>
       </c>
       <c r="D459" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E459" t="s">
         <v>2264</v>
@@ -19680,9 +19652,6 @@
       <c r="C460" t="s">
         <v>570</v>
       </c>
-      <c r="D460" t="s">
-        <v>3642</v>
-      </c>
       <c r="E460" t="s">
         <v>2269</v>
       </c>
@@ -19715,7 +19684,7 @@
         <v>3188</v>
       </c>
       <c r="D462" t="s">
-        <v>3640</v>
+        <v>3628</v>
       </c>
       <c r="E462" t="s">
         <v>2325</v>
@@ -19732,7 +19701,7 @@
         <v>2324</v>
       </c>
       <c r="D463" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
       <c r="E463" t="s">
         <v>2324</v>
@@ -19749,7 +19718,7 @@
         <v>2297</v>
       </c>
       <c r="D464" t="s">
-        <v>3612</v>
+        <v>3604</v>
       </c>
       <c r="E464" t="s">
         <v>2297</v>
@@ -19783,7 +19752,7 @@
         <v>3530</v>
       </c>
       <c r="D466" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
       <c r="E466" t="s">
         <v>2304</v>
@@ -19800,7 +19769,7 @@
         <v>3516</v>
       </c>
       <c r="D467" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E467" t="s">
         <v>2290</v>
@@ -19817,7 +19786,7 @@
         <v>3516</v>
       </c>
       <c r="D468" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E468" t="s">
         <v>2290</v>
@@ -19834,7 +19803,7 @@
         <v>2254</v>
       </c>
       <c r="D469" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E469" t="s">
         <v>2254</v>
@@ -19851,7 +19820,7 @@
         <v>2254</v>
       </c>
       <c r="D470" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E470" t="s">
         <v>2254</v>
@@ -19868,7 +19837,7 @@
         <v>580</v>
       </c>
       <c r="D471" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E471" t="s">
         <v>2275</v>
@@ -19885,7 +19854,7 @@
         <v>2263</v>
       </c>
       <c r="D472" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E472" t="s">
         <v>2263</v>
@@ -19936,7 +19905,7 @@
         <v>3516</v>
       </c>
       <c r="D475" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E475" t="s">
         <v>2290</v>
@@ -19953,7 +19922,7 @@
         <v>3510</v>
       </c>
       <c r="D476" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E476" t="s">
         <v>2251</v>
@@ -19970,7 +19939,7 @@
         <v>2263</v>
       </c>
       <c r="D477" t="s">
-        <v>3643</v>
+        <v>3630</v>
       </c>
       <c r="E477" t="s">
         <v>2263</v>
@@ -19987,7 +19956,7 @@
         <v>2324</v>
       </c>
       <c r="D478" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
       <c r="E478" t="s">
         <v>2324</v>
@@ -20004,7 +19973,7 @@
         <v>2249</v>
       </c>
       <c r="D479" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E479" t="s">
         <v>2249</v>
@@ -20021,7 +19990,7 @@
         <v>3188</v>
       </c>
       <c r="D480" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E480" t="s">
         <v>2284</v>
@@ -20038,7 +20007,7 @@
         <v>580</v>
       </c>
       <c r="D481" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E481" t="s">
         <v>2275</v>
@@ -20055,7 +20024,7 @@
         <v>2260</v>
       </c>
       <c r="D482" t="s">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="E482" t="s">
         <v>2260</v>
@@ -20072,7 +20041,7 @@
         <v>3503</v>
       </c>
       <c r="D483" t="s">
-        <v>3608</v>
+        <v>3601</v>
       </c>
       <c r="E483" t="s">
         <v>2237</v>
@@ -20089,7 +20058,7 @@
         <v>2263</v>
       </c>
       <c r="D484" t="s">
-        <v>3643</v>
+        <v>3630</v>
       </c>
       <c r="E484" t="s">
         <v>2263</v>
@@ -20105,9 +20074,6 @@
       <c r="C485" t="s">
         <v>2247</v>
       </c>
-      <c r="D485" t="s">
-        <v>3644</v>
-      </c>
       <c r="E485" t="s">
         <v>2247</v>
       </c>
@@ -20123,7 +20089,7 @@
         <v>3517</v>
       </c>
       <c r="D486" t="s">
-        <v>3593</v>
+        <v>3517</v>
       </c>
       <c r="E486" t="s">
         <v>2268</v>
@@ -20170,9 +20136,6 @@
       <c r="B489" t="s">
         <v>1870</v>
       </c>
-      <c r="D489" t="s">
-        <v>3645</v>
-      </c>
       <c r="E489" t="s">
         <v>2326</v>
       </c>
@@ -20188,7 +20151,7 @@
         <v>3508</v>
       </c>
       <c r="D490" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E490" t="s">
         <v>2258</v>
@@ -20239,7 +20202,7 @@
         <v>2254</v>
       </c>
       <c r="D493" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E493" t="s">
         <v>2254</v>
@@ -20255,9 +20218,6 @@
       <c r="C494" t="s">
         <v>636</v>
       </c>
-      <c r="D494" t="s">
-        <v>2428</v>
-      </c>
       <c r="E494" t="s">
         <v>636</v>
       </c>
@@ -20273,7 +20233,7 @@
         <v>3188</v>
       </c>
       <c r="D495" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E495" t="s">
         <v>2323</v>
@@ -20290,7 +20250,7 @@
         <v>2254</v>
       </c>
       <c r="D496" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E496" t="s">
         <v>2254</v>
@@ -20307,7 +20267,7 @@
         <v>3188</v>
       </c>
       <c r="D497" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E497" t="s">
         <v>2284</v>
@@ -20324,7 +20284,7 @@
         <v>2246</v>
       </c>
       <c r="D498" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E498" t="s">
         <v>2271</v>
@@ -20358,7 +20318,7 @@
         <v>3506</v>
       </c>
       <c r="D500" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E500" t="s">
         <v>2245</v>
@@ -20375,7 +20335,7 @@
         <v>3508</v>
       </c>
       <c r="D501" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E501" t="s">
         <v>2258</v>
@@ -20392,7 +20352,7 @@
         <v>3508</v>
       </c>
       <c r="D502" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E502" t="s">
         <v>2258</v>
@@ -20426,7 +20386,7 @@
         <v>3516</v>
       </c>
       <c r="D504" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E504" t="s">
         <v>2327</v>
@@ -20460,7 +20420,7 @@
         <v>3518</v>
       </c>
       <c r="D506" t="s">
-        <v>3646</v>
+        <v>3631</v>
       </c>
       <c r="E506" t="s">
         <v>2328</v>
@@ -20477,7 +20437,7 @@
         <v>3503</v>
       </c>
       <c r="D507" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E507" t="s">
         <v>2237</v>
@@ -20511,7 +20471,7 @@
         <v>580</v>
       </c>
       <c r="D509" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E509" t="s">
         <v>2280</v>
@@ -20528,7 +20488,7 @@
         <v>3512</v>
       </c>
       <c r="D510" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E510" t="s">
         <v>2255</v>
@@ -20545,7 +20505,7 @@
         <v>2254</v>
       </c>
       <c r="D511" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E511" t="s">
         <v>2254</v>
@@ -20562,7 +20522,7 @@
         <v>2249</v>
       </c>
       <c r="D512" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E512" t="s">
         <v>2249</v>
@@ -20579,7 +20539,7 @@
         <v>3503</v>
       </c>
       <c r="D513" t="s">
-        <v>3608</v>
+        <v>3601</v>
       </c>
       <c r="E513" t="s">
         <v>2237</v>
@@ -20596,7 +20556,7 @@
         <v>3188</v>
       </c>
       <c r="D514" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E514" t="s">
         <v>2284</v>
@@ -20613,7 +20573,7 @@
         <v>570</v>
       </c>
       <c r="D515" t="s">
-        <v>3637</v>
+        <v>3626</v>
       </c>
       <c r="E515" t="s">
         <v>2269</v>
@@ -20647,7 +20607,7 @@
         <v>3503</v>
       </c>
       <c r="D517" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E517" t="s">
         <v>2237</v>
@@ -20681,7 +20641,7 @@
         <v>2254</v>
       </c>
       <c r="D519" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E519" t="s">
         <v>2254</v>
@@ -20714,9 +20674,6 @@
       <c r="C521" t="s">
         <v>3522</v>
       </c>
-      <c r="D521" t="s">
-        <v>3647</v>
-      </c>
       <c r="E521" t="s">
         <v>2250</v>
       </c>
@@ -20732,7 +20689,7 @@
         <v>2247</v>
       </c>
       <c r="D522" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
       <c r="E522" t="s">
         <v>2247</v>
@@ -20749,7 +20706,7 @@
         <v>3506</v>
       </c>
       <c r="D523" t="s">
-        <v>3648</v>
+        <v>3632</v>
       </c>
       <c r="E523" t="s">
         <v>2245</v>
@@ -20766,7 +20723,7 @@
         <v>2254</v>
       </c>
       <c r="D524" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E524" t="s">
         <v>2254</v>
@@ -20783,7 +20740,7 @@
         <v>3523</v>
       </c>
       <c r="D525" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E525" t="s">
         <v>2278</v>
@@ -20817,7 +20774,7 @@
         <v>3518</v>
       </c>
       <c r="D527" t="s">
-        <v>3646</v>
+        <v>3631</v>
       </c>
       <c r="E527" t="s">
         <v>2328</v>
@@ -20834,7 +20791,7 @@
         <v>3503</v>
       </c>
       <c r="D528" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E528" t="s">
         <v>2237</v>
@@ -20868,7 +20825,7 @@
         <v>2249</v>
       </c>
       <c r="D530" t="s">
-        <v>3638</v>
+        <v>3627</v>
       </c>
       <c r="E530" t="s">
         <v>2249</v>
@@ -20885,7 +20842,7 @@
         <v>2263</v>
       </c>
       <c r="D531" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E531" t="s">
         <v>2263</v>
@@ -20902,7 +20859,7 @@
         <v>3503</v>
       </c>
       <c r="D532" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="E532" t="s">
         <v>2237</v>
@@ -20918,9 +20875,6 @@
       <c r="C533" t="s">
         <v>3515</v>
       </c>
-      <c r="D533" t="s">
-        <v>3649</v>
-      </c>
       <c r="E533" t="s">
         <v>2264</v>
       </c>
@@ -20936,7 +20890,7 @@
         <v>2249</v>
       </c>
       <c r="D534" t="s">
-        <v>3611</v>
+        <v>3603</v>
       </c>
       <c r="E534" t="s">
         <v>2249</v>
@@ -20970,7 +20924,7 @@
         <v>2249</v>
       </c>
       <c r="D536" t="s">
-        <v>3596</v>
+        <v>3590</v>
       </c>
       <c r="E536" t="s">
         <v>2249</v>
@@ -20987,7 +20941,7 @@
         <v>2263</v>
       </c>
       <c r="D537" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E537" t="s">
         <v>2263</v>
@@ -21003,9 +20957,6 @@
       <c r="C538" t="s">
         <v>2247</v>
       </c>
-      <c r="D538" t="s">
-        <v>3650</v>
-      </c>
       <c r="E538" t="s">
         <v>2247</v>
       </c>
@@ -21021,7 +20972,7 @@
         <v>2247</v>
       </c>
       <c r="D539" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
       <c r="E539" t="s">
         <v>2247</v>
@@ -21038,7 +20989,7 @@
         <v>2263</v>
       </c>
       <c r="D540" t="s">
-        <v>3643</v>
+        <v>3630</v>
       </c>
       <c r="E540" t="s">
         <v>2263</v>
@@ -21089,7 +21040,7 @@
         <v>2249</v>
       </c>
       <c r="D543" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
       <c r="E543" t="s">
         <v>2249</v>
@@ -21106,7 +21057,7 @@
         <v>2294</v>
       </c>
       <c r="D544" t="s">
-        <v>3607</v>
+        <v>3600</v>
       </c>
       <c r="E544" t="s">
         <v>2294</v>
@@ -21140,7 +21091,7 @@
         <v>3508</v>
       </c>
       <c r="D546" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E546" t="s">
         <v>2258</v>
@@ -21157,7 +21108,7 @@
         <v>2254</v>
       </c>
       <c r="D547" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="E547" t="s">
         <v>2254</v>
@@ -21191,7 +21142,7 @@
         <v>570</v>
       </c>
       <c r="D549" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="E549" t="s">
         <v>2269</v>
@@ -21208,7 +21159,7 @@
         <v>3519</v>
       </c>
       <c r="D550" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E550" t="s">
         <v>2272</v>
@@ -21242,7 +21193,7 @@
         <v>3516</v>
       </c>
       <c r="D552" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E552" t="s">
         <v>2290</v>
@@ -21276,7 +21227,7 @@
         <v>3508</v>
       </c>
       <c r="D554" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E554" t="s">
         <v>2258</v>
@@ -21293,7 +21244,7 @@
         <v>3503</v>
       </c>
       <c r="D555" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="E555" t="s">
         <v>2237</v>
@@ -21326,9 +21277,6 @@
       <c r="C557" t="s">
         <v>3540</v>
       </c>
-      <c r="D557" t="s">
-        <v>3651</v>
-      </c>
       <c r="E557" t="s">
         <v>2329</v>
       </c>
@@ -21344,7 +21292,7 @@
         <v>2265</v>
       </c>
       <c r="D558" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E558" t="s">
         <v>2265</v>
@@ -21361,7 +21309,7 @@
         <v>2289</v>
       </c>
       <c r="D559" t="s">
-        <v>3595</v>
+        <v>3589</v>
       </c>
       <c r="E559" t="s">
         <v>2289</v>
@@ -21378,7 +21326,7 @@
         <v>2247</v>
       </c>
       <c r="D560" t="s">
-        <v>3652</v>
+        <v>3633</v>
       </c>
       <c r="E560" t="s">
         <v>2247</v>
@@ -21395,7 +21343,7 @@
         <v>3508</v>
       </c>
       <c r="D561" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E561" t="s">
         <v>2258</v>
@@ -21429,7 +21377,7 @@
         <v>3188</v>
       </c>
       <c r="D563" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E563" t="s">
         <v>2284</v>
@@ -21446,7 +21394,7 @@
         <v>3503</v>
       </c>
       <c r="D564" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E564" t="s">
         <v>2237</v>
@@ -21463,7 +21411,7 @@
         <v>3519</v>
       </c>
       <c r="D565" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E565" t="s">
         <v>2272</v>
@@ -21531,7 +21479,7 @@
         <v>2249</v>
       </c>
       <c r="D569" t="s">
-        <v>3638</v>
+        <v>3627</v>
       </c>
       <c r="E569" t="s">
         <v>2249</v>
@@ -21548,7 +21496,7 @@
         <v>3509</v>
       </c>
       <c r="D570" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E570" t="s">
         <v>2238</v>
@@ -21581,9 +21529,6 @@
       <c r="C572" t="s">
         <v>3540</v>
       </c>
-      <c r="D572" t="s">
-        <v>3653</v>
-      </c>
       <c r="E572" t="s">
         <v>2329</v>
       </c>
@@ -21598,9 +21543,6 @@
       <c r="C573" t="s">
         <v>3506</v>
       </c>
-      <c r="D573" t="s">
-        <v>3654</v>
-      </c>
       <c r="E573" t="s">
         <v>2245</v>
       </c>
@@ -21616,7 +21558,7 @@
         <v>2254</v>
       </c>
       <c r="D574" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E574" t="s">
         <v>2254</v>
@@ -21633,7 +21575,7 @@
         <v>2254</v>
       </c>
       <c r="D575" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E575" t="s">
         <v>2254</v>
@@ -21650,7 +21592,7 @@
         <v>3528</v>
       </c>
       <c r="D576" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E576" t="s">
         <v>2298</v>
@@ -21684,7 +21626,7 @@
         <v>2249</v>
       </c>
       <c r="D578" t="s">
-        <v>3609</v>
+        <v>3602</v>
       </c>
       <c r="E578" t="s">
         <v>2249</v>
@@ -21701,7 +21643,7 @@
         <v>3510</v>
       </c>
       <c r="D579" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E579" t="s">
         <v>2288</v>
@@ -21715,7 +21657,7 @@
         <v>2374</v>
       </c>
       <c r="D580" t="s">
-        <v>3655</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.35">
@@ -21746,7 +21688,7 @@
         <v>3506</v>
       </c>
       <c r="D582" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E582" t="s">
         <v>2245</v>
@@ -21763,7 +21705,7 @@
         <v>2263</v>
       </c>
       <c r="D583" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E583" t="s">
         <v>2263</v>
@@ -21797,7 +21739,7 @@
         <v>3503</v>
       </c>
       <c r="D585" t="s">
-        <v>3629</v>
+        <v>3619</v>
       </c>
       <c r="E585" t="s">
         <v>2237</v>
@@ -21814,7 +21756,7 @@
         <v>3506</v>
       </c>
       <c r="D586" t="s">
-        <v>3575</v>
+        <v>3571</v>
       </c>
       <c r="E586" t="s">
         <v>2266</v>
@@ -21831,7 +21773,7 @@
         <v>3515</v>
       </c>
       <c r="D587" t="s">
-        <v>3656</v>
+        <v>3635</v>
       </c>
       <c r="E587" t="s">
         <v>2264</v>
@@ -21848,7 +21790,7 @@
         <v>3516</v>
       </c>
       <c r="D588" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E588" t="s">
         <v>2267</v>
@@ -21882,7 +21824,7 @@
         <v>570</v>
       </c>
       <c r="D590" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="E590" t="s">
         <v>2269</v>
@@ -21967,7 +21909,7 @@
         <v>3506</v>
       </c>
       <c r="D595" t="s">
-        <v>3648</v>
+        <v>3632</v>
       </c>
       <c r="E595" t="s">
         <v>2245</v>
@@ -22001,7 +21943,7 @@
         <v>2249</v>
       </c>
       <c r="D597" t="s">
-        <v>3600</v>
+        <v>3594</v>
       </c>
       <c r="E597" t="s">
         <v>2249</v>
@@ -22018,7 +21960,7 @@
         <v>2254</v>
       </c>
       <c r="D598" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E598" t="s">
         <v>2254</v>
@@ -22035,7 +21977,7 @@
         <v>3506</v>
       </c>
       <c r="D599" t="s">
-        <v>3648</v>
+        <v>3632</v>
       </c>
       <c r="E599" t="s">
         <v>2245</v>
@@ -22052,7 +21994,7 @@
         <v>3538</v>
       </c>
       <c r="D600" t="s">
-        <v>3633</v>
+        <v>3623</v>
       </c>
       <c r="E600" t="s">
         <v>2319</v>
@@ -22069,7 +22011,7 @@
         <v>3518</v>
       </c>
       <c r="D601" t="s">
-        <v>3646</v>
+        <v>3631</v>
       </c>
       <c r="E601" t="s">
         <v>2270</v>
@@ -22086,7 +22028,7 @@
         <v>3538</v>
       </c>
       <c r="D602" t="s">
-        <v>3633</v>
+        <v>3623</v>
       </c>
       <c r="E602" t="s">
         <v>2319</v>
@@ -22137,7 +22079,7 @@
         <v>2294</v>
       </c>
       <c r="D605" t="s">
-        <v>3607</v>
+        <v>3600</v>
       </c>
       <c r="E605" t="s">
         <v>2294</v>
@@ -22154,7 +22096,7 @@
         <v>3516</v>
       </c>
       <c r="D606" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E606" t="s">
         <v>2290</v>
@@ -22171,7 +22113,7 @@
         <v>3503</v>
       </c>
       <c r="D607" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E607" t="s">
         <v>2237</v>
@@ -22188,7 +22130,7 @@
         <v>2283</v>
       </c>
       <c r="D608" t="s">
-        <v>3601</v>
+        <v>3595</v>
       </c>
       <c r="E608" t="s">
         <v>2283</v>
@@ -22222,7 +22164,7 @@
         <v>3510</v>
       </c>
       <c r="D610" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
       <c r="E610" t="s">
         <v>2251</v>
@@ -22256,7 +22198,7 @@
         <v>3522</v>
       </c>
       <c r="D612" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E612" t="s">
         <v>2250</v>
@@ -22273,7 +22215,7 @@
         <v>2254</v>
       </c>
       <c r="D613" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E613" t="s">
         <v>2254</v>
@@ -22289,9 +22231,6 @@
       <c r="C614" t="s">
         <v>636</v>
       </c>
-      <c r="D614" t="s">
-        <v>3657</v>
-      </c>
       <c r="E614" t="s">
         <v>636</v>
       </c>
@@ -22306,9 +22245,6 @@
       <c r="C615" t="s">
         <v>3516</v>
       </c>
-      <c r="D615" t="s">
-        <v>3658</v>
-      </c>
       <c r="E615" t="s">
         <v>2290</v>
       </c>
@@ -22358,7 +22294,7 @@
         <v>2249</v>
       </c>
       <c r="D618" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
       <c r="E618" t="s">
         <v>2249</v>
@@ -22375,7 +22311,7 @@
         <v>3503</v>
       </c>
       <c r="D619" t="s">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="E619" t="s">
         <v>2321</v>
@@ -22408,9 +22344,6 @@
       <c r="C621" t="s">
         <v>3528</v>
       </c>
-      <c r="D621" t="s">
-        <v>3659</v>
-      </c>
       <c r="E621" t="s">
         <v>2298</v>
       </c>
@@ -22426,7 +22359,7 @@
         <v>3503</v>
       </c>
       <c r="D622" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E622" t="s">
         <v>2237</v>
@@ -22460,7 +22393,7 @@
         <v>3523</v>
       </c>
       <c r="D624" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E624" t="s">
         <v>2296</v>
@@ -22494,7 +22427,7 @@
         <v>2254</v>
       </c>
       <c r="D626" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E626" t="s">
         <v>2254</v>
@@ -22528,7 +22461,7 @@
         <v>3519</v>
       </c>
       <c r="D628" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E628" t="s">
         <v>2272</v>
@@ -22545,7 +22478,7 @@
         <v>2246</v>
       </c>
       <c r="D629" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E629" t="s">
         <v>2246</v>
@@ -22562,7 +22495,7 @@
         <v>2249</v>
       </c>
       <c r="D630" t="s">
-        <v>3570</v>
+        <v>3566</v>
       </c>
       <c r="E630" t="s">
         <v>2249</v>
@@ -22579,7 +22512,7 @@
         <v>580</v>
       </c>
       <c r="D631" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E631" t="s">
         <v>2280</v>
@@ -22613,7 +22546,7 @@
         <v>2254</v>
       </c>
       <c r="D633" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E633" t="s">
         <v>2254</v>
@@ -22630,7 +22563,7 @@
         <v>2249</v>
       </c>
       <c r="D634" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E634" t="s">
         <v>2249</v>
@@ -22647,7 +22580,7 @@
         <v>3532</v>
       </c>
       <c r="D635" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="E635" t="s">
         <v>2309</v>
@@ -22664,7 +22597,7 @@
         <v>2263</v>
       </c>
       <c r="D636" t="s">
-        <v>3660</v>
+        <v>3636</v>
       </c>
       <c r="E636" t="s">
         <v>2263</v>
@@ -22698,7 +22631,7 @@
         <v>3503</v>
       </c>
       <c r="D638" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E638" t="s">
         <v>2237</v>
@@ -22715,7 +22648,7 @@
         <v>3507</v>
       </c>
       <c r="D639" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E639" t="s">
         <v>2248</v>
@@ -22749,7 +22682,7 @@
         <v>2246</v>
       </c>
       <c r="D641" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E641" t="s">
         <v>2271</v>
@@ -22783,7 +22716,7 @@
         <v>2246</v>
       </c>
       <c r="D643" t="s">
-        <v>3661</v>
+        <v>3637</v>
       </c>
       <c r="E643" t="s">
         <v>2246</v>
@@ -22800,7 +22733,7 @@
         <v>3508</v>
       </c>
       <c r="D644" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E644" t="s">
         <v>2258</v>
@@ -22817,7 +22750,7 @@
         <v>570</v>
       </c>
       <c r="D645" t="s">
-        <v>3662</v>
+        <v>3640</v>
       </c>
       <c r="E645" t="s">
         <v>2269</v>
@@ -22834,7 +22767,7 @@
         <v>2254</v>
       </c>
       <c r="D646" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E646" t="s">
         <v>2254</v>
@@ -22851,7 +22784,7 @@
         <v>3508</v>
       </c>
       <c r="D647" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E647" t="s">
         <v>2258</v>
@@ -22868,7 +22801,7 @@
         <v>3515</v>
       </c>
       <c r="D648" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E648" t="s">
         <v>2264</v>
@@ -22902,7 +22835,7 @@
         <v>3503</v>
       </c>
       <c r="D650" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E650" t="s">
         <v>2237</v>
@@ -22919,7 +22852,7 @@
         <v>580</v>
       </c>
       <c r="D651" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E651" t="s">
         <v>2280</v>
@@ -22936,7 +22869,7 @@
         <v>2254</v>
       </c>
       <c r="D652" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E652" t="s">
         <v>2254</v>
@@ -22953,7 +22886,7 @@
         <v>2247</v>
       </c>
       <c r="D653" t="s">
-        <v>3663</v>
+        <v>3625</v>
       </c>
       <c r="E653" t="s">
         <v>2247</v>
@@ -22970,7 +22903,7 @@
         <v>3536</v>
       </c>
       <c r="D654" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E654" t="s">
         <v>2317</v>
@@ -22987,7 +22920,7 @@
         <v>2254</v>
       </c>
       <c r="D655" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E655" t="s">
         <v>2254</v>
@@ -23004,7 +22937,7 @@
         <v>3509</v>
       </c>
       <c r="D656" t="s">
-        <v>3618</v>
+        <v>3609</v>
       </c>
       <c r="E656" t="s">
         <v>2238</v>
@@ -23038,7 +22971,7 @@
         <v>3520</v>
       </c>
       <c r="D658" t="s">
-        <v>3664</v>
+        <v>3638</v>
       </c>
       <c r="E658" t="s">
         <v>2285</v>
@@ -23072,7 +23005,7 @@
         <v>2263</v>
       </c>
       <c r="D660" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E660" t="s">
         <v>2263</v>
@@ -23089,7 +23022,7 @@
         <v>3535</v>
       </c>
       <c r="D661" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E661" t="s">
         <v>2315</v>
@@ -23106,7 +23039,7 @@
         <v>3188</v>
       </c>
       <c r="D662" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E662" t="s">
         <v>2284</v>
@@ -23123,7 +23056,7 @@
         <v>3519</v>
       </c>
       <c r="D663" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E663" t="s">
         <v>2272</v>
@@ -23140,7 +23073,7 @@
         <v>3188</v>
       </c>
       <c r="D664" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E664" t="s">
         <v>2284</v>
@@ -23191,7 +23124,7 @@
         <v>2254</v>
       </c>
       <c r="D667" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E667" t="s">
         <v>2254</v>
@@ -23208,7 +23141,7 @@
         <v>3188</v>
       </c>
       <c r="D668" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E668" t="s">
         <v>2284</v>
@@ -23225,7 +23158,7 @@
         <v>3516</v>
       </c>
       <c r="D669" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E669" t="s">
         <v>2290</v>
@@ -23242,7 +23175,7 @@
         <v>580</v>
       </c>
       <c r="D670" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E670" t="s">
         <v>2275</v>
@@ -23276,7 +23209,7 @@
         <v>3503</v>
       </c>
       <c r="D672" t="s">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="E672" t="s">
         <v>2321</v>
@@ -23293,7 +23226,7 @@
         <v>2247</v>
       </c>
       <c r="D673" t="s">
-        <v>3652</v>
+        <v>3633</v>
       </c>
       <c r="E673" t="s">
         <v>2247</v>
@@ -23310,7 +23243,7 @@
         <v>3525</v>
       </c>
       <c r="D674" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
       <c r="E674" t="s">
         <v>2281</v>
@@ -23327,7 +23260,7 @@
         <v>2289</v>
       </c>
       <c r="D675" t="s">
-        <v>3595</v>
+        <v>3589</v>
       </c>
       <c r="E675" t="s">
         <v>2289</v>
@@ -23361,7 +23294,7 @@
         <v>3515</v>
       </c>
       <c r="D677" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E677" t="s">
         <v>2264</v>
@@ -23392,7 +23325,7 @@
         <v>2362</v>
       </c>
       <c r="D679" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.35">
@@ -23406,7 +23339,7 @@
         <v>2246</v>
       </c>
       <c r="D680" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E680" t="s">
         <v>2271</v>
@@ -23440,7 +23373,7 @@
         <v>3508</v>
       </c>
       <c r="D682" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E682" t="s">
         <v>2258</v>
@@ -23485,7 +23418,7 @@
         <v>3506</v>
       </c>
       <c r="D685" t="s">
-        <v>3664</v>
+        <v>3638</v>
       </c>
       <c r="E685" t="s">
         <v>2245</v>
@@ -23519,7 +23452,7 @@
         <v>3506</v>
       </c>
       <c r="D687" t="s">
-        <v>3618</v>
+        <v>3609</v>
       </c>
       <c r="E687" t="s">
         <v>2245</v>
@@ -23536,7 +23469,7 @@
         <v>3506</v>
       </c>
       <c r="D688" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E688" t="s">
         <v>2245</v>
@@ -23553,7 +23486,7 @@
         <v>3516</v>
       </c>
       <c r="D689" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="E689" t="s">
         <v>2290</v>
@@ -23567,7 +23500,7 @@
         <v>2377</v>
       </c>
       <c r="D690" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.35">
@@ -23581,7 +23514,7 @@
         <v>2254</v>
       </c>
       <c r="D691" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E691" t="s">
         <v>2254</v>
@@ -23598,7 +23531,7 @@
         <v>3542</v>
       </c>
       <c r="D692" t="s">
-        <v>3656</v>
+        <v>3635</v>
       </c>
       <c r="E692" t="s">
         <v>2332</v>
@@ -23626,7 +23559,7 @@
         <v>3188</v>
       </c>
       <c r="D694" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E694" t="s">
         <v>2262</v>
@@ -23660,7 +23593,7 @@
         <v>3188</v>
       </c>
       <c r="D696" t="s">
-        <v>3661</v>
+        <v>3637</v>
       </c>
       <c r="E696" t="s">
         <v>2284</v>
@@ -23677,7 +23610,7 @@
         <v>3508</v>
       </c>
       <c r="D697" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E697" t="s">
         <v>2258</v>
@@ -23728,7 +23661,7 @@
         <v>3508</v>
       </c>
       <c r="D700" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E700" t="s">
         <v>2258</v>
@@ -23762,7 +23695,7 @@
         <v>3188</v>
       </c>
       <c r="D702" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E702" t="s">
         <v>2284</v>
@@ -23779,7 +23712,7 @@
         <v>3528</v>
       </c>
       <c r="D703" t="s">
-        <v>3655</v>
+        <v>3634</v>
       </c>
       <c r="E703" t="s">
         <v>2298</v>
@@ -23796,7 +23729,7 @@
         <v>2260</v>
       </c>
       <c r="D704" t="s">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="E704" t="s">
         <v>2260</v>
@@ -23813,7 +23746,7 @@
         <v>3514</v>
       </c>
       <c r="D705" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E705" t="s">
         <v>2259</v>
@@ -23830,7 +23763,7 @@
         <v>3503</v>
       </c>
       <c r="D706" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E706" t="s">
         <v>2237</v>
@@ -23864,7 +23797,7 @@
         <v>580</v>
       </c>
       <c r="D708" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E708" t="s">
         <v>2280</v>
@@ -23881,7 +23814,7 @@
         <v>2330</v>
       </c>
       <c r="D709" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E709" t="s">
         <v>2330</v>
@@ -23960,7 +23893,7 @@
         <v>2260</v>
       </c>
       <c r="D714" t="s">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="E714" t="s">
         <v>2260</v>
@@ -23977,7 +23910,7 @@
         <v>3516</v>
       </c>
       <c r="D715" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E715" t="s">
         <v>2333</v>
@@ -23994,7 +23927,7 @@
         <v>2263</v>
       </c>
       <c r="D716" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E716" t="s">
         <v>2263</v>
@@ -24011,7 +23944,7 @@
         <v>2247</v>
       </c>
       <c r="D717" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
       <c r="E717" t="s">
         <v>2247</v>
@@ -24028,7 +23961,7 @@
         <v>3508</v>
       </c>
       <c r="D718" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E718" t="s">
         <v>2258</v>
@@ -24045,7 +23978,7 @@
         <v>3519</v>
       </c>
       <c r="D719" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E719" t="s">
         <v>2272</v>
@@ -24062,7 +23995,7 @@
         <v>3508</v>
       </c>
       <c r="D720" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E720" t="s">
         <v>2258</v>
@@ -24079,7 +24012,7 @@
         <v>3503</v>
       </c>
       <c r="D721" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E721" t="s">
         <v>2237</v>
@@ -24113,7 +24046,7 @@
         <v>3519</v>
       </c>
       <c r="D723" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E723" t="s">
         <v>2272</v>
@@ -24130,7 +24063,7 @@
         <v>636</v>
       </c>
       <c r="D724" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="E724" t="s">
         <v>636</v>
@@ -24147,7 +24080,7 @@
         <v>3516</v>
       </c>
       <c r="D725" t="s">
-        <v>3616</v>
+        <v>3607</v>
       </c>
       <c r="E725" t="s">
         <v>2290</v>
@@ -24198,7 +24131,7 @@
         <v>3503</v>
       </c>
       <c r="D728" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E728" t="s">
         <v>2237</v>
@@ -24215,7 +24148,7 @@
         <v>3188</v>
       </c>
       <c r="D729" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E729" t="s">
         <v>2284</v>
@@ -24249,7 +24182,7 @@
         <v>2247</v>
       </c>
       <c r="D731" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E731" t="s">
         <v>2247</v>
@@ -24266,7 +24199,7 @@
         <v>2249</v>
       </c>
       <c r="D732" t="s">
-        <v>3609</v>
+        <v>3602</v>
       </c>
       <c r="E732" t="s">
         <v>2249</v>
@@ -24283,7 +24216,7 @@
         <v>3516</v>
       </c>
       <c r="D733" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E733" t="s">
         <v>2311</v>
@@ -24300,7 +24233,7 @@
         <v>3508</v>
       </c>
       <c r="D734" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E734" t="s">
         <v>2258</v>
@@ -24368,7 +24301,7 @@
         <v>2254</v>
       </c>
       <c r="D738" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E738" t="s">
         <v>2254</v>
@@ -24385,7 +24318,7 @@
         <v>636</v>
       </c>
       <c r="D739" t="s">
-        <v>3665</v>
+        <v>2437</v>
       </c>
       <c r="E739" t="s">
         <v>636</v>
@@ -24402,7 +24335,7 @@
         <v>3527</v>
       </c>
       <c r="D740" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E740" t="s">
         <v>2292</v>
@@ -24419,7 +24352,7 @@
         <v>3508</v>
       </c>
       <c r="D741" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E741" t="s">
         <v>2258</v>
@@ -24453,7 +24386,7 @@
         <v>2283</v>
       </c>
       <c r="D743" t="s">
-        <v>3601</v>
+        <v>3595</v>
       </c>
       <c r="E743" t="s">
         <v>2283</v>
@@ -24470,7 +24403,7 @@
         <v>580</v>
       </c>
       <c r="D744" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E744" t="s">
         <v>2275</v>
@@ -24484,7 +24417,7 @@
         <v>2380</v>
       </c>
       <c r="D745" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
@@ -24515,7 +24448,7 @@
         <v>2283</v>
       </c>
       <c r="D747" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E747" t="s">
         <v>2283</v>
@@ -24532,7 +24465,7 @@
         <v>3536</v>
       </c>
       <c r="D748" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E748" t="s">
         <v>2317</v>
@@ -24566,7 +24499,7 @@
         <v>3508</v>
       </c>
       <c r="D750" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E750" t="s">
         <v>2258</v>
@@ -24600,7 +24533,7 @@
         <v>3503</v>
       </c>
       <c r="D752" t="s">
-        <v>3629</v>
+        <v>3619</v>
       </c>
       <c r="E752" t="s">
         <v>2237</v>
@@ -24634,7 +24567,7 @@
         <v>2247</v>
       </c>
       <c r="D754" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E754" t="s">
         <v>2247</v>
@@ -24651,7 +24584,7 @@
         <v>2334</v>
       </c>
       <c r="D755" t="s">
-        <v>3666</v>
+        <v>3639</v>
       </c>
       <c r="E755" t="s">
         <v>2334</v>
@@ -24668,7 +24601,7 @@
         <v>3532</v>
       </c>
       <c r="D756" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E756" t="s">
         <v>2335</v>
@@ -24701,9 +24634,6 @@
       <c r="C758" t="s">
         <v>2249</v>
       </c>
-      <c r="D758" t="s">
-        <v>3667</v>
-      </c>
       <c r="E758" t="s">
         <v>2249</v>
       </c>
@@ -24719,7 +24649,7 @@
         <v>2283</v>
       </c>
       <c r="D759" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E759" t="s">
         <v>2283</v>
@@ -24733,7 +24663,7 @@
         <v>2369</v>
       </c>
       <c r="D760" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.35">
@@ -24747,7 +24677,7 @@
         <v>3508</v>
       </c>
       <c r="D761" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E761" t="s">
         <v>2258</v>
@@ -24798,7 +24728,7 @@
         <v>3519</v>
       </c>
       <c r="D764" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E764" t="s">
         <v>2272</v>
@@ -24815,7 +24745,7 @@
         <v>3508</v>
       </c>
       <c r="D765" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E765" t="s">
         <v>2258</v>
@@ -24832,7 +24762,7 @@
         <v>3503</v>
       </c>
       <c r="D766" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="E766" t="s">
         <v>2237</v>
@@ -24849,7 +24779,7 @@
         <v>2334</v>
       </c>
       <c r="D767" t="s">
-        <v>3666</v>
+        <v>3639</v>
       </c>
       <c r="E767" t="s">
         <v>2334</v>
@@ -24866,7 +24796,7 @@
         <v>3188</v>
       </c>
       <c r="D768" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E768" t="s">
         <v>2284</v>
@@ -24900,7 +24830,7 @@
         <v>2254</v>
       </c>
       <c r="D770" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="E770" t="s">
         <v>2254</v>
@@ -24917,7 +24847,7 @@
         <v>3528</v>
       </c>
       <c r="D771" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E771" t="s">
         <v>2298</v>
@@ -24934,7 +24864,7 @@
         <v>3508</v>
       </c>
       <c r="D772" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E772" t="s">
         <v>2258</v>
@@ -24951,7 +24881,7 @@
         <v>3515</v>
       </c>
       <c r="D773" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E773" t="s">
         <v>2264</v>
@@ -24985,7 +24915,7 @@
         <v>3188</v>
       </c>
       <c r="D775" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E775" t="s">
         <v>2262</v>
@@ -25019,7 +24949,7 @@
         <v>2297</v>
       </c>
       <c r="D777" t="s">
-        <v>3612</v>
+        <v>3604</v>
       </c>
       <c r="E777" t="s">
         <v>2297</v>
@@ -25053,7 +24983,7 @@
         <v>603</v>
       </c>
       <c r="D779" t="s">
-        <v>3668</v>
+        <v>603</v>
       </c>
       <c r="E779" t="s">
         <v>2241</v>
@@ -25070,7 +25000,7 @@
         <v>3514</v>
       </c>
       <c r="D780" t="s">
-        <v>3603</v>
+        <v>3597</v>
       </c>
       <c r="E780" t="s">
         <v>2259</v>
@@ -25087,7 +25017,7 @@
         <v>3506</v>
       </c>
       <c r="D781" t="s">
-        <v>3648</v>
+        <v>3632</v>
       </c>
       <c r="E781" t="s">
         <v>2245</v>
@@ -25104,7 +25034,7 @@
         <v>2249</v>
       </c>
       <c r="D782" t="s">
-        <v>3660</v>
+        <v>3636</v>
       </c>
       <c r="E782" t="s">
         <v>2249</v>
@@ -25138,7 +25068,7 @@
         <v>2293</v>
       </c>
       <c r="D784" t="s">
-        <v>3602</v>
+        <v>3596</v>
       </c>
       <c r="E784" t="s">
         <v>2293</v>
@@ -25155,7 +25085,7 @@
         <v>3520</v>
       </c>
       <c r="D785" t="s">
-        <v>3590</v>
+        <v>3586</v>
       </c>
       <c r="E785" t="s">
         <v>2285</v>
@@ -25172,7 +25102,7 @@
         <v>2293</v>
       </c>
       <c r="D786" t="s">
-        <v>3602</v>
+        <v>3596</v>
       </c>
       <c r="E786" t="s">
         <v>2293</v>
@@ -25206,7 +25136,7 @@
         <v>3503</v>
       </c>
       <c r="D788" t="s">
-        <v>3608</v>
+        <v>3601</v>
       </c>
       <c r="E788" t="s">
         <v>2237</v>
@@ -25223,7 +25153,7 @@
         <v>3188</v>
       </c>
       <c r="D789" t="s">
-        <v>3640</v>
+        <v>3628</v>
       </c>
       <c r="E789" t="s">
         <v>2325</v>
@@ -25257,7 +25187,7 @@
         <v>3188</v>
       </c>
       <c r="D791" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="E791" t="s">
         <v>2262</v>
@@ -25271,7 +25201,7 @@
         <v>2376</v>
       </c>
       <c r="D792" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.35">
@@ -25302,7 +25232,7 @@
         <v>2249</v>
       </c>
       <c r="D794" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E794" t="s">
         <v>2249</v>
@@ -25319,7 +25249,7 @@
         <v>2249</v>
       </c>
       <c r="D795" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E795" t="s">
         <v>2249</v>
@@ -25387,7 +25317,7 @@
         <v>2249</v>
       </c>
       <c r="D799" t="s">
-        <v>3609</v>
+        <v>3602</v>
       </c>
       <c r="E799" t="s">
         <v>2249</v>
@@ -25421,7 +25351,7 @@
         <v>2246</v>
       </c>
       <c r="D801" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E801" t="s">
         <v>2271</v>
@@ -25438,7 +25368,7 @@
         <v>2249</v>
       </c>
       <c r="D802" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E802" t="s">
         <v>2249</v>
@@ -25452,7 +25382,7 @@
         <v>2363</v>
       </c>
       <c r="D803" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.35">
@@ -25466,7 +25396,7 @@
         <v>3535</v>
       </c>
       <c r="D804" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E804" t="s">
         <v>2315</v>
@@ -25517,7 +25447,7 @@
         <v>2263</v>
       </c>
       <c r="D807" t="s">
-        <v>3643</v>
+        <v>3630</v>
       </c>
       <c r="E807" t="s">
         <v>2263</v>
@@ -25551,7 +25481,7 @@
         <v>636</v>
       </c>
       <c r="D809" t="s">
-        <v>3601</v>
+        <v>3595</v>
       </c>
       <c r="E809" t="s">
         <v>636</v>
@@ -25568,7 +25498,7 @@
         <v>3188</v>
       </c>
       <c r="D810" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E810" t="s">
         <v>2284</v>
@@ -25585,7 +25515,7 @@
         <v>3508</v>
       </c>
       <c r="D811" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E811" t="s">
         <v>2258</v>
@@ -25602,7 +25532,7 @@
         <v>3515</v>
       </c>
       <c r="D812" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E812" t="s">
         <v>2264</v>
@@ -25653,7 +25583,7 @@
         <v>3528</v>
       </c>
       <c r="D815" t="s">
-        <v>3655</v>
+        <v>3634</v>
       </c>
       <c r="E815" t="s">
         <v>2298</v>
@@ -25687,7 +25617,7 @@
         <v>3535</v>
       </c>
       <c r="D817" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E817" t="s">
         <v>2315</v>
@@ -25704,7 +25634,7 @@
         <v>580</v>
       </c>
       <c r="D818" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E818" t="s">
         <v>2275</v>
@@ -25755,7 +25685,7 @@
         <v>2247</v>
       </c>
       <c r="D821" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
       <c r="E821" t="s">
         <v>2247</v>
@@ -25772,7 +25702,7 @@
         <v>3516</v>
       </c>
       <c r="D822" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E822" t="s">
         <v>2290</v>
@@ -25857,7 +25787,7 @@
         <v>3528</v>
       </c>
       <c r="D827" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E827" t="s">
         <v>2298</v>
@@ -25874,7 +25804,7 @@
         <v>3518</v>
       </c>
       <c r="D828" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="E828" t="s">
         <v>2303</v>
@@ -25891,7 +25821,7 @@
         <v>2265</v>
       </c>
       <c r="D829" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
       <c r="E829" t="s">
         <v>2265</v>
@@ -25908,7 +25838,7 @@
         <v>3528</v>
       </c>
       <c r="D830" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E830" t="s">
         <v>2298</v>
@@ -25942,7 +25872,7 @@
         <v>580</v>
       </c>
       <c r="D832" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E832" t="s">
         <v>2280</v>
@@ -26010,7 +25940,7 @@
         <v>3521</v>
       </c>
       <c r="D836" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E836" t="s">
         <v>2274</v>
@@ -26038,7 +25968,7 @@
         <v>580</v>
       </c>
       <c r="D838" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
       <c r="E838" t="s">
         <v>2280</v>
@@ -26054,9 +25984,6 @@
       <c r="C839" t="s">
         <v>3508</v>
       </c>
-      <c r="D839" t="s">
-        <v>3669</v>
-      </c>
       <c r="E839" t="s">
         <v>2258</v>
       </c>
@@ -26072,7 +25999,7 @@
         <v>3532</v>
       </c>
       <c r="D840" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="E840" t="s">
         <v>2309</v>
@@ -26089,7 +26016,7 @@
         <v>3508</v>
       </c>
       <c r="D841" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="E841" t="s">
         <v>2258</v>
@@ -26106,7 +26033,7 @@
         <v>3519</v>
       </c>
       <c r="D842" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="E842" t="s">
         <v>2272</v>
@@ -26123,7 +26050,7 @@
         <v>3188</v>
       </c>
       <c r="D843" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E843" t="s">
         <v>2284</v>
@@ -26174,7 +26101,7 @@
         <v>3510</v>
       </c>
       <c r="D846" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
       <c r="E846" t="s">
         <v>2251</v>
@@ -26191,7 +26118,7 @@
         <v>3535</v>
       </c>
       <c r="D847" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E847" t="s">
         <v>2315</v>
@@ -26208,7 +26135,7 @@
         <v>3506</v>
       </c>
       <c r="D848" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E848" t="s">
         <v>2336</v>
@@ -26241,9 +26168,6 @@
       <c r="C850" t="s">
         <v>3510</v>
       </c>
-      <c r="D850" t="s">
-        <v>3670</v>
-      </c>
       <c r="E850" t="s">
         <v>2251</v>
       </c>
@@ -26258,9 +26182,6 @@
       <c r="C851" t="s">
         <v>570</v>
       </c>
-      <c r="D851" t="s">
-        <v>3671</v>
-      </c>
       <c r="E851" t="s">
         <v>2269</v>
       </c>
@@ -26276,7 +26197,7 @@
         <v>2249</v>
       </c>
       <c r="D852" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E852" t="s">
         <v>2249</v>
@@ -26293,7 +26214,7 @@
         <v>3188</v>
       </c>
       <c r="D853" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E853" t="s">
         <v>2284</v>
@@ -26361,7 +26282,7 @@
         <v>2263</v>
       </c>
       <c r="D857" t="s">
-        <v>3643</v>
+        <v>3630</v>
       </c>
       <c r="E857" t="s">
         <v>2263</v>
@@ -26395,7 +26316,7 @@
         <v>2254</v>
       </c>
       <c r="D859" t="s">
-        <v>3631</v>
+        <v>3621</v>
       </c>
       <c r="E859" t="s">
         <v>2254</v>
@@ -26412,7 +26333,7 @@
         <v>3542</v>
       </c>
       <c r="D860" t="s">
-        <v>3656</v>
+        <v>3635</v>
       </c>
       <c r="E860" t="s">
         <v>2332</v>
@@ -26463,7 +26384,7 @@
         <v>2287</v>
       </c>
       <c r="D863" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="E863" t="s">
         <v>2287</v>
@@ -26480,7 +26401,7 @@
         <v>2249</v>
       </c>
       <c r="D864" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E864" t="s">
         <v>2249</v>
@@ -26497,7 +26418,7 @@
         <v>3188</v>
       </c>
       <c r="D865" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E865" t="s">
         <v>2284</v>
@@ -26514,7 +26435,7 @@
         <v>2314</v>
       </c>
       <c r="D866" t="s">
-        <v>3630</v>
+        <v>3620</v>
       </c>
       <c r="E866" t="s">
         <v>2314</v>
@@ -26531,7 +26452,7 @@
         <v>3518</v>
       </c>
       <c r="D867" t="s">
-        <v>3622</v>
+        <v>3613</v>
       </c>
       <c r="E867" t="s">
         <v>2305</v>
@@ -26548,7 +26469,7 @@
         <v>3516</v>
       </c>
       <c r="D868" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E868" t="s">
         <v>2267</v>
@@ -26564,9 +26485,6 @@
       <c r="C869" t="s">
         <v>2246</v>
       </c>
-      <c r="D869" t="s">
-        <v>3672</v>
-      </c>
       <c r="E869" t="s">
         <v>2246</v>
       </c>
@@ -26582,7 +26500,7 @@
         <v>3188</v>
       </c>
       <c r="D870" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E870" t="s">
         <v>2284</v>
@@ -26599,7 +26517,7 @@
         <v>2254</v>
       </c>
       <c r="D871" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E871" t="s">
         <v>2254</v>
@@ -26616,7 +26534,7 @@
         <v>3516</v>
       </c>
       <c r="D872" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E872" t="s">
         <v>2290</v>
@@ -26644,7 +26562,7 @@
         <v>2294</v>
       </c>
       <c r="D874" t="s">
-        <v>3607</v>
+        <v>3600</v>
       </c>
       <c r="E874" t="s">
         <v>2294</v>
@@ -26695,7 +26613,7 @@
         <v>2260</v>
       </c>
       <c r="D877" t="s">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="E877" t="s">
         <v>2260</v>
@@ -26729,7 +26647,7 @@
         <v>580</v>
       </c>
       <c r="D879" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="E879" t="s">
         <v>2275</v>
@@ -26746,7 +26664,7 @@
         <v>3528</v>
       </c>
       <c r="D880" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="E880" t="s">
         <v>2298</v>
@@ -26797,7 +26715,7 @@
         <v>3508</v>
       </c>
       <c r="D883" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E883" t="s">
         <v>2258</v>
@@ -26831,7 +26749,7 @@
         <v>3510</v>
       </c>
       <c r="D885" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E885" t="s">
         <v>2251</v>
@@ -26840,9 +26758,10 @@
   </sheetData>
   <autoFilter ref="A1:E885" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/stock_list_github.xlsx
+++ b/stock_list_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadashiv\Desktop\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA06A8-B7D9-476D-B504-00FCD7D81E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF7C2D8-201B-4E91-A3A6-5D51AD8ED3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7374" uniqueCount="3641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7371" uniqueCount="3639">
   <si>
     <t>Symbol</t>
   </si>
@@ -10686,9 +10686,6 @@
     <t>Asset Management Company</t>
   </si>
   <si>
-    <t>Cement &amp; Cement Products</t>
-  </si>
-  <si>
     <t>Computers - Software &amp; Consulting</t>
   </si>
   <si>
@@ -10801,9 +10798,6 @@
   </si>
   <si>
     <t>Telecom - Cellular &amp; Fixed line services</t>
-  </si>
-  <si>
-    <t>Real Estate Investment Trusts (REITs)</t>
   </si>
   <si>
     <t>Tour- Travel Related Services</t>
@@ -11493,39 +11487,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11533,66 +11495,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11912,8 +11814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="D869" sqref="D24:D869"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12127,7 +12029,7 @@
         <v>3505</v>
       </c>
       <c r="D12" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E12" t="s">
         <v>2244</v>
@@ -12144,7 +12046,7 @@
         <v>3506</v>
       </c>
       <c r="D13" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E13" t="s">
         <v>2245</v>
@@ -12161,7 +12063,7 @@
         <v>2246</v>
       </c>
       <c r="D14" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="E14" t="s">
         <v>2246</v>
@@ -12226,7 +12128,7 @@
         <v>2249</v>
       </c>
       <c r="D18" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="E18" t="s">
         <v>2249</v>
@@ -12260,7 +12162,7 @@
         <v>3507</v>
       </c>
       <c r="D20" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="E20" t="s">
         <v>2248</v>
@@ -12277,7 +12179,7 @@
         <v>3510</v>
       </c>
       <c r="D21" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E21" t="s">
         <v>2251</v>
@@ -12311,7 +12213,7 @@
         <v>636</v>
       </c>
       <c r="D23" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E23" t="s">
         <v>636</v>
@@ -12359,7 +12261,7 @@
         <v>3506</v>
       </c>
       <c r="D26" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E26" t="s">
         <v>2245</v>
@@ -12376,7 +12278,7 @@
         <v>2253</v>
       </c>
       <c r="D27" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E27" t="s">
         <v>2253</v>
@@ -12393,7 +12295,7 @@
         <v>3503</v>
       </c>
       <c r="D28" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E28" t="s">
         <v>2237</v>
@@ -12410,7 +12312,7 @@
         <v>2254</v>
       </c>
       <c r="D29" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E29" t="s">
         <v>2254</v>
@@ -12461,7 +12363,7 @@
         <v>2254</v>
       </c>
       <c r="D32" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E32" t="s">
         <v>2254</v>
@@ -12495,7 +12397,7 @@
         <v>2254</v>
       </c>
       <c r="D34" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E34" t="s">
         <v>2254</v>
@@ -12512,7 +12414,7 @@
         <v>3508</v>
       </c>
       <c r="D35" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E35" t="s">
         <v>2258</v>
@@ -12563,7 +12465,7 @@
         <v>2249</v>
       </c>
       <c r="D38" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E38" t="s">
         <v>2249</v>
@@ -12580,7 +12482,7 @@
         <v>3508</v>
       </c>
       <c r="D39" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="E39" t="s">
         <v>2258</v>
@@ -12597,7 +12499,7 @@
         <v>3514</v>
       </c>
       <c r="D40" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="E40" t="s">
         <v>2259</v>
@@ -12614,7 +12516,7 @@
         <v>3505</v>
       </c>
       <c r="D41" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E41" t="s">
         <v>2244</v>
@@ -12679,7 +12581,7 @@
         <v>2254</v>
       </c>
       <c r="D45" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E45" t="s">
         <v>2254</v>
@@ -12696,7 +12598,7 @@
         <v>2260</v>
       </c>
       <c r="D46" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E46" t="s">
         <v>2260</v>
@@ -12730,7 +12632,7 @@
         <v>3503</v>
       </c>
       <c r="D48" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="E48" t="s">
         <v>2237</v>
@@ -12747,7 +12649,7 @@
         <v>2246</v>
       </c>
       <c r="D49" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E49" t="s">
         <v>2246</v>
@@ -12781,7 +12683,7 @@
         <v>3504</v>
       </c>
       <c r="D51" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="E51" t="s">
         <v>2239</v>
@@ -12798,7 +12700,7 @@
         <v>2249</v>
       </c>
       <c r="D52" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="E52" t="s">
         <v>2249</v>
@@ -12815,7 +12717,7 @@
         <v>3188</v>
       </c>
       <c r="D53" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E53" t="s">
         <v>2262</v>
@@ -12849,7 +12751,7 @@
         <v>2263</v>
       </c>
       <c r="D55" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E55" t="s">
         <v>2263</v>
@@ -12866,7 +12768,7 @@
         <v>3515</v>
       </c>
       <c r="D56" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E56" t="s">
         <v>2264</v>
@@ -12883,7 +12785,7 @@
         <v>2265</v>
       </c>
       <c r="D57" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E57" t="s">
         <v>2265</v>
@@ -12900,7 +12802,7 @@
         <v>3506</v>
       </c>
       <c r="D58" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E58" t="s">
         <v>2266</v>
@@ -12931,7 +12833,7 @@
         <v>2375</v>
       </c>
       <c r="D60" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -12945,7 +12847,7 @@
         <v>2263</v>
       </c>
       <c r="D61" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E61" t="s">
         <v>2263</v>
@@ -12962,7 +12864,7 @@
         <v>3516</v>
       </c>
       <c r="D62" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E62" t="s">
         <v>2267</v>
@@ -12979,7 +12881,7 @@
         <v>2254</v>
       </c>
       <c r="D63" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E63" t="s">
         <v>2254</v>
@@ -13013,7 +12915,7 @@
         <v>570</v>
       </c>
       <c r="D65" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="E65" t="s">
         <v>2269</v>
@@ -13030,7 +12932,7 @@
         <v>2246</v>
       </c>
       <c r="D66" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E66" t="s">
         <v>2271</v>
@@ -13047,7 +12949,7 @@
         <v>3518</v>
       </c>
       <c r="D67" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="E67" t="s">
         <v>2270</v>
@@ -13081,7 +12983,7 @@
         <v>3519</v>
       </c>
       <c r="D69" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E69" t="s">
         <v>2272</v>
@@ -13098,7 +13000,7 @@
         <v>2263</v>
       </c>
       <c r="D70" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E70" t="s">
         <v>2263</v>
@@ -13115,7 +13017,7 @@
         <v>3515</v>
       </c>
       <c r="D71" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E71" t="s">
         <v>2264</v>
@@ -13166,7 +13068,7 @@
         <v>2249</v>
       </c>
       <c r="D74" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="E74" t="s">
         <v>2249</v>
@@ -13200,7 +13102,7 @@
         <v>580</v>
       </c>
       <c r="D76" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="E76" t="s">
         <v>2275</v>
@@ -13217,7 +13119,7 @@
         <v>3506</v>
       </c>
       <c r="D77" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E77" t="s">
         <v>2245</v>
@@ -13251,7 +13153,7 @@
         <v>3508</v>
       </c>
       <c r="D79" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E79" t="s">
         <v>2258</v>
@@ -13285,7 +13187,7 @@
         <v>3514</v>
       </c>
       <c r="D81" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="E81" t="s">
         <v>2259</v>
@@ -13302,7 +13204,7 @@
         <v>3510</v>
       </c>
       <c r="D82" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="E82" t="s">
         <v>2251</v>
@@ -13319,7 +13221,7 @@
         <v>3522</v>
       </c>
       <c r="D83" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E83" t="s">
         <v>2250</v>
@@ -13336,7 +13238,7 @@
         <v>3522</v>
       </c>
       <c r="D84" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="E84" t="s">
         <v>2250</v>
@@ -13353,7 +13255,7 @@
         <v>580</v>
       </c>
       <c r="D85" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E85" t="s">
         <v>2275</v>
@@ -13370,7 +13272,7 @@
         <v>3506</v>
       </c>
       <c r="D86" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E86" t="s">
         <v>2245</v>
@@ -13387,7 +13289,7 @@
         <v>3518</v>
       </c>
       <c r="D87" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E87" t="s">
         <v>2277</v>
@@ -13404,7 +13306,7 @@
         <v>3523</v>
       </c>
       <c r="D88" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E88" t="s">
         <v>2278</v>
@@ -13438,7 +13340,7 @@
         <v>3503</v>
       </c>
       <c r="D90" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E90" t="s">
         <v>2237</v>
@@ -13455,7 +13357,7 @@
         <v>3503</v>
       </c>
       <c r="D91" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E91" t="s">
         <v>2237</v>
@@ -13472,7 +13374,7 @@
         <v>3503</v>
       </c>
       <c r="D92" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E92" t="s">
         <v>2237</v>
@@ -13506,7 +13408,7 @@
         <v>2265</v>
       </c>
       <c r="D94" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E94" t="s">
         <v>2265</v>
@@ -13557,7 +13459,7 @@
         <v>3508</v>
       </c>
       <c r="D97" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E97" t="s">
         <v>2258</v>
@@ -13574,7 +13476,7 @@
         <v>580</v>
       </c>
       <c r="D98" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E98" t="s">
         <v>2275</v>
@@ -13591,7 +13493,7 @@
         <v>580</v>
       </c>
       <c r="D99" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E99" t="s">
         <v>2280</v>
@@ -13608,7 +13510,7 @@
         <v>580</v>
       </c>
       <c r="D100" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E100" t="s">
         <v>2280</v>
@@ -13642,7 +13544,7 @@
         <v>3525</v>
       </c>
       <c r="D102" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="E102" t="s">
         <v>2281</v>
@@ -13659,7 +13561,7 @@
         <v>3519</v>
       </c>
       <c r="D103" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E103" t="s">
         <v>2282</v>
@@ -13676,7 +13578,7 @@
         <v>3504</v>
       </c>
       <c r="D104" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="E104" t="s">
         <v>2239</v>
@@ -13693,7 +13595,7 @@
         <v>3506</v>
       </c>
       <c r="D105" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E105" t="s">
         <v>2245</v>
@@ -13710,7 +13612,7 @@
         <v>3509</v>
       </c>
       <c r="D106" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E106" t="s">
         <v>2238</v>
@@ -13727,7 +13629,7 @@
         <v>3506</v>
       </c>
       <c r="D107" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E107" t="s">
         <v>2245</v>
@@ -13744,7 +13646,7 @@
         <v>3522</v>
       </c>
       <c r="D108" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E108" t="s">
         <v>2250</v>
@@ -13778,7 +13680,7 @@
         <v>3510</v>
       </c>
       <c r="D110" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E110" t="s">
         <v>2251</v>
@@ -13812,7 +13714,7 @@
         <v>2246</v>
       </c>
       <c r="D112" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="E112" t="s">
         <v>2246</v>
@@ -13863,7 +13765,7 @@
         <v>3519</v>
       </c>
       <c r="D115" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E115" t="s">
         <v>2272</v>
@@ -13880,7 +13782,7 @@
         <v>3503</v>
       </c>
       <c r="D116" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E116" t="s">
         <v>2237</v>
@@ -13897,7 +13799,7 @@
         <v>3507</v>
       </c>
       <c r="D117" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E117" t="s">
         <v>2248</v>
@@ -13914,7 +13816,7 @@
         <v>3519</v>
       </c>
       <c r="D118" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E118" t="s">
         <v>2272</v>
@@ -13948,7 +13850,7 @@
         <v>3519</v>
       </c>
       <c r="D120" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E120" t="s">
         <v>2272</v>
@@ -13965,7 +13867,7 @@
         <v>3188</v>
       </c>
       <c r="D121" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E121" t="s">
         <v>2284</v>
@@ -13982,7 +13884,7 @@
         <v>3520</v>
       </c>
       <c r="D122" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="E122" t="s">
         <v>2285</v>
@@ -14016,7 +13918,7 @@
         <v>3510</v>
       </c>
       <c r="D124" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E124" t="s">
         <v>2251</v>
@@ -14049,9 +13951,6 @@
       <c r="C126" t="s">
         <v>2254</v>
       </c>
-      <c r="D126" t="s">
-        <v>3587</v>
-      </c>
       <c r="E126" t="s">
         <v>2254</v>
       </c>
@@ -14067,7 +13966,7 @@
         <v>3505</v>
       </c>
       <c r="D127" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E127" t="s">
         <v>2244</v>
@@ -14084,7 +13983,7 @@
         <v>3506</v>
       </c>
       <c r="D128" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="E128" t="s">
         <v>2245</v>
@@ -14101,7 +14000,7 @@
         <v>2286</v>
       </c>
       <c r="D129" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E129" t="s">
         <v>2286</v>
@@ -14118,7 +14017,7 @@
         <v>2287</v>
       </c>
       <c r="D130" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="E130" t="s">
         <v>2287</v>
@@ -14169,7 +14068,7 @@
         <v>3508</v>
       </c>
       <c r="D133" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E133" t="s">
         <v>2258</v>
@@ -14183,7 +14082,7 @@
         <v>2382</v>
       </c>
       <c r="D134" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -14194,7 +14093,7 @@
         <v>2368</v>
       </c>
       <c r="D135" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -14208,7 +14107,7 @@
         <v>3510</v>
       </c>
       <c r="D136" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E136" t="s">
         <v>2288</v>
@@ -14225,7 +14124,7 @@
         <v>2249</v>
       </c>
       <c r="D137" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="E137" t="s">
         <v>2249</v>
@@ -14242,7 +14141,7 @@
         <v>3506</v>
       </c>
       <c r="D138" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E138" t="s">
         <v>2245</v>
@@ -14276,7 +14175,7 @@
         <v>3525</v>
       </c>
       <c r="D140" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="E140" t="s">
         <v>2281</v>
@@ -14293,7 +14192,7 @@
         <v>2249</v>
       </c>
       <c r="D141" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="E141" t="s">
         <v>2249</v>
@@ -14310,7 +14209,7 @@
         <v>580</v>
       </c>
       <c r="D142" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E142" t="s">
         <v>2280</v>
@@ -14344,7 +14243,7 @@
         <v>3516</v>
       </c>
       <c r="D144" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E144" t="s">
         <v>2290</v>
@@ -14361,7 +14260,7 @@
         <v>2254</v>
       </c>
       <c r="D145" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E145" t="s">
         <v>2254</v>
@@ -14412,7 +14311,7 @@
         <v>2249</v>
       </c>
       <c r="D148" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="E148" t="s">
         <v>2249</v>
@@ -14429,7 +14328,7 @@
         <v>2247</v>
       </c>
       <c r="D149" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="E149" t="s">
         <v>2247</v>
@@ -14463,7 +14362,7 @@
         <v>636</v>
       </c>
       <c r="D151" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="E151" t="s">
         <v>636</v>
@@ -14480,7 +14379,7 @@
         <v>2293</v>
       </c>
       <c r="D152" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="E152" t="s">
         <v>2293</v>
@@ -14497,7 +14396,7 @@
         <v>2249</v>
       </c>
       <c r="D153" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="E153" t="s">
         <v>2249</v>
@@ -14514,7 +14413,7 @@
         <v>2265</v>
       </c>
       <c r="D154" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E154" t="s">
         <v>2265</v>
@@ -14531,7 +14430,7 @@
         <v>580</v>
       </c>
       <c r="D155" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E155" t="s">
         <v>2280</v>
@@ -14545,7 +14444,7 @@
         <v>2366</v>
       </c>
       <c r="D156" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -14559,7 +14458,7 @@
         <v>2249</v>
       </c>
       <c r="D157" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="E157" t="s">
         <v>2249</v>
@@ -14576,7 +14475,7 @@
         <v>2260</v>
       </c>
       <c r="D158" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="E158" t="s">
         <v>2260</v>
@@ -14593,7 +14492,7 @@
         <v>3527</v>
       </c>
       <c r="D159" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E159" t="s">
         <v>2292</v>
@@ -14627,7 +14526,7 @@
         <v>3503</v>
       </c>
       <c r="D161" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E161" t="s">
         <v>2237</v>
@@ -14661,7 +14560,7 @@
         <v>2294</v>
       </c>
       <c r="D163" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="E163" t="s">
         <v>2294</v>
@@ -14729,7 +14628,7 @@
         <v>2289</v>
       </c>
       <c r="D167" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="E167" t="s">
         <v>2289</v>
@@ -14746,7 +14645,7 @@
         <v>3503</v>
       </c>
       <c r="D168" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E168" t="s">
         <v>2237</v>
@@ -14763,7 +14662,7 @@
         <v>3503</v>
       </c>
       <c r="D169" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E169" t="s">
         <v>2237</v>
@@ -14780,7 +14679,7 @@
         <v>3503</v>
       </c>
       <c r="D170" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="E170" t="s">
         <v>2237</v>
@@ -14797,7 +14696,7 @@
         <v>3506</v>
       </c>
       <c r="D171" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E171" t="s">
         <v>2245</v>
@@ -14848,7 +14747,7 @@
         <v>3506</v>
       </c>
       <c r="D174" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="E174" t="s">
         <v>2245</v>
@@ -14879,7 +14778,7 @@
         <v>2249</v>
       </c>
       <c r="D176" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="E176" t="s">
         <v>2249</v>
@@ -14896,7 +14795,7 @@
         <v>3506</v>
       </c>
       <c r="D177" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E177" t="s">
         <v>2245</v>
@@ -14913,7 +14812,7 @@
         <v>3523</v>
       </c>
       <c r="D178" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E178" t="s">
         <v>2296</v>
@@ -14930,7 +14829,7 @@
         <v>2249</v>
       </c>
       <c r="D179" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E179" t="s">
         <v>2249</v>
@@ -14947,7 +14846,7 @@
         <v>2249</v>
       </c>
       <c r="D180" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="E180" t="s">
         <v>2249</v>
@@ -14981,7 +14880,7 @@
         <v>2253</v>
       </c>
       <c r="D182" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E182" t="s">
         <v>2253</v>
@@ -14998,7 +14897,7 @@
         <v>3508</v>
       </c>
       <c r="D183" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E183" t="s">
         <v>2258</v>
@@ -15015,7 +14914,7 @@
         <v>3503</v>
       </c>
       <c r="D184" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E184" t="s">
         <v>2237</v>
@@ -15066,7 +14965,7 @@
         <v>580</v>
       </c>
       <c r="D187" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E187" t="s">
         <v>2275</v>
@@ -15083,7 +14982,7 @@
         <v>580</v>
       </c>
       <c r="D188" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E188" t="s">
         <v>2275</v>
@@ -15100,7 +14999,7 @@
         <v>2297</v>
       </c>
       <c r="D189" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="E189" t="s">
         <v>2297</v>
@@ -15117,7 +15016,7 @@
         <v>3506</v>
       </c>
       <c r="D190" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E190" t="s">
         <v>2245</v>
@@ -15134,7 +15033,7 @@
         <v>3510</v>
       </c>
       <c r="D191" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E191" t="s">
         <v>2251</v>
@@ -15151,7 +15050,7 @@
         <v>3523</v>
       </c>
       <c r="D192" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E192" t="s">
         <v>2278</v>
@@ -15168,7 +15067,7 @@
         <v>3505</v>
       </c>
       <c r="D193" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E193" t="s">
         <v>2299</v>
@@ -15202,7 +15101,7 @@
         <v>3506</v>
       </c>
       <c r="D195" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E195" t="s">
         <v>2245</v>
@@ -15236,7 +15135,7 @@
         <v>3528</v>
       </c>
       <c r="D197" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="E197" t="s">
         <v>2298</v>
@@ -15287,7 +15186,7 @@
         <v>580</v>
       </c>
       <c r="D200" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E200" t="s">
         <v>2275</v>
@@ -15389,7 +15288,7 @@
         <v>2249</v>
       </c>
       <c r="D206" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E206" t="s">
         <v>2249</v>
@@ -15420,7 +15319,7 @@
         <v>3528</v>
       </c>
       <c r="D208" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E208" t="s">
         <v>2298</v>
@@ -15471,7 +15370,7 @@
         <v>3519</v>
       </c>
       <c r="D211" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E211" t="s">
         <v>2272</v>
@@ -15488,7 +15387,7 @@
         <v>3528</v>
       </c>
       <c r="D212" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E212" t="s">
         <v>2298</v>
@@ -15505,7 +15404,7 @@
         <v>3508</v>
       </c>
       <c r="D213" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E213" t="s">
         <v>2258</v>
@@ -15556,7 +15455,7 @@
         <v>2254</v>
       </c>
       <c r="D216" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E216" t="s">
         <v>2254</v>
@@ -15573,7 +15472,7 @@
         <v>2247</v>
       </c>
       <c r="D217" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="E217" t="s">
         <v>2247</v>
@@ -15587,7 +15486,7 @@
         <v>2373</v>
       </c>
       <c r="D218" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -15601,7 +15500,7 @@
         <v>3516</v>
       </c>
       <c r="D219" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E219" t="s">
         <v>2290</v>
@@ -15618,7 +15517,7 @@
         <v>636</v>
       </c>
       <c r="D220" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E220" t="s">
         <v>636</v>
@@ -15669,7 +15568,7 @@
         <v>3529</v>
       </c>
       <c r="D223" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="E223" t="s">
         <v>2302</v>
@@ -15686,7 +15585,7 @@
         <v>3506</v>
       </c>
       <c r="D224" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="E224" t="s">
         <v>2245</v>
@@ -15703,7 +15602,7 @@
         <v>3503</v>
       </c>
       <c r="D225" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E225" t="s">
         <v>2237</v>
@@ -15720,7 +15619,7 @@
         <v>3518</v>
       </c>
       <c r="D226" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E226" t="s">
         <v>2303</v>
@@ -15737,7 +15636,7 @@
         <v>2276</v>
       </c>
       <c r="D227" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E227" t="s">
         <v>2276</v>
@@ -15754,7 +15653,7 @@
         <v>2253</v>
       </c>
       <c r="D228" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E228" t="s">
         <v>2253</v>
@@ -15771,7 +15670,7 @@
         <v>2246</v>
       </c>
       <c r="D229" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E229" t="s">
         <v>2246</v>
@@ -15805,7 +15704,7 @@
         <v>3530</v>
       </c>
       <c r="D231" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="E231" t="s">
         <v>2304</v>
@@ -15822,7 +15721,7 @@
         <v>3523</v>
       </c>
       <c r="D232" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E232" t="s">
         <v>2278</v>
@@ -15838,9 +15737,6 @@
       <c r="C233" t="s">
         <v>2254</v>
       </c>
-      <c r="D233" t="s">
-        <v>3587</v>
-      </c>
       <c r="E233" t="s">
         <v>2254</v>
       </c>
@@ -15856,7 +15752,7 @@
         <v>2247</v>
       </c>
       <c r="D234" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="E234" t="s">
         <v>2247</v>
@@ -15873,7 +15769,7 @@
         <v>3506</v>
       </c>
       <c r="D235" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E235" t="s">
         <v>2245</v>
@@ -15890,7 +15786,7 @@
         <v>3508</v>
       </c>
       <c r="D236" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E236" t="s">
         <v>2258</v>
@@ -15907,7 +15803,7 @@
         <v>2246</v>
       </c>
       <c r="D237" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E237" t="s">
         <v>2271</v>
@@ -15941,7 +15837,7 @@
         <v>580</v>
       </c>
       <c r="D239" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="E239" t="s">
         <v>2275</v>
@@ -15975,7 +15871,7 @@
         <v>3511</v>
       </c>
       <c r="D241" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="E241" t="s">
         <v>2252</v>
@@ -15992,7 +15888,7 @@
         <v>3518</v>
       </c>
       <c r="D242" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="E242" t="s">
         <v>2305</v>
@@ -16020,7 +15916,7 @@
         <v>2247</v>
       </c>
       <c r="D244" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E244" t="s">
         <v>2247</v>
@@ -16037,7 +15933,7 @@
         <v>3531</v>
       </c>
       <c r="D245" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="E245" t="s">
         <v>2306</v>
@@ -16054,7 +15950,7 @@
         <v>3505</v>
       </c>
       <c r="D246" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E246" t="s">
         <v>2307</v>
@@ -16088,7 +15984,7 @@
         <v>3508</v>
       </c>
       <c r="D248" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="E248" t="s">
         <v>2258</v>
@@ -16105,7 +16001,7 @@
         <v>3506</v>
       </c>
       <c r="D249" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E249" t="s">
         <v>2245</v>
@@ -16190,7 +16086,7 @@
         <v>580</v>
       </c>
       <c r="D254" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E254" t="s">
         <v>2275</v>
@@ -16207,7 +16103,7 @@
         <v>3508</v>
       </c>
       <c r="D255" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E255" t="s">
         <v>2258</v>
@@ -16224,7 +16120,7 @@
         <v>3516</v>
       </c>
       <c r="D256" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E256" t="s">
         <v>2308</v>
@@ -16241,7 +16137,7 @@
         <v>3532</v>
       </c>
       <c r="D257" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="E257" t="s">
         <v>2309</v>
@@ -16275,7 +16171,7 @@
         <v>580</v>
       </c>
       <c r="D259" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="E259" t="s">
         <v>2275</v>
@@ -16292,7 +16188,7 @@
         <v>3515</v>
       </c>
       <c r="D260" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E260" t="s">
         <v>2264</v>
@@ -16309,7 +16205,7 @@
         <v>3503</v>
       </c>
       <c r="D261" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E261" t="s">
         <v>2237</v>
@@ -16343,7 +16239,7 @@
         <v>3508</v>
       </c>
       <c r="D263" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E263" t="s">
         <v>2258</v>
@@ -16360,7 +16256,7 @@
         <v>2263</v>
       </c>
       <c r="D264" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E264" t="s">
         <v>2263</v>
@@ -16394,7 +16290,7 @@
         <v>3506</v>
       </c>
       <c r="D266" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E266" t="s">
         <v>2245</v>
@@ -16411,7 +16307,7 @@
         <v>3503</v>
       </c>
       <c r="D267" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E267" t="s">
         <v>2237</v>
@@ -16428,7 +16324,7 @@
         <v>3508</v>
       </c>
       <c r="D268" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E268" t="s">
         <v>2258</v>
@@ -16445,7 +16341,7 @@
         <v>3522</v>
       </c>
       <c r="D269" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E269" t="s">
         <v>2250</v>
@@ -16462,7 +16358,7 @@
         <v>2249</v>
       </c>
       <c r="D270" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="E270" t="s">
         <v>2249</v>
@@ -16496,7 +16392,7 @@
         <v>3516</v>
       </c>
       <c r="D272" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E272" t="s">
         <v>2311</v>
@@ -16527,7 +16423,7 @@
         <v>2254</v>
       </c>
       <c r="D274" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E274" t="s">
         <v>2254</v>
@@ -16544,7 +16440,7 @@
         <v>3516</v>
       </c>
       <c r="D275" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E275" t="s">
         <v>2290</v>
@@ -16561,7 +16457,7 @@
         <v>2249</v>
       </c>
       <c r="D276" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E276" t="s">
         <v>2249</v>
@@ -16578,7 +16474,7 @@
         <v>3514</v>
       </c>
       <c r="D277" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="E277" t="s">
         <v>2259</v>
@@ -16595,7 +16491,7 @@
         <v>3503</v>
       </c>
       <c r="D278" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="E278" t="s">
         <v>2237</v>
@@ -16646,7 +16542,7 @@
         <v>3503</v>
       </c>
       <c r="D281" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="E281" t="s">
         <v>2237</v>
@@ -16663,7 +16559,7 @@
         <v>3523</v>
       </c>
       <c r="D282" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E282" t="s">
         <v>2296</v>
@@ -16782,7 +16678,7 @@
         <v>570</v>
       </c>
       <c r="D289" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="E289" t="s">
         <v>2269</v>
@@ -16799,7 +16695,7 @@
         <v>2246</v>
       </c>
       <c r="D290" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E290" t="s">
         <v>2246</v>
@@ -16816,7 +16712,7 @@
         <v>3508</v>
       </c>
       <c r="D291" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E291" t="s">
         <v>2258</v>
@@ -16850,7 +16746,7 @@
         <v>3516</v>
       </c>
       <c r="D293" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="E293" t="s">
         <v>2290</v>
@@ -16867,7 +16763,7 @@
         <v>2314</v>
       </c>
       <c r="D294" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="E294" t="s">
         <v>2314</v>
@@ -16884,7 +16780,7 @@
         <v>3510</v>
       </c>
       <c r="D295" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="E295" t="s">
         <v>2251</v>
@@ -16901,7 +16797,7 @@
         <v>3523</v>
       </c>
       <c r="D296" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E296" t="s">
         <v>2278</v>
@@ -16918,7 +16814,7 @@
         <v>636</v>
       </c>
       <c r="D297" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="E297" t="s">
         <v>636</v>
@@ -16935,7 +16831,7 @@
         <v>2254</v>
       </c>
       <c r="D298" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E298" t="s">
         <v>2254</v>
@@ -16952,7 +16848,7 @@
         <v>3516</v>
       </c>
       <c r="D299" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E299" t="s">
         <v>2290</v>
@@ -16969,7 +16865,7 @@
         <v>3522</v>
       </c>
       <c r="D300" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="E300" t="s">
         <v>2250</v>
@@ -16986,7 +16882,7 @@
         <v>3535</v>
       </c>
       <c r="D301" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E301" t="s">
         <v>2315</v>
@@ -17003,7 +16899,7 @@
         <v>3188</v>
       </c>
       <c r="D302" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E302" t="s">
         <v>2284</v>
@@ -17020,7 +16916,7 @@
         <v>2265</v>
       </c>
       <c r="D303" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E303" t="s">
         <v>2265</v>
@@ -17037,7 +16933,7 @@
         <v>3188</v>
       </c>
       <c r="D304" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E304" t="s">
         <v>2284</v>
@@ -17054,7 +16950,7 @@
         <v>2249</v>
       </c>
       <c r="D305" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="E305" t="s">
         <v>2249</v>
@@ -17105,7 +17001,7 @@
         <v>3516</v>
       </c>
       <c r="D308" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E308" t="s">
         <v>2308</v>
@@ -17139,7 +17035,7 @@
         <v>570</v>
       </c>
       <c r="D310" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="E310" t="s">
         <v>2269</v>
@@ -17156,7 +17052,7 @@
         <v>2249</v>
       </c>
       <c r="D311" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="E311" t="s">
         <v>2249</v>
@@ -17173,7 +17069,7 @@
         <v>2249</v>
       </c>
       <c r="D312" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="E312" t="s">
         <v>2249</v>
@@ -17190,7 +17086,7 @@
         <v>2249</v>
       </c>
       <c r="D313" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="E313" t="s">
         <v>2249</v>
@@ -17224,7 +17120,7 @@
         <v>2254</v>
       </c>
       <c r="D315" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E315" t="s">
         <v>2254</v>
@@ -17241,7 +17137,7 @@
         <v>3510</v>
       </c>
       <c r="D316" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E316" t="s">
         <v>2251</v>
@@ -17275,7 +17171,7 @@
         <v>2253</v>
       </c>
       <c r="D318" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E318" t="s">
         <v>2253</v>
@@ -17309,7 +17205,7 @@
         <v>2249</v>
       </c>
       <c r="D320" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="E320" t="s">
         <v>2249</v>
@@ -17360,7 +17256,7 @@
         <v>2249</v>
       </c>
       <c r="D323" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="E323" t="s">
         <v>2249</v>
@@ -17377,7 +17273,7 @@
         <v>603</v>
       </c>
       <c r="D324" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E324" t="s">
         <v>2240</v>
@@ -17394,7 +17290,7 @@
         <v>636</v>
       </c>
       <c r="D325" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="E325" t="s">
         <v>636</v>
@@ -17445,7 +17341,7 @@
         <v>3506</v>
       </c>
       <c r="D328" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E328" t="s">
         <v>2245</v>
@@ -17462,7 +17358,7 @@
         <v>3188</v>
       </c>
       <c r="D329" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E329" t="s">
         <v>2284</v>
@@ -17479,7 +17375,7 @@
         <v>3508</v>
       </c>
       <c r="D330" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="E330" t="s">
         <v>2258</v>
@@ -17496,7 +17392,7 @@
         <v>3528</v>
       </c>
       <c r="D331" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E331" t="s">
         <v>2298</v>
@@ -17513,7 +17409,7 @@
         <v>3510</v>
       </c>
       <c r="D332" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="E332" t="s">
         <v>2251</v>
@@ -17547,7 +17443,7 @@
         <v>3531</v>
       </c>
       <c r="D334" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="E334" t="s">
         <v>2306</v>
@@ -17561,7 +17457,7 @@
         <v>2367</v>
       </c>
       <c r="D335" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -17575,7 +17471,7 @@
         <v>3506</v>
       </c>
       <c r="D336" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E336" t="s">
         <v>2318</v>
@@ -17626,7 +17522,7 @@
         <v>580</v>
       </c>
       <c r="D339" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E339" t="s">
         <v>2275</v>
@@ -17677,7 +17573,7 @@
         <v>3505</v>
       </c>
       <c r="D342" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E342" t="s">
         <v>2244</v>
@@ -17694,7 +17590,7 @@
         <v>3519</v>
       </c>
       <c r="D343" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E343" t="s">
         <v>2272</v>
@@ -17711,7 +17607,7 @@
         <v>3510</v>
       </c>
       <c r="D344" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="E344" t="s">
         <v>2251</v>
@@ -17728,7 +17624,7 @@
         <v>3518</v>
       </c>
       <c r="D345" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E345" t="s">
         <v>2303</v>
@@ -17762,7 +17658,7 @@
         <v>2246</v>
       </c>
       <c r="D347" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="E347" t="s">
         <v>2271</v>
@@ -17779,7 +17675,7 @@
         <v>2254</v>
       </c>
       <c r="D348" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E348" t="s">
         <v>2254</v>
@@ -17796,7 +17692,7 @@
         <v>3506</v>
       </c>
       <c r="D349" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="E349" t="s">
         <v>2245</v>
@@ -17830,7 +17726,7 @@
         <v>3505</v>
       </c>
       <c r="D351" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E351" t="s">
         <v>2307</v>
@@ -17864,7 +17760,7 @@
         <v>570</v>
       </c>
       <c r="D353" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="E353" t="s">
         <v>2269</v>
@@ -17881,7 +17777,7 @@
         <v>3538</v>
       </c>
       <c r="D354" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="E354" t="s">
         <v>2319</v>
@@ -17895,7 +17791,7 @@
         <v>2365</v>
       </c>
       <c r="D355" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -17909,7 +17805,7 @@
         <v>3523</v>
       </c>
       <c r="D356" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="E356" t="s">
         <v>2296</v>
@@ -17926,7 +17822,7 @@
         <v>2247</v>
       </c>
       <c r="D357" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E357" t="s">
         <v>2247</v>
@@ -17943,7 +17839,7 @@
         <v>570</v>
       </c>
       <c r="D358" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="E358" t="s">
         <v>2269</v>
@@ -17960,7 +17856,7 @@
         <v>2246</v>
       </c>
       <c r="D359" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E359" t="s">
         <v>2246</v>
@@ -17977,7 +17873,7 @@
         <v>3510</v>
       </c>
       <c r="D360" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="E360" t="s">
         <v>2251</v>
@@ -18011,7 +17907,7 @@
         <v>3514</v>
       </c>
       <c r="D362" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="E362" t="s">
         <v>2259</v>
@@ -18028,7 +17924,7 @@
         <v>3504</v>
       </c>
       <c r="D363" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E363" t="s">
         <v>2239</v>
@@ -18062,7 +17958,7 @@
         <v>3503</v>
       </c>
       <c r="D365" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E365" t="s">
         <v>2242</v>
@@ -18113,7 +18009,7 @@
         <v>580</v>
       </c>
       <c r="D368" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E368" t="s">
         <v>2275</v>
@@ -18130,7 +18026,7 @@
         <v>3503</v>
       </c>
       <c r="D369" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="E369" t="s">
         <v>2237</v>
@@ -18164,7 +18060,7 @@
         <v>3516</v>
       </c>
       <c r="D371" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E371" t="s">
         <v>2267</v>
@@ -18178,7 +18074,7 @@
         <v>2370</v>
       </c>
       <c r="D372" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
@@ -18192,7 +18088,7 @@
         <v>580</v>
       </c>
       <c r="D373" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E373" t="s">
         <v>2275</v>
@@ -18209,7 +18105,7 @@
         <v>3503</v>
       </c>
       <c r="D374" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E374" t="s">
         <v>2237</v>
@@ -18226,7 +18122,7 @@
         <v>580</v>
       </c>
       <c r="D375" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E375" t="s">
         <v>2275</v>
@@ -18243,7 +18139,7 @@
         <v>2249</v>
       </c>
       <c r="D376" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="E376" t="s">
         <v>2249</v>
@@ -18260,7 +18156,7 @@
         <v>2249</v>
       </c>
       <c r="D377" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="E377" t="s">
         <v>2249</v>
@@ -18294,7 +18190,7 @@
         <v>3503</v>
       </c>
       <c r="D379" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E379" t="s">
         <v>2237</v>
@@ -18311,7 +18207,7 @@
         <v>3503</v>
       </c>
       <c r="D380" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="E380" t="s">
         <v>2237</v>
@@ -18328,7 +18224,7 @@
         <v>570</v>
       </c>
       <c r="D381" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="E381" t="s">
         <v>2269</v>
@@ -18345,7 +18241,7 @@
         <v>2294</v>
       </c>
       <c r="D382" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="E382" t="s">
         <v>2294</v>
@@ -18359,7 +18255,7 @@
         <v>2378</v>
       </c>
       <c r="D383" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
@@ -18390,7 +18286,7 @@
         <v>2249</v>
       </c>
       <c r="D385" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="E385" t="s">
         <v>2249</v>
@@ -18407,7 +18303,7 @@
         <v>580</v>
       </c>
       <c r="D386" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E386" t="s">
         <v>2280</v>
@@ -18441,7 +18337,7 @@
         <v>3507</v>
       </c>
       <c r="D388" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="E388" t="s">
         <v>2248</v>
@@ -18475,7 +18371,7 @@
         <v>580</v>
       </c>
       <c r="D390" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E390" t="s">
         <v>2275</v>
@@ -18492,7 +18388,7 @@
         <v>3539</v>
       </c>
       <c r="D391" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="E391" t="s">
         <v>2322</v>
@@ -18509,7 +18405,7 @@
         <v>3506</v>
       </c>
       <c r="D392" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E392" t="s">
         <v>2245</v>
@@ -18526,7 +18422,7 @@
         <v>3506</v>
       </c>
       <c r="D393" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E393" t="s">
         <v>2245</v>
@@ -18543,7 +18439,7 @@
         <v>3506</v>
       </c>
       <c r="D394" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E394" t="s">
         <v>2318</v>
@@ -18560,7 +18456,7 @@
         <v>3530</v>
       </c>
       <c r="D395" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="E395" t="s">
         <v>2304</v>
@@ -18577,7 +18473,7 @@
         <v>3519</v>
       </c>
       <c r="D396" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E396" t="s">
         <v>2272</v>
@@ -18594,7 +18490,7 @@
         <v>3506</v>
       </c>
       <c r="D397" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E397" t="s">
         <v>2245</v>
@@ -18611,7 +18507,7 @@
         <v>580</v>
       </c>
       <c r="D398" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E398" t="s">
         <v>2280</v>
@@ -18628,7 +18524,7 @@
         <v>2289</v>
       </c>
       <c r="D399" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="E399" t="s">
         <v>2289</v>
@@ -18662,7 +18558,7 @@
         <v>2246</v>
       </c>
       <c r="D401" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E401" t="s">
         <v>2246</v>
@@ -18696,7 +18592,7 @@
         <v>3519</v>
       </c>
       <c r="D403" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E403" t="s">
         <v>2272</v>
@@ -18713,7 +18609,7 @@
         <v>2254</v>
       </c>
       <c r="D404" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E404" t="s">
         <v>2254</v>
@@ -18730,7 +18626,7 @@
         <v>2254</v>
       </c>
       <c r="D405" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E405" t="s">
         <v>2254</v>
@@ -18747,7 +18643,7 @@
         <v>2254</v>
       </c>
       <c r="D406" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E406" t="s">
         <v>2254</v>
@@ -18764,7 +18660,7 @@
         <v>3529</v>
       </c>
       <c r="D407" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="E407" t="s">
         <v>2302</v>
@@ -18781,7 +18677,7 @@
         <v>3503</v>
       </c>
       <c r="D408" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E408" t="s">
         <v>2321</v>
@@ -18798,7 +18694,7 @@
         <v>3503</v>
       </c>
       <c r="D409" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="E409" t="s">
         <v>2237</v>
@@ -18815,7 +18711,7 @@
         <v>2246</v>
       </c>
       <c r="D410" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E410" t="s">
         <v>2271</v>
@@ -18832,7 +18728,7 @@
         <v>3188</v>
       </c>
       <c r="D411" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E411" t="s">
         <v>2284</v>
@@ -18849,7 +18745,7 @@
         <v>2314</v>
       </c>
       <c r="D412" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="E412" t="s">
         <v>2314</v>
@@ -18866,7 +18762,7 @@
         <v>2254</v>
       </c>
       <c r="D413" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E413" t="s">
         <v>2254</v>
@@ -18897,7 +18793,7 @@
         <v>580</v>
       </c>
       <c r="D415" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E415" t="s">
         <v>2275</v>
@@ -18914,7 +18810,7 @@
         <v>3528</v>
       </c>
       <c r="D416" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="E416" t="s">
         <v>2298</v>
@@ -18931,7 +18827,7 @@
         <v>3188</v>
       </c>
       <c r="D417" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="E417" t="s">
         <v>2323</v>
@@ -18948,7 +18844,7 @@
         <v>3515</v>
       </c>
       <c r="D418" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E418" t="s">
         <v>2264</v>
@@ -18965,7 +18861,7 @@
         <v>3508</v>
       </c>
       <c r="D419" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E419" t="s">
         <v>2258</v>
@@ -18979,7 +18875,7 @@
         <v>2364</v>
       </c>
       <c r="D420" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
@@ -19010,7 +18906,7 @@
         <v>3508</v>
       </c>
       <c r="D422" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E422" t="s">
         <v>2258</v>
@@ -19044,7 +18940,7 @@
         <v>3188</v>
       </c>
       <c r="D424" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E424" t="s">
         <v>2262</v>
@@ -19061,7 +18957,7 @@
         <v>3188</v>
       </c>
       <c r="D425" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E425" t="s">
         <v>2323</v>
@@ -19078,7 +18974,7 @@
         <v>3516</v>
       </c>
       <c r="D426" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E426" t="s">
         <v>2290</v>
@@ -19095,7 +18991,7 @@
         <v>3505</v>
       </c>
       <c r="D427" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E427" t="s">
         <v>2244</v>
@@ -19112,7 +19008,7 @@
         <v>2254</v>
       </c>
       <c r="D428" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E428" t="s">
         <v>2254</v>
@@ -19129,7 +19025,7 @@
         <v>3505</v>
       </c>
       <c r="D429" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E429" t="s">
         <v>2244</v>
@@ -19146,7 +19042,7 @@
         <v>2260</v>
       </c>
       <c r="D430" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="E430" t="s">
         <v>2260</v>
@@ -19163,7 +19059,7 @@
         <v>2265</v>
       </c>
       <c r="D431" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E431" t="s">
         <v>2265</v>
@@ -19180,7 +19076,7 @@
         <v>3503</v>
       </c>
       <c r="D432" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="E432" t="s">
         <v>2237</v>
@@ -19214,7 +19110,7 @@
         <v>3188</v>
       </c>
       <c r="D434" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E434" t="s">
         <v>2262</v>
@@ -19248,7 +19144,7 @@
         <v>3188</v>
       </c>
       <c r="D436" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E436" t="s">
         <v>2262</v>
@@ -19265,7 +19161,7 @@
         <v>3508</v>
       </c>
       <c r="D437" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E437" t="s">
         <v>2258</v>
@@ -19282,7 +19178,7 @@
         <v>3188</v>
       </c>
       <c r="D438" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E438" t="s">
         <v>2284</v>
@@ -19350,7 +19246,7 @@
         <v>2249</v>
       </c>
       <c r="D442" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="E442" t="s">
         <v>2249</v>
@@ -19367,7 +19263,7 @@
         <v>2246</v>
       </c>
       <c r="D443" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="E443" t="s">
         <v>2246</v>
@@ -19398,7 +19294,7 @@
         <v>2246</v>
       </c>
       <c r="D445" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E445" t="s">
         <v>2246</v>
@@ -19415,7 +19311,7 @@
         <v>3527</v>
       </c>
       <c r="D446" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E446" t="s">
         <v>2292</v>
@@ -19432,7 +19328,7 @@
         <v>3539</v>
       </c>
       <c r="D447" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E447" t="s">
         <v>2322</v>
@@ -19449,7 +19345,7 @@
         <v>3535</v>
       </c>
       <c r="D448" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E448" t="s">
         <v>2315</v>
@@ -19483,7 +19379,7 @@
         <v>580</v>
       </c>
       <c r="D450" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E450" t="s">
         <v>2275</v>
@@ -19500,7 +19396,7 @@
         <v>3514</v>
       </c>
       <c r="D451" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="E451" t="s">
         <v>2259</v>
@@ -19517,7 +19413,7 @@
         <v>3505</v>
       </c>
       <c r="D452" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E452" t="s">
         <v>2299</v>
@@ -19534,7 +19430,7 @@
         <v>2249</v>
       </c>
       <c r="D453" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E453" t="s">
         <v>2249</v>
@@ -19568,7 +19464,7 @@
         <v>3532</v>
       </c>
       <c r="D455" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="E455" t="s">
         <v>2309</v>
@@ -19585,7 +19481,7 @@
         <v>2246</v>
       </c>
       <c r="D456" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E456" t="s">
         <v>2246</v>
@@ -19602,7 +19498,7 @@
         <v>2249</v>
       </c>
       <c r="D457" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="E457" t="s">
         <v>2249</v>
@@ -19619,7 +19515,7 @@
         <v>2263</v>
       </c>
       <c r="D458" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E458" t="s">
         <v>2263</v>
@@ -19636,7 +19532,7 @@
         <v>3515</v>
       </c>
       <c r="D459" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E459" t="s">
         <v>2264</v>
@@ -19684,7 +19580,7 @@
         <v>3188</v>
       </c>
       <c r="D462" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="E462" t="s">
         <v>2325</v>
@@ -19701,7 +19597,7 @@
         <v>2324</v>
       </c>
       <c r="D463" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="E463" t="s">
         <v>2324</v>
@@ -19718,7 +19614,7 @@
         <v>2297</v>
       </c>
       <c r="D464" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="E464" t="s">
         <v>2297</v>
@@ -19752,7 +19648,7 @@
         <v>3530</v>
       </c>
       <c r="D466" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="E466" t="s">
         <v>2304</v>
@@ -19769,7 +19665,7 @@
         <v>3516</v>
       </c>
       <c r="D467" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E467" t="s">
         <v>2290</v>
@@ -19786,7 +19682,7 @@
         <v>3516</v>
       </c>
       <c r="D468" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E468" t="s">
         <v>2290</v>
@@ -19803,7 +19699,7 @@
         <v>2254</v>
       </c>
       <c r="D469" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E469" t="s">
         <v>2254</v>
@@ -19820,7 +19716,7 @@
         <v>2254</v>
       </c>
       <c r="D470" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E470" t="s">
         <v>2254</v>
@@ -19837,7 +19733,7 @@
         <v>580</v>
       </c>
       <c r="D471" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E471" t="s">
         <v>2275</v>
@@ -19854,7 +19750,7 @@
         <v>2263</v>
       </c>
       <c r="D472" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E472" t="s">
         <v>2263</v>
@@ -19888,7 +19784,7 @@
         <v>3506</v>
       </c>
       <c r="D474" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E474" t="s">
         <v>2245</v>
@@ -19905,7 +19801,7 @@
         <v>3516</v>
       </c>
       <c r="D475" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E475" t="s">
         <v>2290</v>
@@ -19922,7 +19818,7 @@
         <v>3510</v>
       </c>
       <c r="D476" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E476" t="s">
         <v>2251</v>
@@ -19939,7 +19835,7 @@
         <v>2263</v>
       </c>
       <c r="D477" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E477" t="s">
         <v>2263</v>
@@ -19956,7 +19852,7 @@
         <v>2324</v>
       </c>
       <c r="D478" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="E478" t="s">
         <v>2324</v>
@@ -19973,7 +19869,7 @@
         <v>2249</v>
       </c>
       <c r="D479" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E479" t="s">
         <v>2249</v>
@@ -19990,7 +19886,7 @@
         <v>3188</v>
       </c>
       <c r="D480" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E480" t="s">
         <v>2284</v>
@@ -20007,7 +19903,7 @@
         <v>580</v>
       </c>
       <c r="D481" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E481" t="s">
         <v>2275</v>
@@ -20024,7 +19920,7 @@
         <v>2260</v>
       </c>
       <c r="D482" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="E482" t="s">
         <v>2260</v>
@@ -20041,7 +19937,7 @@
         <v>3503</v>
       </c>
       <c r="D483" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="E483" t="s">
         <v>2237</v>
@@ -20058,7 +19954,7 @@
         <v>2263</v>
       </c>
       <c r="D484" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E484" t="s">
         <v>2263</v>
@@ -20106,7 +20002,7 @@
         <v>3506</v>
       </c>
       <c r="D487" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E487" t="s">
         <v>2245</v>
@@ -20151,7 +20047,7 @@
         <v>3508</v>
       </c>
       <c r="D490" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E490" t="s">
         <v>2258</v>
@@ -20202,7 +20098,7 @@
         <v>2254</v>
       </c>
       <c r="D493" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E493" t="s">
         <v>2254</v>
@@ -20233,7 +20129,7 @@
         <v>3188</v>
       </c>
       <c r="D495" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E495" t="s">
         <v>2323</v>
@@ -20250,7 +20146,7 @@
         <v>2254</v>
       </c>
       <c r="D496" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E496" t="s">
         <v>2254</v>
@@ -20267,7 +20163,7 @@
         <v>3188</v>
       </c>
       <c r="D497" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E497" t="s">
         <v>2284</v>
@@ -20284,7 +20180,7 @@
         <v>2246</v>
       </c>
       <c r="D498" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E498" t="s">
         <v>2271</v>
@@ -20301,7 +20197,7 @@
         <v>3506</v>
       </c>
       <c r="D499" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E499" t="s">
         <v>2318</v>
@@ -20318,7 +20214,7 @@
         <v>3506</v>
       </c>
       <c r="D500" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E500" t="s">
         <v>2245</v>
@@ -20335,7 +20231,7 @@
         <v>3508</v>
       </c>
       <c r="D501" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E501" t="s">
         <v>2258</v>
@@ -20352,7 +20248,7 @@
         <v>3508</v>
       </c>
       <c r="D502" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E502" t="s">
         <v>2258</v>
@@ -20386,7 +20282,7 @@
         <v>3516</v>
       </c>
       <c r="D504" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E504" t="s">
         <v>2327</v>
@@ -20420,7 +20316,7 @@
         <v>3518</v>
       </c>
       <c r="D506" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="E506" t="s">
         <v>2328</v>
@@ -20437,7 +20333,7 @@
         <v>3503</v>
       </c>
       <c r="D507" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E507" t="s">
         <v>2237</v>
@@ -20471,7 +20367,7 @@
         <v>580</v>
       </c>
       <c r="D509" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E509" t="s">
         <v>2280</v>
@@ -20488,7 +20384,7 @@
         <v>3512</v>
       </c>
       <c r="D510" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E510" t="s">
         <v>2255</v>
@@ -20505,7 +20401,7 @@
         <v>2254</v>
       </c>
       <c r="D511" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E511" t="s">
         <v>2254</v>
@@ -20522,7 +20418,7 @@
         <v>2249</v>
       </c>
       <c r="D512" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E512" t="s">
         <v>2249</v>
@@ -20539,7 +20435,7 @@
         <v>3503</v>
       </c>
       <c r="D513" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="E513" t="s">
         <v>2237</v>
@@ -20556,7 +20452,7 @@
         <v>3188</v>
       </c>
       <c r="D514" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E514" t="s">
         <v>2284</v>
@@ -20573,7 +20469,7 @@
         <v>570</v>
       </c>
       <c r="D515" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="E515" t="s">
         <v>2269</v>
@@ -20607,7 +20503,7 @@
         <v>3503</v>
       </c>
       <c r="D517" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E517" t="s">
         <v>2237</v>
@@ -20641,7 +20537,7 @@
         <v>2254</v>
       </c>
       <c r="D519" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E519" t="s">
         <v>2254</v>
@@ -20689,7 +20585,7 @@
         <v>2247</v>
       </c>
       <c r="D522" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="E522" t="s">
         <v>2247</v>
@@ -20706,7 +20602,7 @@
         <v>3506</v>
       </c>
       <c r="D523" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E523" t="s">
         <v>2245</v>
@@ -20723,7 +20619,7 @@
         <v>2254</v>
       </c>
       <c r="D524" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E524" t="s">
         <v>2254</v>
@@ -20740,7 +20636,7 @@
         <v>3523</v>
       </c>
       <c r="D525" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E525" t="s">
         <v>2278</v>
@@ -20774,7 +20670,7 @@
         <v>3518</v>
       </c>
       <c r="D527" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="E527" t="s">
         <v>2328</v>
@@ -20791,7 +20687,7 @@
         <v>3503</v>
       </c>
       <c r="D528" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E528" t="s">
         <v>2237</v>
@@ -20808,7 +20704,7 @@
         <v>3506</v>
       </c>
       <c r="D529" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E529" t="s">
         <v>2245</v>
@@ -20825,7 +20721,7 @@
         <v>2249</v>
       </c>
       <c r="D530" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="E530" t="s">
         <v>2249</v>
@@ -20842,7 +20738,7 @@
         <v>2263</v>
       </c>
       <c r="D531" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E531" t="s">
         <v>2263</v>
@@ -20859,7 +20755,7 @@
         <v>3503</v>
       </c>
       <c r="D532" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E532" t="s">
         <v>2237</v>
@@ -20890,7 +20786,7 @@
         <v>2249</v>
       </c>
       <c r="D534" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="E534" t="s">
         <v>2249</v>
@@ -20924,7 +20820,7 @@
         <v>2249</v>
       </c>
       <c r="D536" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="E536" t="s">
         <v>2249</v>
@@ -20941,7 +20837,7 @@
         <v>2263</v>
       </c>
       <c r="D537" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E537" t="s">
         <v>2263</v>
@@ -20972,7 +20868,7 @@
         <v>2247</v>
       </c>
       <c r="D539" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="E539" t="s">
         <v>2247</v>
@@ -20989,7 +20885,7 @@
         <v>2263</v>
       </c>
       <c r="D540" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E540" t="s">
         <v>2263</v>
@@ -21040,7 +20936,7 @@
         <v>2249</v>
       </c>
       <c r="D543" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="E543" t="s">
         <v>2249</v>
@@ -21057,7 +20953,7 @@
         <v>2294</v>
       </c>
       <c r="D544" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="E544" t="s">
         <v>2294</v>
@@ -21091,7 +20987,7 @@
         <v>3508</v>
       </c>
       <c r="D546" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E546" t="s">
         <v>2258</v>
@@ -21107,9 +21003,6 @@
       <c r="C547" t="s">
         <v>2254</v>
       </c>
-      <c r="D547" t="s">
-        <v>3587</v>
-      </c>
       <c r="E547" t="s">
         <v>2254</v>
       </c>
@@ -21142,7 +21035,7 @@
         <v>570</v>
       </c>
       <c r="D549" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="E549" t="s">
         <v>2269</v>
@@ -21159,7 +21052,7 @@
         <v>3519</v>
       </c>
       <c r="D550" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E550" t="s">
         <v>2272</v>
@@ -21193,7 +21086,7 @@
         <v>3516</v>
       </c>
       <c r="D552" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E552" t="s">
         <v>2290</v>
@@ -21227,7 +21120,7 @@
         <v>3508</v>
       </c>
       <c r="D554" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E554" t="s">
         <v>2258</v>
@@ -21244,7 +21137,7 @@
         <v>3503</v>
       </c>
       <c r="D555" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="E555" t="s">
         <v>2237</v>
@@ -21261,7 +21154,7 @@
         <v>3506</v>
       </c>
       <c r="D556" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E556" t="s">
         <v>2245</v>
@@ -21292,7 +21185,7 @@
         <v>2265</v>
       </c>
       <c r="D558" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E558" t="s">
         <v>2265</v>
@@ -21309,7 +21202,7 @@
         <v>2289</v>
       </c>
       <c r="D559" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="E559" t="s">
         <v>2289</v>
@@ -21326,7 +21219,7 @@
         <v>2247</v>
       </c>
       <c r="D560" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="E560" t="s">
         <v>2247</v>
@@ -21343,7 +21236,7 @@
         <v>3508</v>
       </c>
       <c r="D561" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E561" t="s">
         <v>2258</v>
@@ -21377,7 +21270,7 @@
         <v>3188</v>
       </c>
       <c r="D563" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E563" t="s">
         <v>2284</v>
@@ -21394,7 +21287,7 @@
         <v>3503</v>
       </c>
       <c r="D564" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E564" t="s">
         <v>2237</v>
@@ -21411,7 +21304,7 @@
         <v>3519</v>
       </c>
       <c r="D565" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E565" t="s">
         <v>2272</v>
@@ -21479,7 +21372,7 @@
         <v>2249</v>
       </c>
       <c r="D569" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="E569" t="s">
         <v>2249</v>
@@ -21496,7 +21389,7 @@
         <v>3509</v>
       </c>
       <c r="D570" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E570" t="s">
         <v>2238</v>
@@ -21558,7 +21451,7 @@
         <v>2254</v>
       </c>
       <c r="D574" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E574" t="s">
         <v>2254</v>
@@ -21575,7 +21468,7 @@
         <v>2254</v>
       </c>
       <c r="D575" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E575" t="s">
         <v>2254</v>
@@ -21592,7 +21485,7 @@
         <v>3528</v>
       </c>
       <c r="D576" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E576" t="s">
         <v>2298</v>
@@ -21626,7 +21519,7 @@
         <v>2249</v>
       </c>
       <c r="D578" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="E578" t="s">
         <v>2249</v>
@@ -21643,7 +21536,7 @@
         <v>3510</v>
       </c>
       <c r="D579" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E579" t="s">
         <v>2288</v>
@@ -21657,7 +21550,7 @@
         <v>2374</v>
       </c>
       <c r="D580" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.35">
@@ -21688,7 +21581,7 @@
         <v>3506</v>
       </c>
       <c r="D582" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E582" t="s">
         <v>2245</v>
@@ -21705,7 +21598,7 @@
         <v>2263</v>
       </c>
       <c r="D583" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E583" t="s">
         <v>2263</v>
@@ -21739,7 +21632,7 @@
         <v>3503</v>
       </c>
       <c r="D585" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="E585" t="s">
         <v>2237</v>
@@ -21756,7 +21649,7 @@
         <v>3506</v>
       </c>
       <c r="D586" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E586" t="s">
         <v>2266</v>
@@ -21773,7 +21666,7 @@
         <v>3515</v>
       </c>
       <c r="D587" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="E587" t="s">
         <v>2264</v>
@@ -21790,7 +21683,7 @@
         <v>3516</v>
       </c>
       <c r="D588" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E588" t="s">
         <v>2267</v>
@@ -21824,7 +21717,7 @@
         <v>570</v>
       </c>
       <c r="D590" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="E590" t="s">
         <v>2269</v>
@@ -21909,7 +21802,7 @@
         <v>3506</v>
       </c>
       <c r="D595" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E595" t="s">
         <v>2245</v>
@@ -21926,7 +21819,7 @@
         <v>3505</v>
       </c>
       <c r="D596" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E596" t="s">
         <v>2244</v>
@@ -21943,7 +21836,7 @@
         <v>2249</v>
       </c>
       <c r="D597" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="E597" t="s">
         <v>2249</v>
@@ -21960,7 +21853,7 @@
         <v>2254</v>
       </c>
       <c r="D598" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E598" t="s">
         <v>2254</v>
@@ -21977,7 +21870,7 @@
         <v>3506</v>
       </c>
       <c r="D599" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E599" t="s">
         <v>2245</v>
@@ -21994,7 +21887,7 @@
         <v>3538</v>
       </c>
       <c r="D600" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="E600" t="s">
         <v>2319</v>
@@ -22011,7 +21904,7 @@
         <v>3518</v>
       </c>
       <c r="D601" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="E601" t="s">
         <v>2270</v>
@@ -22028,7 +21921,7 @@
         <v>3538</v>
       </c>
       <c r="D602" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="E602" t="s">
         <v>2319</v>
@@ -22045,7 +21938,7 @@
         <v>3505</v>
       </c>
       <c r="D603" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E603" t="s">
         <v>2299</v>
@@ -22079,7 +21972,7 @@
         <v>2294</v>
       </c>
       <c r="D605" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="E605" t="s">
         <v>2294</v>
@@ -22096,7 +21989,7 @@
         <v>3516</v>
       </c>
       <c r="D606" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E606" t="s">
         <v>2290</v>
@@ -22113,7 +22006,7 @@
         <v>3503</v>
       </c>
       <c r="D607" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E607" t="s">
         <v>2237</v>
@@ -22130,7 +22023,7 @@
         <v>2283</v>
       </c>
       <c r="D608" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="E608" t="s">
         <v>2283</v>
@@ -22164,7 +22057,7 @@
         <v>3510</v>
       </c>
       <c r="D610" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="E610" t="s">
         <v>2251</v>
@@ -22198,7 +22091,7 @@
         <v>3522</v>
       </c>
       <c r="D612" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E612" t="s">
         <v>2250</v>
@@ -22215,7 +22108,7 @@
         <v>2254</v>
       </c>
       <c r="D613" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E613" t="s">
         <v>2254</v>
@@ -22277,7 +22170,7 @@
         <v>3506</v>
       </c>
       <c r="D617" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E617" t="s">
         <v>2245</v>
@@ -22294,7 +22187,7 @@
         <v>2249</v>
       </c>
       <c r="D618" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="E618" t="s">
         <v>2249</v>
@@ -22311,7 +22204,7 @@
         <v>3503</v>
       </c>
       <c r="D619" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E619" t="s">
         <v>2321</v>
@@ -22359,7 +22252,7 @@
         <v>3503</v>
       </c>
       <c r="D622" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E622" t="s">
         <v>2237</v>
@@ -22393,7 +22286,7 @@
         <v>3523</v>
       </c>
       <c r="D624" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E624" t="s">
         <v>2296</v>
@@ -22427,7 +22320,7 @@
         <v>2254</v>
       </c>
       <c r="D626" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E626" t="s">
         <v>2254</v>
@@ -22461,7 +22354,7 @@
         <v>3519</v>
       </c>
       <c r="D628" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E628" t="s">
         <v>2272</v>
@@ -22478,7 +22371,7 @@
         <v>2246</v>
       </c>
       <c r="D629" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E629" t="s">
         <v>2246</v>
@@ -22495,7 +22388,7 @@
         <v>2249</v>
       </c>
       <c r="D630" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="E630" t="s">
         <v>2249</v>
@@ -22512,7 +22405,7 @@
         <v>580</v>
       </c>
       <c r="D631" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E631" t="s">
         <v>2280</v>
@@ -22546,7 +22439,7 @@
         <v>2254</v>
       </c>
       <c r="D633" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E633" t="s">
         <v>2254</v>
@@ -22563,7 +22456,7 @@
         <v>2249</v>
       </c>
       <c r="D634" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E634" t="s">
         <v>2249</v>
@@ -22580,7 +22473,7 @@
         <v>3532</v>
       </c>
       <c r="D635" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="E635" t="s">
         <v>2309</v>
@@ -22597,7 +22490,7 @@
         <v>2263</v>
       </c>
       <c r="D636" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="E636" t="s">
         <v>2263</v>
@@ -22631,7 +22524,7 @@
         <v>3503</v>
       </c>
       <c r="D638" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E638" t="s">
         <v>2237</v>
@@ -22648,7 +22541,7 @@
         <v>3507</v>
       </c>
       <c r="D639" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="E639" t="s">
         <v>2248</v>
@@ -22682,7 +22575,7 @@
         <v>2246</v>
       </c>
       <c r="D641" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E641" t="s">
         <v>2271</v>
@@ -22716,7 +22609,7 @@
         <v>2246</v>
       </c>
       <c r="D643" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="E643" t="s">
         <v>2246</v>
@@ -22733,7 +22626,7 @@
         <v>3508</v>
       </c>
       <c r="D644" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E644" t="s">
         <v>2258</v>
@@ -22750,7 +22643,7 @@
         <v>570</v>
       </c>
       <c r="D645" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="E645" t="s">
         <v>2269</v>
@@ -22767,7 +22660,7 @@
         <v>2254</v>
       </c>
       <c r="D646" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E646" t="s">
         <v>2254</v>
@@ -22784,7 +22677,7 @@
         <v>3508</v>
       </c>
       <c r="D647" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E647" t="s">
         <v>2258</v>
@@ -22801,7 +22694,7 @@
         <v>3515</v>
       </c>
       <c r="D648" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E648" t="s">
         <v>2264</v>
@@ -22835,7 +22728,7 @@
         <v>3503</v>
       </c>
       <c r="D650" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E650" t="s">
         <v>2237</v>
@@ -22852,7 +22745,7 @@
         <v>580</v>
       </c>
       <c r="D651" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E651" t="s">
         <v>2280</v>
@@ -22869,7 +22762,7 @@
         <v>2254</v>
       </c>
       <c r="D652" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E652" t="s">
         <v>2254</v>
@@ -22886,7 +22779,7 @@
         <v>2247</v>
       </c>
       <c r="D653" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E653" t="s">
         <v>2247</v>
@@ -22903,7 +22796,7 @@
         <v>3536</v>
       </c>
       <c r="D654" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E654" t="s">
         <v>2317</v>
@@ -22920,7 +22813,7 @@
         <v>2254</v>
       </c>
       <c r="D655" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E655" t="s">
         <v>2254</v>
@@ -22937,7 +22830,7 @@
         <v>3509</v>
       </c>
       <c r="D656" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="E656" t="s">
         <v>2238</v>
@@ -22971,7 +22864,7 @@
         <v>3520</v>
       </c>
       <c r="D658" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="E658" t="s">
         <v>2285</v>
@@ -23005,7 +22898,7 @@
         <v>2263</v>
       </c>
       <c r="D660" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E660" t="s">
         <v>2263</v>
@@ -23022,7 +22915,7 @@
         <v>3535</v>
       </c>
       <c r="D661" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E661" t="s">
         <v>2315</v>
@@ -23039,7 +22932,7 @@
         <v>3188</v>
       </c>
       <c r="D662" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E662" t="s">
         <v>2284</v>
@@ -23056,7 +22949,7 @@
         <v>3519</v>
       </c>
       <c r="D663" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E663" t="s">
         <v>2272</v>
@@ -23073,7 +22966,7 @@
         <v>3188</v>
       </c>
       <c r="D664" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E664" t="s">
         <v>2284</v>
@@ -23090,7 +22983,7 @@
         <v>3505</v>
       </c>
       <c r="D665" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E665" t="s">
         <v>2299</v>
@@ -23107,7 +23000,7 @@
         <v>3505</v>
       </c>
       <c r="D666" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E666" t="s">
         <v>2307</v>
@@ -23124,7 +23017,7 @@
         <v>2254</v>
       </c>
       <c r="D667" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E667" t="s">
         <v>2254</v>
@@ -23141,7 +23034,7 @@
         <v>3188</v>
       </c>
       <c r="D668" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E668" t="s">
         <v>2284</v>
@@ -23158,7 +23051,7 @@
         <v>3516</v>
       </c>
       <c r="D669" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E669" t="s">
         <v>2290</v>
@@ -23175,7 +23068,7 @@
         <v>580</v>
       </c>
       <c r="D670" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E670" t="s">
         <v>2275</v>
@@ -23209,7 +23102,7 @@
         <v>3503</v>
       </c>
       <c r="D672" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E672" t="s">
         <v>2321</v>
@@ -23226,7 +23119,7 @@
         <v>2247</v>
       </c>
       <c r="D673" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="E673" t="s">
         <v>2247</v>
@@ -23243,7 +23136,7 @@
         <v>3525</v>
       </c>
       <c r="D674" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="E674" t="s">
         <v>2281</v>
@@ -23260,7 +23153,7 @@
         <v>2289</v>
       </c>
       <c r="D675" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="E675" t="s">
         <v>2289</v>
@@ -23294,7 +23187,7 @@
         <v>3515</v>
       </c>
       <c r="D677" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E677" t="s">
         <v>2264</v>
@@ -23325,7 +23218,7 @@
         <v>2362</v>
       </c>
       <c r="D679" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.35">
@@ -23339,7 +23232,7 @@
         <v>2246</v>
       </c>
       <c r="D680" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E680" t="s">
         <v>2271</v>
@@ -23373,7 +23266,7 @@
         <v>3508</v>
       </c>
       <c r="D682" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E682" t="s">
         <v>2258</v>
@@ -23418,7 +23311,7 @@
         <v>3506</v>
       </c>
       <c r="D685" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="E685" t="s">
         <v>2245</v>
@@ -23452,7 +23345,7 @@
         <v>3506</v>
       </c>
       <c r="D687" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="E687" t="s">
         <v>2245</v>
@@ -23469,7 +23362,7 @@
         <v>3506</v>
       </c>
       <c r="D688" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E688" t="s">
         <v>2245</v>
@@ -23486,7 +23379,7 @@
         <v>3516</v>
       </c>
       <c r="D689" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="E689" t="s">
         <v>2290</v>
@@ -23500,7 +23393,7 @@
         <v>2377</v>
       </c>
       <c r="D690" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.35">
@@ -23514,7 +23407,7 @@
         <v>2254</v>
       </c>
       <c r="D691" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E691" t="s">
         <v>2254</v>
@@ -23531,7 +23424,7 @@
         <v>3542</v>
       </c>
       <c r="D692" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="E692" t="s">
         <v>2332</v>
@@ -23545,7 +23438,7 @@
         <v>2379</v>
       </c>
       <c r="D693" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.35">
@@ -23559,7 +23452,7 @@
         <v>3188</v>
       </c>
       <c r="D694" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E694" t="s">
         <v>2262</v>
@@ -23576,7 +23469,7 @@
         <v>3506</v>
       </c>
       <c r="D695" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E695" t="s">
         <v>2245</v>
@@ -23593,7 +23486,7 @@
         <v>3188</v>
       </c>
       <c r="D696" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="E696" t="s">
         <v>2284</v>
@@ -23610,7 +23503,7 @@
         <v>3508</v>
       </c>
       <c r="D697" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E697" t="s">
         <v>2258</v>
@@ -23627,7 +23520,7 @@
         <v>2249</v>
       </c>
       <c r="D698" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="E698" t="s">
         <v>2249</v>
@@ -23661,7 +23554,7 @@
         <v>3508</v>
       </c>
       <c r="D700" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E700" t="s">
         <v>2258</v>
@@ -23695,7 +23588,7 @@
         <v>3188</v>
       </c>
       <c r="D702" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E702" t="s">
         <v>2284</v>
@@ -23712,7 +23605,7 @@
         <v>3528</v>
       </c>
       <c r="D703" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="E703" t="s">
         <v>2298</v>
@@ -23729,7 +23622,7 @@
         <v>2260</v>
       </c>
       <c r="D704" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="E704" t="s">
         <v>2260</v>
@@ -23746,7 +23639,7 @@
         <v>3514</v>
       </c>
       <c r="D705" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E705" t="s">
         <v>2259</v>
@@ -23763,7 +23656,7 @@
         <v>3503</v>
       </c>
       <c r="D706" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E706" t="s">
         <v>2237</v>
@@ -23797,7 +23690,7 @@
         <v>580</v>
       </c>
       <c r="D708" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E708" t="s">
         <v>2280</v>
@@ -23814,7 +23707,7 @@
         <v>2330</v>
       </c>
       <c r="D709" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E709" t="s">
         <v>2330</v>
@@ -23893,7 +23786,7 @@
         <v>2260</v>
       </c>
       <c r="D714" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="E714" t="s">
         <v>2260</v>
@@ -23910,7 +23803,7 @@
         <v>3516</v>
       </c>
       <c r="D715" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E715" t="s">
         <v>2333</v>
@@ -23927,7 +23820,7 @@
         <v>2263</v>
       </c>
       <c r="D716" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E716" t="s">
         <v>2263</v>
@@ -23944,7 +23837,7 @@
         <v>2247</v>
       </c>
       <c r="D717" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="E717" t="s">
         <v>2247</v>
@@ -23961,7 +23854,7 @@
         <v>3508</v>
       </c>
       <c r="D718" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E718" t="s">
         <v>2258</v>
@@ -23978,7 +23871,7 @@
         <v>3519</v>
       </c>
       <c r="D719" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E719" t="s">
         <v>2272</v>
@@ -23995,7 +23888,7 @@
         <v>3508</v>
       </c>
       <c r="D720" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E720" t="s">
         <v>2258</v>
@@ -24012,7 +23905,7 @@
         <v>3503</v>
       </c>
       <c r="D721" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E721" t="s">
         <v>2237</v>
@@ -24046,7 +23939,7 @@
         <v>3519</v>
       </c>
       <c r="D723" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E723" t="s">
         <v>2272</v>
@@ -24063,7 +23956,7 @@
         <v>636</v>
       </c>
       <c r="D724" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E724" t="s">
         <v>636</v>
@@ -24080,7 +23973,7 @@
         <v>3516</v>
       </c>
       <c r="D725" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="E725" t="s">
         <v>2290</v>
@@ -24097,7 +23990,7 @@
         <v>3505</v>
       </c>
       <c r="D726" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E726" t="s">
         <v>2244</v>
@@ -24114,7 +24007,7 @@
         <v>3505</v>
       </c>
       <c r="D727" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E727" t="s">
         <v>2244</v>
@@ -24131,7 +24024,7 @@
         <v>3503</v>
       </c>
       <c r="D728" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E728" t="s">
         <v>2237</v>
@@ -24148,7 +24041,7 @@
         <v>3188</v>
       </c>
       <c r="D729" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E729" t="s">
         <v>2284</v>
@@ -24182,7 +24075,7 @@
         <v>2247</v>
       </c>
       <c r="D731" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E731" t="s">
         <v>2247</v>
@@ -24199,7 +24092,7 @@
         <v>2249</v>
       </c>
       <c r="D732" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="E732" t="s">
         <v>2249</v>
@@ -24216,7 +24109,7 @@
         <v>3516</v>
       </c>
       <c r="D733" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E733" t="s">
         <v>2311</v>
@@ -24233,7 +24126,7 @@
         <v>3508</v>
       </c>
       <c r="D734" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E734" t="s">
         <v>2258</v>
@@ -24301,7 +24194,7 @@
         <v>2254</v>
       </c>
       <c r="D738" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E738" t="s">
         <v>2254</v>
@@ -24335,7 +24228,7 @@
         <v>3527</v>
       </c>
       <c r="D740" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="E740" t="s">
         <v>2292</v>
@@ -24352,7 +24245,7 @@
         <v>3508</v>
       </c>
       <c r="D741" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E741" t="s">
         <v>2258</v>
@@ -24369,7 +24262,7 @@
         <v>3506</v>
       </c>
       <c r="D742" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E742" t="s">
         <v>2245</v>
@@ -24386,7 +24279,7 @@
         <v>2283</v>
       </c>
       <c r="D743" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="E743" t="s">
         <v>2283</v>
@@ -24403,7 +24296,7 @@
         <v>580</v>
       </c>
       <c r="D744" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E744" t="s">
         <v>2275</v>
@@ -24417,7 +24310,7 @@
         <v>2380</v>
       </c>
       <c r="D745" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
@@ -24448,7 +24341,7 @@
         <v>2283</v>
       </c>
       <c r="D747" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E747" t="s">
         <v>2283</v>
@@ -24465,7 +24358,7 @@
         <v>3536</v>
       </c>
       <c r="D748" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E748" t="s">
         <v>2317</v>
@@ -24499,7 +24392,7 @@
         <v>3508</v>
       </c>
       <c r="D750" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E750" t="s">
         <v>2258</v>
@@ -24516,7 +24409,7 @@
         <v>3505</v>
       </c>
       <c r="D751" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E751" t="s">
         <v>2244</v>
@@ -24533,7 +24426,7 @@
         <v>3503</v>
       </c>
       <c r="D752" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="E752" t="s">
         <v>2237</v>
@@ -24567,7 +24460,7 @@
         <v>2247</v>
       </c>
       <c r="D754" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E754" t="s">
         <v>2247</v>
@@ -24584,7 +24477,7 @@
         <v>2334</v>
       </c>
       <c r="D755" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="E755" t="s">
         <v>2334</v>
@@ -24601,7 +24494,7 @@
         <v>3532</v>
       </c>
       <c r="D756" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E756" t="s">
         <v>2335</v>
@@ -24649,7 +24542,7 @@
         <v>2283</v>
       </c>
       <c r="D759" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E759" t="s">
         <v>2283</v>
@@ -24663,7 +24556,7 @@
         <v>2369</v>
       </c>
       <c r="D760" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.35">
@@ -24677,7 +24570,7 @@
         <v>3508</v>
       </c>
       <c r="D761" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E761" t="s">
         <v>2258</v>
@@ -24728,7 +24621,7 @@
         <v>3519</v>
       </c>
       <c r="D764" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E764" t="s">
         <v>2272</v>
@@ -24745,7 +24638,7 @@
         <v>3508</v>
       </c>
       <c r="D765" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E765" t="s">
         <v>2258</v>
@@ -24762,7 +24655,7 @@
         <v>3503</v>
       </c>
       <c r="D766" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E766" t="s">
         <v>2237</v>
@@ -24779,7 +24672,7 @@
         <v>2334</v>
       </c>
       <c r="D767" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="E767" t="s">
         <v>2334</v>
@@ -24796,7 +24689,7 @@
         <v>3188</v>
       </c>
       <c r="D768" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E768" t="s">
         <v>2284</v>
@@ -24830,7 +24723,7 @@
         <v>2254</v>
       </c>
       <c r="D770" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E770" t="s">
         <v>2254</v>
@@ -24847,7 +24740,7 @@
         <v>3528</v>
       </c>
       <c r="D771" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E771" t="s">
         <v>2298</v>
@@ -24864,7 +24757,7 @@
         <v>3508</v>
       </c>
       <c r="D772" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E772" t="s">
         <v>2258</v>
@@ -24881,7 +24774,7 @@
         <v>3515</v>
       </c>
       <c r="D773" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E773" t="s">
         <v>2264</v>
@@ -24915,7 +24808,7 @@
         <v>3188</v>
       </c>
       <c r="D775" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E775" t="s">
         <v>2262</v>
@@ -24949,7 +24842,7 @@
         <v>2297</v>
       </c>
       <c r="D777" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="E777" t="s">
         <v>2297</v>
@@ -25000,7 +24893,7 @@
         <v>3514</v>
       </c>
       <c r="D780" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="E780" t="s">
         <v>2259</v>
@@ -25017,7 +24910,7 @@
         <v>3506</v>
       </c>
       <c r="D781" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="E781" t="s">
         <v>2245</v>
@@ -25034,7 +24927,7 @@
         <v>2249</v>
       </c>
       <c r="D782" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="E782" t="s">
         <v>2249</v>
@@ -25068,7 +24961,7 @@
         <v>2293</v>
       </c>
       <c r="D784" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="E784" t="s">
         <v>2293</v>
@@ -25085,7 +24978,7 @@
         <v>3520</v>
       </c>
       <c r="D785" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="E785" t="s">
         <v>2285</v>
@@ -25102,7 +24995,7 @@
         <v>2293</v>
       </c>
       <c r="D786" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="E786" t="s">
         <v>2293</v>
@@ -25119,7 +25012,7 @@
         <v>3506</v>
       </c>
       <c r="D787" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E787" t="s">
         <v>2245</v>
@@ -25136,7 +25029,7 @@
         <v>3503</v>
       </c>
       <c r="D788" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="E788" t="s">
         <v>2237</v>
@@ -25153,7 +25046,7 @@
         <v>3188</v>
       </c>
       <c r="D789" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="E789" t="s">
         <v>2325</v>
@@ -25187,7 +25080,7 @@
         <v>3188</v>
       </c>
       <c r="D791" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="E791" t="s">
         <v>2262</v>
@@ -25201,7 +25094,7 @@
         <v>2376</v>
       </c>
       <c r="D792" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.35">
@@ -25232,7 +25125,7 @@
         <v>2249</v>
       </c>
       <c r="D794" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E794" t="s">
         <v>2249</v>
@@ -25249,7 +25142,7 @@
         <v>2249</v>
       </c>
       <c r="D795" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E795" t="s">
         <v>2249</v>
@@ -25283,7 +25176,7 @@
         <v>3506</v>
       </c>
       <c r="D797" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E797" t="s">
         <v>2318</v>
@@ -25317,7 +25210,7 @@
         <v>2249</v>
       </c>
       <c r="D799" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="E799" t="s">
         <v>2249</v>
@@ -25334,7 +25227,7 @@
         <v>3506</v>
       </c>
       <c r="D800" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E800" t="s">
         <v>2318</v>
@@ -25351,7 +25244,7 @@
         <v>2246</v>
       </c>
       <c r="D801" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E801" t="s">
         <v>2271</v>
@@ -25368,7 +25261,7 @@
         <v>2249</v>
       </c>
       <c r="D802" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E802" t="s">
         <v>2249</v>
@@ -25382,7 +25275,7 @@
         <v>2363</v>
       </c>
       <c r="D803" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.35">
@@ -25396,7 +25289,7 @@
         <v>3535</v>
       </c>
       <c r="D804" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E804" t="s">
         <v>2315</v>
@@ -25447,7 +25340,7 @@
         <v>2263</v>
       </c>
       <c r="D807" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E807" t="s">
         <v>2263</v>
@@ -25481,7 +25374,7 @@
         <v>636</v>
       </c>
       <c r="D809" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="E809" t="s">
         <v>636</v>
@@ -25498,7 +25391,7 @@
         <v>3188</v>
       </c>
       <c r="D810" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E810" t="s">
         <v>2284</v>
@@ -25515,7 +25408,7 @@
         <v>3508</v>
       </c>
       <c r="D811" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E811" t="s">
         <v>2258</v>
@@ -25532,7 +25425,7 @@
         <v>3515</v>
       </c>
       <c r="D812" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E812" t="s">
         <v>2264</v>
@@ -25583,7 +25476,7 @@
         <v>3528</v>
       </c>
       <c r="D815" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="E815" t="s">
         <v>2298</v>
@@ -25617,7 +25510,7 @@
         <v>3535</v>
       </c>
       <c r="D817" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E817" t="s">
         <v>2315</v>
@@ -25634,7 +25527,7 @@
         <v>580</v>
       </c>
       <c r="D818" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E818" t="s">
         <v>2275</v>
@@ -25685,7 +25578,7 @@
         <v>2247</v>
       </c>
       <c r="D821" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="E821" t="s">
         <v>2247</v>
@@ -25702,7 +25595,7 @@
         <v>3516</v>
       </c>
       <c r="D822" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E822" t="s">
         <v>2290</v>
@@ -25787,7 +25680,7 @@
         <v>3528</v>
       </c>
       <c r="D827" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E827" t="s">
         <v>2298</v>
@@ -25804,7 +25697,7 @@
         <v>3518</v>
       </c>
       <c r="D828" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E828" t="s">
         <v>2303</v>
@@ -25821,7 +25714,7 @@
         <v>2265</v>
       </c>
       <c r="D829" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E829" t="s">
         <v>2265</v>
@@ -25838,7 +25731,7 @@
         <v>3528</v>
       </c>
       <c r="D830" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E830" t="s">
         <v>2298</v>
@@ -25872,7 +25765,7 @@
         <v>580</v>
       </c>
       <c r="D832" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E832" t="s">
         <v>2280</v>
@@ -25923,7 +25816,7 @@
         <v>3505</v>
       </c>
       <c r="D835" t="s">
-        <v>3548</v>
+        <v>3505</v>
       </c>
       <c r="E835" t="s">
         <v>2244</v>
@@ -25940,7 +25833,7 @@
         <v>3521</v>
       </c>
       <c r="D836" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E836" t="s">
         <v>2274</v>
@@ -25968,7 +25861,7 @@
         <v>580</v>
       </c>
       <c r="D838" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="E838" t="s">
         <v>2280</v>
@@ -25999,7 +25892,7 @@
         <v>3532</v>
       </c>
       <c r="D840" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="E840" t="s">
         <v>2309</v>
@@ -26016,7 +25909,7 @@
         <v>3508</v>
       </c>
       <c r="D841" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E841" t="s">
         <v>2258</v>
@@ -26033,7 +25926,7 @@
         <v>3519</v>
       </c>
       <c r="D842" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E842" t="s">
         <v>2272</v>
@@ -26050,7 +25943,7 @@
         <v>3188</v>
       </c>
       <c r="D843" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E843" t="s">
         <v>2284</v>
@@ -26101,7 +25994,7 @@
         <v>3510</v>
       </c>
       <c r="D846" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="E846" t="s">
         <v>2251</v>
@@ -26118,7 +26011,7 @@
         <v>3535</v>
       </c>
       <c r="D847" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E847" t="s">
         <v>2315</v>
@@ -26135,7 +26028,7 @@
         <v>3506</v>
       </c>
       <c r="D848" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E848" t="s">
         <v>2336</v>
@@ -26197,7 +26090,7 @@
         <v>2249</v>
       </c>
       <c r="D852" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E852" t="s">
         <v>2249</v>
@@ -26214,7 +26107,7 @@
         <v>3188</v>
       </c>
       <c r="D853" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E853" t="s">
         <v>2284</v>
@@ -26282,7 +26175,7 @@
         <v>2263</v>
       </c>
       <c r="D857" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="E857" t="s">
         <v>2263</v>
@@ -26316,7 +26209,7 @@
         <v>2254</v>
       </c>
       <c r="D859" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="E859" t="s">
         <v>2254</v>
@@ -26333,7 +26226,7 @@
         <v>3542</v>
       </c>
       <c r="D860" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="E860" t="s">
         <v>2332</v>
@@ -26384,7 +26277,7 @@
         <v>2287</v>
       </c>
       <c r="D863" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="E863" t="s">
         <v>2287</v>
@@ -26401,7 +26294,7 @@
         <v>2249</v>
       </c>
       <c r="D864" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E864" t="s">
         <v>2249</v>
@@ -26418,7 +26311,7 @@
         <v>3188</v>
       </c>
       <c r="D865" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E865" t="s">
         <v>2284</v>
@@ -26435,7 +26328,7 @@
         <v>2314</v>
       </c>
       <c r="D866" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="E866" t="s">
         <v>2314</v>
@@ -26452,7 +26345,7 @@
         <v>3518</v>
       </c>
       <c r="D867" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="E867" t="s">
         <v>2305</v>
@@ -26469,7 +26362,7 @@
         <v>3516</v>
       </c>
       <c r="D868" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E868" t="s">
         <v>2267</v>
@@ -26500,7 +26393,7 @@
         <v>3188</v>
       </c>
       <c r="D870" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E870" t="s">
         <v>2284</v>
@@ -26517,7 +26410,7 @@
         <v>2254</v>
       </c>
       <c r="D871" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="E871" t="s">
         <v>2254</v>
@@ -26534,7 +26427,7 @@
         <v>3516</v>
       </c>
       <c r="D872" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="E872" t="s">
         <v>2290</v>
@@ -26562,7 +26455,7 @@
         <v>2294</v>
       </c>
       <c r="D874" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="E874" t="s">
         <v>2294</v>
@@ -26596,7 +26489,7 @@
         <v>3506</v>
       </c>
       <c r="D876" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E876" t="s">
         <v>2318</v>
@@ -26613,7 +26506,7 @@
         <v>2260</v>
       </c>
       <c r="D877" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="E877" t="s">
         <v>2260</v>
@@ -26647,7 +26540,7 @@
         <v>580</v>
       </c>
       <c r="D879" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E879" t="s">
         <v>2275</v>
@@ -26664,7 +26557,7 @@
         <v>3528</v>
       </c>
       <c r="D880" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E880" t="s">
         <v>2298</v>
@@ -26681,7 +26574,7 @@
         <v>3506</v>
       </c>
       <c r="D881" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E881" t="s">
         <v>2245</v>
@@ -26715,7 +26608,7 @@
         <v>3508</v>
       </c>
       <c r="D883" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E883" t="s">
         <v>2258</v>
@@ -26749,7 +26642,7 @@
         <v>3510</v>
       </c>
       <c r="D885" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E885" t="s">
         <v>2251</v>
@@ -26758,7 +26651,7 @@
   </sheetData>
   <autoFilter ref="A1:E885" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
